--- a/stock_manager_gant_chart.xlsx
+++ b/stock_manager_gant_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6943E8A5-E360-4F35-8AB3-831AAF01178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ABC21F-AB2C-4DDC-972E-6CD5ED274A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -19,28 +19,28 @@
     <sheet name="TermsOfUse" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GanttChart!$A$12:$CB$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GanttChart!$A$12:$CB$53</definedName>
     <definedName name="assign_to_color">'Help &amp; Settings'!$D$246:$D$253</definedName>
     <definedName name="assign_to_names">'Help &amp; Settings'!$C$246:$C$253</definedName>
     <definedName name="dateformat">'Help &amp; Settings'!$C$102</definedName>
-    <definedName name="end_range" localSheetId="0">GanttChart!$Q$11:$Q$52</definedName>
+    <definedName name="end_range" localSheetId="0">GanttChart!$Q$11:$Q$53</definedName>
     <definedName name="enddate_highlight_days">'Help &amp; Settings'!$C$130</definedName>
     <definedName name="holidays">Holidays!$A$8:$A$242</definedName>
     <definedName name="prevLevel" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$B1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$B$1:$ED$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$B$1:$ED$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$9:$12</definedName>
     <definedName name="priorities">'Help &amp; Settings'!$C$71:$C$77</definedName>
     <definedName name="show_overdue_in_chart">'Help &amp; Settings'!$C$133</definedName>
     <definedName name="show_percent_complete">'Help &amp; Settings'!$C$119</definedName>
-    <definedName name="start_range" localSheetId="0">GanttChart!$P$11:$P$52</definedName>
+    <definedName name="start_range" localSheetId="0">GanttChart!$P$11:$P$53</definedName>
     <definedName name="startday">'Help &amp; Settings'!$C$114</definedName>
     <definedName name="urgency_days">'Help &amp; Settings'!$C$240:$C$242</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2020 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"gantt-chart_v5-0.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template Pro"</definedName>
-    <definedName name="wbs_range" localSheetId="0">GanttChart!$B$11:$B$52</definedName>
+    <definedName name="wbs_range" localSheetId="0">GanttChart!$B$11:$B$53</definedName>
     <definedName name="weekend">'Help &amp; Settings'!$C$82</definedName>
     <definedName name="weeknumbering">'Help &amp; Settings'!$C$108</definedName>
   </definedNames>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="409">
   <si>
     <t>WBS</t>
   </si>
@@ -2641,7 +2641,13 @@
     <t>2.4.1</t>
   </si>
   <si>
-    <t>Create Feature Correlation Chart</t>
+    <t>Add Acqusition Dates To Portfolio Charts</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>Change Yahoo Finance to YH Finance API</t>
   </si>
 </sst>
 </file>
@@ -4520,7 +4526,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="791">
+  <dxfs count="756">
     <dxf>
       <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
     </dxf>
@@ -5122,230 +5128,6 @@
           <bgColor rgb="FFA7D8AB"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF2C6531"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFA7D8AB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="172" formatCode="&quot;  &quot;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="173" formatCode="&quot;    &quot;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="174" formatCode="&quot;      &quot;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="175" formatCode="&quot;        &quot;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;          &quot;@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="&quot;            &quot;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFCC3300"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFDE9D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE6B8B6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="mediumGray">
-          <fgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="&quot;◆&quot;;&quot;◆&quot;;&quot;◆&quot;;&quot;◆&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="&quot;/////&quot;;&quot;/////&quot;;&quot;/////&quot;;&quot;/////&quot;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="1" tint="0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
@@ -10019,13 +9801,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EE52"/>
+  <dimension ref="A1:EE53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="12" topLeftCell="F43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="12" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomRight" activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12092,7 +11874,7 @@
         <v>108</v>
       </c>
       <c r="C9" s="168">
-        <f>MAX(Q11:Q52)</f>
+        <f>MAX(Q11:Q53)</f>
         <v>44651</v>
       </c>
       <c r="D9" s="146"/>
@@ -12289,7 +12071,7 @@
       </c>
       <c r="C10" s="168">
         <f ca="1">TODAY()</f>
-        <v>44592</v>
+        <v>44617</v>
       </c>
       <c r="D10" s="146"/>
       <c r="E10" s="146"/>
@@ -13494,7 +13276,7 @@
       </c>
       <c r="O13" s="172"/>
       <c r="P13" s="184">
-        <f t="shared" ref="P13:P33" si="40">IF(OR(I13&lt;&gt;"",F13&lt;&gt;""),MAX(I13,IF(F13&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F13,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G13,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H13,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L13&lt;&gt;"",IF(K13&lt;&gt;"",L13-MAX(0,K13-1),WORKDAY.INTL(L13,-(MAX(J13,1)-1),weekend,holidays))," - "))</f>
+        <f t="shared" ref="P13:P33" si="40">IF(OR(I13&lt;&gt;"",F13&lt;&gt;""),MAX(I13,IF(F13&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F13,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G13,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H13,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L13&lt;&gt;"",IF(K13&lt;&gt;"",L13-MAX(0,K13-1),WORKDAY.INTL(L13,-(MAX(J13,1)-1),weekend,holidays))," - "))</f>
         <v>44250</v>
       </c>
       <c r="Q13" s="184">
@@ -24110,7 +23892,7 @@
         <v>322</v>
       </c>
       <c r="P35" s="184">
-        <f>IF(OR(I35&lt;&gt;"",F35&lt;&gt;""),MAX(I35,IF(F35&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F35,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G35,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H35,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L35&lt;&gt;"",IF(K35&lt;&gt;"",L35-MAX(0,K35-1),WORKDAY.INTL(L35,-(MAX(J35,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I35&lt;&gt;"",F35&lt;&gt;""),MAX(I35,IF(F35&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F35,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G35,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H35,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L35&lt;&gt;"",IF(K35&lt;&gt;"",L35-MAX(0,K35-1),WORKDAY.INTL(L35,-(MAX(J35,1)-1),weekend,holidays))," - "))</f>
         <v>44504</v>
       </c>
       <c r="Q35" s="184">
@@ -24353,7 +24135,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="CA35" s="162" t="str">
-        <f t="shared" ref="CA35:CP50" si="77">" "</f>
+        <f t="shared" ref="CA35:CP51" si="77">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="CB35" s="162" t="str">
@@ -24608,7 +24390,7 @@
         <v>322</v>
       </c>
       <c r="P36" s="184">
-        <f>IF(OR(I36&lt;&gt;"",F36&lt;&gt;""),MAX(I36,IF(F36&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F36,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G36,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H36,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L36&lt;&gt;"",IF(K36&lt;&gt;"",L36-MAX(0,K36-1),WORKDAY.INTL(L36,-(MAX(J36,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I36&lt;&gt;"",F36&lt;&gt;""),MAX(I36,IF(F36&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F36,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G36,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H36,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L36&lt;&gt;"",IF(K36&lt;&gt;"",L36-MAX(0,K36-1),WORKDAY.INTL(L36,-(MAX(J36,1)-1),weekend,holidays))," - "))</f>
         <v>44504</v>
       </c>
       <c r="Q36" s="184">
@@ -25106,7 +24888,7 @@
         <v>322</v>
       </c>
       <c r="P37" s="184">
-        <f>IF(OR(I37&lt;&gt;"",F37&lt;&gt;""),MAX(I37,IF(F37&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F37,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G37,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H37,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L37&lt;&gt;"",IF(K37&lt;&gt;"",L37-MAX(0,K37-1),WORKDAY.INTL(L37,-(MAX(J37,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I37&lt;&gt;"",F37&lt;&gt;""),MAX(I37,IF(F37&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F37,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G37,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H37,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L37&lt;&gt;"",IF(K37&lt;&gt;"",L37-MAX(0,K37-1),WORKDAY.INTL(L37,-(MAX(J37,1)-1),weekend,holidays))," - "))</f>
         <v>44516</v>
       </c>
       <c r="Q37" s="184">
@@ -25313,7 +25095,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="BR37" s="166" t="str">
-        <f t="shared" ref="BR37:BZ50" si="85">" "</f>
+        <f t="shared" ref="BR37:BZ51" si="85">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="BS37" s="166" t="str">
@@ -25604,7 +25386,7 @@
         <v>321</v>
       </c>
       <c r="P38" s="184">
-        <f>IF(OR(I38&lt;&gt;"",F38&lt;&gt;""),MAX(I38,IF(F38&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F38,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G38,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H38,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L38&lt;&gt;"",IF(K38&lt;&gt;"",L38-MAX(0,K38-1),WORKDAY.INTL(L38,-(MAX(J38,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I38&lt;&gt;"",F38&lt;&gt;""),MAX(I38,IF(F38&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F38,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G38,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H38,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L38&lt;&gt;"",IF(K38&lt;&gt;"",L38-MAX(0,K38-1),WORKDAY.INTL(L38,-(MAX(J38,1)-1),weekend,holidays))," - "))</f>
         <v>44523</v>
       </c>
       <c r="Q38" s="184">
@@ -25643,7 +25425,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB38" s="166" t="str">
-        <f t="shared" ref="AB38:AK50" si="87">" "</f>
+        <f t="shared" ref="AB38:AK51" si="87">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC38" s="166" t="str">
@@ -25683,7 +25465,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="AL38" s="166" t="str">
-        <f t="shared" ref="AL38:AU50" si="88">" "</f>
+        <f t="shared" ref="AL38:AU51" si="88">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AM38" s="166" t="str">
@@ -25723,7 +25505,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="AV38" s="166" t="str">
-        <f t="shared" ref="AV38:BQ50" si="89">" "</f>
+        <f t="shared" ref="AV38:BQ51" si="89">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AW38" s="166" t="str">
@@ -26102,7 +25884,7 @@
         <v>321</v>
       </c>
       <c r="P39" s="184">
-        <f>IF(OR(I39&lt;&gt;"",F39&lt;&gt;""),MAX(I39,IF(F39&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F39,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G39,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H39,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L39&lt;&gt;"",IF(K39&lt;&gt;"",L39-MAX(0,K39-1),WORKDAY.INTL(L39,-(MAX(J39,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I39&lt;&gt;"",F39&lt;&gt;""),MAX(I39,IF(F39&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F39,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G39,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H39,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L39&lt;&gt;"",IF(K39&lt;&gt;"",L39-MAX(0,K39-1),WORKDAY.INTL(L39,-(MAX(J39,1)-1),weekend,holidays))," - "))</f>
         <v>44523</v>
       </c>
       <c r="Q39" s="184">
@@ -26746,13 +26528,13 @@
       </c>
       <c r="M41" s="185"/>
       <c r="N41" s="132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="172" t="s">
         <v>322</v>
       </c>
       <c r="P41" s="184">
-        <f>IF(OR(I41&lt;&gt;"",F41&lt;&gt;""),MAX(I41,IF(F41&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F41,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G41,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H41,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L41&lt;&gt;"",IF(K41&lt;&gt;"",L41-MAX(0,K41-1),WORKDAY.INTL(L41,-(MAX(J41,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I41&lt;&gt;"",F41&lt;&gt;""),MAX(I41,IF(F41&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F41,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G41,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H41,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L41&lt;&gt;"",IF(K41&lt;&gt;"",L41-MAX(0,K41-1),WORKDAY.INTL(L41,-(MAX(J41,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q41" s="184">
@@ -27244,13 +27026,13 @@
       </c>
       <c r="M42" s="185"/>
       <c r="N42" s="132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="172" t="s">
         <v>322</v>
       </c>
       <c r="P42" s="184">
-        <f>IF(OR(I42&lt;&gt;"",F42&lt;&gt;""),MAX(I42,IF(F42&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F42,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G42,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H42,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L42&lt;&gt;"",IF(K42&lt;&gt;"",L42-MAX(0,K42-1),WORKDAY.INTL(L42,-(MAX(J42,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I42&lt;&gt;"",F42&lt;&gt;""),MAX(I42,IF(F42&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F42,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G42,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H42,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L42&lt;&gt;"",IF(K42&lt;&gt;"",L42-MAX(0,K42-1),WORKDAY.INTL(L42,-(MAX(J42,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q42" s="184">
@@ -27742,13 +27524,13 @@
       </c>
       <c r="M43" s="185"/>
       <c r="N43" s="132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="172" t="s">
         <v>322</v>
       </c>
       <c r="P43" s="184">
-        <f>IF(OR(I43&lt;&gt;"",F43&lt;&gt;""),MAX(I43,IF(F43&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F43,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G43,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H43,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L43&lt;&gt;"",IF(K43&lt;&gt;"",L43-MAX(0,K43-1),WORKDAY.INTL(L43,-(MAX(J43,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I43&lt;&gt;"",F43&lt;&gt;""),MAX(I43,IF(F43&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F43,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G43,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H43,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L43&lt;&gt;"",IF(K43&lt;&gt;"",L43-MAX(0,K43-1),WORKDAY.INTL(L43,-(MAX(J43,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q43" s="184">
@@ -28240,13 +28022,13 @@
       </c>
       <c r="M44" s="185"/>
       <c r="N44" s="132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="172" t="s">
         <v>322</v>
       </c>
       <c r="P44" s="184">
-        <f>IF(OR(I44&lt;&gt;"",F44&lt;&gt;""),MAX(I44,IF(F44&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F44,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G44,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H44,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L44&lt;&gt;"",IF(K44&lt;&gt;"",L44-MAX(0,K44-1),WORKDAY.INTL(L44,-(MAX(J44,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I44&lt;&gt;"",F44&lt;&gt;""),MAX(I44,IF(F44&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F44,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G44,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H44,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L44&lt;&gt;"",IF(K44&lt;&gt;"",L44-MAX(0,K44-1),WORKDAY.INTL(L44,-(MAX(J44,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q44" s="184">
@@ -28740,7 +28522,7 @@
       </c>
       <c r="M45" s="185"/>
       <c r="N45" s="132">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O45" s="172" t="s">
         <v>321</v>
@@ -28896,7 +28678,7 @@
         <v>322</v>
       </c>
       <c r="P46" s="184">
-        <f t="shared" ref="P46:P52" si="112">IF(OR(I46&lt;&gt;"",F46&lt;&gt;""),MAX(I46,IF(F46&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F46,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G46,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H46,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L46&lt;&gt;"",IF(K46&lt;&gt;"",L46-MAX(0,K46-1),WORKDAY.INTL(L46,-(MAX(J46,1)-1),weekend,holidays))," - "))</f>
+        <f t="shared" ref="P46:P53" si="112">IF(OR(I46&lt;&gt;"",F46&lt;&gt;""),MAX(I46,IF(F46&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F46,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G46,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H46,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L46&lt;&gt;"",IF(K46&lt;&gt;"",L46-MAX(0,K46-1),WORKDAY.INTL(L46,-(MAX(J46,1)-1),weekend,holidays))," - "))</f>
         <v>44562</v>
       </c>
       <c r="Q46" s="184">
@@ -29911,7 +29693,7 @@
       <c r="U48" s="140"/>
       <c r="V48" s="133"/>
       <c r="W48" s="166" t="str">
-        <f t="shared" ref="W48:AA50" si="122">" "</f>
+        <f t="shared" ref="W48:AA51" si="122">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X48" s="166" t="str">
@@ -30199,7 +29981,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="CQ48" s="162" t="str">
-        <f t="shared" ref="CQ48:ED50" si="123">" "</f>
+        <f t="shared" ref="CQ48:ED51" si="123">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="CR48" s="162" t="str">
@@ -30396,22 +30178,22 @@
         <v>44593</v>
       </c>
       <c r="Q49" s="184">
-        <f t="shared" ref="Q49:Q50" si="124">IF(P49=" - "," - ",MAX(L49,IF(K49&lt;&gt;"",P49+MAX(0,K49-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P49,P49,weekend,holidays)=0,WORKDAY.INTL(P49,1,weekend,holidays),P49),MAX(0,J49-1),weekend,holidays))))</f>
+        <f t="shared" ref="Q49" si="124">IF(P49=" - "," - ",MAX(L49,IF(K49&lt;&gt;"",P49+MAX(0,K49-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P49,P49,weekend,holidays)=0,WORKDAY.INTL(P49,1,weekend,holidays),P49),MAX(0,J49-1),weekend,holidays))))</f>
         <v>44620</v>
       </c>
       <c r="R49" s="190">
-        <f t="shared" ref="R49:R50" si="125">IF(OR(NOT(ISNUMBER(P49)),NOT(ISNUMBER(Q49)))," - ",NETWORKDAYS.INTL(P49,Q49,weekend,holidays))</f>
+        <f t="shared" ref="R49" si="125">IF(OR(NOT(ISNUMBER(P49)),NOT(ISNUMBER(Q49)))," - ",NETWORKDAYS.INTL(P49,Q49,weekend,holidays))</f>
         <v>19</v>
       </c>
       <c r="S49" s="190">
-        <f t="shared" ref="S49:S50" si="126">IF(OR(NOT(ISNUMBER(P49)),NOT(ISNUMBER(Q49)))," - ",Q49-P49+1)</f>
+        <f t="shared" ref="S49" si="126">IF(OR(NOT(ISNUMBER(P49)),NOT(ISNUMBER(Q49)))," - ",Q49-P49+1)</f>
         <v>28</v>
       </c>
       <c r="T49" s="140"/>
       <c r="U49" s="140"/>
       <c r="V49" s="133"/>
       <c r="W49" s="166" t="str">
-        <f t="shared" ref="W49:CH51" si="127">" "</f>
+        <f t="shared" ref="W49:CH52" si="127">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X49" s="166" t="str">
@@ -30667,7 +30449,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="CI49" s="162" t="str">
-        <f t="shared" ref="CI49:ED51" si="128">" "</f>
+        <f t="shared" ref="CI49:ED52" si="128">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="CJ49" s="162" t="str">
@@ -30884,25 +30666,25 @@
       </c>
       <c r="M50" s="185"/>
       <c r="N50" s="132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="172" t="s">
         <v>321</v>
       </c>
       <c r="P50" s="184">
-        <f t="shared" ref="P50" si="129">IF(OR(I50&lt;&gt;"",F50&lt;&gt;""),MAX(I50,IF(F50&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$52,MATCH(F50,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(G50,$B$11:$B$52,0)),0),IFERROR(INDEX($Q$11:$Q$52,MATCH(H50,$B$11:$B$52,0)),0)),1,weekend,holidays),0)),IF(L50&lt;&gt;"",IF(K50&lt;&gt;"",L50-MAX(0,K50-1),WORKDAY.INTL(L50,-(MAX(J50,1)-1),weekend,holidays))," - "))</f>
+        <f t="shared" si="112"/>
         <v>44593</v>
       </c>
       <c r="Q50" s="184">
-        <f t="shared" si="124"/>
+        <f t="shared" ref="Q50" si="129">IF(P50=" - "," - ",MAX(L50,IF(K50&lt;&gt;"",P50+MAX(0,K50-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P50,P50,weekend,holidays)=0,WORKDAY.INTL(P50,1,weekend,holidays),P50),MAX(0,J50-1),weekend,holidays))))</f>
         <v>44620</v>
       </c>
       <c r="R50" s="190">
-        <f t="shared" si="125"/>
+        <f t="shared" ref="R50" si="130">IF(OR(NOT(ISNUMBER(P50)),NOT(ISNUMBER(Q50)))," - ",NETWORKDAYS.INTL(P50,Q50,weekend,holidays))</f>
         <v>19</v>
       </c>
       <c r="S50" s="190">
-        <f t="shared" si="126"/>
+        <f t="shared" ref="S50" si="131">IF(OR(NOT(ISNUMBER(P50)),NOT(ISNUMBER(Q50)))," - ",Q50-P50+1)</f>
         <v>28</v>
       </c>
       <c r="T50" s="140"/>
@@ -31359,652 +31141,1150 @@
     </row>
     <row r="51" spans="1:134" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="125">
-        <v>2</v>
-      </c>
-      <c r="B51" s="189">
-        <v>2.5</v>
-      </c>
-      <c r="C51" s="204" t="s">
-        <v>387</v>
+        <v>3</v>
+      </c>
+      <c r="B51" s="189" t="s">
+        <v>407</v>
+      </c>
+      <c r="C51" s="126" t="s">
+        <v>408</v>
       </c>
       <c r="D51" s="126"/>
       <c r="E51" s="127"/>
-      <c r="F51" s="128">
-        <v>2.4</v>
-      </c>
+      <c r="F51" s="128"/>
       <c r="G51" s="129"/>
       <c r="H51" s="129"/>
       <c r="I51" s="180">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="J51" s="130"/>
       <c r="K51" s="131"/>
       <c r="L51" s="180">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="M51" s="185"/>
       <c r="N51" s="132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="172" t="s">
         <v>321</v>
       </c>
       <c r="P51" s="184">
-        <f t="shared" si="112"/>
-        <v>44621</v>
+        <f t="shared" ref="P51" si="132">IF(OR(I51&lt;&gt;"",F51&lt;&gt;""),MAX(I51,IF(F51&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F51,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G51,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H51,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L51&lt;&gt;"",IF(K51&lt;&gt;"",L51-MAX(0,K51-1),WORKDAY.INTL(L51,-(MAX(J51,1)-1),weekend,holidays))," - "))</f>
+        <v>44593</v>
       </c>
       <c r="Q51" s="184">
-        <f t="shared" ref="Q51" si="130">IF(P51=" - "," - ",MAX(L51,IF(K51&lt;&gt;"",P51+MAX(0,K51-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P51,P51,weekend,holidays)=0,WORKDAY.INTL(P51,1,weekend,holidays),P51),MAX(0,J51-1),weekend,holidays))))</f>
-        <v>44651</v>
+        <f t="shared" ref="Q51" si="133">IF(P51=" - "," - ",MAX(L51,IF(K51&lt;&gt;"",P51+MAX(0,K51-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P51,P51,weekend,holidays)=0,WORKDAY.INTL(P51,1,weekend,holidays),P51),MAX(0,J51-1),weekend,holidays))))</f>
+        <v>44620</v>
       </c>
       <c r="R51" s="190">
-        <f t="shared" ref="R51" si="131">IF(OR(NOT(ISNUMBER(P51)),NOT(ISNUMBER(Q51)))," - ",NETWORKDAYS.INTL(P51,Q51,weekend,holidays))</f>
-        <v>23</v>
+        <f t="shared" ref="R51" si="134">IF(OR(NOT(ISNUMBER(P51)),NOT(ISNUMBER(Q51)))," - ",NETWORKDAYS.INTL(P51,Q51,weekend,holidays))</f>
+        <v>19</v>
       </c>
       <c r="S51" s="190">
-        <f t="shared" ref="S51" si="132">IF(OR(NOT(ISNUMBER(P51)),NOT(ISNUMBER(Q51)))," - ",Q51-P51+1)</f>
-        <v>31</v>
+        <f t="shared" ref="S51" si="135">IF(OR(NOT(ISNUMBER(P51)),NOT(ISNUMBER(Q51)))," - ",Q51-P51+1)</f>
+        <v>28</v>
       </c>
       <c r="T51" s="140"/>
       <c r="U51" s="140"/>
       <c r="V51" s="133"/>
       <c r="W51" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X51" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y51" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z51" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA51" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB51" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC51" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD51" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE51" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF51" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG51" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH51" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI51" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ51" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK51" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AL51" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AM51" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AN51" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AO51" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AP51" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AQ51" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AR51" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AS51" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AT51" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AU51" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AV51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AW51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AX51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AY51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AZ51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BA51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BB51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BC51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BD51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BE51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BF51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BG51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BH51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BI51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BJ51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BK51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BL51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BM51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BN51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BO51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BP51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BQ51" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BR51" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BS51" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BT51" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BU51" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BV51" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BW51" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BX51" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BY51" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BZ51" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CA51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CB51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CC51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CD51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CE51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CF51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CG51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CH51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CI51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CJ51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CK51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CL51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CM51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CN51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CO51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CP51" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CQ51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CR51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CS51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CT51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CU51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CV51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CW51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CX51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CY51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CZ51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DA51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DB51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DC51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DD51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DE51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DF51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DG51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DH51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DI51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DJ51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DK51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DL51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DM51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DN51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DO51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DP51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DQ51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DR51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DS51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DT51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DU51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DV51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DW51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DX51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DY51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DZ51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EA51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EB51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EC51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="ED51" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="52" spans="1:134" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="125">
+        <v>2</v>
+      </c>
+      <c r="B52" s="189">
+        <v>2.5</v>
+      </c>
+      <c r="C52" s="204" t="s">
+        <v>387</v>
+      </c>
+      <c r="D52" s="126"/>
+      <c r="E52" s="127"/>
+      <c r="F52" s="128">
+        <v>2.4</v>
+      </c>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="180">
+        <v>44621</v>
+      </c>
+      <c r="J52" s="130"/>
+      <c r="K52" s="131"/>
+      <c r="L52" s="180">
+        <v>44651</v>
+      </c>
+      <c r="M52" s="185"/>
+      <c r="N52" s="132">
+        <v>0</v>
+      </c>
+      <c r="O52" s="172" t="s">
+        <v>321</v>
+      </c>
+      <c r="P52" s="184">
+        <f t="shared" si="112"/>
+        <v>44621</v>
+      </c>
+      <c r="Q52" s="184">
+        <f t="shared" ref="Q52" si="136">IF(P52=" - "," - ",MAX(L52,IF(K52&lt;&gt;"",P52+MAX(0,K52-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P52,P52,weekend,holidays)=0,WORKDAY.INTL(P52,1,weekend,holidays),P52),MAX(0,J52-1),weekend,holidays))))</f>
+        <v>44651</v>
+      </c>
+      <c r="R52" s="190">
+        <f t="shared" ref="R52" si="137">IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",NETWORKDAYS.INTL(P52,Q52,weekend,holidays))</f>
+        <v>23</v>
+      </c>
+      <c r="S52" s="190">
+        <f t="shared" ref="S52" si="138">IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",Q52-P52+1)</f>
+        <v>31</v>
+      </c>
+      <c r="T52" s="140"/>
+      <c r="U52" s="140"/>
+      <c r="V52" s="133"/>
+      <c r="W52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="X51" s="166" t="str">
+      <c r="X52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y51" s="166" t="str">
+      <c r="Y52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Z51" s="166" t="str">
+      <c r="Z52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AA51" s="166" t="str">
+      <c r="AA52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB51" s="166" t="str">
+      <c r="AB52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AC51" s="166" t="str">
+      <c r="AC52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AD51" s="166" t="str">
+      <c r="AD52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AE51" s="166" t="str">
+      <c r="AE52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AF51" s="166" t="str">
+      <c r="AF52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG51" s="166" t="str">
+      <c r="AG52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AH51" s="166" t="str">
+      <c r="AH52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI51" s="166" t="str">
+      <c r="AI52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ51" s="166" t="str">
+      <c r="AJ52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AK51" s="166" t="str">
+      <c r="AK52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AL51" s="166" t="str">
+      <c r="AL52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AM51" s="166" t="str">
+      <c r="AM52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AN51" s="166" t="str">
+      <c r="AN52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO51" s="166" t="str">
+      <c r="AO52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AP51" s="166" t="str">
+      <c r="AP52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AQ51" s="166" t="str">
+      <c r="AQ52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AR51" s="166" t="str">
+      <c r="AR52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AS51" s="166" t="str">
+      <c r="AS52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AT51" s="166" t="str">
+      <c r="AT52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AU51" s="166" t="str">
+      <c r="AU52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AV51" s="166" t="str">
+      <c r="AV52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AW51" s="166" t="str">
+      <c r="AW52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AX51" s="166" t="str">
+      <c r="AX52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AY51" s="166" t="str">
+      <c r="AY52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AZ51" s="166" t="str">
+      <c r="AZ52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BA51" s="166" t="str">
+      <c r="BA52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BB51" s="166" t="str">
+      <c r="BB52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BC51" s="166" t="str">
+      <c r="BC52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BD51" s="166" t="str">
+      <c r="BD52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BE51" s="166" t="str">
+      <c r="BE52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BF51" s="166" t="str">
+      <c r="BF52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BG51" s="166" t="str">
+      <c r="BG52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BH51" s="166" t="str">
+      <c r="BH52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BI51" s="166" t="str">
+      <c r="BI52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BJ51" s="166" t="str">
+      <c r="BJ52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BK51" s="166" t="str">
+      <c r="BK52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BL51" s="166" t="str">
+      <c r="BL52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BM51" s="166" t="str">
+      <c r="BM52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BN51" s="166" t="str">
+      <c r="BN52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BO51" s="166" t="str">
+      <c r="BO52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BP51" s="166" t="str">
+      <c r="BP52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BQ51" s="166" t="str">
+      <c r="BQ52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BR51" s="166" t="str">
+      <c r="BR52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BS51" s="166" t="str">
+      <c r="BS52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BT51" s="166" t="str">
+      <c r="BT52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BU51" s="166" t="str">
+      <c r="BU52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BV51" s="166" t="str">
+      <c r="BV52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BW51" s="166" t="str">
+      <c r="BW52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BX51" s="166" t="str">
+      <c r="BX52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BY51" s="166" t="str">
+      <c r="BY52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BZ51" s="166" t="str">
+      <c r="BZ52" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CA51" s="162" t="str">
+      <c r="CA52" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CB51" s="162" t="str">
+      <c r="CB52" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CC51" s="162" t="str">
+      <c r="CC52" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CD51" s="162" t="str">
+      <c r="CD52" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CE51" s="162" t="str">
+      <c r="CE52" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CF51" s="162" t="str">
+      <c r="CF52" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CG51" s="162" t="str">
+      <c r="CG52" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CH51" s="162" t="str">
+      <c r="CH52" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CI51" s="162" t="str">
+      <c r="CI52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CJ51" s="162" t="str">
+      <c r="CJ52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CK51" s="162" t="str">
+      <c r="CK52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CL51" s="162" t="str">
+      <c r="CL52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CM51" s="162" t="str">
+      <c r="CM52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CN51" s="162" t="str">
+      <c r="CN52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CO51" s="162" t="str">
+      <c r="CO52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CP51" s="162" t="str">
+      <c r="CP52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CQ51" s="162" t="str">
+      <c r="CQ52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CR51" s="162" t="str">
+      <c r="CR52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CS51" s="162" t="str">
+      <c r="CS52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CT51" s="162" t="str">
+      <c r="CT52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CU51" s="162" t="str">
+      <c r="CU52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CV51" s="162" t="str">
+      <c r="CV52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CW51" s="162" t="str">
+      <c r="CW52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CX51" s="162" t="str">
+      <c r="CX52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CY51" s="162" t="str">
+      <c r="CY52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CZ51" s="162" t="str">
+      <c r="CZ52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DA51" s="162" t="str">
+      <c r="DA52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DB51" s="162" t="str">
+      <c r="DB52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DC51" s="162" t="str">
+      <c r="DC52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DD51" s="162" t="str">
+      <c r="DD52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DE51" s="162" t="str">
+      <c r="DE52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DF51" s="162" t="str">
+      <c r="DF52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DG51" s="162" t="str">
+      <c r="DG52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DH51" s="162" t="str">
+      <c r="DH52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DI51" s="162" t="str">
+      <c r="DI52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DJ51" s="162" t="str">
+      <c r="DJ52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DK51" s="162" t="str">
+      <c r="DK52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DL51" s="162" t="str">
+      <c r="DL52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DM51" s="162" t="str">
+      <c r="DM52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DN51" s="162" t="str">
+      <c r="DN52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DO51" s="162" t="str">
+      <c r="DO52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DP51" s="162" t="str">
+      <c r="DP52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DQ51" s="162" t="str">
+      <c r="DQ52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DR51" s="162" t="str">
+      <c r="DR52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DS51" s="162" t="str">
+      <c r="DS52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DT51" s="162" t="str">
+      <c r="DT52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DU51" s="162" t="str">
+      <c r="DU52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DV51" s="162" t="str">
+      <c r="DV52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DW51" s="162" t="str">
+      <c r="DW52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DX51" s="162" t="str">
+      <c r="DX52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DY51" s="162" t="str">
+      <c r="DY52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DZ51" s="162" t="str">
+      <c r="DZ52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="EA51" s="162" t="str">
+      <c r="EA52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="EB51" s="162" t="str">
+      <c r="EB52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="EC51" s="162" t="str">
+      <c r="EC52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="ED51" s="162" t="str">
+      <c r="ED52" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="52" spans="1:134" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="155" t="s">
+    <row r="53" spans="1:134" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="156"/>
-      <c r="C52" s="157"/>
-      <c r="D52" s="158"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="160"/>
-      <c r="G52" s="158"/>
-      <c r="H52" s="158"/>
-      <c r="I52" s="182"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="158"/>
-      <c r="L52" s="182"/>
-      <c r="M52" s="187"/>
-      <c r="N52" s="161"/>
-      <c r="O52" s="173" t="s">
+      <c r="B53" s="156"/>
+      <c r="C53" s="157"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="159"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="158"/>
+      <c r="H53" s="158"/>
+      <c r="I53" s="182"/>
+      <c r="J53" s="160"/>
+      <c r="K53" s="158"/>
+      <c r="L53" s="182"/>
+      <c r="M53" s="187"/>
+      <c r="N53" s="161"/>
+      <c r="O53" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="P52" s="184" t="str">
+      <c r="P53" s="184" t="str">
         <f t="shared" si="112"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="Q52" s="184" t="str">
-        <f>IF(P52=" - "," - ",MAX(L52,IF(K52&lt;&gt;"",P52+MAX(0,K52-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P52,P52,weekend,holidays)=0,WORKDAY.INTL(P52,1,weekend,holidays),P52),MAX(0,J52-1),weekend,holidays))))</f>
+      <c r="Q53" s="184" t="str">
+        <f>IF(P53=" - "," - ",MAX(L53,IF(K53&lt;&gt;"",P53+MAX(0,K53-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P53,P53,weekend,holidays)=0,WORKDAY.INTL(P53,1,weekend,holidays),P53),MAX(0,J53-1),weekend,holidays))))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="R52" s="190" t="str">
-        <f>IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",NETWORKDAYS.INTL(P52,Q52,weekend,holidays))</f>
+      <c r="R53" s="190" t="str">
+        <f>IF(OR(NOT(ISNUMBER(P53)),NOT(ISNUMBER(Q53)))," - ",NETWORKDAYS.INTL(P53,Q53,weekend,holidays))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="S52" s="161"/>
-      <c r="T52" s="183"/>
-      <c r="U52" s="183"/>
-      <c r="V52" s="161"/>
-      <c r="W52" s="167"/>
-      <c r="X52" s="167"/>
-      <c r="Y52" s="167"/>
-      <c r="Z52" s="167"/>
-      <c r="AA52" s="167"/>
-      <c r="AB52" s="167"/>
-      <c r="AC52" s="167"/>
-      <c r="AD52" s="167"/>
-      <c r="AE52" s="167"/>
-      <c r="AF52" s="167"/>
-      <c r="AG52" s="167"/>
-      <c r="AH52" s="167"/>
-      <c r="AI52" s="167"/>
-      <c r="AJ52" s="167"/>
-      <c r="AK52" s="167"/>
-      <c r="AL52" s="167"/>
-      <c r="AM52" s="167"/>
-      <c r="AN52" s="167"/>
-      <c r="AO52" s="167"/>
-      <c r="AP52" s="167"/>
-      <c r="AQ52" s="167"/>
-      <c r="AR52" s="167"/>
-      <c r="AS52" s="167"/>
-      <c r="AT52" s="167"/>
-      <c r="AU52" s="167"/>
-      <c r="AV52" s="167"/>
-      <c r="AW52" s="167"/>
-      <c r="AX52" s="167"/>
-      <c r="AY52" s="167"/>
-      <c r="AZ52" s="167"/>
-      <c r="BA52" s="167"/>
-      <c r="BB52" s="167"/>
-      <c r="BC52" s="167"/>
-      <c r="BD52" s="167"/>
-      <c r="BE52" s="167"/>
-      <c r="BF52" s="167"/>
-      <c r="BG52" s="167"/>
-      <c r="BH52" s="167"/>
-      <c r="BI52" s="167"/>
-      <c r="BJ52" s="167"/>
-      <c r="BK52" s="167"/>
-      <c r="BL52" s="167"/>
-      <c r="BM52" s="167"/>
-      <c r="BN52" s="167"/>
-      <c r="BO52" s="167"/>
-      <c r="BP52" s="167"/>
-      <c r="BQ52" s="167"/>
-      <c r="BR52" s="167"/>
-      <c r="BS52" s="167"/>
-      <c r="BT52" s="167"/>
-      <c r="BU52" s="167"/>
-      <c r="BV52" s="167"/>
-      <c r="BW52" s="167"/>
-      <c r="BX52" s="167"/>
-      <c r="BY52" s="167"/>
-      <c r="BZ52" s="167"/>
-      <c r="CA52" s="163"/>
-      <c r="CB52" s="163"/>
-      <c r="CC52" s="163"/>
-      <c r="CD52" s="163"/>
-      <c r="CE52" s="163"/>
-      <c r="CF52" s="163"/>
-      <c r="CG52" s="163"/>
-      <c r="CH52" s="163"/>
-      <c r="CI52" s="163"/>
-      <c r="CJ52" s="163"/>
-      <c r="CK52" s="163"/>
-      <c r="CL52" s="163"/>
-      <c r="CM52" s="163"/>
-      <c r="CN52" s="163"/>
-      <c r="CO52" s="163"/>
-      <c r="CP52" s="163"/>
-      <c r="CQ52" s="163"/>
-      <c r="CR52" s="163"/>
-      <c r="CS52" s="163"/>
-      <c r="CT52" s="163"/>
-      <c r="CU52" s="163"/>
-      <c r="CV52" s="163"/>
-      <c r="CW52" s="163"/>
-      <c r="CX52" s="163"/>
-      <c r="CY52" s="163"/>
-      <c r="CZ52" s="163"/>
-      <c r="DA52" s="163"/>
-      <c r="DB52" s="163"/>
-      <c r="DC52" s="163"/>
-      <c r="DD52" s="163"/>
-      <c r="DE52" s="163"/>
-      <c r="DF52" s="163"/>
-      <c r="DG52" s="163"/>
-      <c r="DH52" s="163"/>
-      <c r="DI52" s="163"/>
-      <c r="DJ52" s="163"/>
-      <c r="DK52" s="163"/>
-      <c r="DL52" s="163"/>
-      <c r="DM52" s="163"/>
-      <c r="DN52" s="163"/>
-      <c r="DO52" s="163"/>
-      <c r="DP52" s="163"/>
-      <c r="DQ52" s="163"/>
-      <c r="DR52" s="163"/>
-      <c r="DS52" s="163"/>
-      <c r="DT52" s="163"/>
-      <c r="DU52" s="163"/>
-      <c r="DV52" s="163"/>
-      <c r="DW52" s="163"/>
-      <c r="DX52" s="163"/>
-      <c r="DY52" s="163"/>
-      <c r="DZ52" s="163"/>
-      <c r="EA52" s="163"/>
-      <c r="EB52" s="163"/>
-      <c r="EC52" s="163"/>
-      <c r="ED52" s="163"/>
+      <c r="S53" s="161"/>
+      <c r="T53" s="183"/>
+      <c r="U53" s="183"/>
+      <c r="V53" s="161"/>
+      <c r="W53" s="167"/>
+      <c r="X53" s="167"/>
+      <c r="Y53" s="167"/>
+      <c r="Z53" s="167"/>
+      <c r="AA53" s="167"/>
+      <c r="AB53" s="167"/>
+      <c r="AC53" s="167"/>
+      <c r="AD53" s="167"/>
+      <c r="AE53" s="167"/>
+      <c r="AF53" s="167"/>
+      <c r="AG53" s="167"/>
+      <c r="AH53" s="167"/>
+      <c r="AI53" s="167"/>
+      <c r="AJ53" s="167"/>
+      <c r="AK53" s="167"/>
+      <c r="AL53" s="167"/>
+      <c r="AM53" s="167"/>
+      <c r="AN53" s="167"/>
+      <c r="AO53" s="167"/>
+      <c r="AP53" s="167"/>
+      <c r="AQ53" s="167"/>
+      <c r="AR53" s="167"/>
+      <c r="AS53" s="167"/>
+      <c r="AT53" s="167"/>
+      <c r="AU53" s="167"/>
+      <c r="AV53" s="167"/>
+      <c r="AW53" s="167"/>
+      <c r="AX53" s="167"/>
+      <c r="AY53" s="167"/>
+      <c r="AZ53" s="167"/>
+      <c r="BA53" s="167"/>
+      <c r="BB53" s="167"/>
+      <c r="BC53" s="167"/>
+      <c r="BD53" s="167"/>
+      <c r="BE53" s="167"/>
+      <c r="BF53" s="167"/>
+      <c r="BG53" s="167"/>
+      <c r="BH53" s="167"/>
+      <c r="BI53" s="167"/>
+      <c r="BJ53" s="167"/>
+      <c r="BK53" s="167"/>
+      <c r="BL53" s="167"/>
+      <c r="BM53" s="167"/>
+      <c r="BN53" s="167"/>
+      <c r="BO53" s="167"/>
+      <c r="BP53" s="167"/>
+      <c r="BQ53" s="167"/>
+      <c r="BR53" s="167"/>
+      <c r="BS53" s="167"/>
+      <c r="BT53" s="167"/>
+      <c r="BU53" s="167"/>
+      <c r="BV53" s="167"/>
+      <c r="BW53" s="167"/>
+      <c r="BX53" s="167"/>
+      <c r="BY53" s="167"/>
+      <c r="BZ53" s="167"/>
+      <c r="CA53" s="163"/>
+      <c r="CB53" s="163"/>
+      <c r="CC53" s="163"/>
+      <c r="CD53" s="163"/>
+      <c r="CE53" s="163"/>
+      <c r="CF53" s="163"/>
+      <c r="CG53" s="163"/>
+      <c r="CH53" s="163"/>
+      <c r="CI53" s="163"/>
+      <c r="CJ53" s="163"/>
+      <c r="CK53" s="163"/>
+      <c r="CL53" s="163"/>
+      <c r="CM53" s="163"/>
+      <c r="CN53" s="163"/>
+      <c r="CO53" s="163"/>
+      <c r="CP53" s="163"/>
+      <c r="CQ53" s="163"/>
+      <c r="CR53" s="163"/>
+      <c r="CS53" s="163"/>
+      <c r="CT53" s="163"/>
+      <c r="CU53" s="163"/>
+      <c r="CV53" s="163"/>
+      <c r="CW53" s="163"/>
+      <c r="CX53" s="163"/>
+      <c r="CY53" s="163"/>
+      <c r="CZ53" s="163"/>
+      <c r="DA53" s="163"/>
+      <c r="DB53" s="163"/>
+      <c r="DC53" s="163"/>
+      <c r="DD53" s="163"/>
+      <c r="DE53" s="163"/>
+      <c r="DF53" s="163"/>
+      <c r="DG53" s="163"/>
+      <c r="DH53" s="163"/>
+      <c r="DI53" s="163"/>
+      <c r="DJ53" s="163"/>
+      <c r="DK53" s="163"/>
+      <c r="DL53" s="163"/>
+      <c r="DM53" s="163"/>
+      <c r="DN53" s="163"/>
+      <c r="DO53" s="163"/>
+      <c r="DP53" s="163"/>
+      <c r="DQ53" s="163"/>
+      <c r="DR53" s="163"/>
+      <c r="DS53" s="163"/>
+      <c r="DT53" s="163"/>
+      <c r="DU53" s="163"/>
+      <c r="DV53" s="163"/>
+      <c r="DW53" s="163"/>
+      <c r="DX53" s="163"/>
+      <c r="DY53" s="163"/>
+      <c r="DZ53" s="163"/>
+      <c r="EA53" s="163"/>
+      <c r="EB53" s="163"/>
+      <c r="EC53" s="163"/>
+      <c r="ED53" s="163"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" autoFilter="0"/>
@@ -32064,11 +32344,11 @@
     <mergeCell ref="BM10:BS10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N13:N17 N52 N38 N47">
-    <cfRule type="cellIs" dxfId="790" priority="1311" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="N13:N17 N53 N38 N47">
+    <cfRule type="cellIs" dxfId="755" priority="1479" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1314">
+    <cfRule type="dataBar" priority="1482">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32081,139 +32361,139 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10 C4:C6 I13:I17 L13:L17 T13:U17 T52:U52 L52 I52 P52:Q52 T38:U38 T47:U47 L38 L47 I38 I47 P38:Q38 P47:Q47">
-    <cfRule type="expression" dxfId="789" priority="1300">
+  <conditionalFormatting sqref="C9:C10 C4:C6 I13:I17 L13:L17 T13:U17 T53:U53 L53 I53 P53:Q53 T38:U38 T47:U47 L38 L47 I38 I47 P38:Q38 P47:Q47">
+    <cfRule type="expression" dxfId="754" priority="1468">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q17 Q19:Q21 Q52 Q33:Q34 Q24 Q40:Q41 Q45:Q47">
-    <cfRule type="expression" dxfId="788" priority="1315">
+  <conditionalFormatting sqref="Q13:Q17 Q19:Q21 Q53 Q33:Q34 Q24 Q40:Q41 Q45:Q47">
+    <cfRule type="expression" dxfId="753" priority="1483">
       <formula>AND($Q$10="Yes",Q13&lt;$C$10,N13&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="1320">
+    <cfRule type="expression" dxfId="752" priority="1488">
       <formula>AND($Q$10="Yes",Q13&lt;=$C$10+enddate_highlight_days,N13&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C17 C19:C21 C52 C24 C26 C33:C34 C38 C40:C41 C45:C47">
-    <cfRule type="expression" dxfId="786" priority="1321">
+  <conditionalFormatting sqref="C13:C17 C19:C21 C53 C24 C26 C33:C34 C38 C40:C41 C45:C47">
+    <cfRule type="expression" dxfId="751" priority="1489">
       <formula>$A13=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="1512">
+    <cfRule type="expression" dxfId="750" priority="1680">
       <formula>$A13=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="1513">
+    <cfRule type="expression" dxfId="749" priority="1681">
       <formula>$A13=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="783" priority="1514">
+    <cfRule type="expression" dxfId="748" priority="1682">
       <formula>$A13=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="1515">
+    <cfRule type="expression" dxfId="747" priority="1683">
       <formula>$A13=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="1516">
+    <cfRule type="expression" dxfId="746" priority="1684">
       <formula>$A13=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:ED12">
-    <cfRule type="expression" dxfId="780" priority="1830">
+    <cfRule type="expression" dxfId="745" priority="1998">
       <formula>W$7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="779" priority="1831">
+    <cfRule type="expression" dxfId="744" priority="1999">
       <formula>AND($C$10&gt;=W$5,$C$10&lt;X$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="1832">
+    <cfRule type="expression" dxfId="743" priority="2000">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:ED17 W19:ED21 W23:ED24 W26:ED26 W33:ED34 W38:ED47 W49:ED49 W51:ED52">
-    <cfRule type="expression" dxfId="777" priority="1303">
+  <conditionalFormatting sqref="W13:ED17 W19:ED21 W23:ED24 W26:ED26 W33:ED34 W38:ED47 W49:ED49 W52:ED53">
+    <cfRule type="expression" dxfId="742" priority="1471">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="1307">
+    <cfRule type="expression" dxfId="741" priority="1475">
       <formula>AND($U$4="Yes",$U13&gt;=W$5,$T13&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="775" priority="1855">
+    <cfRule type="expression" dxfId="740" priority="2023">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M13&lt;&gt;"M",$U13&gt;=W$5,$T13&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="1856">
+    <cfRule type="expression" dxfId="739" priority="2024">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P13&lt;=W$6,ROUNDDOWN(($Q13-$P13+1)*$N13,0)+$P13-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="773" priority="1857" stopIfTrue="1">
+    <cfRule type="expression" dxfId="738" priority="2025" stopIfTrue="1">
       <formula>AND(OR($M13="b",$M13=""),$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="1858" stopIfTrue="1">
+    <cfRule type="expression" dxfId="737" priority="2026" stopIfTrue="1">
       <formula>AND($M13="K",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="1859" stopIfTrue="1">
+    <cfRule type="expression" dxfId="736" priority="2027" stopIfTrue="1">
       <formula>AND($M13="x",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="1860" stopIfTrue="1">
+    <cfRule type="expression" dxfId="735" priority="2028" stopIfTrue="1">
       <formula>AND($M13="G",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="1861" stopIfTrue="1">
+    <cfRule type="expression" dxfId="734" priority="2029" stopIfTrue="1">
       <formula>AND($M13="P",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="1862" stopIfTrue="1">
+    <cfRule type="expression" dxfId="733" priority="2030" stopIfTrue="1">
       <formula>AND($M13="Y",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="767" priority="1863" stopIfTrue="1">
+    <cfRule type="expression" dxfId="732" priority="2031" stopIfTrue="1">
       <formula>AND($M13="O",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="766" priority="1864" stopIfTrue="1">
+    <cfRule type="expression" dxfId="731" priority="2032" stopIfTrue="1">
       <formula>AND($M13="R",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="765" priority="1865" stopIfTrue="1">
+    <cfRule type="expression" dxfId="730" priority="2033" stopIfTrue="1">
       <formula>AND($M13=1,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="764" priority="1866" stopIfTrue="1">
+    <cfRule type="expression" dxfId="729" priority="2034" stopIfTrue="1">
       <formula>AND($M13=2,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="763" priority="1867" stopIfTrue="1">
+    <cfRule type="expression" dxfId="728" priority="2035" stopIfTrue="1">
       <formula>AND($M13=3,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="1868" stopIfTrue="1">
+    <cfRule type="expression" dxfId="727" priority="2036" stopIfTrue="1">
       <formula>AND($M13=4,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="761" priority="1869" stopIfTrue="1">
+    <cfRule type="expression" dxfId="726" priority="2037" stopIfTrue="1">
       <formula>AND($M13=5,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="1870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="725" priority="2038" stopIfTrue="1">
       <formula>AND($M13=6,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="759" priority="1871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="724" priority="2039" stopIfTrue="1">
       <formula>AND($M13=7,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="1872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="723" priority="2040" stopIfTrue="1">
       <formula>AND($M13="M",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="1873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="722" priority="2041" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N13&lt;1,$P13&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="1874" stopIfTrue="1">
+    <cfRule type="expression" dxfId="721" priority="2042" stopIfTrue="1">
       <formula>AND($P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="755" priority="1875">
+    <cfRule type="expression" dxfId="720" priority="2043">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="1876">
+    <cfRule type="expression" dxfId="719" priority="2044">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:ED12">
-    <cfRule type="expression" dxfId="753" priority="1302">
+    <cfRule type="expression" dxfId="718" priority="1470">
       <formula>$Q$4="Daily"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q17">
-    <cfRule type="expression" dxfId="752" priority="1299">
+    <cfRule type="expression" dxfId="717" priority="1467">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="cellIs" dxfId="751" priority="1266" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="716" priority="1434" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1267">
+    <cfRule type="dataBar" priority="1435">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32227,114 +32507,114 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 L18 T18:U18">
-    <cfRule type="expression" dxfId="750" priority="1263">
+    <cfRule type="expression" dxfId="715" priority="1431">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="expression" dxfId="749" priority="1268">
+    <cfRule type="expression" dxfId="714" priority="1436">
       <formula>AND($Q$10="Yes",Q18&lt;$C$10,N18&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="1269">
+    <cfRule type="expression" dxfId="713" priority="1437">
       <formula>AND($Q$10="Yes",Q18&lt;=$C$10+enddate_highlight_days,N18&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="747" priority="1270">
+    <cfRule type="expression" dxfId="712" priority="1438">
       <formula>$A18=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="1271">
+    <cfRule type="expression" dxfId="711" priority="1439">
       <formula>$A18=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="1272">
+    <cfRule type="expression" dxfId="710" priority="1440">
       <formula>$A18=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="1273">
+    <cfRule type="expression" dxfId="709" priority="1441">
       <formula>$A18=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="743" priority="1274">
+    <cfRule type="expression" dxfId="708" priority="1442">
       <formula>$A18=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="1275">
+    <cfRule type="expression" dxfId="707" priority="1443">
       <formula>$A18=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:ED18">
-    <cfRule type="expression" dxfId="741" priority="1264">
+    <cfRule type="expression" dxfId="706" priority="1432">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="1265">
+    <cfRule type="expression" dxfId="705" priority="1433">
       <formula>AND($U$4="Yes",$U18&gt;=W$5,$T18&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="1276">
+    <cfRule type="expression" dxfId="704" priority="1444">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M18&lt;&gt;"M",$U18&gt;=W$5,$T18&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="1277">
+    <cfRule type="expression" dxfId="703" priority="1445">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P18&lt;=W$6,ROUNDDOWN(($Q18-$P18+1)*$N18,0)+$P18-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="1278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="702" priority="1446" stopIfTrue="1">
       <formula>AND(OR($M18="b",$M18=""),$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="1279" stopIfTrue="1">
+    <cfRule type="expression" dxfId="701" priority="1447" stopIfTrue="1">
       <formula>AND($M18="K",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="735" priority="1280" stopIfTrue="1">
+    <cfRule type="expression" dxfId="700" priority="1448" stopIfTrue="1">
       <formula>AND($M18="x",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="1281" stopIfTrue="1">
+    <cfRule type="expression" dxfId="699" priority="1449" stopIfTrue="1">
       <formula>AND($M18="G",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="1282" stopIfTrue="1">
+    <cfRule type="expression" dxfId="698" priority="1450" stopIfTrue="1">
       <formula>AND($M18="P",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="1283" stopIfTrue="1">
+    <cfRule type="expression" dxfId="697" priority="1451" stopIfTrue="1">
       <formula>AND($M18="Y",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="1284" stopIfTrue="1">
+    <cfRule type="expression" dxfId="696" priority="1452" stopIfTrue="1">
       <formula>AND($M18="O",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="1285" stopIfTrue="1">
+    <cfRule type="expression" dxfId="695" priority="1453" stopIfTrue="1">
       <formula>AND($M18="R",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="1286" stopIfTrue="1">
+    <cfRule type="expression" dxfId="694" priority="1454" stopIfTrue="1">
       <formula>AND($M18=1,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="1287" stopIfTrue="1">
+    <cfRule type="expression" dxfId="693" priority="1455" stopIfTrue="1">
       <formula>AND($M18=2,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="727" priority="1288" stopIfTrue="1">
+    <cfRule type="expression" dxfId="692" priority="1456" stopIfTrue="1">
       <formula>AND($M18=3,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="1289" stopIfTrue="1">
+    <cfRule type="expression" dxfId="691" priority="1457" stopIfTrue="1">
       <formula>AND($M18=4,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="1290" stopIfTrue="1">
+    <cfRule type="expression" dxfId="690" priority="1458" stopIfTrue="1">
       <formula>AND($M18=5,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="1291" stopIfTrue="1">
+    <cfRule type="expression" dxfId="689" priority="1459" stopIfTrue="1">
       <formula>AND($M18=6,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="1292" stopIfTrue="1">
+    <cfRule type="expression" dxfId="688" priority="1460" stopIfTrue="1">
       <formula>AND($M18=7,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="1293" stopIfTrue="1">
+    <cfRule type="expression" dxfId="687" priority="1461" stopIfTrue="1">
       <formula>AND($M18="M",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="1294" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="1462" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N18&lt;1,$P18&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="1295" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="1463" stopIfTrue="1">
       <formula>AND($P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="719" priority="1296">
+    <cfRule type="expression" dxfId="684" priority="1464">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="718" priority="1297">
+    <cfRule type="expression" dxfId="683" priority="1465">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
-    <cfRule type="iconSet" priority="1298">
+    <cfRule type="iconSet" priority="1466">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32344,15 +32624,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q18">
-    <cfRule type="expression" dxfId="717" priority="1262">
+    <cfRule type="expression" dxfId="682" priority="1430">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N21 N33:N34 N40 N45:N47">
-    <cfRule type="cellIs" dxfId="716" priority="1229" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="681" priority="1397" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1230">
+    <cfRule type="dataBar" priority="1398">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32366,17 +32646,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21 L19:L21 T19:U21 T33:U34 L33:L34 I33:I34 I40 L40 T40:U40 T45:U47 L45:L47 I45:I47">
-    <cfRule type="expression" dxfId="715" priority="1226">
+    <cfRule type="expression" dxfId="680" priority="1394">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:Q21 P33:Q34 P40:Q40 P45:Q47">
-    <cfRule type="expression" dxfId="714" priority="1225">
+    <cfRule type="expression" dxfId="679" priority="1393">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O52 O13:O17">
-    <cfRule type="iconSet" priority="2218">
+  <conditionalFormatting sqref="O53 O13:O17">
+    <cfRule type="iconSet" priority="2386">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32386,7 +32666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45 O40 O33:O34 O19:O21">
-    <cfRule type="iconSet" priority="2275">
+    <cfRule type="iconSet" priority="2443">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32396,38 +32676,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49">
-    <cfRule type="expression" dxfId="713" priority="1194">
+    <cfRule type="expression" dxfId="678" priority="1362">
       <formula>AND($Q$10="Yes",Q49&lt;$C$10,N49&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="712" priority="1195">
+    <cfRule type="expression" dxfId="677" priority="1363">
       <formula>AND($Q$10="Yes",Q49&lt;=$C$10+enddate_highlight_days,N49&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="711" priority="1196">
+    <cfRule type="expression" dxfId="676" priority="1364">
       <formula>$A49=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="1197">
+    <cfRule type="expression" dxfId="675" priority="1365">
       <formula>$A49=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="1198">
+    <cfRule type="expression" dxfId="674" priority="1366">
       <formula>$A49=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="1199">
+    <cfRule type="expression" dxfId="673" priority="1367">
       <formula>$A49=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="1200">
+    <cfRule type="expression" dxfId="672" priority="1368">
       <formula>$A49=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="706" priority="1201">
+    <cfRule type="expression" dxfId="671" priority="1369">
       <formula>$A49=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="cellIs" dxfId="705" priority="1190" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="670" priority="1358" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1191">
+    <cfRule type="dataBar" priority="1359">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32441,17 +32721,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49 L49 T49:U49">
-    <cfRule type="expression" dxfId="704" priority="1189">
+    <cfRule type="expression" dxfId="669" priority="1357">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:Q49">
-    <cfRule type="expression" dxfId="703" priority="1188">
+    <cfRule type="expression" dxfId="668" priority="1356">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49">
-    <cfRule type="iconSet" priority="1224">
+    <cfRule type="iconSet" priority="1392">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32460,39 +32740,39 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q51">
-    <cfRule type="expression" dxfId="702" priority="1157">
-      <formula>AND($Q$10="Yes",Q51&lt;$C$10,N51&lt;1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="701" priority="1158">
-      <formula>AND($Q$10="Yes",Q51&lt;=$C$10+enddate_highlight_days,N51&lt;1)</formula>
+  <conditionalFormatting sqref="Q52">
+    <cfRule type="expression" dxfId="667" priority="1325">
+      <formula>AND($Q$10="Yes",Q52&lt;$C$10,N52&lt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="666" priority="1326">
+      <formula>AND($Q$10="Yes",Q52&lt;=$C$10+enddate_highlight_days,N52&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="700" priority="1159">
-      <formula>$A51=7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="699" priority="1160">
-      <formula>$A51=6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="698" priority="1161">
-      <formula>$A51=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="697" priority="1162">
-      <formula>$A51=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="696" priority="1163">
-      <formula>$A51=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="695" priority="1164">
-      <formula>$A51=2</formula>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="665" priority="1327">
+      <formula>$A52=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="664" priority="1328">
+      <formula>$A52=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="663" priority="1329">
+      <formula>$A52=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="662" priority="1330">
+      <formula>$A52=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="661" priority="1331">
+      <formula>$A52=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="660" priority="1332">
+      <formula>$A52=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="694" priority="1153" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="659" priority="1321" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1154">
+    <cfRule type="dataBar" priority="1322">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32505,18 +32785,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I51 L51 T51:U51">
-    <cfRule type="expression" dxfId="693" priority="1152">
+  <conditionalFormatting sqref="I52 L52 T52:U52">
+    <cfRule type="expression" dxfId="658" priority="1320">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P51:Q51">
-    <cfRule type="expression" dxfId="692" priority="1151">
+  <conditionalFormatting sqref="P52:Q52">
+    <cfRule type="expression" dxfId="657" priority="1319">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O51">
-    <cfRule type="iconSet" priority="1187">
+  <conditionalFormatting sqref="O52">
+    <cfRule type="iconSet" priority="1355">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32526,38 +32806,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="691" priority="1120">
+    <cfRule type="expression" dxfId="656" priority="1288">
       <formula>AND($Q$10="Yes",Q23&lt;$C$10,N23&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="1121">
+    <cfRule type="expression" dxfId="655" priority="1289">
       <formula>AND($Q$10="Yes",Q23&lt;=$C$10+enddate_highlight_days,N23&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="689" priority="1122">
+    <cfRule type="expression" dxfId="654" priority="1290">
       <formula>$A23=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="1123">
+    <cfRule type="expression" dxfId="653" priority="1291">
       <formula>$A23=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="1124">
+    <cfRule type="expression" dxfId="652" priority="1292">
       <formula>$A23=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="1125">
+    <cfRule type="expression" dxfId="651" priority="1293">
       <formula>$A23=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="1126">
+    <cfRule type="expression" dxfId="650" priority="1294">
       <formula>$A23=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="1127">
+    <cfRule type="expression" dxfId="649" priority="1295">
       <formula>$A23=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="683" priority="1116" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="648" priority="1284" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1117">
+    <cfRule type="dataBar" priority="1285">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32571,17 +32851,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23 L23 T23:U23">
-    <cfRule type="expression" dxfId="682" priority="1115">
+    <cfRule type="expression" dxfId="647" priority="1283">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:Q23">
-    <cfRule type="expression" dxfId="681" priority="1114">
+    <cfRule type="expression" dxfId="646" priority="1282">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="iconSet" priority="1150">
+    <cfRule type="iconSet" priority="1318">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32591,112 +32871,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="expression" dxfId="680" priority="1083">
+    <cfRule type="expression" dxfId="645" priority="1251">
       <formula>AND($Q$10="Yes",Q22&lt;$C$10,N22&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="1084">
+    <cfRule type="expression" dxfId="644" priority="1252">
       <formula>AND($Q$10="Yes",Q22&lt;=$C$10+enddate_highlight_days,N22&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="678" priority="1085">
+    <cfRule type="expression" dxfId="643" priority="1253">
       <formula>$A22=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="1086">
+    <cfRule type="expression" dxfId="642" priority="1254">
       <formula>$A22=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="1087">
+    <cfRule type="expression" dxfId="641" priority="1255">
       <formula>$A22=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="1088">
+    <cfRule type="expression" dxfId="640" priority="1256">
       <formula>$A22=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="1089">
+    <cfRule type="expression" dxfId="639" priority="1257">
       <formula>$A22=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="1090">
+    <cfRule type="expression" dxfId="638" priority="1258">
       <formula>$A22=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22:ED22">
-    <cfRule type="expression" dxfId="672" priority="1081">
+    <cfRule type="expression" dxfId="637" priority="1249">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="1082">
+    <cfRule type="expression" dxfId="636" priority="1250">
       <formula>AND($U$4="Yes",$U22&gt;=W$5,$T22&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="1091">
+    <cfRule type="expression" dxfId="635" priority="1259">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M22&lt;&gt;"M",$U22&gt;=W$5,$T22&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="1092">
+    <cfRule type="expression" dxfId="634" priority="1260">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P22&lt;=W$6,ROUNDDOWN(($Q22-$P22+1)*$N22,0)+$P22-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="1093" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="1261" stopIfTrue="1">
       <formula>AND(OR($M22="b",$M22=""),$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="1094" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="1262" stopIfTrue="1">
       <formula>AND($M22="K",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="1095" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="1263" stopIfTrue="1">
       <formula>AND($M22="x",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="1096" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="1264" stopIfTrue="1">
       <formula>AND($M22="G",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="1097" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="1265" stopIfTrue="1">
       <formula>AND($M22="P",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="1098" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="1266" stopIfTrue="1">
       <formula>AND($M22="Y",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="662" priority="1099" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="1267" stopIfTrue="1">
       <formula>AND($M22="O",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="661" priority="1100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="1268" stopIfTrue="1">
       <formula>AND($M22="R",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="660" priority="1101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="1269" stopIfTrue="1">
       <formula>AND($M22=1,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="659" priority="1102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="1270" stopIfTrue="1">
       <formula>AND($M22=2,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="1103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="623" priority="1271" stopIfTrue="1">
       <formula>AND($M22=3,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="657" priority="1104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="622" priority="1272" stopIfTrue="1">
       <formula>AND($M22=4,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="656" priority="1105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="621" priority="1273" stopIfTrue="1">
       <formula>AND($M22=5,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="1106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="620" priority="1274" stopIfTrue="1">
       <formula>AND($M22=6,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="654" priority="1107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="619" priority="1275" stopIfTrue="1">
       <formula>AND($M22=7,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="1108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="618" priority="1276" stopIfTrue="1">
       <formula>AND($M22="M",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="1109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="617" priority="1277" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N22&lt;1,$P22&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="1110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="616" priority="1278" stopIfTrue="1">
       <formula>AND($P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="1111">
+    <cfRule type="expression" dxfId="615" priority="1279">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="1112">
+    <cfRule type="expression" dxfId="614" priority="1280">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="cellIs" dxfId="648" priority="1079" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="613" priority="1247" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1080">
+    <cfRule type="dataBar" priority="1248">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32710,17 +32990,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22 L22 T22:U22">
-    <cfRule type="expression" dxfId="647" priority="1078">
+    <cfRule type="expression" dxfId="612" priority="1246">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="expression" dxfId="646" priority="1077">
+    <cfRule type="expression" dxfId="611" priority="1245">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="iconSet" priority="1113">
+    <cfRule type="iconSet" priority="1281">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32730,18 +33010,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26">
-    <cfRule type="expression" dxfId="645" priority="1046">
+    <cfRule type="expression" dxfId="610" priority="1214">
       <formula>AND($Q$10="Yes",Q26&lt;$C$10,N26&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="1047">
+    <cfRule type="expression" dxfId="609" priority="1215">
       <formula>AND($Q$10="Yes",Q26&lt;=$C$10+enddate_highlight_days,N26&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="643" priority="1042" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="608" priority="1210" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1043">
+    <cfRule type="dataBar" priority="1211">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32755,17 +33035,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26 L26 T26:U26">
-    <cfRule type="expression" dxfId="642" priority="1041">
+    <cfRule type="expression" dxfId="607" priority="1209">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:Q26">
-    <cfRule type="expression" dxfId="641" priority="1040">
+    <cfRule type="expression" dxfId="606" priority="1208">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="iconSet" priority="1076">
+    <cfRule type="iconSet" priority="1244">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32774,11 +33054,11 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24 N26">
-    <cfRule type="cellIs" dxfId="640" priority="968" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="N26 N24">
+    <cfRule type="cellIs" dxfId="605" priority="1136" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="969">
+    <cfRule type="dataBar" priority="1137">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32792,17 +33072,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24 L24 T24:U24 T26:U26 L26 I26">
-    <cfRule type="expression" dxfId="639" priority="967">
+    <cfRule type="expression" dxfId="604" priority="1135">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q24 P26:Q26">
-    <cfRule type="expression" dxfId="638" priority="966">
+    <cfRule type="expression" dxfId="603" priority="1134">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="iconSet" priority="978">
+    <cfRule type="iconSet" priority="1146">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32812,112 +33092,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="637" priority="938">
+    <cfRule type="expression" dxfId="602" priority="1106">
       <formula>$A25=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="939">
+    <cfRule type="expression" dxfId="601" priority="1107">
       <formula>$A25=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="940">
+    <cfRule type="expression" dxfId="600" priority="1108">
       <formula>$A25=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="941">
+    <cfRule type="expression" dxfId="599" priority="1109">
       <formula>$A25=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="942">
+    <cfRule type="expression" dxfId="598" priority="1110">
       <formula>$A25=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="943">
+    <cfRule type="expression" dxfId="597" priority="1111">
       <formula>$A25=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:ED25">
-    <cfRule type="expression" dxfId="631" priority="936">
+    <cfRule type="expression" dxfId="596" priority="1104">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="937">
+    <cfRule type="expression" dxfId="595" priority="1105">
       <formula>AND($U$4="Yes",$U25&gt;=W$5,$T25&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="944">
+    <cfRule type="expression" dxfId="594" priority="1112">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M25&lt;&gt;"M",$U25&gt;=W$5,$T25&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="945">
+    <cfRule type="expression" dxfId="593" priority="1113">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P25&lt;=W$6,ROUNDDOWN(($Q25-$P25+1)*$N25,0)+$P25-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="946" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="1114" stopIfTrue="1">
       <formula>AND(OR($M25="b",$M25=""),$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="947" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="1115" stopIfTrue="1">
       <formula>AND($M25="K",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="948" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="1116" stopIfTrue="1">
       <formula>AND($M25="x",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="949" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="1117" stopIfTrue="1">
       <formula>AND($M25="G",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="623" priority="950" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="1118" stopIfTrue="1">
       <formula>AND($M25="P",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="951" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="1119" stopIfTrue="1">
       <formula>AND($M25="Y",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="952" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="1120" stopIfTrue="1">
       <formula>AND($M25="O",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="953" stopIfTrue="1">
+    <cfRule type="expression" dxfId="585" priority="1121" stopIfTrue="1">
       <formula>AND($M25="R",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="954" stopIfTrue="1">
+    <cfRule type="expression" dxfId="584" priority="1122" stopIfTrue="1">
       <formula>AND($M25=1,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="955" stopIfTrue="1">
+    <cfRule type="expression" dxfId="583" priority="1123" stopIfTrue="1">
       <formula>AND($M25=2,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="956" stopIfTrue="1">
+    <cfRule type="expression" dxfId="582" priority="1124" stopIfTrue="1">
       <formula>AND($M25=3,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="957" stopIfTrue="1">
+    <cfRule type="expression" dxfId="581" priority="1125" stopIfTrue="1">
       <formula>AND($M25=4,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="958" stopIfTrue="1">
+    <cfRule type="expression" dxfId="580" priority="1126" stopIfTrue="1">
       <formula>AND($M25=5,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="959" stopIfTrue="1">
+    <cfRule type="expression" dxfId="579" priority="1127" stopIfTrue="1">
       <formula>AND($M25=6,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="613" priority="960" stopIfTrue="1">
+    <cfRule type="expression" dxfId="578" priority="1128" stopIfTrue="1">
       <formula>AND($M25=7,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="961" stopIfTrue="1">
+    <cfRule type="expression" dxfId="577" priority="1129" stopIfTrue="1">
       <formula>AND($M25="M",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="576" priority="1130" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N25&lt;1,$P25&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="963" stopIfTrue="1">
+    <cfRule type="expression" dxfId="575" priority="1131" stopIfTrue="1">
       <formula>AND($P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="964">
+    <cfRule type="expression" dxfId="574" priority="1132">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="965">
+    <cfRule type="expression" dxfId="573" priority="1133">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25">
-    <cfRule type="expression" dxfId="607" priority="933">
+    <cfRule type="expression" dxfId="572" priority="1101">
       <formula>AND($Q$10="Yes",Q25&lt;$C$10,N25&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="934">
+    <cfRule type="expression" dxfId="571" priority="1102">
       <formula>AND($Q$10="Yes",Q25&lt;=$C$10+enddate_highlight_days,N25&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="605" priority="931" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="570" priority="1099" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="932">
+    <cfRule type="dataBar" priority="1100">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32931,17 +33211,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25 L25 T25:U25">
-    <cfRule type="expression" dxfId="604" priority="930">
+    <cfRule type="expression" dxfId="569" priority="1098">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:Q25">
-    <cfRule type="expression" dxfId="603" priority="929">
+    <cfRule type="expression" dxfId="568" priority="1097">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="iconSet" priority="935">
+    <cfRule type="iconSet" priority="1103">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32951,10 +33231,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="602" priority="927" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="567" priority="1095" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="928">
+    <cfRule type="dataBar" priority="1096">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32968,122 +33248,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:U25 L25 I25">
-    <cfRule type="expression" dxfId="601" priority="926">
+    <cfRule type="expression" dxfId="566" priority="1094">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:Q25">
-    <cfRule type="expression" dxfId="600" priority="925">
+    <cfRule type="expression" dxfId="565" priority="1093">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="599" priority="897">
+    <cfRule type="expression" dxfId="564" priority="1065">
       <formula>$A28=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="898">
+    <cfRule type="expression" dxfId="563" priority="1066">
       <formula>$A28=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="899">
+    <cfRule type="expression" dxfId="562" priority="1067">
       <formula>$A28=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="900">
+    <cfRule type="expression" dxfId="561" priority="1068">
       <formula>$A28=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="901">
+    <cfRule type="expression" dxfId="560" priority="1069">
       <formula>$A28=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="902">
+    <cfRule type="expression" dxfId="559" priority="1070">
       <formula>$A28=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28:ED28">
-    <cfRule type="expression" dxfId="593" priority="895">
+    <cfRule type="expression" dxfId="558" priority="1063">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="896">
+    <cfRule type="expression" dxfId="557" priority="1064">
       <formula>AND($U$4="Yes",$U28&gt;=W$5,$T28&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="903">
+    <cfRule type="expression" dxfId="556" priority="1071">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M28&lt;&gt;"M",$U28&gt;=W$5,$T28&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="904">
+    <cfRule type="expression" dxfId="555" priority="1072">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P28&lt;=W$6,ROUNDDOWN(($Q28-$P28+1)*$N28,0)+$P28-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="905" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="1073" stopIfTrue="1">
       <formula>AND(OR($M28="b",$M28=""),$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="906" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="1074" stopIfTrue="1">
       <formula>AND($M28="K",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="907" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="1075" stopIfTrue="1">
       <formula>AND($M28="x",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="908" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="1076" stopIfTrue="1">
       <formula>AND($M28="G",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="909" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="1077" stopIfTrue="1">
       <formula>AND($M28="P",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="910" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="1078" stopIfTrue="1">
       <formula>AND($M28="Y",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="911" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="1079" stopIfTrue="1">
       <formula>AND($M28="O",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="912" stopIfTrue="1">
+    <cfRule type="expression" dxfId="547" priority="1080" stopIfTrue="1">
       <formula>AND($M28="R",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="913" stopIfTrue="1">
+    <cfRule type="expression" dxfId="546" priority="1081" stopIfTrue="1">
       <formula>AND($M28=1,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="914" stopIfTrue="1">
+    <cfRule type="expression" dxfId="545" priority="1082" stopIfTrue="1">
       <formula>AND($M28=2,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="915" stopIfTrue="1">
+    <cfRule type="expression" dxfId="544" priority="1083" stopIfTrue="1">
       <formula>AND($M28=3,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="916" stopIfTrue="1">
+    <cfRule type="expression" dxfId="543" priority="1084" stopIfTrue="1">
       <formula>AND($M28=4,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="917" stopIfTrue="1">
+    <cfRule type="expression" dxfId="542" priority="1085" stopIfTrue="1">
       <formula>AND($M28=5,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="918" stopIfTrue="1">
+    <cfRule type="expression" dxfId="541" priority="1086" stopIfTrue="1">
       <formula>AND($M28=6,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="575" priority="919" stopIfTrue="1">
+    <cfRule type="expression" dxfId="540" priority="1087" stopIfTrue="1">
       <formula>AND($M28=7,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="920" stopIfTrue="1">
+    <cfRule type="expression" dxfId="539" priority="1088" stopIfTrue="1">
       <formula>AND($M28="M",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="921" stopIfTrue="1">
+    <cfRule type="expression" dxfId="538" priority="1089" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N28&lt;1,$P28&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="922" stopIfTrue="1">
+    <cfRule type="expression" dxfId="537" priority="1090" stopIfTrue="1">
       <formula>AND($P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="923">
+    <cfRule type="expression" dxfId="536" priority="1091">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="924">
+    <cfRule type="expression" dxfId="535" priority="1092">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="569" priority="892">
+    <cfRule type="expression" dxfId="534" priority="1060">
       <formula>AND($Q$10="Yes",Q28&lt;$C$10,N28&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="893">
+    <cfRule type="expression" dxfId="533" priority="1061">
       <formula>AND($Q$10="Yes",Q28&lt;=$C$10+enddate_highlight_days,N28&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="cellIs" dxfId="567" priority="890" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="532" priority="1058" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="891">
+    <cfRule type="dataBar" priority="1059">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33097,17 +33377,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28 L28 T28:U28">
-    <cfRule type="expression" dxfId="566" priority="889">
+    <cfRule type="expression" dxfId="531" priority="1057">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:Q28">
-    <cfRule type="expression" dxfId="565" priority="888">
+    <cfRule type="expression" dxfId="530" priority="1056">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="iconSet" priority="894">
+    <cfRule type="iconSet" priority="1062">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33117,10 +33397,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="cellIs" dxfId="564" priority="886" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="529" priority="1054" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="887">
+    <cfRule type="dataBar" priority="1055">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33134,122 +33414,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28:U28 L28 I28">
-    <cfRule type="expression" dxfId="563" priority="885">
+    <cfRule type="expression" dxfId="528" priority="1053">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:Q28">
-    <cfRule type="expression" dxfId="562" priority="884">
+    <cfRule type="expression" dxfId="527" priority="1052">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="561" priority="856">
+    <cfRule type="expression" dxfId="526" priority="1024">
       <formula>$A27=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="857">
+    <cfRule type="expression" dxfId="525" priority="1025">
       <formula>$A27=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="858">
+    <cfRule type="expression" dxfId="524" priority="1026">
       <formula>$A27=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="859">
+    <cfRule type="expression" dxfId="523" priority="1027">
       <formula>$A27=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="860">
+    <cfRule type="expression" dxfId="522" priority="1028">
       <formula>$A27=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="861">
+    <cfRule type="expression" dxfId="521" priority="1029">
       <formula>$A27=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27:ED27">
-    <cfRule type="expression" dxfId="555" priority="854">
+    <cfRule type="expression" dxfId="520" priority="1022">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="855">
+    <cfRule type="expression" dxfId="519" priority="1023">
       <formula>AND($U$4="Yes",$U27&gt;=W$5,$T27&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="862">
+    <cfRule type="expression" dxfId="518" priority="1030">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M27&lt;&gt;"M",$U27&gt;=W$5,$T27&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="863">
+    <cfRule type="expression" dxfId="517" priority="1031">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P27&lt;=W$6,ROUNDDOWN(($Q27-$P27+1)*$N27,0)+$P27-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="864" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="1032" stopIfTrue="1">
       <formula>AND(OR($M27="b",$M27=""),$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="865" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="1033" stopIfTrue="1">
       <formula>AND($M27="K",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="866" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="1034" stopIfTrue="1">
       <formula>AND($M27="x",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="867" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="1035" stopIfTrue="1">
       <formula>AND($M27="G",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="868" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="1036" stopIfTrue="1">
       <formula>AND($M27="P",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="869" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="1037" stopIfTrue="1">
       <formula>AND($M27="Y",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="1038" stopIfTrue="1">
       <formula>AND($M27="O",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="509" priority="1039" stopIfTrue="1">
       <formula>AND($M27="R",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="508" priority="1040" stopIfTrue="1">
       <formula>AND($M27=1,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="507" priority="1041" stopIfTrue="1">
       <formula>AND($M27=2,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="874" stopIfTrue="1">
+    <cfRule type="expression" dxfId="506" priority="1042" stopIfTrue="1">
       <formula>AND($M27=3,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="875" stopIfTrue="1">
+    <cfRule type="expression" dxfId="505" priority="1043" stopIfTrue="1">
       <formula>AND($M27=4,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="876" stopIfTrue="1">
+    <cfRule type="expression" dxfId="504" priority="1044" stopIfTrue="1">
       <formula>AND($M27=5,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="877" stopIfTrue="1">
+    <cfRule type="expression" dxfId="503" priority="1045" stopIfTrue="1">
       <formula>AND($M27=6,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="878" stopIfTrue="1">
+    <cfRule type="expression" dxfId="502" priority="1046" stopIfTrue="1">
       <formula>AND($M27=7,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="879" stopIfTrue="1">
+    <cfRule type="expression" dxfId="501" priority="1047" stopIfTrue="1">
       <formula>AND($M27="M",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="880" stopIfTrue="1">
+    <cfRule type="expression" dxfId="500" priority="1048" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N27&lt;1,$P27&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="881" stopIfTrue="1">
+    <cfRule type="expression" dxfId="499" priority="1049" stopIfTrue="1">
       <formula>AND($P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="882">
+    <cfRule type="expression" dxfId="498" priority="1050">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="883">
+    <cfRule type="expression" dxfId="497" priority="1051">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="531" priority="851">
+    <cfRule type="expression" dxfId="496" priority="1019">
       <formula>AND($Q$10="Yes",Q27&lt;$C$10,N27&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="852">
+    <cfRule type="expression" dxfId="495" priority="1020">
       <formula>AND($Q$10="Yes",Q27&lt;=$C$10+enddate_highlight_days,N27&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="cellIs" dxfId="529" priority="849" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="494" priority="1017" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="850">
+    <cfRule type="dataBar" priority="1018">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33263,17 +33543,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27 L27 T27:U27">
-    <cfRule type="expression" dxfId="528" priority="848">
+    <cfRule type="expression" dxfId="493" priority="1016">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:Q27">
-    <cfRule type="expression" dxfId="527" priority="847">
+    <cfRule type="expression" dxfId="492" priority="1015">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27">
-    <cfRule type="iconSet" priority="853">
+    <cfRule type="iconSet" priority="1021">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33283,10 +33563,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="cellIs" dxfId="526" priority="845" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="491" priority="1013" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="846">
+    <cfRule type="dataBar" priority="1014">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33300,122 +33580,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:U27 L27 I27">
-    <cfRule type="expression" dxfId="525" priority="844">
+    <cfRule type="expression" dxfId="490" priority="1012">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:Q27">
-    <cfRule type="expression" dxfId="524" priority="843">
+    <cfRule type="expression" dxfId="489" priority="1011">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="523" priority="815">
+    <cfRule type="expression" dxfId="488" priority="983">
       <formula>$A29=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="816">
+    <cfRule type="expression" dxfId="487" priority="984">
       <formula>$A29=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="817">
+    <cfRule type="expression" dxfId="486" priority="985">
       <formula>$A29=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="818">
+    <cfRule type="expression" dxfId="485" priority="986">
       <formula>$A29=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="819">
+    <cfRule type="expression" dxfId="484" priority="987">
       <formula>$A29=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="820">
+    <cfRule type="expression" dxfId="483" priority="988">
       <formula>$A29=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:ED29">
-    <cfRule type="expression" dxfId="517" priority="813">
+    <cfRule type="expression" dxfId="482" priority="981">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="814">
+    <cfRule type="expression" dxfId="481" priority="982">
       <formula>AND($U$4="Yes",$U29&gt;=W$5,$T29&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="821">
+    <cfRule type="expression" dxfId="480" priority="989">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M29&lt;&gt;"M",$U29&gt;=W$5,$T29&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="822">
+    <cfRule type="expression" dxfId="479" priority="990">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P29&lt;=W$6,ROUNDDOWN(($Q29-$P29+1)*$N29,0)+$P29-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="823" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="991" stopIfTrue="1">
       <formula>AND(OR($M29="b",$M29=""),$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="824" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="992" stopIfTrue="1">
       <formula>AND($M29="K",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="825" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="993" stopIfTrue="1">
       <formula>AND($M29="x",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="826" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="994" stopIfTrue="1">
       <formula>AND($M29="G",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="827" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="995" stopIfTrue="1">
       <formula>AND($M29="P",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="828" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="996" stopIfTrue="1">
       <formula>AND($M29="Y",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="829" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="997" stopIfTrue="1">
       <formula>AND($M29="O",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="830" stopIfTrue="1">
+    <cfRule type="expression" dxfId="471" priority="998" stopIfTrue="1">
       <formula>AND($M29="R",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="831" stopIfTrue="1">
+    <cfRule type="expression" dxfId="470" priority="999" stopIfTrue="1">
       <formula>AND($M29=1,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="832" stopIfTrue="1">
+    <cfRule type="expression" dxfId="469" priority="1000" stopIfTrue="1">
       <formula>AND($M29=2,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="833" stopIfTrue="1">
+    <cfRule type="expression" dxfId="468" priority="1001" stopIfTrue="1">
       <formula>AND($M29=3,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="834" stopIfTrue="1">
+    <cfRule type="expression" dxfId="467" priority="1002" stopIfTrue="1">
       <formula>AND($M29=4,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="835" stopIfTrue="1">
+    <cfRule type="expression" dxfId="466" priority="1003" stopIfTrue="1">
       <formula>AND($M29=5,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="836" stopIfTrue="1">
+    <cfRule type="expression" dxfId="465" priority="1004" stopIfTrue="1">
       <formula>AND($M29=6,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="837" stopIfTrue="1">
+    <cfRule type="expression" dxfId="464" priority="1005" stopIfTrue="1">
       <formula>AND($M29=7,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="838" stopIfTrue="1">
+    <cfRule type="expression" dxfId="463" priority="1006" stopIfTrue="1">
       <formula>AND($M29="M",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="839" stopIfTrue="1">
+    <cfRule type="expression" dxfId="462" priority="1007" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N29&lt;1,$P29&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="840" stopIfTrue="1">
+    <cfRule type="expression" dxfId="461" priority="1008" stopIfTrue="1">
       <formula>AND($P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="841">
+    <cfRule type="expression" dxfId="460" priority="1009">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="842">
+    <cfRule type="expression" dxfId="459" priority="1010">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="493" priority="810">
+    <cfRule type="expression" dxfId="458" priority="978">
       <formula>AND($Q$10="Yes",Q29&lt;$C$10,N29&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="811">
+    <cfRule type="expression" dxfId="457" priority="979">
       <formula>AND($Q$10="Yes",Q29&lt;=$C$10+enddate_highlight_days,N29&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="491" priority="808" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="456" priority="976" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="809">
+    <cfRule type="dataBar" priority="977">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33429,17 +33709,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29 L29 T29:U29">
-    <cfRule type="expression" dxfId="490" priority="807">
+    <cfRule type="expression" dxfId="455" priority="975">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q29">
-    <cfRule type="expression" dxfId="489" priority="806">
+    <cfRule type="expression" dxfId="454" priority="974">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="iconSet" priority="812">
+    <cfRule type="iconSet" priority="980">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33449,10 +33729,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="488" priority="804" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="453" priority="972" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="805">
+    <cfRule type="dataBar" priority="973">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33466,122 +33746,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U29 L29 I29">
-    <cfRule type="expression" dxfId="487" priority="803">
+    <cfRule type="expression" dxfId="452" priority="971">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q29">
-    <cfRule type="expression" dxfId="486" priority="802">
+    <cfRule type="expression" dxfId="451" priority="970">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="485" priority="774">
+    <cfRule type="expression" dxfId="450" priority="942">
       <formula>$A32=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="775">
+    <cfRule type="expression" dxfId="449" priority="943">
       <formula>$A32=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="776">
+    <cfRule type="expression" dxfId="448" priority="944">
       <formula>$A32=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="777">
+    <cfRule type="expression" dxfId="447" priority="945">
       <formula>$A32=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="778">
+    <cfRule type="expression" dxfId="446" priority="946">
       <formula>$A32=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="779">
+    <cfRule type="expression" dxfId="445" priority="947">
       <formula>$A32=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32:ED32">
-    <cfRule type="expression" dxfId="479" priority="772">
+    <cfRule type="expression" dxfId="444" priority="940">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="773">
+    <cfRule type="expression" dxfId="443" priority="941">
       <formula>AND($U$4="Yes",$U32&gt;=W$5,$T32&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="780">
+    <cfRule type="expression" dxfId="442" priority="948">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M32&lt;&gt;"M",$U32&gt;=W$5,$T32&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="781">
+    <cfRule type="expression" dxfId="441" priority="949">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P32&lt;=W$6,ROUNDDOWN(($Q32-$P32+1)*$N32,0)+$P32-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="782" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="950" stopIfTrue="1">
       <formula>AND(OR($M32="b",$M32=""),$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="783" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="951" stopIfTrue="1">
       <formula>AND($M32="K",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="784" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="952" stopIfTrue="1">
       <formula>AND($M32="x",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="785" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="953" stopIfTrue="1">
       <formula>AND($M32="G",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="786" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="954" stopIfTrue="1">
       <formula>AND($M32="P",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="787" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="955" stopIfTrue="1">
       <formula>AND($M32="Y",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="788" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="956" stopIfTrue="1">
       <formula>AND($M32="O",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="789" stopIfTrue="1">
+    <cfRule type="expression" dxfId="433" priority="957" stopIfTrue="1">
       <formula>AND($M32="R",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="432" priority="958" stopIfTrue="1">
       <formula>AND($M32=1,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="791" stopIfTrue="1">
+    <cfRule type="expression" dxfId="431" priority="959" stopIfTrue="1">
       <formula>AND($M32=2,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="792" stopIfTrue="1">
+    <cfRule type="expression" dxfId="430" priority="960" stopIfTrue="1">
       <formula>AND($M32=3,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="793" stopIfTrue="1">
+    <cfRule type="expression" dxfId="429" priority="961" stopIfTrue="1">
       <formula>AND($M32=4,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="794" stopIfTrue="1">
+    <cfRule type="expression" dxfId="428" priority="962" stopIfTrue="1">
       <formula>AND($M32=5,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="795" stopIfTrue="1">
+    <cfRule type="expression" dxfId="427" priority="963" stopIfTrue="1">
       <formula>AND($M32=6,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="796" stopIfTrue="1">
+    <cfRule type="expression" dxfId="426" priority="964" stopIfTrue="1">
       <formula>AND($M32=7,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="797" stopIfTrue="1">
+    <cfRule type="expression" dxfId="425" priority="965" stopIfTrue="1">
       <formula>AND($M32="M",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="424" priority="966" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N32&lt;1,$P32&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="423" priority="967" stopIfTrue="1">
       <formula>AND($P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="800">
+    <cfRule type="expression" dxfId="422" priority="968">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="801">
+    <cfRule type="expression" dxfId="421" priority="969">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="expression" dxfId="455" priority="769">
+    <cfRule type="expression" dxfId="420" priority="937">
       <formula>AND($Q$10="Yes",Q32&lt;$C$10,N32&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="770">
+    <cfRule type="expression" dxfId="419" priority="938">
       <formula>AND($Q$10="Yes",Q32&lt;=$C$10+enddate_highlight_days,N32&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="453" priority="767" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="418" priority="935" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="768">
+    <cfRule type="dataBar" priority="936">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33595,17 +33875,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32 L32 T32:U32">
-    <cfRule type="expression" dxfId="452" priority="766">
+    <cfRule type="expression" dxfId="417" priority="934">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q32">
-    <cfRule type="expression" dxfId="451" priority="765">
+    <cfRule type="expression" dxfId="416" priority="933">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="iconSet" priority="771">
+    <cfRule type="iconSet" priority="939">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33615,10 +33895,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="450" priority="763" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="415" priority="931" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="764">
+    <cfRule type="dataBar" priority="932">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33632,122 +33912,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:U32 L32 I32">
-    <cfRule type="expression" dxfId="449" priority="762">
+    <cfRule type="expression" dxfId="414" priority="930">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q32">
-    <cfRule type="expression" dxfId="448" priority="761">
+    <cfRule type="expression" dxfId="413" priority="929">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="447" priority="692">
+    <cfRule type="expression" dxfId="412" priority="860">
       <formula>$A30=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="693">
+    <cfRule type="expression" dxfId="411" priority="861">
       <formula>$A30=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="694">
+    <cfRule type="expression" dxfId="410" priority="862">
       <formula>$A30=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="695">
+    <cfRule type="expression" dxfId="409" priority="863">
       <formula>$A30=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="696">
+    <cfRule type="expression" dxfId="408" priority="864">
       <formula>$A30=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="697">
+    <cfRule type="expression" dxfId="407" priority="865">
       <formula>$A30=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:ED30">
-    <cfRule type="expression" dxfId="441" priority="690">
+    <cfRule type="expression" dxfId="406" priority="858">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="691">
+    <cfRule type="expression" dxfId="405" priority="859">
       <formula>AND($U$4="Yes",$U30&gt;=W$5,$T30&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="698">
+    <cfRule type="expression" dxfId="404" priority="866">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M30&lt;&gt;"M",$U30&gt;=W$5,$T30&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="699">
+    <cfRule type="expression" dxfId="403" priority="867">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P30&lt;=W$6,ROUNDDOWN(($Q30-$P30+1)*$N30,0)+$P30-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="700" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="868" stopIfTrue="1">
       <formula>AND(OR($M30="b",$M30=""),$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="701" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="869" stopIfTrue="1">
       <formula>AND($M30="K",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="702" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="870" stopIfTrue="1">
       <formula>AND($M30="x",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="703" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="871" stopIfTrue="1">
       <formula>AND($M30="G",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="872" stopIfTrue="1">
       <formula>AND($M30="P",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="873" stopIfTrue="1">
       <formula>AND($M30="Y",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="874" stopIfTrue="1">
       <formula>AND($M30="O",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="395" priority="875" stopIfTrue="1">
       <formula>AND($M30="R",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="394" priority="876" stopIfTrue="1">
       <formula>AND($M30=1,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="393" priority="877" stopIfTrue="1">
       <formula>AND($M30=2,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="392" priority="878" stopIfTrue="1">
       <formula>AND($M30=3,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="391" priority="879" stopIfTrue="1">
       <formula>AND($M30=4,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="712" stopIfTrue="1">
+    <cfRule type="expression" dxfId="390" priority="880" stopIfTrue="1">
       <formula>AND($M30=5,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="713" stopIfTrue="1">
+    <cfRule type="expression" dxfId="389" priority="881" stopIfTrue="1">
       <formula>AND($M30=6,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="714" stopIfTrue="1">
+    <cfRule type="expression" dxfId="388" priority="882" stopIfTrue="1">
       <formula>AND($M30=7,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="715" stopIfTrue="1">
+    <cfRule type="expression" dxfId="387" priority="883" stopIfTrue="1">
       <formula>AND($M30="M",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="716" stopIfTrue="1">
+    <cfRule type="expression" dxfId="386" priority="884" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N30&lt;1,$P30&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="717" stopIfTrue="1">
+    <cfRule type="expression" dxfId="385" priority="885" stopIfTrue="1">
       <formula>AND($P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="718">
+    <cfRule type="expression" dxfId="384" priority="886">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="719">
+    <cfRule type="expression" dxfId="383" priority="887">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="417" priority="687">
+    <cfRule type="expression" dxfId="382" priority="855">
       <formula>AND($Q$10="Yes",Q30&lt;$C$10,N30&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="688">
+    <cfRule type="expression" dxfId="381" priority="856">
       <formula>AND($Q$10="Yes",Q30&lt;=$C$10+enddate_highlight_days,N30&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="415" priority="685" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="380" priority="853" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="686">
+    <cfRule type="dataBar" priority="854">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33761,17 +34041,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30 L30 T30:U30">
-    <cfRule type="expression" dxfId="414" priority="684">
+    <cfRule type="expression" dxfId="379" priority="852">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q30">
-    <cfRule type="expression" dxfId="413" priority="683">
+    <cfRule type="expression" dxfId="378" priority="851">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="iconSet" priority="689">
+    <cfRule type="iconSet" priority="857">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33781,10 +34061,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="412" priority="681" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="377" priority="849" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="682">
+    <cfRule type="dataBar" priority="850">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33798,122 +34078,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:U30 L30 I30">
-    <cfRule type="expression" dxfId="411" priority="680">
+    <cfRule type="expression" dxfId="376" priority="848">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q30">
-    <cfRule type="expression" dxfId="410" priority="679">
+    <cfRule type="expression" dxfId="375" priority="847">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="409" priority="651">
+    <cfRule type="expression" dxfId="374" priority="819">
       <formula>$A31=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="652">
+    <cfRule type="expression" dxfId="373" priority="820">
       <formula>$A31=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="653">
+    <cfRule type="expression" dxfId="372" priority="821">
       <formula>$A31=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="654">
+    <cfRule type="expression" dxfId="371" priority="822">
       <formula>$A31=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="655">
+    <cfRule type="expression" dxfId="370" priority="823">
       <formula>$A31=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="656">
+    <cfRule type="expression" dxfId="369" priority="824">
       <formula>$A31=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:ED31">
-    <cfRule type="expression" dxfId="403" priority="649">
+    <cfRule type="expression" dxfId="368" priority="817">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="650">
+    <cfRule type="expression" dxfId="367" priority="818">
       <formula>AND($U$4="Yes",$U31&gt;=W$5,$T31&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="657">
+    <cfRule type="expression" dxfId="366" priority="825">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M31&lt;&gt;"M",$U31&gt;=W$5,$T31&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="658">
+    <cfRule type="expression" dxfId="365" priority="826">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P31&lt;=W$6,ROUNDDOWN(($Q31-$P31+1)*$N31,0)+$P31-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="659" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="827" stopIfTrue="1">
       <formula>AND(OR($M31="b",$M31=""),$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="660" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="828" stopIfTrue="1">
       <formula>AND($M31="K",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="661" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="829" stopIfTrue="1">
       <formula>AND($M31="x",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="662" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="830" stopIfTrue="1">
       <formula>AND($M31="G",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="663" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="831" stopIfTrue="1">
       <formula>AND($M31="P",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="664" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="832" stopIfTrue="1">
       <formula>AND($M31="Y",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="665" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="833" stopIfTrue="1">
       <formula>AND($M31="O",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="666" stopIfTrue="1">
+    <cfRule type="expression" dxfId="357" priority="834" stopIfTrue="1">
       <formula>AND($M31="R",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="667" stopIfTrue="1">
+    <cfRule type="expression" dxfId="356" priority="835" stopIfTrue="1">
       <formula>AND($M31=1,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="668" stopIfTrue="1">
+    <cfRule type="expression" dxfId="355" priority="836" stopIfTrue="1">
       <formula>AND($M31=2,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="669" stopIfTrue="1">
+    <cfRule type="expression" dxfId="354" priority="837" stopIfTrue="1">
       <formula>AND($M31=3,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="670" stopIfTrue="1">
+    <cfRule type="expression" dxfId="353" priority="838" stopIfTrue="1">
       <formula>AND($M31=4,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="671" stopIfTrue="1">
+    <cfRule type="expression" dxfId="352" priority="839" stopIfTrue="1">
       <formula>AND($M31=5,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="672" stopIfTrue="1">
+    <cfRule type="expression" dxfId="351" priority="840" stopIfTrue="1">
       <formula>AND($M31=6,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="673" stopIfTrue="1">
+    <cfRule type="expression" dxfId="350" priority="841" stopIfTrue="1">
       <formula>AND($M31=7,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="674" stopIfTrue="1">
+    <cfRule type="expression" dxfId="349" priority="842" stopIfTrue="1">
       <formula>AND($M31="M",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="675" stopIfTrue="1">
+    <cfRule type="expression" dxfId="348" priority="843" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N31&lt;1,$P31&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="676" stopIfTrue="1">
+    <cfRule type="expression" dxfId="347" priority="844" stopIfTrue="1">
       <formula>AND($P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="677">
+    <cfRule type="expression" dxfId="346" priority="845">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="678">
+    <cfRule type="expression" dxfId="345" priority="846">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31">
-    <cfRule type="expression" dxfId="379" priority="646">
+    <cfRule type="expression" dxfId="344" priority="814">
       <formula>AND($Q$10="Yes",Q31&lt;$C$10,N31&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="647">
+    <cfRule type="expression" dxfId="343" priority="815">
       <formula>AND($Q$10="Yes",Q31&lt;=$C$10+enddate_highlight_days,N31&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="377" priority="644" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="342" priority="812" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="645">
+    <cfRule type="dataBar" priority="813">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33927,17 +34207,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 L31 T31:U31">
-    <cfRule type="expression" dxfId="376" priority="643">
+    <cfRule type="expression" dxfId="341" priority="811">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q31">
-    <cfRule type="expression" dxfId="375" priority="642">
+    <cfRule type="expression" dxfId="340" priority="810">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="iconSet" priority="648">
+    <cfRule type="iconSet" priority="816">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33947,10 +34227,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="374" priority="640" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="339" priority="808" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="641">
+    <cfRule type="dataBar" priority="809">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33964,122 +34244,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:U31 L31 I31">
-    <cfRule type="expression" dxfId="373" priority="639">
+    <cfRule type="expression" dxfId="338" priority="807">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q31">
-    <cfRule type="expression" dxfId="372" priority="638">
+    <cfRule type="expression" dxfId="337" priority="806">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="371" priority="610">
+    <cfRule type="expression" dxfId="336" priority="778">
       <formula>$A35=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="611">
+    <cfRule type="expression" dxfId="335" priority="779">
       <formula>$A35=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="612">
+    <cfRule type="expression" dxfId="334" priority="780">
       <formula>$A35=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="613">
+    <cfRule type="expression" dxfId="333" priority="781">
       <formula>$A35=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="614">
+    <cfRule type="expression" dxfId="332" priority="782">
       <formula>$A35=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="615">
+    <cfRule type="expression" dxfId="331" priority="783">
       <formula>$A35=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35:ED35">
-    <cfRule type="expression" dxfId="365" priority="608">
+    <cfRule type="expression" dxfId="330" priority="776">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="609">
+    <cfRule type="expression" dxfId="329" priority="777">
       <formula>AND($U$4="Yes",$U35&gt;=W$5,$T35&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="616">
+    <cfRule type="expression" dxfId="328" priority="784">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M35&lt;&gt;"M",$U35&gt;=W$5,$T35&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="617">
+    <cfRule type="expression" dxfId="327" priority="785">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P35&lt;=W$6,ROUNDDOWN(($Q35-$P35+1)*$N35,0)+$P35-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="618" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="786" stopIfTrue="1">
       <formula>AND(OR($M35="b",$M35=""),$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="619" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="787" stopIfTrue="1">
       <formula>AND($M35="K",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="620" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="788" stopIfTrue="1">
       <formula>AND($M35="x",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="621" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="789" stopIfTrue="1">
       <formula>AND($M35="G",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="622" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="790" stopIfTrue="1">
       <formula>AND($M35="P",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="623" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="791" stopIfTrue="1">
       <formula>AND($M35="Y",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="624" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="792" stopIfTrue="1">
       <formula>AND($M35="O",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="625" stopIfTrue="1">
+    <cfRule type="expression" dxfId="319" priority="793" stopIfTrue="1">
       <formula>AND($M35="R",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="626" stopIfTrue="1">
+    <cfRule type="expression" dxfId="318" priority="794" stopIfTrue="1">
       <formula>AND($M35=1,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="627" stopIfTrue="1">
+    <cfRule type="expression" dxfId="317" priority="795" stopIfTrue="1">
       <formula>AND($M35=2,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="628" stopIfTrue="1">
+    <cfRule type="expression" dxfId="316" priority="796" stopIfTrue="1">
       <formula>AND($M35=3,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="629" stopIfTrue="1">
+    <cfRule type="expression" dxfId="315" priority="797" stopIfTrue="1">
       <formula>AND($M35=4,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="630" stopIfTrue="1">
+    <cfRule type="expression" dxfId="314" priority="798" stopIfTrue="1">
       <formula>AND($M35=5,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="631" stopIfTrue="1">
+    <cfRule type="expression" dxfId="313" priority="799" stopIfTrue="1">
       <formula>AND($M35=6,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="632" stopIfTrue="1">
+    <cfRule type="expression" dxfId="312" priority="800" stopIfTrue="1">
       <formula>AND($M35=7,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="633" stopIfTrue="1">
+    <cfRule type="expression" dxfId="311" priority="801" stopIfTrue="1">
       <formula>AND($M35="M",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="634" stopIfTrue="1">
+    <cfRule type="expression" dxfId="310" priority="802" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N35&lt;1,$P35&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="635" stopIfTrue="1">
+    <cfRule type="expression" dxfId="309" priority="803" stopIfTrue="1">
       <formula>AND($P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="636">
+    <cfRule type="expression" dxfId="308" priority="804">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="637">
+    <cfRule type="expression" dxfId="307" priority="805">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="expression" dxfId="341" priority="605">
+    <cfRule type="expression" dxfId="306" priority="773">
       <formula>AND($Q$10="Yes",Q35&lt;$C$10,N35&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="606">
+    <cfRule type="expression" dxfId="305" priority="774">
       <formula>AND($Q$10="Yes",Q35&lt;=$C$10+enddate_highlight_days,N35&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="cellIs" dxfId="339" priority="603" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="304" priority="771" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="604">
+    <cfRule type="dataBar" priority="772">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34093,17 +34373,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35 L35 T35:U35">
-    <cfRule type="expression" dxfId="338" priority="602">
+    <cfRule type="expression" dxfId="303" priority="770">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:Q35">
-    <cfRule type="expression" dxfId="337" priority="601">
+    <cfRule type="expression" dxfId="302" priority="769">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="iconSet" priority="607">
+    <cfRule type="iconSet" priority="775">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34113,10 +34393,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="cellIs" dxfId="336" priority="599" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="301" priority="767" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="600">
+    <cfRule type="dataBar" priority="768">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34130,122 +34410,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35:U35 L35 I35">
-    <cfRule type="expression" dxfId="335" priority="598">
+    <cfRule type="expression" dxfId="300" priority="766">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:Q35">
-    <cfRule type="expression" dxfId="334" priority="597">
+    <cfRule type="expression" dxfId="299" priority="765">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="333" priority="569">
+    <cfRule type="expression" dxfId="298" priority="737">
       <formula>$A36=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="570">
+    <cfRule type="expression" dxfId="297" priority="738">
       <formula>$A36=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="571">
+    <cfRule type="expression" dxfId="296" priority="739">
       <formula>$A36=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="572">
+    <cfRule type="expression" dxfId="295" priority="740">
       <formula>$A36=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="573">
+    <cfRule type="expression" dxfId="294" priority="741">
       <formula>$A36=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="574">
+    <cfRule type="expression" dxfId="293" priority="742">
       <formula>$A36=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36:ED36">
-    <cfRule type="expression" dxfId="327" priority="567">
+    <cfRule type="expression" dxfId="292" priority="735">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="568">
+    <cfRule type="expression" dxfId="291" priority="736">
       <formula>AND($U$4="Yes",$U36&gt;=W$5,$T36&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="575">
+    <cfRule type="expression" dxfId="290" priority="743">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M36&lt;&gt;"M",$U36&gt;=W$5,$T36&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="576">
+    <cfRule type="expression" dxfId="289" priority="744">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P36&lt;=W$6,ROUNDDOWN(($Q36-$P36+1)*$N36,0)+$P36-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="577" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="745" stopIfTrue="1">
       <formula>AND(OR($M36="b",$M36=""),$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="578" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="746" stopIfTrue="1">
       <formula>AND($M36="K",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="579" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="747" stopIfTrue="1">
       <formula>AND($M36="x",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="580" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="748" stopIfTrue="1">
       <formula>AND($M36="G",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="581" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="749" stopIfTrue="1">
       <formula>AND($M36="P",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="582" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="750" stopIfTrue="1">
       <formula>AND($M36="Y",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="583" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="751" stopIfTrue="1">
       <formula>AND($M36="O",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="584" stopIfTrue="1">
+    <cfRule type="expression" dxfId="281" priority="752" stopIfTrue="1">
       <formula>AND($M36="R",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="585" stopIfTrue="1">
+    <cfRule type="expression" dxfId="280" priority="753" stopIfTrue="1">
       <formula>AND($M36=1,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="586" stopIfTrue="1">
+    <cfRule type="expression" dxfId="279" priority="754" stopIfTrue="1">
       <formula>AND($M36=2,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="587" stopIfTrue="1">
+    <cfRule type="expression" dxfId="278" priority="755" stopIfTrue="1">
       <formula>AND($M36=3,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="588" stopIfTrue="1">
+    <cfRule type="expression" dxfId="277" priority="756" stopIfTrue="1">
       <formula>AND($M36=4,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="589" stopIfTrue="1">
+    <cfRule type="expression" dxfId="276" priority="757" stopIfTrue="1">
       <formula>AND($M36=5,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="590" stopIfTrue="1">
+    <cfRule type="expression" dxfId="275" priority="758" stopIfTrue="1">
       <formula>AND($M36=6,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="591" stopIfTrue="1">
+    <cfRule type="expression" dxfId="274" priority="759" stopIfTrue="1">
       <formula>AND($M36=7,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="592" stopIfTrue="1">
+    <cfRule type="expression" dxfId="273" priority="760" stopIfTrue="1">
       <formula>AND($M36="M",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="593" stopIfTrue="1">
+    <cfRule type="expression" dxfId="272" priority="761" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N36&lt;1,$P36&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="594" stopIfTrue="1">
+    <cfRule type="expression" dxfId="271" priority="762" stopIfTrue="1">
       <formula>AND($P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="595">
+    <cfRule type="expression" dxfId="270" priority="763">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="596">
+    <cfRule type="expression" dxfId="269" priority="764">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="expression" dxfId="303" priority="564">
+    <cfRule type="expression" dxfId="268" priority="732">
       <formula>AND($Q$10="Yes",Q36&lt;$C$10,N36&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="565">
+    <cfRule type="expression" dxfId="267" priority="733">
       <formula>AND($Q$10="Yes",Q36&lt;=$C$10+enddate_highlight_days,N36&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="cellIs" dxfId="301" priority="562" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="266" priority="730" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="563">
+    <cfRule type="dataBar" priority="731">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34259,17 +34539,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36 L36 T36:U36">
-    <cfRule type="expression" dxfId="300" priority="561">
+    <cfRule type="expression" dxfId="265" priority="729">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:Q36">
-    <cfRule type="expression" dxfId="299" priority="560">
+    <cfRule type="expression" dxfId="264" priority="728">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="iconSet" priority="566">
+    <cfRule type="iconSet" priority="734">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34279,10 +34559,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="cellIs" dxfId="298" priority="558" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="263" priority="726" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="559">
+    <cfRule type="dataBar" priority="727">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34296,122 +34576,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36:U36 L36 I36">
-    <cfRule type="expression" dxfId="297" priority="557">
+    <cfRule type="expression" dxfId="262" priority="725">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:Q36">
-    <cfRule type="expression" dxfId="296" priority="556">
+    <cfRule type="expression" dxfId="261" priority="724">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="295" priority="528">
+    <cfRule type="expression" dxfId="260" priority="696">
       <formula>$A37=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="529">
+    <cfRule type="expression" dxfId="259" priority="697">
       <formula>$A37=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="530">
+    <cfRule type="expression" dxfId="258" priority="698">
       <formula>$A37=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="531">
+    <cfRule type="expression" dxfId="257" priority="699">
       <formula>$A37=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="532">
+    <cfRule type="expression" dxfId="256" priority="700">
       <formula>$A37=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="533">
+    <cfRule type="expression" dxfId="255" priority="701">
       <formula>$A37=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37:ED37">
-    <cfRule type="expression" dxfId="289" priority="526">
+    <cfRule type="expression" dxfId="254" priority="694">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="527">
+    <cfRule type="expression" dxfId="253" priority="695">
       <formula>AND($U$4="Yes",$U37&gt;=W$5,$T37&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="534">
+    <cfRule type="expression" dxfId="252" priority="702">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M37&lt;&gt;"M",$U37&gt;=W$5,$T37&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="535">
+    <cfRule type="expression" dxfId="251" priority="703">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P37&lt;=W$6,ROUNDDOWN(($Q37-$P37+1)*$N37,0)+$P37-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="536" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="704" stopIfTrue="1">
       <formula>AND(OR($M37="b",$M37=""),$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="537" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="705" stopIfTrue="1">
       <formula>AND($M37="K",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="538" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="706" stopIfTrue="1">
       <formula>AND($M37="x",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="539" stopIfTrue="1">
+    <cfRule type="expression" dxfId="247" priority="707" stopIfTrue="1">
       <formula>AND($M37="G",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="540" stopIfTrue="1">
+    <cfRule type="expression" dxfId="246" priority="708" stopIfTrue="1">
       <formula>AND($M37="P",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="541" stopIfTrue="1">
+    <cfRule type="expression" dxfId="245" priority="709" stopIfTrue="1">
       <formula>AND($M37="Y",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="542" stopIfTrue="1">
+    <cfRule type="expression" dxfId="244" priority="710" stopIfTrue="1">
       <formula>AND($M37="O",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="543" stopIfTrue="1">
+    <cfRule type="expression" dxfId="243" priority="711" stopIfTrue="1">
       <formula>AND($M37="R",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="544" stopIfTrue="1">
+    <cfRule type="expression" dxfId="242" priority="712" stopIfTrue="1">
       <formula>AND($M37=1,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="545" stopIfTrue="1">
+    <cfRule type="expression" dxfId="241" priority="713" stopIfTrue="1">
       <formula>AND($M37=2,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="546" stopIfTrue="1">
+    <cfRule type="expression" dxfId="240" priority="714" stopIfTrue="1">
       <formula>AND($M37=3,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="547" stopIfTrue="1">
+    <cfRule type="expression" dxfId="239" priority="715" stopIfTrue="1">
       <formula>AND($M37=4,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="548" stopIfTrue="1">
+    <cfRule type="expression" dxfId="238" priority="716" stopIfTrue="1">
       <formula>AND($M37=5,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="549" stopIfTrue="1">
+    <cfRule type="expression" dxfId="237" priority="717" stopIfTrue="1">
       <formula>AND($M37=6,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="550" stopIfTrue="1">
+    <cfRule type="expression" dxfId="236" priority="718" stopIfTrue="1">
       <formula>AND($M37=7,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="551" stopIfTrue="1">
+    <cfRule type="expression" dxfId="235" priority="719" stopIfTrue="1">
       <formula>AND($M37="M",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="552" stopIfTrue="1">
+    <cfRule type="expression" dxfId="234" priority="720" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N37&lt;1,$P37&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="553" stopIfTrue="1">
+    <cfRule type="expression" dxfId="233" priority="721" stopIfTrue="1">
       <formula>AND($P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="554">
+    <cfRule type="expression" dxfId="232" priority="722">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="555">
+    <cfRule type="expression" dxfId="231" priority="723">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="expression" dxfId="265" priority="523">
+    <cfRule type="expression" dxfId="230" priority="691">
       <formula>AND($Q$10="Yes",Q37&lt;$C$10,N37&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="524">
+    <cfRule type="expression" dxfId="229" priority="692">
       <formula>AND($Q$10="Yes",Q37&lt;=$C$10+enddate_highlight_days,N37&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37">
-    <cfRule type="cellIs" dxfId="263" priority="521" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="228" priority="689" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="522">
+    <cfRule type="dataBar" priority="690">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34425,17 +34705,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37 L37 T37:U37">
-    <cfRule type="expression" dxfId="262" priority="520">
+    <cfRule type="expression" dxfId="227" priority="688">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:Q37">
-    <cfRule type="expression" dxfId="261" priority="519">
+    <cfRule type="expression" dxfId="226" priority="687">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="iconSet" priority="525">
+    <cfRule type="iconSet" priority="693">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34445,10 +34725,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37">
-    <cfRule type="cellIs" dxfId="260" priority="517" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="225" priority="685" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="518">
+    <cfRule type="dataBar" priority="686">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34462,20 +34742,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37:U37 L37 I37">
-    <cfRule type="expression" dxfId="259" priority="516">
+    <cfRule type="expression" dxfId="224" priority="684">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:Q37">
-    <cfRule type="expression" dxfId="258" priority="515">
+    <cfRule type="expression" dxfId="223" priority="683">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:N47">
-    <cfRule type="cellIs" dxfId="257" priority="480" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="222" priority="648" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="481">
+    <cfRule type="dataBar" priority="649">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34489,17 +34769,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:I47 L46:L47 T46:U47">
-    <cfRule type="expression" dxfId="256" priority="479">
+    <cfRule type="expression" dxfId="221" priority="647">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:Q47">
-    <cfRule type="expression" dxfId="255" priority="478">
+    <cfRule type="expression" dxfId="220" priority="646">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46">
-    <cfRule type="iconSet" priority="484">
+    <cfRule type="iconSet" priority="652">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34509,10 +34789,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:N47">
-    <cfRule type="cellIs" dxfId="254" priority="476" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="219" priority="644" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="477">
+    <cfRule type="dataBar" priority="645">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34526,17 +34806,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:U47 L46:L47 I46:I47">
-    <cfRule type="expression" dxfId="253" priority="475">
+    <cfRule type="expression" dxfId="218" priority="643">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:Q47">
-    <cfRule type="expression" dxfId="252" priority="474">
+    <cfRule type="expression" dxfId="217" priority="642">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O47">
-    <cfRule type="iconSet" priority="443">
+    <cfRule type="iconSet" priority="611">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34546,38 +34826,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="251" priority="405">
+    <cfRule type="expression" dxfId="216" priority="573">
       <formula>$A39=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="406">
+    <cfRule type="expression" dxfId="215" priority="574">
       <formula>$A39=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="407">
+    <cfRule type="expression" dxfId="214" priority="575">
       <formula>$A39=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="408">
+    <cfRule type="expression" dxfId="213" priority="576">
       <formula>$A39=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="409">
+    <cfRule type="expression" dxfId="212" priority="577">
       <formula>$A39=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="410">
+    <cfRule type="expression" dxfId="211" priority="578">
       <formula>$A39=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39">
-    <cfRule type="expression" dxfId="245" priority="400">
+    <cfRule type="expression" dxfId="210" priority="568">
       <formula>AND($Q$10="Yes",Q39&lt;$C$10,N39&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="401">
+    <cfRule type="expression" dxfId="209" priority="569">
       <formula>AND($Q$10="Yes",Q39&lt;=$C$10+enddate_highlight_days,N39&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="cellIs" dxfId="243" priority="398" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="208" priority="566" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="399">
+    <cfRule type="dataBar" priority="567">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34591,17 +34871,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39 L39 T39:U39">
-    <cfRule type="expression" dxfId="242" priority="397">
+    <cfRule type="expression" dxfId="207" priority="565">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:Q39">
-    <cfRule type="expression" dxfId="241" priority="396">
+    <cfRule type="expression" dxfId="206" priority="564">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="iconSet" priority="402">
+    <cfRule type="iconSet" priority="570">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34611,10 +34891,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="cellIs" dxfId="240" priority="394" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="205" priority="562" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="395">
+    <cfRule type="dataBar" priority="563">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34628,28 +34908,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39:U39 L39 I39">
-    <cfRule type="expression" dxfId="239" priority="393">
+    <cfRule type="expression" dxfId="204" priority="561">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:Q39">
-    <cfRule type="expression" dxfId="238" priority="392">
+    <cfRule type="expression" dxfId="203" priority="560">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38">
-    <cfRule type="expression" dxfId="237" priority="322">
+    <cfRule type="expression" dxfId="202" priority="490">
       <formula>AND($Q$10="Yes",Q38&lt;$C$10,N38&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="323">
+    <cfRule type="expression" dxfId="201" priority="491">
       <formula>AND($Q$10="Yes",Q38&lt;=$C$10+enddate_highlight_days,N38&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="cellIs" dxfId="235" priority="320" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="200" priority="488" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="321">
+    <cfRule type="dataBar" priority="489">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34663,17 +34943,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38 L38 T38:U38">
-    <cfRule type="expression" dxfId="234" priority="319">
+    <cfRule type="expression" dxfId="199" priority="487">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38:Q38">
-    <cfRule type="expression" dxfId="233" priority="318">
+    <cfRule type="expression" dxfId="198" priority="486">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="iconSet" priority="324">
+    <cfRule type="iconSet" priority="492">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34683,10 +34963,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="cellIs" dxfId="232" priority="316" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="197" priority="484" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="317">
+    <cfRule type="dataBar" priority="485">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34700,48 +34980,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:U38 L38 I38">
-    <cfRule type="expression" dxfId="231" priority="315">
+    <cfRule type="expression" dxfId="196" priority="483">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38:Q38">
-    <cfRule type="expression" dxfId="230" priority="314">
+    <cfRule type="expression" dxfId="195" priority="482">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="229" priority="284">
+    <cfRule type="expression" dxfId="194" priority="452">
       <formula>$A44=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="285">
+    <cfRule type="expression" dxfId="193" priority="453">
       <formula>$A44=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="286">
+    <cfRule type="expression" dxfId="192" priority="454">
       <formula>$A44=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="287">
+    <cfRule type="expression" dxfId="191" priority="455">
       <formula>$A44=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="288">
+    <cfRule type="expression" dxfId="190" priority="456">
       <formula>$A44=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="289">
+    <cfRule type="expression" dxfId="189" priority="457">
       <formula>$A44=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44">
-    <cfRule type="expression" dxfId="223" priority="281">
+    <cfRule type="expression" dxfId="188" priority="449">
       <formula>AND($Q$10="Yes",Q44&lt;$C$10,N44&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="282">
+    <cfRule type="expression" dxfId="187" priority="450">
       <formula>AND($Q$10="Yes",Q44&lt;=$C$10+enddate_highlight_days,N44&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="cellIs" dxfId="221" priority="279" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="186" priority="447" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="280">
+    <cfRule type="dataBar" priority="448">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34755,17 +35035,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44 L44 T44:U44">
-    <cfRule type="expression" dxfId="220" priority="278">
+    <cfRule type="expression" dxfId="185" priority="446">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:Q44">
-    <cfRule type="expression" dxfId="219" priority="277">
+    <cfRule type="expression" dxfId="184" priority="445">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="iconSet" priority="283">
+    <cfRule type="iconSet" priority="451">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34775,10 +35055,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="cellIs" dxfId="218" priority="275" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="183" priority="443" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="276">
+    <cfRule type="dataBar" priority="444">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34792,20 +35072,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:U44 L44 I44">
-    <cfRule type="expression" dxfId="217" priority="274">
+    <cfRule type="expression" dxfId="182" priority="442">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:Q44">
-    <cfRule type="expression" dxfId="216" priority="273">
+    <cfRule type="expression" dxfId="181" priority="441">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N47 N41">
-    <cfRule type="cellIs" dxfId="215" priority="238" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="N41 N47">
+    <cfRule type="cellIs" dxfId="180" priority="406" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="239">
+    <cfRule type="dataBar" priority="407">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34819,17 +35099,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41 L41 T41:U41 T47:U47 L47 I47">
-    <cfRule type="expression" dxfId="214" priority="237">
+    <cfRule type="expression" dxfId="179" priority="405">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41 P47:Q47">
-    <cfRule type="expression" dxfId="213" priority="236">
+    <cfRule type="expression" dxfId="178" priority="404">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41">
-    <cfRule type="iconSet" priority="242">
+    <cfRule type="iconSet" priority="410">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34838,11 +35118,11 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N47 N41">
-    <cfRule type="cellIs" dxfId="212" priority="234" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="N41 N47">
+    <cfRule type="cellIs" dxfId="177" priority="402" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="235">
+    <cfRule type="dataBar" priority="403">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34856,48 +35136,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41:U41 L41 I41 I47 L47 T47:U47">
-    <cfRule type="expression" dxfId="211" priority="233">
+    <cfRule type="expression" dxfId="176" priority="401">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41 P47:Q47">
-    <cfRule type="expression" dxfId="210" priority="232">
+    <cfRule type="expression" dxfId="175" priority="400">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="expression" dxfId="209" priority="202">
+    <cfRule type="expression" dxfId="174" priority="370">
       <formula>AND($Q$10="Yes",Q42&lt;$C$10,N42&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="203">
+    <cfRule type="expression" dxfId="173" priority="371">
       <formula>AND($Q$10="Yes",Q42&lt;=$C$10+enddate_highlight_days,N42&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="207" priority="204">
+    <cfRule type="expression" dxfId="172" priority="372">
       <formula>$A42=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="205">
+    <cfRule type="expression" dxfId="171" priority="373">
       <formula>$A42=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="206">
+    <cfRule type="expression" dxfId="170" priority="374">
       <formula>$A42=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="207">
+    <cfRule type="expression" dxfId="169" priority="375">
       <formula>$A42=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="208">
+    <cfRule type="expression" dxfId="168" priority="376">
       <formula>$A42=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="209">
+    <cfRule type="expression" dxfId="167" priority="377">
       <formula>$A42=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="cellIs" dxfId="201" priority="197" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="166" priority="365" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="198">
+    <cfRule type="dataBar" priority="366">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34911,17 +35191,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42 L42 T42:U42">
-    <cfRule type="expression" dxfId="200" priority="196">
+    <cfRule type="expression" dxfId="165" priority="364">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:Q42">
-    <cfRule type="expression" dxfId="199" priority="195">
+    <cfRule type="expression" dxfId="164" priority="363">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42">
-    <cfRule type="iconSet" priority="199">
+    <cfRule type="iconSet" priority="367">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34931,10 +35211,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="cellIs" dxfId="198" priority="193" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="163" priority="361" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="194">
+    <cfRule type="dataBar" priority="362">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34948,48 +35228,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T42:U42 L42 I42">
-    <cfRule type="expression" dxfId="197" priority="192">
+    <cfRule type="expression" dxfId="162" priority="360">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:Q42">
-    <cfRule type="expression" dxfId="196" priority="191">
+    <cfRule type="expression" dxfId="161" priority="359">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43">
-    <cfRule type="expression" dxfId="195" priority="161">
+    <cfRule type="expression" dxfId="160" priority="329">
       <formula>AND($Q$10="Yes",Q43&lt;$C$10,N43&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="162">
+    <cfRule type="expression" dxfId="159" priority="330">
       <formula>AND($Q$10="Yes",Q43&lt;=$C$10+enddate_highlight_days,N43&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="193" priority="163">
+    <cfRule type="expression" dxfId="158" priority="331">
       <formula>$A43=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="164">
+    <cfRule type="expression" dxfId="157" priority="332">
       <formula>$A43=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="165">
+    <cfRule type="expression" dxfId="156" priority="333">
       <formula>$A43=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="166">
+    <cfRule type="expression" dxfId="155" priority="334">
       <formula>$A43=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="167">
+    <cfRule type="expression" dxfId="154" priority="335">
       <formula>$A43=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="168">
+    <cfRule type="expression" dxfId="153" priority="336">
       <formula>$A43=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="187" priority="156" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="152" priority="324" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="157">
+    <cfRule type="dataBar" priority="325">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35003,17 +35283,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43 L43 T43:U43">
-    <cfRule type="expression" dxfId="186" priority="155">
+    <cfRule type="expression" dxfId="151" priority="323">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:Q43">
-    <cfRule type="expression" dxfId="185" priority="154">
+    <cfRule type="expression" dxfId="150" priority="322">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43">
-    <cfRule type="iconSet" priority="158">
+    <cfRule type="iconSet" priority="326">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35023,10 +35303,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="184" priority="152" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="149" priority="320" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="321">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35040,20 +35320,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T43:U43 L43 I43">
-    <cfRule type="expression" dxfId="183" priority="151">
+    <cfRule type="expression" dxfId="148" priority="319">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:Q43">
-    <cfRule type="expression" dxfId="182" priority="150">
+    <cfRule type="expression" dxfId="147" priority="318">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="181" priority="118" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="146" priority="286" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="119">
+    <cfRule type="dataBar" priority="287">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35067,117 +35347,117 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48 P48:Q48">
-    <cfRule type="expression" dxfId="180" priority="115">
+    <cfRule type="expression" dxfId="145" priority="283">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q48">
-    <cfRule type="expression" dxfId="179" priority="120">
+    <cfRule type="expression" dxfId="144" priority="288">
       <formula>AND($Q$10="Yes",Q48&lt;$C$10,N48&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="121">
+    <cfRule type="expression" dxfId="143" priority="289">
       <formula>AND($Q$10="Yes",Q48&lt;=$C$10+enddate_highlight_days,N48&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="177" priority="122">
+    <cfRule type="expression" dxfId="142" priority="290">
       <formula>$A48=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="123">
+    <cfRule type="expression" dxfId="141" priority="291">
       <formula>$A48=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="124">
+    <cfRule type="expression" dxfId="140" priority="292">
       <formula>$A48=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="125">
+    <cfRule type="expression" dxfId="139" priority="293">
       <formula>$A48=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="126">
+    <cfRule type="expression" dxfId="138" priority="294">
       <formula>$A48=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="127">
+    <cfRule type="expression" dxfId="137" priority="295">
       <formula>$A48=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W48:ED48">
-    <cfRule type="expression" dxfId="171" priority="116">
+    <cfRule type="expression" dxfId="136" priority="284">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="117">
+    <cfRule type="expression" dxfId="135" priority="285">
       <formula>AND($U$4="Yes",$U48&gt;=W$5,$T48&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="128">
+    <cfRule type="expression" dxfId="134" priority="296">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M48&lt;&gt;"M",$U48&gt;=W$5,$T48&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="129">
+    <cfRule type="expression" dxfId="133" priority="297">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P48&lt;=W$6,ROUNDDOWN(($Q48-$P48+1)*$N48,0)+$P48-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="298" stopIfTrue="1">
       <formula>AND(OR($M48="b",$M48=""),$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="299" stopIfTrue="1">
       <formula>AND($M48="K",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="300" stopIfTrue="1">
       <formula>AND($M48="x",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="301" stopIfTrue="1">
       <formula>AND($M48="G",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="302" stopIfTrue="1">
       <formula>AND($M48="P",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="303" stopIfTrue="1">
       <formula>AND($M48="Y",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="304" stopIfTrue="1">
       <formula>AND($M48="O",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="305" stopIfTrue="1">
       <formula>AND($M48="R",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="306" stopIfTrue="1">
       <formula>AND($M48=1,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="307" stopIfTrue="1">
       <formula>AND($M48=2,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="308" stopIfTrue="1">
       <formula>AND($M48=3,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="309" stopIfTrue="1">
       <formula>AND($M48=4,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="310" stopIfTrue="1">
       <formula>AND($M48=5,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="311" stopIfTrue="1">
       <formula>AND($M48=6,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="312" stopIfTrue="1">
       <formula>AND($M48=7,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="313" stopIfTrue="1">
       <formula>AND($M48="M",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="314" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N48&lt;1,$P48&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="147" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="315" stopIfTrue="1">
       <formula>AND($P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="148">
+    <cfRule type="expression" dxfId="114" priority="316">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="149">
+    <cfRule type="expression" dxfId="113" priority="317">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="147" priority="113" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="112" priority="281" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="114">
+    <cfRule type="dataBar" priority="282">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35191,20 +35471,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48">
-    <cfRule type="expression" dxfId="146" priority="112">
+    <cfRule type="expression" dxfId="111" priority="280">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="145" priority="111">
+    <cfRule type="expression" dxfId="110" priority="279">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="144" priority="109" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="277" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="110">
+    <cfRule type="dataBar" priority="278">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35218,20 +35498,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48 L48 T48:U48">
-    <cfRule type="expression" dxfId="143" priority="108">
+    <cfRule type="expression" dxfId="108" priority="276">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="142" priority="107">
+    <cfRule type="expression" dxfId="107" priority="275">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="141" priority="105" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="273" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="106">
+    <cfRule type="dataBar" priority="274">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35245,17 +35525,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48">
-    <cfRule type="expression" dxfId="140" priority="104">
+    <cfRule type="expression" dxfId="105" priority="272">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="139" priority="103">
+    <cfRule type="expression" dxfId="104" priority="271">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="iconSet" priority="102">
+    <cfRule type="iconSet" priority="270">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35265,10 +35545,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="138" priority="100" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="268" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="101">
+    <cfRule type="dataBar" priority="269">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35282,20 +35562,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48">
-    <cfRule type="expression" dxfId="137" priority="99">
+    <cfRule type="expression" dxfId="102" priority="267">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="136" priority="98">
+    <cfRule type="expression" dxfId="101" priority="266">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="135" priority="96" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="264" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="265">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35309,16 +35589,285 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48 L48 T48:U48">
-    <cfRule type="expression" dxfId="134" priority="95">
+    <cfRule type="expression" dxfId="99" priority="263">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="133" priority="94">
+    <cfRule type="expression" dxfId="98" priority="262">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
+    <cfRule type="cellIs" dxfId="97" priority="137" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="138">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B3D679E3-6DB6-4012-865E-8E4D1C44775F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50:U50 L50 I50 P50:Q50">
+    <cfRule type="expression" dxfId="96" priority="134">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q50">
+    <cfRule type="expression" dxfId="95" priority="139">
+      <formula>AND($Q$10="Yes",Q50&lt;$C$10,N50&lt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="140">
+      <formula>AND($Q$10="Yes",Q50&lt;=$C$10+enddate_highlight_days,N50&lt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="expression" dxfId="93" priority="141">
+      <formula>$A50=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="142">
+      <formula>$A50=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="143">
+      <formula>$A50=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="144">
+      <formula>$A50=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="145">
+      <formula>$A50=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="146">
+      <formula>$A50=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W50:ED50">
+    <cfRule type="expression" dxfId="87" priority="135">
+      <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="136">
+      <formula>AND($U$4="Yes",$U50&gt;=W$5,$T50&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="147">
+      <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M50&lt;&gt;"M",$U50&gt;=W$5,$T50&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="148">
+      <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P50&lt;=W$6,ROUNDDOWN(($Q50-$P50+1)*$N50,0)+$P50-1&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="83" priority="149" stopIfTrue="1">
+      <formula>AND(OR($M50="b",$M50=""),$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="150" stopIfTrue="1">
+      <formula>AND($M50="K",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="151" stopIfTrue="1">
+      <formula>AND($M50="x",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="152" stopIfTrue="1">
+      <formula>AND($M50="G",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="153" stopIfTrue="1">
+      <formula>AND($M50="P",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="154" stopIfTrue="1">
+      <formula>AND($M50="Y",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="155" stopIfTrue="1">
+      <formula>AND($M50="O",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="156" stopIfTrue="1">
+      <formula>AND($M50="R",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="157" stopIfTrue="1">
+      <formula>AND($M50=1,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="158" stopIfTrue="1">
+      <formula>AND($M50=2,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="159" stopIfTrue="1">
+      <formula>AND($M50=3,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="160" stopIfTrue="1">
+      <formula>AND($M50=4,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="161" stopIfTrue="1">
+      <formula>AND($M50=5,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="162" stopIfTrue="1">
+      <formula>AND($M50=6,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="163" stopIfTrue="1">
+      <formula>AND($M50=7,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="164" stopIfTrue="1">
+      <formula>AND($M50="M",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="165" stopIfTrue="1">
+      <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N50&lt;1,$P50&lt;X$5,$C$10&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="166" stopIfTrue="1">
+      <formula>AND($P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="167">
+      <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="168">
+      <formula>W$8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="cellIs" dxfId="63" priority="132" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="133">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{643ED2BB-A4F6-4771-9655-D956276C4CF8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50:U50 L50 I50">
+    <cfRule type="expression" dxfId="62" priority="131">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P50:Q50">
+    <cfRule type="expression" dxfId="61" priority="130">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="cellIs" dxfId="60" priority="128" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="129">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EAF827DC-5741-4A78-803E-3E2AE8FFF6ED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50 L50 T50:U50">
+    <cfRule type="expression" dxfId="59" priority="127">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P50:Q50">
+    <cfRule type="expression" dxfId="58" priority="126">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="cellIs" dxfId="57" priority="124" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="125">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9B40D553-DB02-4BA3-A287-6D9829A34753}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50:U50 L50 I50">
+    <cfRule type="expression" dxfId="56" priority="123">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P50:Q50">
+    <cfRule type="expression" dxfId="55" priority="122">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O50">
+    <cfRule type="iconSet" priority="121">
+      <iconSet iconSet="4RedToBlack" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="INDEX(priorities,6)"/>
+        <cfvo type="num" val="INDEX(priorities,5)"/>
+        <cfvo type="num" val="INDEX(priorities,4)"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="cellIs" dxfId="54" priority="119" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="120">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{234BFCF4-C151-4A19-B73E-EBCDE9B656BC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T50:U50 L50 I50">
+    <cfRule type="expression" dxfId="53" priority="118">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P50:Q50">
+    <cfRule type="expression" dxfId="52" priority="117">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="cellIs" dxfId="51" priority="115" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="116">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD7035AC-F391-4873-A3B3-CA7C2BA17AD5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I50 L50 T50:U50">
+    <cfRule type="expression" dxfId="50" priority="114">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P50:Q50">
+    <cfRule type="expression" dxfId="49" priority="113">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51">
     <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
@@ -35330,110 +35879,110 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DCA2ACEC-2073-4436-A883-84E998067F24}</x14:id>
+          <x14:id>{F0C5043F-2B84-48CC-A9E4-87C82796F0B6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T50:U50 L50 I50 P50:Q50">
+  <conditionalFormatting sqref="T51:U51 L51 I51 P51:Q51">
     <cfRule type="expression" dxfId="47" priority="22">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q50">
+  <conditionalFormatting sqref="Q51">
     <cfRule type="expression" dxfId="46" priority="27">
-      <formula>AND($Q$10="Yes",Q50&lt;$C$10,N50&lt;1)</formula>
+      <formula>AND($Q$10="Yes",Q51&lt;$C$10,N51&lt;1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="45" priority="28">
-      <formula>AND($Q$10="Yes",Q50&lt;=$C$10+enddate_highlight_days,N50&lt;1)</formula>
+      <formula>AND($Q$10="Yes",Q51&lt;=$C$10+enddate_highlight_days,N51&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
+  <conditionalFormatting sqref="C51">
     <cfRule type="expression" dxfId="44" priority="29">
-      <formula>$A50=7</formula>
+      <formula>$A51=7</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="30">
-      <formula>$A50=6</formula>
+      <formula>$A51=6</formula>
     </cfRule>
     <cfRule type="expression" dxfId="42" priority="31">
-      <formula>$A50=5</formula>
+      <formula>$A51=5</formula>
     </cfRule>
     <cfRule type="expression" dxfId="41" priority="32">
-      <formula>$A50=4</formula>
+      <formula>$A51=4</formula>
     </cfRule>
     <cfRule type="expression" dxfId="40" priority="33">
-      <formula>$A50=3</formula>
+      <formula>$A51=3</formula>
     </cfRule>
     <cfRule type="expression" dxfId="39" priority="34">
-      <formula>$A50=2</formula>
+      <formula>$A51=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W50:ED50">
+  <conditionalFormatting sqref="W51:ED51">
     <cfRule type="expression" dxfId="38" priority="23">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="37" priority="24">
-      <formula>AND($U$4="Yes",$U50&gt;=W$5,$T50&lt;=W$6)</formula>
+      <formula>AND($U$4="Yes",$U51&gt;=W$5,$T51&lt;=W$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="36" priority="35">
-      <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M50&lt;&gt;"M",$U50&gt;=W$5,$T50&lt;=W$6)</formula>
+      <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M51&lt;&gt;"M",$U51&gt;=W$5,$T51&lt;=W$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="36">
-      <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P50&lt;=W$6,ROUNDDOWN(($Q50-$P50+1)*$N50,0)+$P50-1&gt;=W$5)</formula>
+      <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P51&lt;=W$6,ROUNDDOWN(($Q51-$P51+1)*$N51,0)+$P51-1&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
-      <formula>AND(OR($M50="b",$M50=""),$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND(OR($M51="b",$M51=""),$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
-      <formula>AND($M50="K",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51="K",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
-      <formula>AND($M50="x",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51="x",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
-      <formula>AND($M50="G",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51="G",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="41" stopIfTrue="1">
-      <formula>AND($M50="P",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51="P",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
-      <formula>AND($M50="Y",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51="Y",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
-      <formula>AND($M50="O",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51="O",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="27" priority="44" stopIfTrue="1">
-      <formula>AND($M50="R",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51="R",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="45" stopIfTrue="1">
-      <formula>AND($M50=1,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51=1,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
-      <formula>AND($M50=2,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51=2,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="24" priority="47" stopIfTrue="1">
-      <formula>AND($M50=3,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51=3,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="23" priority="48" stopIfTrue="1">
-      <formula>AND($M50=4,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51=4,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="49" stopIfTrue="1">
-      <formula>AND($M50=5,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51=5,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="50" stopIfTrue="1">
-      <formula>AND($M50=6,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51=6,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="51" stopIfTrue="1">
-      <formula>AND($M50=7,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51=7,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="52" stopIfTrue="1">
-      <formula>AND($M50="M",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($M51="M",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="53" stopIfTrue="1">
-      <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N50&lt;1,$P50&lt;X$5,$C$10&gt;=W$5)</formula>
+      <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N51&lt;1,$P51&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="54" stopIfTrue="1">
-      <formula>AND($P50&lt;=W$6,$Q50&gt;=W$5)</formula>
+      <formula>AND($P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="55">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
@@ -35442,7 +35991,7 @@
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
+  <conditionalFormatting sqref="N51">
     <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
@@ -35454,22 +36003,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C4014EF7-089F-4643-8E44-CCEBC16222F5}</x14:id>
+          <x14:id>{985538D9-F579-453C-97E4-95C3B69C222B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T50:U50 L50 I50">
+  <conditionalFormatting sqref="T51:U51 L51 I51">
     <cfRule type="expression" dxfId="13" priority="19">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50:Q50">
+  <conditionalFormatting sqref="P51:Q51">
     <cfRule type="expression" dxfId="12" priority="18">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
+  <conditionalFormatting sqref="N51">
     <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
@@ -35481,22 +36030,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D424A9E8-6516-4494-AEBC-010725024EF1}</x14:id>
+          <x14:id>{87C5D0C0-2FD3-477C-B1BE-B4DBAF3387E6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50 L50 T50:U50">
+  <conditionalFormatting sqref="I51 L51 T51:U51">
     <cfRule type="expression" dxfId="10" priority="15">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50:Q50">
+  <conditionalFormatting sqref="P51:Q51">
     <cfRule type="expression" dxfId="9" priority="14">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
+  <conditionalFormatting sqref="N51">
     <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
@@ -35508,22 +36057,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5B7C76D0-22F3-4F87-A6B7-5B7309EC9D47}</x14:id>
+          <x14:id>{B92369DF-7136-498D-B723-EE786DEFA401}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T50:U50 L50 I50">
+  <conditionalFormatting sqref="T51:U51 L51 I51">
     <cfRule type="expression" dxfId="7" priority="11">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50:Q50">
+  <conditionalFormatting sqref="P51:Q51">
     <cfRule type="expression" dxfId="6" priority="10">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O50">
+  <conditionalFormatting sqref="O51">
     <cfRule type="iconSet" priority="9">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
@@ -35533,7 +36082,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
+  <conditionalFormatting sqref="N51">
     <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
@@ -35545,22 +36094,22 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C50B9F53-10F0-4F9C-B107-59846D1C2C4C}</x14:id>
+          <x14:id>{F418F3CF-9A9D-4A5E-975E-F3790A9C62DB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T50:U50 L50 I50">
+  <conditionalFormatting sqref="T51:U51 L51 I51">
     <cfRule type="expression" dxfId="4" priority="6">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50:Q50">
+  <conditionalFormatting sqref="P51:Q51">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
+  <conditionalFormatting sqref="N51">
     <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
@@ -35572,17 +36121,17 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F6C49EE7-0D6E-4434-83CE-080C6C25CE1A}</x14:id>
+          <x14:id>{77612B7C-1F0F-46D1-9DF2-31DE50B36883}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50 L50 T50:U50">
+  <conditionalFormatting sqref="I51 L51 T51:U51">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P50:Q50">
+  <conditionalFormatting sqref="P51:Q51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
@@ -35632,16 +36181,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Today's Date" prompt="This date is marked as a vertical red line in the Gantt chart (via conditional formatting). You can either enter this date manually, or use the formula =TODAY()." sqref="B10" xr:uid="{439AA69D-8A78-4A9C-A2C5-4D1FEF58D433}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Planned Dates in Chart?" prompt="Choose whether to display the planned schedule in the Gantt Chart." sqref="T4" xr:uid="{59F8FC1E-0D8B-4C3A-9991-16CC0D43EFD1}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="Fill Pattern for Planned Dates" prompt="If you do not see a cross-hatch fill pattern in this cell, then the version of Excel you are using does not permit cross-hatch fill patterns. If that is the case, enter an &quot;X&quot; in this cell to see the Planned Schedule using an alternate method." sqref="U9" xr:uid="{57063E04-57F4-4AD4-8D99-DD55B3CA0B5A}"/>
-    <dataValidation type="list" allowBlank="1" sqref="A13:A51" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="A13:A52" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O13:O52" xr:uid="{A9001512-E8B1-464E-A0FC-51681EB2AD74}">
+    <dataValidation type="list" allowBlank="1" sqref="O13:O53" xr:uid="{A9001512-E8B1-464E-A0FC-51681EB2AD74}">
       <formula1>priorities</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M13:M52" xr:uid="{5279861F-A224-478B-8E13-251F4DC7615B}">
+    <dataValidation type="list" allowBlank="1" sqref="M13:M53" xr:uid="{5279861F-A224-478B-8E13-251F4DC7615B}">
       <formula1>"B,G,P,X,K,R,O,Y,1,2,3,4,5,6,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N13:N52" xr:uid="{135875D4-A982-47C5-A06F-509CFC011552}">
+    <dataValidation type="list" allowBlank="1" sqref="N13:N53" xr:uid="{135875D4-A982-47C5-A06F-509CFC011552}">
       <formula1>"100%,75%,67%,50%,34%,25%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -35697,7 +36246,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N13:N17 N52 N38 N47</xm:sqref>
+          <xm:sqref>N13:N17 N53 N38 N47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{575147C1-79C4-46F6-A1E7-AA76F52D79E6}">
@@ -35757,7 +36306,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N51</xm:sqref>
+          <xm:sqref>N52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F1DC103-D728-416F-BBDE-B01A2D94AA00}">
@@ -35817,7 +36366,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N24 N26</xm:sqref>
+          <xm:sqref>N26 N24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B3A02F32-1B47-4221-8B22-4AD9733E655A}">
@@ -36252,7 +36801,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N47 N41</xm:sqref>
+          <xm:sqref>N41 N47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9588BFDE-91AC-453F-9E9D-40609ABD7AC7}">
@@ -36267,7 +36816,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N47 N41</xm:sqref>
+          <xm:sqref>N41 N47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F78B7DCA-D503-4B35-9AC1-B62EAC826A6E}">
@@ -36420,7 +36969,7 @@
           <xm:sqref>N48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DCA2ACEC-2073-4436-A883-84E998067F24}">
+          <x14:cfRule type="dataBar" id="{B3D679E3-6DB6-4012-865E-8E4D1C44775F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -36435,7 +36984,7 @@
           <xm:sqref>N50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C4014EF7-089F-4643-8E44-CCEBC16222F5}">
+          <x14:cfRule type="dataBar" id="{643ED2BB-A4F6-4771-9655-D956276C4CF8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -36450,7 +36999,7 @@
           <xm:sqref>N50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D424A9E8-6516-4494-AEBC-010725024EF1}">
+          <x14:cfRule type="dataBar" id="{EAF827DC-5741-4A78-803E-3E2AE8FFF6ED}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -36465,7 +37014,7 @@
           <xm:sqref>N50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5B7C76D0-22F3-4F87-A6B7-5B7309EC9D47}">
+          <x14:cfRule type="dataBar" id="{9B40D553-DB02-4BA3-A287-6D9829A34753}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -36480,7 +37029,7 @@
           <xm:sqref>N50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C50B9F53-10F0-4F9C-B107-59846D1C2C4C}">
+          <x14:cfRule type="dataBar" id="{234BFCF4-C151-4A19-B73E-EBCDE9B656BC}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -36495,7 +37044,7 @@
           <xm:sqref>N50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F6C49EE7-0D6E-4434-83CE-080C6C25CE1A}">
+          <x14:cfRule type="dataBar" id="{FD7035AC-F391-4873-A3B3-CA7C2BA17AD5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -36508,6 +37057,96 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>N50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F0C5043F-2B84-48CC-A9E4-87C82796F0B6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{985538D9-F579-453C-97E4-95C3B69C222B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{87C5D0C0-2FD3-477C-B1BE-B4DBAF3387E6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B92369DF-7136-498D-B723-EE786DEFA401}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F418F3CF-9A9D-4A5E-975E-F3790A9C62DB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{77612B7C-1F0F-46D1-9DF2-31DE50B36883}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/stock_manager_gant_chart.xlsx
+++ b/stock_manager_gant_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ABC21F-AB2C-4DDC-972E-6CD5ED274A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0898EC31-9895-4457-B7E2-067A043028D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,28 +19,28 @@
     <sheet name="TermsOfUse" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GanttChart!$A$12:$CB$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GanttChart!$A$12:$CB$54</definedName>
     <definedName name="assign_to_color">'Help &amp; Settings'!$D$246:$D$253</definedName>
     <definedName name="assign_to_names">'Help &amp; Settings'!$C$246:$C$253</definedName>
     <definedName name="dateformat">'Help &amp; Settings'!$C$102</definedName>
-    <definedName name="end_range" localSheetId="0">GanttChart!$Q$11:$Q$53</definedName>
+    <definedName name="end_range" localSheetId="0">GanttChart!$Q$11:$Q$54</definedName>
     <definedName name="enddate_highlight_days">'Help &amp; Settings'!$C$130</definedName>
     <definedName name="holidays">Holidays!$A$8:$A$242</definedName>
     <definedName name="prevLevel" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$B1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$B$1:$ED$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$B$1:$ED$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$9:$12</definedName>
     <definedName name="priorities">'Help &amp; Settings'!$C$71:$C$77</definedName>
     <definedName name="show_overdue_in_chart">'Help &amp; Settings'!$C$133</definedName>
     <definedName name="show_percent_complete">'Help &amp; Settings'!$C$119</definedName>
-    <definedName name="start_range" localSheetId="0">GanttChart!$P$11:$P$53</definedName>
+    <definedName name="start_range" localSheetId="0">GanttChart!$P$11:$P$54</definedName>
     <definedName name="startday">'Help &amp; Settings'!$C$114</definedName>
     <definedName name="urgency_days">'Help &amp; Settings'!$C$240:$C$242</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2020 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"gantt-chart_v5-0.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template Pro"</definedName>
-    <definedName name="wbs_range" localSheetId="0">GanttChart!$B$11:$B$53</definedName>
+    <definedName name="wbs_range" localSheetId="0">GanttChart!$B$11:$B$54</definedName>
     <definedName name="weekend">'Help &amp; Settings'!$C$82</definedName>
     <definedName name="weeknumbering">'Help &amp; Settings'!$C$108</definedName>
   </definedNames>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="411">
   <si>
     <t>WBS</t>
   </si>
@@ -2649,6 +2649,12 @@
   <si>
     <t>Change Yahoo Finance to YH Finance API</t>
   </si>
+  <si>
+    <t>2.4.3</t>
+  </si>
+  <si>
+    <t>Fix Stock Updated_at</t>
+  </si>
 </sst>
 </file>
 
@@ -4526,7 +4532,308 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="756">
+  <dxfs count="805">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="&quot;◆&quot;;&quot;◆&quot;;&quot;◆&quot;;&quot;◆&quot;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="&quot;/////&quot;;&quot;/////&quot;;&quot;/////&quot;;&quot;/////&quot;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="&quot;  &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="&quot;    &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode="&quot;      &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode="&quot;        &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;          &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="&quot;            &quot;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFCC3300"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDE9D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
     </dxf>
@@ -9801,13 +10108,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EE53"/>
+  <dimension ref="A1:EE54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="12" topLeftCell="F28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="12" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O58" sqref="O58"/>
+      <selection pane="bottomRight" activeCell="AN53" sqref="AN53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11874,7 +12181,7 @@
         <v>108</v>
       </c>
       <c r="C9" s="168">
-        <f>MAX(Q11:Q53)</f>
+        <f>MAX(Q11:Q54)</f>
         <v>44651</v>
       </c>
       <c r="D9" s="146"/>
@@ -12071,7 +12378,7 @@
       </c>
       <c r="C10" s="168">
         <f ca="1">TODAY()</f>
-        <v>44617</v>
+        <v>44620</v>
       </c>
       <c r="D10" s="146"/>
       <c r="E10" s="146"/>
@@ -13276,7 +13583,7 @@
       </c>
       <c r="O13" s="172"/>
       <c r="P13" s="184">
-        <f t="shared" ref="P13:P33" si="40">IF(OR(I13&lt;&gt;"",F13&lt;&gt;""),MAX(I13,IF(F13&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F13,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G13,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H13,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L13&lt;&gt;"",IF(K13&lt;&gt;"",L13-MAX(0,K13-1),WORKDAY.INTL(L13,-(MAX(J13,1)-1),weekend,holidays))," - "))</f>
+        <f t="shared" ref="P13:P33" si="40">IF(OR(I13&lt;&gt;"",F13&lt;&gt;""),MAX(I13,IF(F13&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F13,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G13,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H13,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L13&lt;&gt;"",IF(K13&lt;&gt;"",L13-MAX(0,K13-1),WORKDAY.INTL(L13,-(MAX(J13,1)-1),weekend,holidays))," - "))</f>
         <v>44250</v>
       </c>
       <c r="Q13" s="184">
@@ -23892,7 +24199,7 @@
         <v>322</v>
       </c>
       <c r="P35" s="184">
-        <f>IF(OR(I35&lt;&gt;"",F35&lt;&gt;""),MAX(I35,IF(F35&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F35,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G35,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H35,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L35&lt;&gt;"",IF(K35&lt;&gt;"",L35-MAX(0,K35-1),WORKDAY.INTL(L35,-(MAX(J35,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I35&lt;&gt;"",F35&lt;&gt;""),MAX(I35,IF(F35&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F35,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G35,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H35,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L35&lt;&gt;"",IF(K35&lt;&gt;"",L35-MAX(0,K35-1),WORKDAY.INTL(L35,-(MAX(J35,1)-1),weekend,holidays))," - "))</f>
         <v>44504</v>
       </c>
       <c r="Q35" s="184">
@@ -24135,7 +24442,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="CA35" s="162" t="str">
-        <f t="shared" ref="CA35:CP51" si="77">" "</f>
+        <f t="shared" ref="CA35:CP52" si="77">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="CB35" s="162" t="str">
@@ -24390,7 +24697,7 @@
         <v>322</v>
       </c>
       <c r="P36" s="184">
-        <f>IF(OR(I36&lt;&gt;"",F36&lt;&gt;""),MAX(I36,IF(F36&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F36,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G36,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H36,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L36&lt;&gt;"",IF(K36&lt;&gt;"",L36-MAX(0,K36-1),WORKDAY.INTL(L36,-(MAX(J36,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I36&lt;&gt;"",F36&lt;&gt;""),MAX(I36,IF(F36&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F36,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G36,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H36,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L36&lt;&gt;"",IF(K36&lt;&gt;"",L36-MAX(0,K36-1),WORKDAY.INTL(L36,-(MAX(J36,1)-1),weekend,holidays))," - "))</f>
         <v>44504</v>
       </c>
       <c r="Q36" s="184">
@@ -24888,7 +25195,7 @@
         <v>322</v>
       </c>
       <c r="P37" s="184">
-        <f>IF(OR(I37&lt;&gt;"",F37&lt;&gt;""),MAX(I37,IF(F37&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F37,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G37,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H37,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L37&lt;&gt;"",IF(K37&lt;&gt;"",L37-MAX(0,K37-1),WORKDAY.INTL(L37,-(MAX(J37,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I37&lt;&gt;"",F37&lt;&gt;""),MAX(I37,IF(F37&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F37,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G37,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H37,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L37&lt;&gt;"",IF(K37&lt;&gt;"",L37-MAX(0,K37-1),WORKDAY.INTL(L37,-(MAX(J37,1)-1),weekend,holidays))," - "))</f>
         <v>44516</v>
       </c>
       <c r="Q37" s="184">
@@ -25095,7 +25402,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="BR37" s="166" t="str">
-        <f t="shared" ref="BR37:BZ51" si="85">" "</f>
+        <f t="shared" ref="BR37:BZ52" si="85">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="BS37" s="166" t="str">
@@ -25386,7 +25693,7 @@
         <v>321</v>
       </c>
       <c r="P38" s="184">
-        <f>IF(OR(I38&lt;&gt;"",F38&lt;&gt;""),MAX(I38,IF(F38&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F38,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G38,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H38,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L38&lt;&gt;"",IF(K38&lt;&gt;"",L38-MAX(0,K38-1),WORKDAY.INTL(L38,-(MAX(J38,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I38&lt;&gt;"",F38&lt;&gt;""),MAX(I38,IF(F38&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F38,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G38,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H38,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L38&lt;&gt;"",IF(K38&lt;&gt;"",L38-MAX(0,K38-1),WORKDAY.INTL(L38,-(MAX(J38,1)-1),weekend,holidays))," - "))</f>
         <v>44523</v>
       </c>
       <c r="Q38" s="184">
@@ -25425,7 +25732,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB38" s="166" t="str">
-        <f t="shared" ref="AB38:AK51" si="87">" "</f>
+        <f t="shared" ref="AB38:AK52" si="87">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC38" s="166" t="str">
@@ -25465,7 +25772,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="AL38" s="166" t="str">
-        <f t="shared" ref="AL38:AU51" si="88">" "</f>
+        <f t="shared" ref="AL38:AU52" si="88">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AM38" s="166" t="str">
@@ -25505,7 +25812,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="AV38" s="166" t="str">
-        <f t="shared" ref="AV38:BQ51" si="89">" "</f>
+        <f t="shared" ref="AV38:BQ52" si="89">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AW38" s="166" t="str">
@@ -25884,7 +26191,7 @@
         <v>321</v>
       </c>
       <c r="P39" s="184">
-        <f>IF(OR(I39&lt;&gt;"",F39&lt;&gt;""),MAX(I39,IF(F39&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F39,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G39,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H39,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L39&lt;&gt;"",IF(K39&lt;&gt;"",L39-MAX(0,K39-1),WORKDAY.INTL(L39,-(MAX(J39,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I39&lt;&gt;"",F39&lt;&gt;""),MAX(I39,IF(F39&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F39,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G39,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H39,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L39&lt;&gt;"",IF(K39&lt;&gt;"",L39-MAX(0,K39-1),WORKDAY.INTL(L39,-(MAX(J39,1)-1),weekend,holidays))," - "))</f>
         <v>44523</v>
       </c>
       <c r="Q39" s="184">
@@ -26534,7 +26841,7 @@
         <v>322</v>
       </c>
       <c r="P41" s="184">
-        <f>IF(OR(I41&lt;&gt;"",F41&lt;&gt;""),MAX(I41,IF(F41&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F41,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G41,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H41,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L41&lt;&gt;"",IF(K41&lt;&gt;"",L41-MAX(0,K41-1),WORKDAY.INTL(L41,-(MAX(J41,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I41&lt;&gt;"",F41&lt;&gt;""),MAX(I41,IF(F41&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F41,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G41,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H41,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L41&lt;&gt;"",IF(K41&lt;&gt;"",L41-MAX(0,K41-1),WORKDAY.INTL(L41,-(MAX(J41,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q41" s="184">
@@ -27032,7 +27339,7 @@
         <v>322</v>
       </c>
       <c r="P42" s="184">
-        <f>IF(OR(I42&lt;&gt;"",F42&lt;&gt;""),MAX(I42,IF(F42&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F42,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G42,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H42,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L42&lt;&gt;"",IF(K42&lt;&gt;"",L42-MAX(0,K42-1),WORKDAY.INTL(L42,-(MAX(J42,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I42&lt;&gt;"",F42&lt;&gt;""),MAX(I42,IF(F42&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F42,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G42,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H42,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L42&lt;&gt;"",IF(K42&lt;&gt;"",L42-MAX(0,K42-1),WORKDAY.INTL(L42,-(MAX(J42,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q42" s="184">
@@ -27530,7 +27837,7 @@
         <v>322</v>
       </c>
       <c r="P43" s="184">
-        <f>IF(OR(I43&lt;&gt;"",F43&lt;&gt;""),MAX(I43,IF(F43&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F43,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G43,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H43,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L43&lt;&gt;"",IF(K43&lt;&gt;"",L43-MAX(0,K43-1),WORKDAY.INTL(L43,-(MAX(J43,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I43&lt;&gt;"",F43&lt;&gt;""),MAX(I43,IF(F43&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F43,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G43,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H43,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L43&lt;&gt;"",IF(K43&lt;&gt;"",L43-MAX(0,K43-1),WORKDAY.INTL(L43,-(MAX(J43,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q43" s="184">
@@ -28028,7 +28335,7 @@
         <v>322</v>
       </c>
       <c r="P44" s="184">
-        <f>IF(OR(I44&lt;&gt;"",F44&lt;&gt;""),MAX(I44,IF(F44&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F44,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G44,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H44,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L44&lt;&gt;"",IF(K44&lt;&gt;"",L44-MAX(0,K44-1),WORKDAY.INTL(L44,-(MAX(J44,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I44&lt;&gt;"",F44&lt;&gt;""),MAX(I44,IF(F44&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F44,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G44,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H44,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L44&lt;&gt;"",IF(K44&lt;&gt;"",L44-MAX(0,K44-1),WORKDAY.INTL(L44,-(MAX(J44,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q44" s="184">
@@ -28678,7 +28985,7 @@
         <v>322</v>
       </c>
       <c r="P46" s="184">
-        <f t="shared" ref="P46:P53" si="112">IF(OR(I46&lt;&gt;"",F46&lt;&gt;""),MAX(I46,IF(F46&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F46,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G46,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H46,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L46&lt;&gt;"",IF(K46&lt;&gt;"",L46-MAX(0,K46-1),WORKDAY.INTL(L46,-(MAX(J46,1)-1),weekend,holidays))," - "))</f>
+        <f t="shared" ref="P46:P54" si="112">IF(OR(I46&lt;&gt;"",F46&lt;&gt;""),MAX(I46,IF(F46&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F46,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G46,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H46,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L46&lt;&gt;"",IF(K46&lt;&gt;"",L46-MAX(0,K46-1),WORKDAY.INTL(L46,-(MAX(J46,1)-1),weekend,holidays))," - "))</f>
         <v>44562</v>
       </c>
       <c r="Q46" s="184">
@@ -29693,7 +30000,7 @@
       <c r="U48" s="140"/>
       <c r="V48" s="133"/>
       <c r="W48" s="166" t="str">
-        <f t="shared" ref="W48:AA51" si="122">" "</f>
+        <f t="shared" ref="W48:AA52" si="122">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X48" s="166" t="str">
@@ -29981,7 +30288,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="CQ48" s="162" t="str">
-        <f t="shared" ref="CQ48:ED51" si="123">" "</f>
+        <f t="shared" ref="CQ48:ED52" si="123">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="CR48" s="162" t="str">
@@ -30193,7 +30500,7 @@
       <c r="U49" s="140"/>
       <c r="V49" s="133"/>
       <c r="W49" s="166" t="str">
-        <f t="shared" ref="W49:CH52" si="127">" "</f>
+        <f t="shared" ref="W49:CH53" si="127">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X49" s="166" t="str">
@@ -30449,7 +30756,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="CI49" s="162" t="str">
-        <f t="shared" ref="CI49:ED52" si="128">" "</f>
+        <f t="shared" ref="CI49:ED53" si="128">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="CJ49" s="162" t="str">
@@ -31170,7 +31477,7 @@
         <v>321</v>
       </c>
       <c r="P51" s="184">
-        <f t="shared" ref="P51" si="132">IF(OR(I51&lt;&gt;"",F51&lt;&gt;""),MAX(I51,IF(F51&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$53,MATCH(F51,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(G51,$B$11:$B$53,0)),0),IFERROR(INDEX($Q$11:$Q$53,MATCH(H51,$B$11:$B$53,0)),0)),1,weekend,holidays),0)),IF(L51&lt;&gt;"",IF(K51&lt;&gt;"",L51-MAX(0,K51-1),WORKDAY.INTL(L51,-(MAX(J51,1)-1),weekend,holidays))," - "))</f>
+        <f t="shared" ref="P51" si="132">IF(OR(I51&lt;&gt;"",F51&lt;&gt;""),MAX(I51,IF(F51&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F51,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G51,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H51,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L51&lt;&gt;"",IF(K51&lt;&gt;"",L51-MAX(0,K51-1),WORKDAY.INTL(L51,-(MAX(J51,1)-1),weekend,holidays))," - "))</f>
         <v>44593</v>
       </c>
       <c r="Q51" s="184">
@@ -31639,652 +31946,1150 @@
     </row>
     <row r="52" spans="1:134" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="125">
-        <v>2</v>
-      </c>
-      <c r="B52" s="189">
-        <v>2.5</v>
-      </c>
-      <c r="C52" s="204" t="s">
-        <v>387</v>
+        <v>3</v>
+      </c>
+      <c r="B52" s="189" t="s">
+        <v>409</v>
+      </c>
+      <c r="C52" s="126" t="s">
+        <v>410</v>
       </c>
       <c r="D52" s="126"/>
       <c r="E52" s="127"/>
-      <c r="F52" s="128">
-        <v>2.4</v>
-      </c>
+      <c r="F52" s="128"/>
       <c r="G52" s="129"/>
       <c r="H52" s="129"/>
       <c r="I52" s="180">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="J52" s="130"/>
       <c r="K52" s="131"/>
       <c r="L52" s="180">
-        <v>44651</v>
+        <v>44620</v>
       </c>
       <c r="M52" s="185"/>
       <c r="N52" s="132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="172" t="s">
         <v>321</v>
       </c>
       <c r="P52" s="184">
-        <f t="shared" si="112"/>
-        <v>44621</v>
+        <f t="shared" ref="P52" si="136">IF(OR(I52&lt;&gt;"",F52&lt;&gt;""),MAX(I52,IF(F52&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F52,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G52,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H52,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L52&lt;&gt;"",IF(K52&lt;&gt;"",L52-MAX(0,K52-1),WORKDAY.INTL(L52,-(MAX(J52,1)-1),weekend,holidays))," - "))</f>
+        <v>44593</v>
       </c>
       <c r="Q52" s="184">
-        <f t="shared" ref="Q52" si="136">IF(P52=" - "," - ",MAX(L52,IF(K52&lt;&gt;"",P52+MAX(0,K52-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P52,P52,weekend,holidays)=0,WORKDAY.INTL(P52,1,weekend,holidays),P52),MAX(0,J52-1),weekend,holidays))))</f>
-        <v>44651</v>
+        <f t="shared" ref="Q52" si="137">IF(P52=" - "," - ",MAX(L52,IF(K52&lt;&gt;"",P52+MAX(0,K52-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P52,P52,weekend,holidays)=0,WORKDAY.INTL(P52,1,weekend,holidays),P52),MAX(0,J52-1),weekend,holidays))))</f>
+        <v>44620</v>
       </c>
       <c r="R52" s="190">
-        <f t="shared" ref="R52" si="137">IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",NETWORKDAYS.INTL(P52,Q52,weekend,holidays))</f>
-        <v>23</v>
+        <f t="shared" ref="R52" si="138">IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",NETWORKDAYS.INTL(P52,Q52,weekend,holidays))</f>
+        <v>19</v>
       </c>
       <c r="S52" s="190">
-        <f t="shared" ref="S52" si="138">IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",Q52-P52+1)</f>
-        <v>31</v>
+        <f t="shared" ref="S52" si="139">IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",Q52-P52+1)</f>
+        <v>28</v>
       </c>
       <c r="T52" s="140"/>
       <c r="U52" s="140"/>
       <c r="V52" s="133"/>
       <c r="W52" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X52" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y52" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z52" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA52" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB52" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC52" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD52" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE52" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF52" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG52" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH52" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI52" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ52" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK52" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AL52" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AM52" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AN52" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AO52" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AP52" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AQ52" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AR52" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AS52" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AT52" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AU52" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AV52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AW52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AX52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AY52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AZ52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BA52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BB52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BC52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BD52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BE52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BF52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BG52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BH52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BI52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BJ52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BK52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BL52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BM52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BN52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BO52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BP52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BQ52" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BR52" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BS52" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BT52" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BU52" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BV52" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BW52" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BX52" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BY52" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BZ52" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CA52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CB52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CC52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CD52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CE52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CF52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CG52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CH52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CI52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CJ52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CK52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CL52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CM52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CN52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CO52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CP52" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CQ52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CR52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CS52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CT52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CU52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CV52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CW52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CX52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CY52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CZ52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DA52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DB52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DC52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DD52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DE52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DF52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DG52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DH52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DI52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DJ52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DK52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DL52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DM52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DN52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DO52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DP52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DQ52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DR52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DS52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DT52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DU52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DV52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DW52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DX52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DY52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DZ52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EA52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EB52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EC52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="ED52" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="53" spans="1:134" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="125">
+        <v>2</v>
+      </c>
+      <c r="B53" s="189">
+        <v>2.5</v>
+      </c>
+      <c r="C53" s="204" t="s">
+        <v>387</v>
+      </c>
+      <c r="D53" s="126"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="128">
+        <v>2.4</v>
+      </c>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="180">
+        <v>44621</v>
+      </c>
+      <c r="J53" s="130"/>
+      <c r="K53" s="131"/>
+      <c r="L53" s="180">
+        <v>44651</v>
+      </c>
+      <c r="M53" s="185"/>
+      <c r="N53" s="132">
+        <v>0</v>
+      </c>
+      <c r="O53" s="172" t="s">
+        <v>321</v>
+      </c>
+      <c r="P53" s="184">
+        <f t="shared" si="112"/>
+        <v>44621</v>
+      </c>
+      <c r="Q53" s="184">
+        <f t="shared" ref="Q53" si="140">IF(P53=" - "," - ",MAX(L53,IF(K53&lt;&gt;"",P53+MAX(0,K53-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P53,P53,weekend,holidays)=0,WORKDAY.INTL(P53,1,weekend,holidays),P53),MAX(0,J53-1),weekend,holidays))))</f>
+        <v>44651</v>
+      </c>
+      <c r="R53" s="190">
+        <f t="shared" ref="R53" si="141">IF(OR(NOT(ISNUMBER(P53)),NOT(ISNUMBER(Q53)))," - ",NETWORKDAYS.INTL(P53,Q53,weekend,holidays))</f>
+        <v>23</v>
+      </c>
+      <c r="S53" s="190">
+        <f t="shared" ref="S53" si="142">IF(OR(NOT(ISNUMBER(P53)),NOT(ISNUMBER(Q53)))," - ",Q53-P53+1)</f>
+        <v>31</v>
+      </c>
+      <c r="T53" s="140"/>
+      <c r="U53" s="140"/>
+      <c r="V53" s="133"/>
+      <c r="W53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="X52" s="166" t="str">
+      <c r="X53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y52" s="166" t="str">
+      <c r="Y53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Z52" s="166" t="str">
+      <c r="Z53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AA52" s="166" t="str">
+      <c r="AA53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AB52" s="166" t="str">
+      <c r="AB53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AC52" s="166" t="str">
+      <c r="AC53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AD52" s="166" t="str">
+      <c r="AD53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AE52" s="166" t="str">
+      <c r="AE53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AF52" s="166" t="str">
+      <c r="AF53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AG52" s="166" t="str">
+      <c r="AG53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AH52" s="166" t="str">
+      <c r="AH53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AI52" s="166" t="str">
+      <c r="AI53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AJ52" s="166" t="str">
+      <c r="AJ53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AK52" s="166" t="str">
+      <c r="AK53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AL52" s="166" t="str">
+      <c r="AL53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AM52" s="166" t="str">
+      <c r="AM53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AN52" s="166" t="str">
+      <c r="AN53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AO52" s="166" t="str">
+      <c r="AO53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AP52" s="166" t="str">
+      <c r="AP53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AQ52" s="166" t="str">
+      <c r="AQ53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AR52" s="166" t="str">
+      <c r="AR53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AS52" s="166" t="str">
+      <c r="AS53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AT52" s="166" t="str">
+      <c r="AT53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AU52" s="166" t="str">
+      <c r="AU53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AV52" s="166" t="str">
+      <c r="AV53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AW52" s="166" t="str">
+      <c r="AW53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AX52" s="166" t="str">
+      <c r="AX53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AY52" s="166" t="str">
+      <c r="AY53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AZ52" s="166" t="str">
+      <c r="AZ53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BA52" s="166" t="str">
+      <c r="BA53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BB52" s="166" t="str">
+      <c r="BB53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BC52" s="166" t="str">
+      <c r="BC53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BD52" s="166" t="str">
+      <c r="BD53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BE52" s="166" t="str">
+      <c r="BE53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BF52" s="166" t="str">
+      <c r="BF53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BG52" s="166" t="str">
+      <c r="BG53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BH52" s="166" t="str">
+      <c r="BH53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BI52" s="166" t="str">
+      <c r="BI53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BJ52" s="166" t="str">
+      <c r="BJ53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BK52" s="166" t="str">
+      <c r="BK53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BL52" s="166" t="str">
+      <c r="BL53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BM52" s="166" t="str">
+      <c r="BM53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BN52" s="166" t="str">
+      <c r="BN53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BO52" s="166" t="str">
+      <c r="BO53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BP52" s="166" t="str">
+      <c r="BP53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BQ52" s="166" t="str">
+      <c r="BQ53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BR52" s="166" t="str">
+      <c r="BR53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BS52" s="166" t="str">
+      <c r="BS53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BT52" s="166" t="str">
+      <c r="BT53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BU52" s="166" t="str">
+      <c r="BU53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BV52" s="166" t="str">
+      <c r="BV53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BW52" s="166" t="str">
+      <c r="BW53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BX52" s="166" t="str">
+      <c r="BX53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BY52" s="166" t="str">
+      <c r="BY53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BZ52" s="166" t="str">
+      <c r="BZ53" s="166" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CA52" s="162" t="str">
+      <c r="CA53" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CB52" s="162" t="str">
+      <c r="CB53" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CC52" s="162" t="str">
+      <c r="CC53" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CD52" s="162" t="str">
+      <c r="CD53" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CE52" s="162" t="str">
+      <c r="CE53" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CF52" s="162" t="str">
+      <c r="CF53" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CG52" s="162" t="str">
+      <c r="CG53" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CH52" s="162" t="str">
+      <c r="CH53" s="162" t="str">
         <f t="shared" si="127"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CI52" s="162" t="str">
+      <c r="CI53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CJ52" s="162" t="str">
+      <c r="CJ53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CK52" s="162" t="str">
+      <c r="CK53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CL52" s="162" t="str">
+      <c r="CL53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CM52" s="162" t="str">
+      <c r="CM53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CN52" s="162" t="str">
+      <c r="CN53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CO52" s="162" t="str">
+      <c r="CO53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CP52" s="162" t="str">
+      <c r="CP53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CQ52" s="162" t="str">
+      <c r="CQ53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CR52" s="162" t="str">
+      <c r="CR53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CS52" s="162" t="str">
+      <c r="CS53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CT52" s="162" t="str">
+      <c r="CT53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CU52" s="162" t="str">
+      <c r="CU53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CV52" s="162" t="str">
+      <c r="CV53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CW52" s="162" t="str">
+      <c r="CW53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CX52" s="162" t="str">
+      <c r="CX53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CY52" s="162" t="str">
+      <c r="CY53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="CZ52" s="162" t="str">
+      <c r="CZ53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DA52" s="162" t="str">
+      <c r="DA53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DB52" s="162" t="str">
+      <c r="DB53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DC52" s="162" t="str">
+      <c r="DC53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DD52" s="162" t="str">
+      <c r="DD53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DE52" s="162" t="str">
+      <c r="DE53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DF52" s="162" t="str">
+      <c r="DF53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DG52" s="162" t="str">
+      <c r="DG53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DH52" s="162" t="str">
+      <c r="DH53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DI52" s="162" t="str">
+      <c r="DI53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DJ52" s="162" t="str">
+      <c r="DJ53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DK52" s="162" t="str">
+      <c r="DK53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DL52" s="162" t="str">
+      <c r="DL53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DM52" s="162" t="str">
+      <c r="DM53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DN52" s="162" t="str">
+      <c r="DN53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DO52" s="162" t="str">
+      <c r="DO53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DP52" s="162" t="str">
+      <c r="DP53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DQ52" s="162" t="str">
+      <c r="DQ53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DR52" s="162" t="str">
+      <c r="DR53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DS52" s="162" t="str">
+      <c r="DS53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DT52" s="162" t="str">
+      <c r="DT53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DU52" s="162" t="str">
+      <c r="DU53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DV52" s="162" t="str">
+      <c r="DV53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DW52" s="162" t="str">
+      <c r="DW53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DX52" s="162" t="str">
+      <c r="DX53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DY52" s="162" t="str">
+      <c r="DY53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="DZ52" s="162" t="str">
+      <c r="DZ53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="EA52" s="162" t="str">
+      <c r="EA53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="EB52" s="162" t="str">
+      <c r="EB53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="EC52" s="162" t="str">
+      <c r="EC53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="ED52" s="162" t="str">
+      <c r="ED53" s="162" t="str">
         <f t="shared" si="128"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="53" spans="1:134" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="155" t="s">
+    <row r="54" spans="1:134" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="156"/>
-      <c r="C53" s="157"/>
-      <c r="D53" s="158"/>
-      <c r="E53" s="159"/>
-      <c r="F53" s="160"/>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="182"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="158"/>
-      <c r="L53" s="182"/>
-      <c r="M53" s="187"/>
-      <c r="N53" s="161"/>
-      <c r="O53" s="173" t="s">
+      <c r="B54" s="156"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="160"/>
+      <c r="G54" s="158"/>
+      <c r="H54" s="158"/>
+      <c r="I54" s="182"/>
+      <c r="J54" s="160"/>
+      <c r="K54" s="158"/>
+      <c r="L54" s="182"/>
+      <c r="M54" s="187"/>
+      <c r="N54" s="161"/>
+      <c r="O54" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="P53" s="184" t="str">
+      <c r="P54" s="184" t="str">
         <f t="shared" si="112"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="Q53" s="184" t="str">
-        <f>IF(P53=" - "," - ",MAX(L53,IF(K53&lt;&gt;"",P53+MAX(0,K53-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P53,P53,weekend,holidays)=0,WORKDAY.INTL(P53,1,weekend,holidays),P53),MAX(0,J53-1),weekend,holidays))))</f>
+      <c r="Q54" s="184" t="str">
+        <f>IF(P54=" - "," - ",MAX(L54,IF(K54&lt;&gt;"",P54+MAX(0,K54-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P54,P54,weekend,holidays)=0,WORKDAY.INTL(P54,1,weekend,holidays),P54),MAX(0,J54-1),weekend,holidays))))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="R53" s="190" t="str">
-        <f>IF(OR(NOT(ISNUMBER(P53)),NOT(ISNUMBER(Q53)))," - ",NETWORKDAYS.INTL(P53,Q53,weekend,holidays))</f>
+      <c r="R54" s="190" t="str">
+        <f>IF(OR(NOT(ISNUMBER(P54)),NOT(ISNUMBER(Q54)))," - ",NETWORKDAYS.INTL(P54,Q54,weekend,holidays))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="S53" s="161"/>
-      <c r="T53" s="183"/>
-      <c r="U53" s="183"/>
-      <c r="V53" s="161"/>
-      <c r="W53" s="167"/>
-      <c r="X53" s="167"/>
-      <c r="Y53" s="167"/>
-      <c r="Z53" s="167"/>
-      <c r="AA53" s="167"/>
-      <c r="AB53" s="167"/>
-      <c r="AC53" s="167"/>
-      <c r="AD53" s="167"/>
-      <c r="AE53" s="167"/>
-      <c r="AF53" s="167"/>
-      <c r="AG53" s="167"/>
-      <c r="AH53" s="167"/>
-      <c r="AI53" s="167"/>
-      <c r="AJ53" s="167"/>
-      <c r="AK53" s="167"/>
-      <c r="AL53" s="167"/>
-      <c r="AM53" s="167"/>
-      <c r="AN53" s="167"/>
-      <c r="AO53" s="167"/>
-      <c r="AP53" s="167"/>
-      <c r="AQ53" s="167"/>
-      <c r="AR53" s="167"/>
-      <c r="AS53" s="167"/>
-      <c r="AT53" s="167"/>
-      <c r="AU53" s="167"/>
-      <c r="AV53" s="167"/>
-      <c r="AW53" s="167"/>
-      <c r="AX53" s="167"/>
-      <c r="AY53" s="167"/>
-      <c r="AZ53" s="167"/>
-      <c r="BA53" s="167"/>
-      <c r="BB53" s="167"/>
-      <c r="BC53" s="167"/>
-      <c r="BD53" s="167"/>
-      <c r="BE53" s="167"/>
-      <c r="BF53" s="167"/>
-      <c r="BG53" s="167"/>
-      <c r="BH53" s="167"/>
-      <c r="BI53" s="167"/>
-      <c r="BJ53" s="167"/>
-      <c r="BK53" s="167"/>
-      <c r="BL53" s="167"/>
-      <c r="BM53" s="167"/>
-      <c r="BN53" s="167"/>
-      <c r="BO53" s="167"/>
-      <c r="BP53" s="167"/>
-      <c r="BQ53" s="167"/>
-      <c r="BR53" s="167"/>
-      <c r="BS53" s="167"/>
-      <c r="BT53" s="167"/>
-      <c r="BU53" s="167"/>
-      <c r="BV53" s="167"/>
-      <c r="BW53" s="167"/>
-      <c r="BX53" s="167"/>
-      <c r="BY53" s="167"/>
-      <c r="BZ53" s="167"/>
-      <c r="CA53" s="163"/>
-      <c r="CB53" s="163"/>
-      <c r="CC53" s="163"/>
-      <c r="CD53" s="163"/>
-      <c r="CE53" s="163"/>
-      <c r="CF53" s="163"/>
-      <c r="CG53" s="163"/>
-      <c r="CH53" s="163"/>
-      <c r="CI53" s="163"/>
-      <c r="CJ53" s="163"/>
-      <c r="CK53" s="163"/>
-      <c r="CL53" s="163"/>
-      <c r="CM53" s="163"/>
-      <c r="CN53" s="163"/>
-      <c r="CO53" s="163"/>
-      <c r="CP53" s="163"/>
-      <c r="CQ53" s="163"/>
-      <c r="CR53" s="163"/>
-      <c r="CS53" s="163"/>
-      <c r="CT53" s="163"/>
-      <c r="CU53" s="163"/>
-      <c r="CV53" s="163"/>
-      <c r="CW53" s="163"/>
-      <c r="CX53" s="163"/>
-      <c r="CY53" s="163"/>
-      <c r="CZ53" s="163"/>
-      <c r="DA53" s="163"/>
-      <c r="DB53" s="163"/>
-      <c r="DC53" s="163"/>
-      <c r="DD53" s="163"/>
-      <c r="DE53" s="163"/>
-      <c r="DF53" s="163"/>
-      <c r="DG53" s="163"/>
-      <c r="DH53" s="163"/>
-      <c r="DI53" s="163"/>
-      <c r="DJ53" s="163"/>
-      <c r="DK53" s="163"/>
-      <c r="DL53" s="163"/>
-      <c r="DM53" s="163"/>
-      <c r="DN53" s="163"/>
-      <c r="DO53" s="163"/>
-      <c r="DP53" s="163"/>
-      <c r="DQ53" s="163"/>
-      <c r="DR53" s="163"/>
-      <c r="DS53" s="163"/>
-      <c r="DT53" s="163"/>
-      <c r="DU53" s="163"/>
-      <c r="DV53" s="163"/>
-      <c r="DW53" s="163"/>
-      <c r="DX53" s="163"/>
-      <c r="DY53" s="163"/>
-      <c r="DZ53" s="163"/>
-      <c r="EA53" s="163"/>
-      <c r="EB53" s="163"/>
-      <c r="EC53" s="163"/>
-      <c r="ED53" s="163"/>
+      <c r="S54" s="161"/>
+      <c r="T54" s="183"/>
+      <c r="U54" s="183"/>
+      <c r="V54" s="161"/>
+      <c r="W54" s="167"/>
+      <c r="X54" s="167"/>
+      <c r="Y54" s="167"/>
+      <c r="Z54" s="167"/>
+      <c r="AA54" s="167"/>
+      <c r="AB54" s="167"/>
+      <c r="AC54" s="167"/>
+      <c r="AD54" s="167"/>
+      <c r="AE54" s="167"/>
+      <c r="AF54" s="167"/>
+      <c r="AG54" s="167"/>
+      <c r="AH54" s="167"/>
+      <c r="AI54" s="167"/>
+      <c r="AJ54" s="167"/>
+      <c r="AK54" s="167"/>
+      <c r="AL54" s="167"/>
+      <c r="AM54" s="167"/>
+      <c r="AN54" s="167"/>
+      <c r="AO54" s="167"/>
+      <c r="AP54" s="167"/>
+      <c r="AQ54" s="167"/>
+      <c r="AR54" s="167"/>
+      <c r="AS54" s="167"/>
+      <c r="AT54" s="167"/>
+      <c r="AU54" s="167"/>
+      <c r="AV54" s="167"/>
+      <c r="AW54" s="167"/>
+      <c r="AX54" s="167"/>
+      <c r="AY54" s="167"/>
+      <c r="AZ54" s="167"/>
+      <c r="BA54" s="167"/>
+      <c r="BB54" s="167"/>
+      <c r="BC54" s="167"/>
+      <c r="BD54" s="167"/>
+      <c r="BE54" s="167"/>
+      <c r="BF54" s="167"/>
+      <c r="BG54" s="167"/>
+      <c r="BH54" s="167"/>
+      <c r="BI54" s="167"/>
+      <c r="BJ54" s="167"/>
+      <c r="BK54" s="167"/>
+      <c r="BL54" s="167"/>
+      <c r="BM54" s="167"/>
+      <c r="BN54" s="167"/>
+      <c r="BO54" s="167"/>
+      <c r="BP54" s="167"/>
+      <c r="BQ54" s="167"/>
+      <c r="BR54" s="167"/>
+      <c r="BS54" s="167"/>
+      <c r="BT54" s="167"/>
+      <c r="BU54" s="167"/>
+      <c r="BV54" s="167"/>
+      <c r="BW54" s="167"/>
+      <c r="BX54" s="167"/>
+      <c r="BY54" s="167"/>
+      <c r="BZ54" s="167"/>
+      <c r="CA54" s="163"/>
+      <c r="CB54" s="163"/>
+      <c r="CC54" s="163"/>
+      <c r="CD54" s="163"/>
+      <c r="CE54" s="163"/>
+      <c r="CF54" s="163"/>
+      <c r="CG54" s="163"/>
+      <c r="CH54" s="163"/>
+      <c r="CI54" s="163"/>
+      <c r="CJ54" s="163"/>
+      <c r="CK54" s="163"/>
+      <c r="CL54" s="163"/>
+      <c r="CM54" s="163"/>
+      <c r="CN54" s="163"/>
+      <c r="CO54" s="163"/>
+      <c r="CP54" s="163"/>
+      <c r="CQ54" s="163"/>
+      <c r="CR54" s="163"/>
+      <c r="CS54" s="163"/>
+      <c r="CT54" s="163"/>
+      <c r="CU54" s="163"/>
+      <c r="CV54" s="163"/>
+      <c r="CW54" s="163"/>
+      <c r="CX54" s="163"/>
+      <c r="CY54" s="163"/>
+      <c r="CZ54" s="163"/>
+      <c r="DA54" s="163"/>
+      <c r="DB54" s="163"/>
+      <c r="DC54" s="163"/>
+      <c r="DD54" s="163"/>
+      <c r="DE54" s="163"/>
+      <c r="DF54" s="163"/>
+      <c r="DG54" s="163"/>
+      <c r="DH54" s="163"/>
+      <c r="DI54" s="163"/>
+      <c r="DJ54" s="163"/>
+      <c r="DK54" s="163"/>
+      <c r="DL54" s="163"/>
+      <c r="DM54" s="163"/>
+      <c r="DN54" s="163"/>
+      <c r="DO54" s="163"/>
+      <c r="DP54" s="163"/>
+      <c r="DQ54" s="163"/>
+      <c r="DR54" s="163"/>
+      <c r="DS54" s="163"/>
+      <c r="DT54" s="163"/>
+      <c r="DU54" s="163"/>
+      <c r="DV54" s="163"/>
+      <c r="DW54" s="163"/>
+      <c r="DX54" s="163"/>
+      <c r="DY54" s="163"/>
+      <c r="DZ54" s="163"/>
+      <c r="EA54" s="163"/>
+      <c r="EB54" s="163"/>
+      <c r="EC54" s="163"/>
+      <c r="ED54" s="163"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" autoFilter="0"/>
@@ -32344,11 +33149,11 @@
     <mergeCell ref="BM10:BS10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N13:N17 N53 N38 N47">
-    <cfRule type="cellIs" dxfId="755" priority="1479" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="N13:N17 N54 N38 N47">
+    <cfRule type="cellIs" dxfId="804" priority="1535" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1482">
+    <cfRule type="dataBar" priority="1538">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32361,139 +33166,139 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10 C4:C6 I13:I17 L13:L17 T13:U17 T53:U53 L53 I53 P53:Q53 T38:U38 T47:U47 L38 L47 I38 I47 P38:Q38 P47:Q47">
-    <cfRule type="expression" dxfId="754" priority="1468">
+  <conditionalFormatting sqref="C9:C10 C4:C6 I13:I17 L13:L17 T13:U17 T54:U54 L54 I54 P54:Q54 T38:U38 T47:U47 L38 L47 I38 I47 P38:Q38 P47:Q47">
+    <cfRule type="expression" dxfId="803" priority="1524">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q17 Q19:Q21 Q53 Q33:Q34 Q24 Q40:Q41 Q45:Q47">
-    <cfRule type="expression" dxfId="753" priority="1483">
+  <conditionalFormatting sqref="Q13:Q17 Q19:Q21 Q54 Q33:Q34 Q24 Q40:Q41 Q45:Q47">
+    <cfRule type="expression" dxfId="802" priority="1539">
       <formula>AND($Q$10="Yes",Q13&lt;$C$10,N13&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="1488">
+    <cfRule type="expression" dxfId="801" priority="1544">
       <formula>AND($Q$10="Yes",Q13&lt;=$C$10+enddate_highlight_days,N13&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C17 C19:C21 C53 C24 C26 C33:C34 C38 C40:C41 C45:C47">
-    <cfRule type="expression" dxfId="751" priority="1489">
+  <conditionalFormatting sqref="C13:C17 C19:C21 C54 C24 C26 C33:C34 C38 C40:C41 C45:C47">
+    <cfRule type="expression" dxfId="800" priority="1545">
       <formula>$A13=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="1680">
+    <cfRule type="expression" dxfId="799" priority="1736">
       <formula>$A13=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="749" priority="1681">
+    <cfRule type="expression" dxfId="798" priority="1737">
       <formula>$A13=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="1682">
+    <cfRule type="expression" dxfId="797" priority="1738">
       <formula>$A13=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="1683">
+    <cfRule type="expression" dxfId="796" priority="1739">
       <formula>$A13=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="1684">
+    <cfRule type="expression" dxfId="795" priority="1740">
       <formula>$A13=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:ED12">
-    <cfRule type="expression" dxfId="745" priority="1998">
+    <cfRule type="expression" dxfId="794" priority="2054">
       <formula>W$7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="1999">
+    <cfRule type="expression" dxfId="793" priority="2055">
       <formula>AND($C$10&gt;=W$5,$C$10&lt;X$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="743" priority="2000">
+    <cfRule type="expression" dxfId="792" priority="2056">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:ED17 W19:ED21 W23:ED24 W26:ED26 W33:ED34 W38:ED47 W49:ED49 W52:ED53">
-    <cfRule type="expression" dxfId="742" priority="1471">
+  <conditionalFormatting sqref="W13:ED17 W19:ED21 W23:ED24 W26:ED26 W33:ED34 W38:ED47 W49:ED49 W53:ED54">
+    <cfRule type="expression" dxfId="791" priority="1527">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="1475">
+    <cfRule type="expression" dxfId="790" priority="1531">
       <formula>AND($U$4="Yes",$U13&gt;=W$5,$T13&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="2023">
+    <cfRule type="expression" dxfId="789" priority="2079">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M13&lt;&gt;"M",$U13&gt;=W$5,$T13&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="2024">
+    <cfRule type="expression" dxfId="788" priority="2080">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P13&lt;=W$6,ROUNDDOWN(($Q13-$P13+1)*$N13,0)+$P13-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="2025" stopIfTrue="1">
+    <cfRule type="expression" dxfId="787" priority="2081" stopIfTrue="1">
       <formula>AND(OR($M13="b",$M13=""),$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="2026" stopIfTrue="1">
+    <cfRule type="expression" dxfId="786" priority="2082" stopIfTrue="1">
       <formula>AND($M13="K",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="2027" stopIfTrue="1">
+    <cfRule type="expression" dxfId="785" priority="2083" stopIfTrue="1">
       <formula>AND($M13="x",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="735" priority="2028" stopIfTrue="1">
+    <cfRule type="expression" dxfId="784" priority="2084" stopIfTrue="1">
       <formula>AND($M13="G",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="2029" stopIfTrue="1">
+    <cfRule type="expression" dxfId="783" priority="2085" stopIfTrue="1">
       <formula>AND($M13="P",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="2030" stopIfTrue="1">
+    <cfRule type="expression" dxfId="782" priority="2086" stopIfTrue="1">
       <formula>AND($M13="Y",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="2031" stopIfTrue="1">
+    <cfRule type="expression" dxfId="781" priority="2087" stopIfTrue="1">
       <formula>AND($M13="O",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="731" priority="2032" stopIfTrue="1">
+    <cfRule type="expression" dxfId="780" priority="2088" stopIfTrue="1">
       <formula>AND($M13="R",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="730" priority="2033" stopIfTrue="1">
+    <cfRule type="expression" dxfId="779" priority="2089" stopIfTrue="1">
       <formula>AND($M13=1,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="729" priority="2034" stopIfTrue="1">
+    <cfRule type="expression" dxfId="778" priority="2090" stopIfTrue="1">
       <formula>AND($M13=2,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="728" priority="2035" stopIfTrue="1">
+    <cfRule type="expression" dxfId="777" priority="2091" stopIfTrue="1">
       <formula>AND($M13=3,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="727" priority="2036" stopIfTrue="1">
+    <cfRule type="expression" dxfId="776" priority="2092" stopIfTrue="1">
       <formula>AND($M13=4,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="2037" stopIfTrue="1">
+    <cfRule type="expression" dxfId="775" priority="2093" stopIfTrue="1">
       <formula>AND($M13=5,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="725" priority="2038" stopIfTrue="1">
+    <cfRule type="expression" dxfId="774" priority="2094" stopIfTrue="1">
       <formula>AND($M13=6,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="2039" stopIfTrue="1">
+    <cfRule type="expression" dxfId="773" priority="2095" stopIfTrue="1">
       <formula>AND($M13=7,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="2040" stopIfTrue="1">
+    <cfRule type="expression" dxfId="772" priority="2096" stopIfTrue="1">
       <formula>AND($M13="M",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="2041" stopIfTrue="1">
+    <cfRule type="expression" dxfId="771" priority="2097" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N13&lt;1,$P13&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="2042" stopIfTrue="1">
+    <cfRule type="expression" dxfId="770" priority="2098" stopIfTrue="1">
       <formula>AND($P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="2043">
+    <cfRule type="expression" dxfId="769" priority="2099">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="719" priority="2044">
+    <cfRule type="expression" dxfId="768" priority="2100">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:ED12">
-    <cfRule type="expression" dxfId="718" priority="1470">
+    <cfRule type="expression" dxfId="767" priority="1526">
       <formula>$Q$4="Daily"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q17">
-    <cfRule type="expression" dxfId="717" priority="1467">
+    <cfRule type="expression" dxfId="766" priority="1523">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="cellIs" dxfId="716" priority="1434" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="765" priority="1490" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1435">
+    <cfRule type="dataBar" priority="1491">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32507,114 +33312,114 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 L18 T18:U18">
-    <cfRule type="expression" dxfId="715" priority="1431">
+    <cfRule type="expression" dxfId="764" priority="1487">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="expression" dxfId="714" priority="1436">
+    <cfRule type="expression" dxfId="763" priority="1492">
       <formula>AND($Q$10="Yes",Q18&lt;$C$10,N18&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="713" priority="1437">
+    <cfRule type="expression" dxfId="762" priority="1493">
       <formula>AND($Q$10="Yes",Q18&lt;=$C$10+enddate_highlight_days,N18&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="712" priority="1438">
+    <cfRule type="expression" dxfId="761" priority="1494">
       <formula>$A18=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="711" priority="1439">
+    <cfRule type="expression" dxfId="760" priority="1495">
       <formula>$A18=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="710" priority="1440">
+    <cfRule type="expression" dxfId="759" priority="1496">
       <formula>$A18=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="709" priority="1441">
+    <cfRule type="expression" dxfId="758" priority="1497">
       <formula>$A18=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="708" priority="1442">
+    <cfRule type="expression" dxfId="757" priority="1498">
       <formula>$A18=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="707" priority="1443">
+    <cfRule type="expression" dxfId="756" priority="1499">
       <formula>$A18=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:ED18">
-    <cfRule type="expression" dxfId="706" priority="1432">
+    <cfRule type="expression" dxfId="755" priority="1488">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="705" priority="1433">
+    <cfRule type="expression" dxfId="754" priority="1489">
       <formula>AND($U$4="Yes",$U18&gt;=W$5,$T18&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="1444">
+    <cfRule type="expression" dxfId="753" priority="1500">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M18&lt;&gt;"M",$U18&gt;=W$5,$T18&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="703" priority="1445">
+    <cfRule type="expression" dxfId="752" priority="1501">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P18&lt;=W$6,ROUNDDOWN(($Q18-$P18+1)*$N18,0)+$P18-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="1446" stopIfTrue="1">
+    <cfRule type="expression" dxfId="751" priority="1502" stopIfTrue="1">
       <formula>AND(OR($M18="b",$M18=""),$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="1447" stopIfTrue="1">
+    <cfRule type="expression" dxfId="750" priority="1503" stopIfTrue="1">
       <formula>AND($M18="K",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="1448" stopIfTrue="1">
+    <cfRule type="expression" dxfId="749" priority="1504" stopIfTrue="1">
       <formula>AND($M18="x",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="1449" stopIfTrue="1">
+    <cfRule type="expression" dxfId="748" priority="1505" stopIfTrue="1">
       <formula>AND($M18="G",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="1450" stopIfTrue="1">
+    <cfRule type="expression" dxfId="747" priority="1506" stopIfTrue="1">
       <formula>AND($M18="P",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="697" priority="1451" stopIfTrue="1">
+    <cfRule type="expression" dxfId="746" priority="1507" stopIfTrue="1">
       <formula>AND($M18="Y",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="696" priority="1452" stopIfTrue="1">
+    <cfRule type="expression" dxfId="745" priority="1508" stopIfTrue="1">
       <formula>AND($M18="O",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="695" priority="1453" stopIfTrue="1">
+    <cfRule type="expression" dxfId="744" priority="1509" stopIfTrue="1">
       <formula>AND($M18="R",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="694" priority="1454" stopIfTrue="1">
+    <cfRule type="expression" dxfId="743" priority="1510" stopIfTrue="1">
       <formula>AND($M18=1,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="1455" stopIfTrue="1">
+    <cfRule type="expression" dxfId="742" priority="1511" stopIfTrue="1">
       <formula>AND($M18=2,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="692" priority="1456" stopIfTrue="1">
+    <cfRule type="expression" dxfId="741" priority="1512" stopIfTrue="1">
       <formula>AND($M18=3,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="1457" stopIfTrue="1">
+    <cfRule type="expression" dxfId="740" priority="1513" stopIfTrue="1">
       <formula>AND($M18=4,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="1458" stopIfTrue="1">
+    <cfRule type="expression" dxfId="739" priority="1514" stopIfTrue="1">
       <formula>AND($M18=5,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="1459" stopIfTrue="1">
+    <cfRule type="expression" dxfId="738" priority="1515" stopIfTrue="1">
       <formula>AND($M18=6,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="1460" stopIfTrue="1">
+    <cfRule type="expression" dxfId="737" priority="1516" stopIfTrue="1">
       <formula>AND($M18=7,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="1461" stopIfTrue="1">
+    <cfRule type="expression" dxfId="736" priority="1517" stopIfTrue="1">
       <formula>AND($M18="M",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="686" priority="1462" stopIfTrue="1">
+    <cfRule type="expression" dxfId="735" priority="1518" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N18&lt;1,$P18&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="1463" stopIfTrue="1">
+    <cfRule type="expression" dxfId="734" priority="1519" stopIfTrue="1">
       <formula>AND($P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="1464">
+    <cfRule type="expression" dxfId="733" priority="1520">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="1465">
+    <cfRule type="expression" dxfId="732" priority="1521">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
-    <cfRule type="iconSet" priority="1466">
+    <cfRule type="iconSet" priority="1522">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32624,15 +33429,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q18">
-    <cfRule type="expression" dxfId="682" priority="1430">
+    <cfRule type="expression" dxfId="731" priority="1486">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N21 N33:N34 N40 N45:N47">
-    <cfRule type="cellIs" dxfId="681" priority="1397" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="730" priority="1453" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1398">
+    <cfRule type="dataBar" priority="1454">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32646,17 +33451,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21 L19:L21 T19:U21 T33:U34 L33:L34 I33:I34 I40 L40 T40:U40 T45:U47 L45:L47 I45:I47">
-    <cfRule type="expression" dxfId="680" priority="1394">
+    <cfRule type="expression" dxfId="729" priority="1450">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:Q21 P33:Q34 P40:Q40 P45:Q47">
-    <cfRule type="expression" dxfId="679" priority="1393">
+    <cfRule type="expression" dxfId="728" priority="1449">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O53 O13:O17">
-    <cfRule type="iconSet" priority="2386">
+  <conditionalFormatting sqref="O54 O13:O17">
+    <cfRule type="iconSet" priority="2442">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32666,7 +33471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45 O40 O33:O34 O19:O21">
-    <cfRule type="iconSet" priority="2443">
+    <cfRule type="iconSet" priority="2499">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32676,38 +33481,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49">
-    <cfRule type="expression" dxfId="678" priority="1362">
+    <cfRule type="expression" dxfId="727" priority="1418">
       <formula>AND($Q$10="Yes",Q49&lt;$C$10,N49&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="1363">
+    <cfRule type="expression" dxfId="726" priority="1419">
       <formula>AND($Q$10="Yes",Q49&lt;=$C$10+enddate_highlight_days,N49&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="676" priority="1364">
+    <cfRule type="expression" dxfId="725" priority="1420">
       <formula>$A49=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="1365">
+    <cfRule type="expression" dxfId="724" priority="1421">
       <formula>$A49=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="1366">
+    <cfRule type="expression" dxfId="723" priority="1422">
       <formula>$A49=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="1367">
+    <cfRule type="expression" dxfId="722" priority="1423">
       <formula>$A49=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="1368">
+    <cfRule type="expression" dxfId="721" priority="1424">
       <formula>$A49=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="1369">
+    <cfRule type="expression" dxfId="720" priority="1425">
       <formula>$A49=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="cellIs" dxfId="670" priority="1358" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="719" priority="1414" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1359">
+    <cfRule type="dataBar" priority="1415">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32721,17 +33526,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49 L49 T49:U49">
-    <cfRule type="expression" dxfId="669" priority="1357">
+    <cfRule type="expression" dxfId="718" priority="1413">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:Q49">
-    <cfRule type="expression" dxfId="668" priority="1356">
+    <cfRule type="expression" dxfId="717" priority="1412">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49">
-    <cfRule type="iconSet" priority="1392">
+    <cfRule type="iconSet" priority="1448">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32740,39 +33545,39 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q52">
-    <cfRule type="expression" dxfId="667" priority="1325">
-      <formula>AND($Q$10="Yes",Q52&lt;$C$10,N52&lt;1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="666" priority="1326">
-      <formula>AND($Q$10="Yes",Q52&lt;=$C$10+enddate_highlight_days,N52&lt;1)</formula>
+  <conditionalFormatting sqref="Q53">
+    <cfRule type="expression" dxfId="716" priority="1381">
+      <formula>AND($Q$10="Yes",Q53&lt;$C$10,N53&lt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="715" priority="1382">
+      <formula>AND($Q$10="Yes",Q53&lt;=$C$10+enddate_highlight_days,N53&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="665" priority="1327">
-      <formula>$A52=7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="664" priority="1328">
-      <formula>$A52=6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="663" priority="1329">
-      <formula>$A52=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="662" priority="1330">
-      <formula>$A52=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="661" priority="1331">
-      <formula>$A52=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="660" priority="1332">
-      <formula>$A52=2</formula>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="714" priority="1383">
+      <formula>$A53=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="713" priority="1384">
+      <formula>$A53=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="712" priority="1385">
+      <formula>$A53=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="711" priority="1386">
+      <formula>$A53=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="710" priority="1387">
+      <formula>$A53=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="709" priority="1388">
+      <formula>$A53=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="659" priority="1321" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="N53">
+    <cfRule type="cellIs" dxfId="708" priority="1377" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1322">
+    <cfRule type="dataBar" priority="1378">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32785,18 +33590,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52 L52 T52:U52">
-    <cfRule type="expression" dxfId="658" priority="1320">
+  <conditionalFormatting sqref="I53 L53 T53:U53">
+    <cfRule type="expression" dxfId="707" priority="1376">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P52:Q52">
-    <cfRule type="expression" dxfId="657" priority="1319">
+  <conditionalFormatting sqref="P53:Q53">
+    <cfRule type="expression" dxfId="706" priority="1375">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O52">
-    <cfRule type="iconSet" priority="1355">
+  <conditionalFormatting sqref="O53">
+    <cfRule type="iconSet" priority="1411">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32806,38 +33611,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="656" priority="1288">
+    <cfRule type="expression" dxfId="705" priority="1344">
       <formula>AND($Q$10="Yes",Q23&lt;$C$10,N23&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="655" priority="1289">
+    <cfRule type="expression" dxfId="704" priority="1345">
       <formula>AND($Q$10="Yes",Q23&lt;=$C$10+enddate_highlight_days,N23&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="654" priority="1290">
+    <cfRule type="expression" dxfId="703" priority="1346">
       <formula>$A23=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="653" priority="1291">
+    <cfRule type="expression" dxfId="702" priority="1347">
       <formula>$A23=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="652" priority="1292">
+    <cfRule type="expression" dxfId="701" priority="1348">
       <formula>$A23=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="651" priority="1293">
+    <cfRule type="expression" dxfId="700" priority="1349">
       <formula>$A23=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="1294">
+    <cfRule type="expression" dxfId="699" priority="1350">
       <formula>$A23=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="1295">
+    <cfRule type="expression" dxfId="698" priority="1351">
       <formula>$A23=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="648" priority="1284" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="697" priority="1340" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1285">
+    <cfRule type="dataBar" priority="1341">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32851,17 +33656,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23 L23 T23:U23">
-    <cfRule type="expression" dxfId="647" priority="1283">
+    <cfRule type="expression" dxfId="696" priority="1339">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:Q23">
-    <cfRule type="expression" dxfId="646" priority="1282">
+    <cfRule type="expression" dxfId="695" priority="1338">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="iconSet" priority="1318">
+    <cfRule type="iconSet" priority="1374">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -32871,112 +33676,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="expression" dxfId="645" priority="1251">
+    <cfRule type="expression" dxfId="694" priority="1307">
       <formula>AND($Q$10="Yes",Q22&lt;$C$10,N22&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="1252">
+    <cfRule type="expression" dxfId="693" priority="1308">
       <formula>AND($Q$10="Yes",Q22&lt;=$C$10+enddate_highlight_days,N22&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="643" priority="1253">
+    <cfRule type="expression" dxfId="692" priority="1309">
       <formula>$A22=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="1254">
+    <cfRule type="expression" dxfId="691" priority="1310">
       <formula>$A22=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="1255">
+    <cfRule type="expression" dxfId="690" priority="1311">
       <formula>$A22=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="1256">
+    <cfRule type="expression" dxfId="689" priority="1312">
       <formula>$A22=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="1257">
+    <cfRule type="expression" dxfId="688" priority="1313">
       <formula>$A22=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="1258">
+    <cfRule type="expression" dxfId="687" priority="1314">
       <formula>$A22=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22:ED22">
-    <cfRule type="expression" dxfId="637" priority="1249">
+    <cfRule type="expression" dxfId="686" priority="1305">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="1250">
+    <cfRule type="expression" dxfId="685" priority="1306">
       <formula>AND($U$4="Yes",$U22&gt;=W$5,$T22&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="1259">
+    <cfRule type="expression" dxfId="684" priority="1315">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M22&lt;&gt;"M",$U22&gt;=W$5,$T22&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="1260">
+    <cfRule type="expression" dxfId="683" priority="1316">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P22&lt;=W$6,ROUNDDOWN(($Q22-$P22+1)*$N22,0)+$P22-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="1261" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="1317" stopIfTrue="1">
       <formula>AND(OR($M22="b",$M22=""),$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="1262" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="1318" stopIfTrue="1">
       <formula>AND($M22="K",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="1263" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="1319" stopIfTrue="1">
       <formula>AND($M22="x",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="1264" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="1320" stopIfTrue="1">
       <formula>AND($M22="G",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="1265" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="1321" stopIfTrue="1">
       <formula>AND($M22="P",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="1266" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="1322" stopIfTrue="1">
       <formula>AND($M22="Y",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="1267" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="1323" stopIfTrue="1">
       <formula>AND($M22="O",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="1268" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="1324" stopIfTrue="1">
       <formula>AND($M22="R",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="1269" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="1325" stopIfTrue="1">
       <formula>AND($M22=1,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="1270" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="1326" stopIfTrue="1">
       <formula>AND($M22=2,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="623" priority="1271" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="1327" stopIfTrue="1">
       <formula>AND($M22=3,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="1272" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="1328" stopIfTrue="1">
       <formula>AND($M22=4,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="621" priority="1273" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="1329" stopIfTrue="1">
       <formula>AND($M22=5,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="1274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="669" priority="1330" stopIfTrue="1">
       <formula>AND($M22=6,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="619" priority="1275" stopIfTrue="1">
+    <cfRule type="expression" dxfId="668" priority="1331" stopIfTrue="1">
       <formula>AND($M22=7,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="618" priority="1276" stopIfTrue="1">
+    <cfRule type="expression" dxfId="667" priority="1332" stopIfTrue="1">
       <formula>AND($M22="M",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="617" priority="1277" stopIfTrue="1">
+    <cfRule type="expression" dxfId="666" priority="1333" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N22&lt;1,$P22&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="616" priority="1278" stopIfTrue="1">
+    <cfRule type="expression" dxfId="665" priority="1334" stopIfTrue="1">
       <formula>AND($P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="615" priority="1279">
+    <cfRule type="expression" dxfId="664" priority="1335">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="614" priority="1280">
+    <cfRule type="expression" dxfId="663" priority="1336">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="cellIs" dxfId="613" priority="1247" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="662" priority="1303" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1248">
+    <cfRule type="dataBar" priority="1304">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -32990,17 +33795,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22 L22 T22:U22">
-    <cfRule type="expression" dxfId="612" priority="1246">
+    <cfRule type="expression" dxfId="661" priority="1302">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="expression" dxfId="611" priority="1245">
+    <cfRule type="expression" dxfId="660" priority="1301">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="iconSet" priority="1281">
+    <cfRule type="iconSet" priority="1337">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33010,18 +33815,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26">
-    <cfRule type="expression" dxfId="610" priority="1214">
+    <cfRule type="expression" dxfId="659" priority="1270">
       <formula>AND($Q$10="Yes",Q26&lt;$C$10,N26&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="1215">
+    <cfRule type="expression" dxfId="658" priority="1271">
       <formula>AND($Q$10="Yes",Q26&lt;=$C$10+enddate_highlight_days,N26&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="608" priority="1210" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="657" priority="1266" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1211">
+    <cfRule type="dataBar" priority="1267">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33035,17 +33840,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26 L26 T26:U26">
-    <cfRule type="expression" dxfId="607" priority="1209">
+    <cfRule type="expression" dxfId="656" priority="1265">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:Q26">
-    <cfRule type="expression" dxfId="606" priority="1208">
+    <cfRule type="expression" dxfId="655" priority="1264">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="iconSet" priority="1244">
+    <cfRule type="iconSet" priority="1300">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33055,10 +33860,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26 N24">
-    <cfRule type="cellIs" dxfId="605" priority="1136" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="654" priority="1192" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1137">
+    <cfRule type="dataBar" priority="1193">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33072,17 +33877,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24 L24 T24:U24 T26:U26 L26 I26">
-    <cfRule type="expression" dxfId="604" priority="1135">
+    <cfRule type="expression" dxfId="653" priority="1191">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q24 P26:Q26">
-    <cfRule type="expression" dxfId="603" priority="1134">
+    <cfRule type="expression" dxfId="652" priority="1190">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="iconSet" priority="1146">
+    <cfRule type="iconSet" priority="1202">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33092,112 +33897,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="602" priority="1106">
+    <cfRule type="expression" dxfId="651" priority="1162">
       <formula>$A25=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="1107">
+    <cfRule type="expression" dxfId="650" priority="1163">
       <formula>$A25=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="1108">
+    <cfRule type="expression" dxfId="649" priority="1164">
       <formula>$A25=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="599" priority="1109">
+    <cfRule type="expression" dxfId="648" priority="1165">
       <formula>$A25=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="1110">
+    <cfRule type="expression" dxfId="647" priority="1166">
       <formula>$A25=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="1111">
+    <cfRule type="expression" dxfId="646" priority="1167">
       <formula>$A25=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:ED25">
-    <cfRule type="expression" dxfId="596" priority="1104">
+    <cfRule type="expression" dxfId="645" priority="1160">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="1105">
+    <cfRule type="expression" dxfId="644" priority="1161">
       <formula>AND($U$4="Yes",$U25&gt;=W$5,$T25&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="1112">
+    <cfRule type="expression" dxfId="643" priority="1168">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M25&lt;&gt;"M",$U25&gt;=W$5,$T25&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="1113">
+    <cfRule type="expression" dxfId="642" priority="1169">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P25&lt;=W$6,ROUNDDOWN(($Q25-$P25+1)*$N25,0)+$P25-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="1114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="1170" stopIfTrue="1">
       <formula>AND(OR($M25="b",$M25=""),$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="1115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="640" priority="1171" stopIfTrue="1">
       <formula>AND($M25="K",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="1116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="1172" stopIfTrue="1">
       <formula>AND($M25="x",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="1117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="1173" stopIfTrue="1">
       <formula>AND($M25="G",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="1118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="1174" stopIfTrue="1">
       <formula>AND($M25="P",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="1119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="1175" stopIfTrue="1">
       <formula>AND($M25="Y",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="1120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="1176" stopIfTrue="1">
       <formula>AND($M25="O",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="1121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="1177" stopIfTrue="1">
       <formula>AND($M25="R",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="1122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="1178" stopIfTrue="1">
       <formula>AND($M25=1,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="583" priority="1123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="1179" stopIfTrue="1">
       <formula>AND($M25=2,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="1124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="631" priority="1180" stopIfTrue="1">
       <formula>AND($M25=3,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="581" priority="1125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="630" priority="1181" stopIfTrue="1">
       <formula>AND($M25=4,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="580" priority="1126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="629" priority="1182" stopIfTrue="1">
       <formula>AND($M25=5,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="579" priority="1127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="628" priority="1183" stopIfTrue="1">
       <formula>AND($M25=6,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="578" priority="1128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="627" priority="1184" stopIfTrue="1">
       <formula>AND($M25=7,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="577" priority="1129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="626" priority="1185" stopIfTrue="1">
       <formula>AND($M25="M",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="576" priority="1130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="625" priority="1186" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N25&lt;1,$P25&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="575" priority="1131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="624" priority="1187" stopIfTrue="1">
       <formula>AND($P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="1132">
+    <cfRule type="expression" dxfId="623" priority="1188">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="1133">
+    <cfRule type="expression" dxfId="622" priority="1189">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25">
-    <cfRule type="expression" dxfId="572" priority="1101">
+    <cfRule type="expression" dxfId="621" priority="1157">
       <formula>AND($Q$10="Yes",Q25&lt;$C$10,N25&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="1102">
+    <cfRule type="expression" dxfId="620" priority="1158">
       <formula>AND($Q$10="Yes",Q25&lt;=$C$10+enddate_highlight_days,N25&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="570" priority="1099" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="619" priority="1155" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1100">
+    <cfRule type="dataBar" priority="1156">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33211,17 +34016,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25 L25 T25:U25">
-    <cfRule type="expression" dxfId="569" priority="1098">
+    <cfRule type="expression" dxfId="618" priority="1154">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:Q25">
-    <cfRule type="expression" dxfId="568" priority="1097">
+    <cfRule type="expression" dxfId="617" priority="1153">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="iconSet" priority="1103">
+    <cfRule type="iconSet" priority="1159">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33231,10 +34036,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="567" priority="1095" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="616" priority="1151" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1096">
+    <cfRule type="dataBar" priority="1152">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33248,122 +34053,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:U25 L25 I25">
-    <cfRule type="expression" dxfId="566" priority="1094">
+    <cfRule type="expression" dxfId="615" priority="1150">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:Q25">
-    <cfRule type="expression" dxfId="565" priority="1093">
+    <cfRule type="expression" dxfId="614" priority="1149">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="564" priority="1065">
+    <cfRule type="expression" dxfId="613" priority="1121">
       <formula>$A28=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="1066">
+    <cfRule type="expression" dxfId="612" priority="1122">
       <formula>$A28=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="1067">
+    <cfRule type="expression" dxfId="611" priority="1123">
       <formula>$A28=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="1068">
+    <cfRule type="expression" dxfId="610" priority="1124">
       <formula>$A28=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="1069">
+    <cfRule type="expression" dxfId="609" priority="1125">
       <formula>$A28=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="1070">
+    <cfRule type="expression" dxfId="608" priority="1126">
       <formula>$A28=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28:ED28">
-    <cfRule type="expression" dxfId="558" priority="1063">
+    <cfRule type="expression" dxfId="607" priority="1119">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="1064">
+    <cfRule type="expression" dxfId="606" priority="1120">
       <formula>AND($U$4="Yes",$U28&gt;=W$5,$T28&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="1071">
+    <cfRule type="expression" dxfId="605" priority="1127">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M28&lt;&gt;"M",$U28&gt;=W$5,$T28&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="1072">
+    <cfRule type="expression" dxfId="604" priority="1128">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P28&lt;=W$6,ROUNDDOWN(($Q28-$P28+1)*$N28,0)+$P28-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="1073" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="1129" stopIfTrue="1">
       <formula>AND(OR($M28="b",$M28=""),$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="1074" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="1130" stopIfTrue="1">
       <formula>AND($M28="K",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="1075" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="1131" stopIfTrue="1">
       <formula>AND($M28="x",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="1076" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="1132" stopIfTrue="1">
       <formula>AND($M28="G",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="1077" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="1133" stopIfTrue="1">
       <formula>AND($M28="P",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="1078" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="1134" stopIfTrue="1">
       <formula>AND($M28="Y",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="1079" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="1135" stopIfTrue="1">
       <formula>AND($M28="O",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="1080" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="1136" stopIfTrue="1">
       <formula>AND($M28="R",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="1081" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="1137" stopIfTrue="1">
       <formula>AND($M28=1,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="545" priority="1082" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="1138" stopIfTrue="1">
       <formula>AND($M28=2,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="1083" stopIfTrue="1">
+    <cfRule type="expression" dxfId="593" priority="1139" stopIfTrue="1">
       <formula>AND($M28=3,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="543" priority="1084" stopIfTrue="1">
+    <cfRule type="expression" dxfId="592" priority="1140" stopIfTrue="1">
       <formula>AND($M28=4,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="542" priority="1085" stopIfTrue="1">
+    <cfRule type="expression" dxfId="591" priority="1141" stopIfTrue="1">
       <formula>AND($M28=5,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="541" priority="1086" stopIfTrue="1">
+    <cfRule type="expression" dxfId="590" priority="1142" stopIfTrue="1">
       <formula>AND($M28=6,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="540" priority="1087" stopIfTrue="1">
+    <cfRule type="expression" dxfId="589" priority="1143" stopIfTrue="1">
       <formula>AND($M28=7,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="539" priority="1088" stopIfTrue="1">
+    <cfRule type="expression" dxfId="588" priority="1144" stopIfTrue="1">
       <formula>AND($M28="M",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="538" priority="1089" stopIfTrue="1">
+    <cfRule type="expression" dxfId="587" priority="1145" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N28&lt;1,$P28&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="537" priority="1090" stopIfTrue="1">
+    <cfRule type="expression" dxfId="586" priority="1146" stopIfTrue="1">
       <formula>AND($P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="1091">
+    <cfRule type="expression" dxfId="585" priority="1147">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="1092">
+    <cfRule type="expression" dxfId="584" priority="1148">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="534" priority="1060">
+    <cfRule type="expression" dxfId="583" priority="1116">
       <formula>AND($Q$10="Yes",Q28&lt;$C$10,N28&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="1061">
+    <cfRule type="expression" dxfId="582" priority="1117">
       <formula>AND($Q$10="Yes",Q28&lt;=$C$10+enddate_highlight_days,N28&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="cellIs" dxfId="532" priority="1058" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="581" priority="1114" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1059">
+    <cfRule type="dataBar" priority="1115">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33377,17 +34182,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28 L28 T28:U28">
-    <cfRule type="expression" dxfId="531" priority="1057">
+    <cfRule type="expression" dxfId="580" priority="1113">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:Q28">
-    <cfRule type="expression" dxfId="530" priority="1056">
+    <cfRule type="expression" dxfId="579" priority="1112">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="iconSet" priority="1062">
+    <cfRule type="iconSet" priority="1118">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33397,10 +34202,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="cellIs" dxfId="529" priority="1054" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="578" priority="1110" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1055">
+    <cfRule type="dataBar" priority="1111">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33414,122 +34219,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28:U28 L28 I28">
-    <cfRule type="expression" dxfId="528" priority="1053">
+    <cfRule type="expression" dxfId="577" priority="1109">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:Q28">
-    <cfRule type="expression" dxfId="527" priority="1052">
+    <cfRule type="expression" dxfId="576" priority="1108">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="526" priority="1024">
+    <cfRule type="expression" dxfId="575" priority="1080">
       <formula>$A27=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="1025">
+    <cfRule type="expression" dxfId="574" priority="1081">
       <formula>$A27=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="1026">
+    <cfRule type="expression" dxfId="573" priority="1082">
       <formula>$A27=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="1027">
+    <cfRule type="expression" dxfId="572" priority="1083">
       <formula>$A27=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="1028">
+    <cfRule type="expression" dxfId="571" priority="1084">
       <formula>$A27=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="1029">
+    <cfRule type="expression" dxfId="570" priority="1085">
       <formula>$A27=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27:ED27">
-    <cfRule type="expression" dxfId="520" priority="1022">
+    <cfRule type="expression" dxfId="569" priority="1078">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="1023">
+    <cfRule type="expression" dxfId="568" priority="1079">
       <formula>AND($U$4="Yes",$U27&gt;=W$5,$T27&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="1030">
+    <cfRule type="expression" dxfId="567" priority="1086">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M27&lt;&gt;"M",$U27&gt;=W$5,$T27&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="1031">
+    <cfRule type="expression" dxfId="566" priority="1087">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P27&lt;=W$6,ROUNDDOWN(($Q27-$P27+1)*$N27,0)+$P27-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="1032" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="1088" stopIfTrue="1">
       <formula>AND(OR($M27="b",$M27=""),$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="1033" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="1089" stopIfTrue="1">
       <formula>AND($M27="K",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="1034" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="1090" stopIfTrue="1">
       <formula>AND($M27="x",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="1035" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="1091" stopIfTrue="1">
       <formula>AND($M27="G",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="1036" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="1092" stopIfTrue="1">
       <formula>AND($M27="P",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="1037" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="1093" stopIfTrue="1">
       <formula>AND($M27="Y",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="1038" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="1094" stopIfTrue="1">
       <formula>AND($M27="O",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="1039" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="1095" stopIfTrue="1">
       <formula>AND($M27="R",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="1040" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="1096" stopIfTrue="1">
       <formula>AND($M27=1,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="507" priority="1041" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="1097" stopIfTrue="1">
       <formula>AND($M27=2,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="1042" stopIfTrue="1">
+    <cfRule type="expression" dxfId="555" priority="1098" stopIfTrue="1">
       <formula>AND($M27=3,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="505" priority="1043" stopIfTrue="1">
+    <cfRule type="expression" dxfId="554" priority="1099" stopIfTrue="1">
       <formula>AND($M27=4,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="504" priority="1044" stopIfTrue="1">
+    <cfRule type="expression" dxfId="553" priority="1100" stopIfTrue="1">
       <formula>AND($M27=5,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="503" priority="1045" stopIfTrue="1">
+    <cfRule type="expression" dxfId="552" priority="1101" stopIfTrue="1">
       <formula>AND($M27=6,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="502" priority="1046" stopIfTrue="1">
+    <cfRule type="expression" dxfId="551" priority="1102" stopIfTrue="1">
       <formula>AND($M27=7,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="501" priority="1047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="550" priority="1103" stopIfTrue="1">
       <formula>AND($M27="M",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="500" priority="1048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="549" priority="1104" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N27&lt;1,$P27&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="499" priority="1049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="548" priority="1105" stopIfTrue="1">
       <formula>AND($P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="1050">
+    <cfRule type="expression" dxfId="547" priority="1106">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="1051">
+    <cfRule type="expression" dxfId="546" priority="1107">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="496" priority="1019">
+    <cfRule type="expression" dxfId="545" priority="1075">
       <formula>AND($Q$10="Yes",Q27&lt;$C$10,N27&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="1020">
+    <cfRule type="expression" dxfId="544" priority="1076">
       <formula>AND($Q$10="Yes",Q27&lt;=$C$10+enddate_highlight_days,N27&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="cellIs" dxfId="494" priority="1017" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="543" priority="1073" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1018">
+    <cfRule type="dataBar" priority="1074">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33543,17 +34348,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27 L27 T27:U27">
-    <cfRule type="expression" dxfId="493" priority="1016">
+    <cfRule type="expression" dxfId="542" priority="1072">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:Q27">
-    <cfRule type="expression" dxfId="492" priority="1015">
+    <cfRule type="expression" dxfId="541" priority="1071">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27">
-    <cfRule type="iconSet" priority="1021">
+    <cfRule type="iconSet" priority="1077">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33563,10 +34368,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="cellIs" dxfId="491" priority="1013" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="540" priority="1069" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1014">
+    <cfRule type="dataBar" priority="1070">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33580,122 +34385,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:U27 L27 I27">
-    <cfRule type="expression" dxfId="490" priority="1012">
+    <cfRule type="expression" dxfId="539" priority="1068">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:Q27">
-    <cfRule type="expression" dxfId="489" priority="1011">
+    <cfRule type="expression" dxfId="538" priority="1067">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="488" priority="983">
+    <cfRule type="expression" dxfId="537" priority="1039">
       <formula>$A29=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="984">
+    <cfRule type="expression" dxfId="536" priority="1040">
       <formula>$A29=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="985">
+    <cfRule type="expression" dxfId="535" priority="1041">
       <formula>$A29=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="986">
+    <cfRule type="expression" dxfId="534" priority="1042">
       <formula>$A29=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="987">
+    <cfRule type="expression" dxfId="533" priority="1043">
       <formula>$A29=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="988">
+    <cfRule type="expression" dxfId="532" priority="1044">
       <formula>$A29=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:ED29">
-    <cfRule type="expression" dxfId="482" priority="981">
+    <cfRule type="expression" dxfId="531" priority="1037">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="982">
+    <cfRule type="expression" dxfId="530" priority="1038">
       <formula>AND($U$4="Yes",$U29&gt;=W$5,$T29&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="989">
+    <cfRule type="expression" dxfId="529" priority="1045">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M29&lt;&gt;"M",$U29&gt;=W$5,$T29&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="990">
+    <cfRule type="expression" dxfId="528" priority="1046">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P29&lt;=W$6,ROUNDDOWN(($Q29-$P29+1)*$N29,0)+$P29-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="991" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="1047" stopIfTrue="1">
       <formula>AND(OR($M29="b",$M29=""),$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="992" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="1048" stopIfTrue="1">
       <formula>AND($M29="K",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="993" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="1049" stopIfTrue="1">
       <formula>AND($M29="x",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="994" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="1050" stopIfTrue="1">
       <formula>AND($M29="G",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="995" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="1051" stopIfTrue="1">
       <formula>AND($M29="P",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="996" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="1052" stopIfTrue="1">
       <formula>AND($M29="Y",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="997" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="1053" stopIfTrue="1">
       <formula>AND($M29="O",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="998" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="1054" stopIfTrue="1">
       <formula>AND($M29="R",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="999" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="1055" stopIfTrue="1">
       <formula>AND($M29=1,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="469" priority="1000" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="1056" stopIfTrue="1">
       <formula>AND($M29=2,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="1001" stopIfTrue="1">
+    <cfRule type="expression" dxfId="517" priority="1057" stopIfTrue="1">
       <formula>AND($M29=3,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="467" priority="1002" stopIfTrue="1">
+    <cfRule type="expression" dxfId="516" priority="1058" stopIfTrue="1">
       <formula>AND($M29=4,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="466" priority="1003" stopIfTrue="1">
+    <cfRule type="expression" dxfId="515" priority="1059" stopIfTrue="1">
       <formula>AND($M29=5,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="465" priority="1004" stopIfTrue="1">
+    <cfRule type="expression" dxfId="514" priority="1060" stopIfTrue="1">
       <formula>AND($M29=6,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="464" priority="1005" stopIfTrue="1">
+    <cfRule type="expression" dxfId="513" priority="1061" stopIfTrue="1">
       <formula>AND($M29=7,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="463" priority="1006" stopIfTrue="1">
+    <cfRule type="expression" dxfId="512" priority="1062" stopIfTrue="1">
       <formula>AND($M29="M",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="462" priority="1007" stopIfTrue="1">
+    <cfRule type="expression" dxfId="511" priority="1063" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N29&lt;1,$P29&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="461" priority="1008" stopIfTrue="1">
+    <cfRule type="expression" dxfId="510" priority="1064" stopIfTrue="1">
       <formula>AND($P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="1009">
+    <cfRule type="expression" dxfId="509" priority="1065">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="1010">
+    <cfRule type="expression" dxfId="508" priority="1066">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="458" priority="978">
+    <cfRule type="expression" dxfId="507" priority="1034">
       <formula>AND($Q$10="Yes",Q29&lt;$C$10,N29&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="979">
+    <cfRule type="expression" dxfId="506" priority="1035">
       <formula>AND($Q$10="Yes",Q29&lt;=$C$10+enddate_highlight_days,N29&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="456" priority="976" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="505" priority="1032" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="977">
+    <cfRule type="dataBar" priority="1033">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33709,17 +34514,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29 L29 T29:U29">
-    <cfRule type="expression" dxfId="455" priority="975">
+    <cfRule type="expression" dxfId="504" priority="1031">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q29">
-    <cfRule type="expression" dxfId="454" priority="974">
+    <cfRule type="expression" dxfId="503" priority="1030">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="iconSet" priority="980">
+    <cfRule type="iconSet" priority="1036">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33729,10 +34534,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="453" priority="972" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="502" priority="1028" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="973">
+    <cfRule type="dataBar" priority="1029">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33746,122 +34551,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U29 L29 I29">
-    <cfRule type="expression" dxfId="452" priority="971">
+    <cfRule type="expression" dxfId="501" priority="1027">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q29">
-    <cfRule type="expression" dxfId="451" priority="970">
+    <cfRule type="expression" dxfId="500" priority="1026">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="450" priority="942">
+    <cfRule type="expression" dxfId="499" priority="998">
       <formula>$A32=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="943">
+    <cfRule type="expression" dxfId="498" priority="999">
       <formula>$A32=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="944">
+    <cfRule type="expression" dxfId="497" priority="1000">
       <formula>$A32=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="945">
+    <cfRule type="expression" dxfId="496" priority="1001">
       <formula>$A32=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="946">
+    <cfRule type="expression" dxfId="495" priority="1002">
       <formula>$A32=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="947">
+    <cfRule type="expression" dxfId="494" priority="1003">
       <formula>$A32=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32:ED32">
-    <cfRule type="expression" dxfId="444" priority="940">
+    <cfRule type="expression" dxfId="493" priority="996">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="941">
+    <cfRule type="expression" dxfId="492" priority="997">
       <formula>AND($U$4="Yes",$U32&gt;=W$5,$T32&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="948">
+    <cfRule type="expression" dxfId="491" priority="1004">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M32&lt;&gt;"M",$U32&gt;=W$5,$T32&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="949">
+    <cfRule type="expression" dxfId="490" priority="1005">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P32&lt;=W$6,ROUNDDOWN(($Q32-$P32+1)*$N32,0)+$P32-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="950" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="1006" stopIfTrue="1">
       <formula>AND(OR($M32="b",$M32=""),$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="951" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="1007" stopIfTrue="1">
       <formula>AND($M32="K",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="952" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="1008" stopIfTrue="1">
       <formula>AND($M32="x",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="953" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="1009" stopIfTrue="1">
       <formula>AND($M32="G",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="954" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="1010" stopIfTrue="1">
       <formula>AND($M32="P",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="955" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="1011" stopIfTrue="1">
       <formula>AND($M32="Y",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="956" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="1012" stopIfTrue="1">
       <formula>AND($M32="O",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="957" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="1013" stopIfTrue="1">
       <formula>AND($M32="R",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="958" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="1014" stopIfTrue="1">
       <formula>AND($M32=1,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="431" priority="959" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="1015" stopIfTrue="1">
       <formula>AND($M32=2,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="960" stopIfTrue="1">
+    <cfRule type="expression" dxfId="479" priority="1016" stopIfTrue="1">
       <formula>AND($M32=3,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="429" priority="961" stopIfTrue="1">
+    <cfRule type="expression" dxfId="478" priority="1017" stopIfTrue="1">
       <formula>AND($M32=4,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="428" priority="962" stopIfTrue="1">
+    <cfRule type="expression" dxfId="477" priority="1018" stopIfTrue="1">
       <formula>AND($M32=5,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="427" priority="963" stopIfTrue="1">
+    <cfRule type="expression" dxfId="476" priority="1019" stopIfTrue="1">
       <formula>AND($M32=6,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="426" priority="964" stopIfTrue="1">
+    <cfRule type="expression" dxfId="475" priority="1020" stopIfTrue="1">
       <formula>AND($M32=7,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="425" priority="965" stopIfTrue="1">
+    <cfRule type="expression" dxfId="474" priority="1021" stopIfTrue="1">
       <formula>AND($M32="M",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="424" priority="966" stopIfTrue="1">
+    <cfRule type="expression" dxfId="473" priority="1022" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N32&lt;1,$P32&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="423" priority="967" stopIfTrue="1">
+    <cfRule type="expression" dxfId="472" priority="1023" stopIfTrue="1">
       <formula>AND($P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="968">
+    <cfRule type="expression" dxfId="471" priority="1024">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="969">
+    <cfRule type="expression" dxfId="470" priority="1025">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="expression" dxfId="420" priority="937">
+    <cfRule type="expression" dxfId="469" priority="993">
       <formula>AND($Q$10="Yes",Q32&lt;$C$10,N32&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="938">
+    <cfRule type="expression" dxfId="468" priority="994">
       <formula>AND($Q$10="Yes",Q32&lt;=$C$10+enddate_highlight_days,N32&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="418" priority="935" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="467" priority="991" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="936">
+    <cfRule type="dataBar" priority="992">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33875,17 +34680,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32 L32 T32:U32">
-    <cfRule type="expression" dxfId="417" priority="934">
+    <cfRule type="expression" dxfId="466" priority="990">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q32">
-    <cfRule type="expression" dxfId="416" priority="933">
+    <cfRule type="expression" dxfId="465" priority="989">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="iconSet" priority="939">
+    <cfRule type="iconSet" priority="995">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33895,10 +34700,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="415" priority="931" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="464" priority="987" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="932">
+    <cfRule type="dataBar" priority="988">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33912,122 +34717,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:U32 L32 I32">
-    <cfRule type="expression" dxfId="414" priority="930">
+    <cfRule type="expression" dxfId="463" priority="986">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q32">
-    <cfRule type="expression" dxfId="413" priority="929">
+    <cfRule type="expression" dxfId="462" priority="985">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="412" priority="860">
+    <cfRule type="expression" dxfId="461" priority="916">
       <formula>$A30=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="861">
+    <cfRule type="expression" dxfId="460" priority="917">
       <formula>$A30=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="862">
+    <cfRule type="expression" dxfId="459" priority="918">
       <formula>$A30=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="863">
+    <cfRule type="expression" dxfId="458" priority="919">
       <formula>$A30=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="864">
+    <cfRule type="expression" dxfId="457" priority="920">
       <formula>$A30=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="865">
+    <cfRule type="expression" dxfId="456" priority="921">
       <formula>$A30=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:ED30">
-    <cfRule type="expression" dxfId="406" priority="858">
+    <cfRule type="expression" dxfId="455" priority="914">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="859">
+    <cfRule type="expression" dxfId="454" priority="915">
       <formula>AND($U$4="Yes",$U30&gt;=W$5,$T30&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="866">
+    <cfRule type="expression" dxfId="453" priority="922">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M30&lt;&gt;"M",$U30&gt;=W$5,$T30&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="867">
+    <cfRule type="expression" dxfId="452" priority="923">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P30&lt;=W$6,ROUNDDOWN(($Q30-$P30+1)*$N30,0)+$P30-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="868" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="924" stopIfTrue="1">
       <formula>AND(OR($M30="b",$M30=""),$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="869" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="925" stopIfTrue="1">
       <formula>AND($M30="K",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="870" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="926" stopIfTrue="1">
       <formula>AND($M30="x",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="871" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="927" stopIfTrue="1">
       <formula>AND($M30="G",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="872" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="928" stopIfTrue="1">
       <formula>AND($M30="P",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="873" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="929" stopIfTrue="1">
       <formula>AND($M30="Y",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="874" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="930" stopIfTrue="1">
       <formula>AND($M30="O",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="875" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="931" stopIfTrue="1">
       <formula>AND($M30="R",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="876" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="932" stopIfTrue="1">
       <formula>AND($M30=1,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="393" priority="877" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="933" stopIfTrue="1">
       <formula>AND($M30=2,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="878" stopIfTrue="1">
+    <cfRule type="expression" dxfId="441" priority="934" stopIfTrue="1">
       <formula>AND($M30=3,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="391" priority="879" stopIfTrue="1">
+    <cfRule type="expression" dxfId="440" priority="935" stopIfTrue="1">
       <formula>AND($M30=4,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="390" priority="880" stopIfTrue="1">
+    <cfRule type="expression" dxfId="439" priority="936" stopIfTrue="1">
       <formula>AND($M30=5,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="389" priority="881" stopIfTrue="1">
+    <cfRule type="expression" dxfId="438" priority="937" stopIfTrue="1">
       <formula>AND($M30=6,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="388" priority="882" stopIfTrue="1">
+    <cfRule type="expression" dxfId="437" priority="938" stopIfTrue="1">
       <formula>AND($M30=7,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="387" priority="883" stopIfTrue="1">
+    <cfRule type="expression" dxfId="436" priority="939" stopIfTrue="1">
       <formula>AND($M30="M",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="386" priority="884" stopIfTrue="1">
+    <cfRule type="expression" dxfId="435" priority="940" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N30&lt;1,$P30&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="385" priority="885" stopIfTrue="1">
+    <cfRule type="expression" dxfId="434" priority="941" stopIfTrue="1">
       <formula>AND($P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="886">
+    <cfRule type="expression" dxfId="433" priority="942">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="887">
+    <cfRule type="expression" dxfId="432" priority="943">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="382" priority="855">
+    <cfRule type="expression" dxfId="431" priority="911">
       <formula>AND($Q$10="Yes",Q30&lt;$C$10,N30&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="856">
+    <cfRule type="expression" dxfId="430" priority="912">
       <formula>AND($Q$10="Yes",Q30&lt;=$C$10+enddate_highlight_days,N30&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="380" priority="853" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="429" priority="909" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="854">
+    <cfRule type="dataBar" priority="910">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34041,17 +34846,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30 L30 T30:U30">
-    <cfRule type="expression" dxfId="379" priority="852">
+    <cfRule type="expression" dxfId="428" priority="908">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q30">
-    <cfRule type="expression" dxfId="378" priority="851">
+    <cfRule type="expression" dxfId="427" priority="907">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="iconSet" priority="857">
+    <cfRule type="iconSet" priority="913">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34061,10 +34866,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="377" priority="849" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="426" priority="905" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="850">
+    <cfRule type="dataBar" priority="906">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34078,122 +34883,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:U30 L30 I30">
-    <cfRule type="expression" dxfId="376" priority="848">
+    <cfRule type="expression" dxfId="425" priority="904">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q30">
-    <cfRule type="expression" dxfId="375" priority="847">
+    <cfRule type="expression" dxfId="424" priority="903">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="374" priority="819">
+    <cfRule type="expression" dxfId="423" priority="875">
       <formula>$A31=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="820">
+    <cfRule type="expression" dxfId="422" priority="876">
       <formula>$A31=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="821">
+    <cfRule type="expression" dxfId="421" priority="877">
       <formula>$A31=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="822">
+    <cfRule type="expression" dxfId="420" priority="878">
       <formula>$A31=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="823">
+    <cfRule type="expression" dxfId="419" priority="879">
       <formula>$A31=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="824">
+    <cfRule type="expression" dxfId="418" priority="880">
       <formula>$A31=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:ED31">
-    <cfRule type="expression" dxfId="368" priority="817">
+    <cfRule type="expression" dxfId="417" priority="873">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="818">
+    <cfRule type="expression" dxfId="416" priority="874">
       <formula>AND($U$4="Yes",$U31&gt;=W$5,$T31&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="825">
+    <cfRule type="expression" dxfId="415" priority="881">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M31&lt;&gt;"M",$U31&gt;=W$5,$T31&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="826">
+    <cfRule type="expression" dxfId="414" priority="882">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P31&lt;=W$6,ROUNDDOWN(($Q31-$P31+1)*$N31,0)+$P31-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="827" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="883" stopIfTrue="1">
       <formula>AND(OR($M31="b",$M31=""),$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="828" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="884" stopIfTrue="1">
       <formula>AND($M31="K",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="829" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="885" stopIfTrue="1">
       <formula>AND($M31="x",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="830" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="886" stopIfTrue="1">
       <formula>AND($M31="G",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="831" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="887" stopIfTrue="1">
       <formula>AND($M31="P",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="832" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="888" stopIfTrue="1">
       <formula>AND($M31="Y",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="833" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="889" stopIfTrue="1">
       <formula>AND($M31="O",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="834" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="890" stopIfTrue="1">
       <formula>AND($M31="R",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="835" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="891" stopIfTrue="1">
       <formula>AND($M31=1,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="836" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="892" stopIfTrue="1">
       <formula>AND($M31=2,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="837" stopIfTrue="1">
+    <cfRule type="expression" dxfId="403" priority="893" stopIfTrue="1">
       <formula>AND($M31=3,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="838" stopIfTrue="1">
+    <cfRule type="expression" dxfId="402" priority="894" stopIfTrue="1">
       <formula>AND($M31=4,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="839" stopIfTrue="1">
+    <cfRule type="expression" dxfId="401" priority="895" stopIfTrue="1">
       <formula>AND($M31=5,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="351" priority="840" stopIfTrue="1">
+    <cfRule type="expression" dxfId="400" priority="896" stopIfTrue="1">
       <formula>AND($M31=6,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="350" priority="841" stopIfTrue="1">
+    <cfRule type="expression" dxfId="399" priority="897" stopIfTrue="1">
       <formula>AND($M31=7,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="349" priority="842" stopIfTrue="1">
+    <cfRule type="expression" dxfId="398" priority="898" stopIfTrue="1">
       <formula>AND($M31="M",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="348" priority="843" stopIfTrue="1">
+    <cfRule type="expression" dxfId="397" priority="899" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N31&lt;1,$P31&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="347" priority="844" stopIfTrue="1">
+    <cfRule type="expression" dxfId="396" priority="900" stopIfTrue="1">
       <formula>AND($P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="845">
+    <cfRule type="expression" dxfId="395" priority="901">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="846">
+    <cfRule type="expression" dxfId="394" priority="902">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31">
-    <cfRule type="expression" dxfId="344" priority="814">
+    <cfRule type="expression" dxfId="393" priority="870">
       <formula>AND($Q$10="Yes",Q31&lt;$C$10,N31&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="815">
+    <cfRule type="expression" dxfId="392" priority="871">
       <formula>AND($Q$10="Yes",Q31&lt;=$C$10+enddate_highlight_days,N31&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="342" priority="812" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="391" priority="868" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="813">
+    <cfRule type="dataBar" priority="869">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34207,17 +35012,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 L31 T31:U31">
-    <cfRule type="expression" dxfId="341" priority="811">
+    <cfRule type="expression" dxfId="390" priority="867">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q31">
-    <cfRule type="expression" dxfId="340" priority="810">
+    <cfRule type="expression" dxfId="389" priority="866">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="iconSet" priority="816">
+    <cfRule type="iconSet" priority="872">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34227,10 +35032,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="339" priority="808" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="388" priority="864" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="809">
+    <cfRule type="dataBar" priority="865">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34244,122 +35049,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:U31 L31 I31">
-    <cfRule type="expression" dxfId="338" priority="807">
+    <cfRule type="expression" dxfId="387" priority="863">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q31">
-    <cfRule type="expression" dxfId="337" priority="806">
+    <cfRule type="expression" dxfId="386" priority="862">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="336" priority="778">
+    <cfRule type="expression" dxfId="385" priority="834">
       <formula>$A35=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="779">
+    <cfRule type="expression" dxfId="384" priority="835">
       <formula>$A35=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="780">
+    <cfRule type="expression" dxfId="383" priority="836">
       <formula>$A35=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="781">
+    <cfRule type="expression" dxfId="382" priority="837">
       <formula>$A35=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="782">
+    <cfRule type="expression" dxfId="381" priority="838">
       <formula>$A35=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="783">
+    <cfRule type="expression" dxfId="380" priority="839">
       <formula>$A35=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35:ED35">
-    <cfRule type="expression" dxfId="330" priority="776">
+    <cfRule type="expression" dxfId="379" priority="832">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="777">
+    <cfRule type="expression" dxfId="378" priority="833">
       <formula>AND($U$4="Yes",$U35&gt;=W$5,$T35&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="784">
+    <cfRule type="expression" dxfId="377" priority="840">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M35&lt;&gt;"M",$U35&gt;=W$5,$T35&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="785">
+    <cfRule type="expression" dxfId="376" priority="841">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P35&lt;=W$6,ROUNDDOWN(($Q35-$P35+1)*$N35,0)+$P35-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="786" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="842" stopIfTrue="1">
       <formula>AND(OR($M35="b",$M35=""),$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="787" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="843" stopIfTrue="1">
       <formula>AND($M35="K",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="788" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="844" stopIfTrue="1">
       <formula>AND($M35="x",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="789" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="845" stopIfTrue="1">
       <formula>AND($M35="G",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="790" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="846" stopIfTrue="1">
       <formula>AND($M35="P",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="791" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="847" stopIfTrue="1">
       <formula>AND($M35="Y",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="792" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="848" stopIfTrue="1">
       <formula>AND($M35="O",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="793" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="849" stopIfTrue="1">
       <formula>AND($M35="R",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="794" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="850" stopIfTrue="1">
       <formula>AND($M35=1,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="317" priority="795" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="851" stopIfTrue="1">
       <formula>AND($M35=2,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="796" stopIfTrue="1">
+    <cfRule type="expression" dxfId="365" priority="852" stopIfTrue="1">
       <formula>AND($M35=3,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="315" priority="797" stopIfTrue="1">
+    <cfRule type="expression" dxfId="364" priority="853" stopIfTrue="1">
       <formula>AND($M35=4,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="314" priority="798" stopIfTrue="1">
+    <cfRule type="expression" dxfId="363" priority="854" stopIfTrue="1">
       <formula>AND($M35=5,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="313" priority="799" stopIfTrue="1">
+    <cfRule type="expression" dxfId="362" priority="855" stopIfTrue="1">
       <formula>AND($M35=6,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="312" priority="800" stopIfTrue="1">
+    <cfRule type="expression" dxfId="361" priority="856" stopIfTrue="1">
       <formula>AND($M35=7,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="311" priority="801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="360" priority="857" stopIfTrue="1">
       <formula>AND($M35="M",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="310" priority="802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="359" priority="858" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N35&lt;1,$P35&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="309" priority="803" stopIfTrue="1">
+    <cfRule type="expression" dxfId="358" priority="859" stopIfTrue="1">
       <formula>AND($P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="804">
+    <cfRule type="expression" dxfId="357" priority="860">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="805">
+    <cfRule type="expression" dxfId="356" priority="861">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="expression" dxfId="306" priority="773">
+    <cfRule type="expression" dxfId="355" priority="829">
       <formula>AND($Q$10="Yes",Q35&lt;$C$10,N35&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="774">
+    <cfRule type="expression" dxfId="354" priority="830">
       <formula>AND($Q$10="Yes",Q35&lt;=$C$10+enddate_highlight_days,N35&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="cellIs" dxfId="304" priority="771" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="353" priority="827" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="772">
+    <cfRule type="dataBar" priority="828">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34373,17 +35178,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35 L35 T35:U35">
-    <cfRule type="expression" dxfId="303" priority="770">
+    <cfRule type="expression" dxfId="352" priority="826">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:Q35">
-    <cfRule type="expression" dxfId="302" priority="769">
+    <cfRule type="expression" dxfId="351" priority="825">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="iconSet" priority="775">
+    <cfRule type="iconSet" priority="831">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34393,10 +35198,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="cellIs" dxfId="301" priority="767" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="350" priority="823" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="768">
+    <cfRule type="dataBar" priority="824">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34410,122 +35215,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35:U35 L35 I35">
-    <cfRule type="expression" dxfId="300" priority="766">
+    <cfRule type="expression" dxfId="349" priority="822">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:Q35">
-    <cfRule type="expression" dxfId="299" priority="765">
+    <cfRule type="expression" dxfId="348" priority="821">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="298" priority="737">
+    <cfRule type="expression" dxfId="347" priority="793">
       <formula>$A36=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="738">
+    <cfRule type="expression" dxfId="346" priority="794">
       <formula>$A36=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="739">
+    <cfRule type="expression" dxfId="345" priority="795">
       <formula>$A36=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="740">
+    <cfRule type="expression" dxfId="344" priority="796">
       <formula>$A36=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="741">
+    <cfRule type="expression" dxfId="343" priority="797">
       <formula>$A36=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="742">
+    <cfRule type="expression" dxfId="342" priority="798">
       <formula>$A36=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36:ED36">
-    <cfRule type="expression" dxfId="292" priority="735">
+    <cfRule type="expression" dxfId="341" priority="791">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="736">
+    <cfRule type="expression" dxfId="340" priority="792">
       <formula>AND($U$4="Yes",$U36&gt;=W$5,$T36&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="743">
+    <cfRule type="expression" dxfId="339" priority="799">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M36&lt;&gt;"M",$U36&gt;=W$5,$T36&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="744">
+    <cfRule type="expression" dxfId="338" priority="800">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P36&lt;=W$6,ROUNDDOWN(($Q36-$P36+1)*$N36,0)+$P36-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="745" stopIfTrue="1">
+    <cfRule type="expression" dxfId="337" priority="801" stopIfTrue="1">
       <formula>AND(OR($M36="b",$M36=""),$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="746" stopIfTrue="1">
+    <cfRule type="expression" dxfId="336" priority="802" stopIfTrue="1">
       <formula>AND($M36="K",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="747" stopIfTrue="1">
+    <cfRule type="expression" dxfId="335" priority="803" stopIfTrue="1">
       <formula>AND($M36="x",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="748" stopIfTrue="1">
+    <cfRule type="expression" dxfId="334" priority="804" stopIfTrue="1">
       <formula>AND($M36="G",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="749" stopIfTrue="1">
+    <cfRule type="expression" dxfId="333" priority="805" stopIfTrue="1">
       <formula>AND($M36="P",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="750" stopIfTrue="1">
+    <cfRule type="expression" dxfId="332" priority="806" stopIfTrue="1">
       <formula>AND($M36="Y",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="751" stopIfTrue="1">
+    <cfRule type="expression" dxfId="331" priority="807" stopIfTrue="1">
       <formula>AND($M36="O",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="752" stopIfTrue="1">
+    <cfRule type="expression" dxfId="330" priority="808" stopIfTrue="1">
       <formula>AND($M36="R",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="753" stopIfTrue="1">
+    <cfRule type="expression" dxfId="329" priority="809" stopIfTrue="1">
       <formula>AND($M36=1,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="279" priority="754" stopIfTrue="1">
+    <cfRule type="expression" dxfId="328" priority="810" stopIfTrue="1">
       <formula>AND($M36=2,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="755" stopIfTrue="1">
+    <cfRule type="expression" dxfId="327" priority="811" stopIfTrue="1">
       <formula>AND($M36=3,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="756" stopIfTrue="1">
+    <cfRule type="expression" dxfId="326" priority="812" stopIfTrue="1">
       <formula>AND($M36=4,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="757" stopIfTrue="1">
+    <cfRule type="expression" dxfId="325" priority="813" stopIfTrue="1">
       <formula>AND($M36=5,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="758" stopIfTrue="1">
+    <cfRule type="expression" dxfId="324" priority="814" stopIfTrue="1">
       <formula>AND($M36=6,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="759" stopIfTrue="1">
+    <cfRule type="expression" dxfId="323" priority="815" stopIfTrue="1">
       <formula>AND($M36=7,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="322" priority="816" stopIfTrue="1">
       <formula>AND($M36="M",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="321" priority="817" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N36&lt;1,$P36&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="762" stopIfTrue="1">
+    <cfRule type="expression" dxfId="320" priority="818" stopIfTrue="1">
       <formula>AND($P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="763">
+    <cfRule type="expression" dxfId="319" priority="819">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="764">
+    <cfRule type="expression" dxfId="318" priority="820">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="expression" dxfId="268" priority="732">
+    <cfRule type="expression" dxfId="317" priority="788">
       <formula>AND($Q$10="Yes",Q36&lt;$C$10,N36&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="733">
+    <cfRule type="expression" dxfId="316" priority="789">
       <formula>AND($Q$10="Yes",Q36&lt;=$C$10+enddate_highlight_days,N36&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="cellIs" dxfId="266" priority="730" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="315" priority="786" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="731">
+    <cfRule type="dataBar" priority="787">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34539,17 +35344,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36 L36 T36:U36">
-    <cfRule type="expression" dxfId="265" priority="729">
+    <cfRule type="expression" dxfId="314" priority="785">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:Q36">
-    <cfRule type="expression" dxfId="264" priority="728">
+    <cfRule type="expression" dxfId="313" priority="784">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="iconSet" priority="734">
+    <cfRule type="iconSet" priority="790">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34559,10 +35364,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="cellIs" dxfId="263" priority="726" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="312" priority="782" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="727">
+    <cfRule type="dataBar" priority="783">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34576,122 +35381,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36:U36 L36 I36">
-    <cfRule type="expression" dxfId="262" priority="725">
+    <cfRule type="expression" dxfId="311" priority="781">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:Q36">
-    <cfRule type="expression" dxfId="261" priority="724">
+    <cfRule type="expression" dxfId="310" priority="780">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="260" priority="696">
+    <cfRule type="expression" dxfId="309" priority="752">
       <formula>$A37=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="697">
+    <cfRule type="expression" dxfId="308" priority="753">
       <formula>$A37=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="698">
+    <cfRule type="expression" dxfId="307" priority="754">
       <formula>$A37=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="699">
+    <cfRule type="expression" dxfId="306" priority="755">
       <formula>$A37=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="700">
+    <cfRule type="expression" dxfId="305" priority="756">
       <formula>$A37=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="701">
+    <cfRule type="expression" dxfId="304" priority="757">
       <formula>$A37=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37:ED37">
-    <cfRule type="expression" dxfId="254" priority="694">
+    <cfRule type="expression" dxfId="303" priority="750">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="695">
+    <cfRule type="expression" dxfId="302" priority="751">
       <formula>AND($U$4="Yes",$U37&gt;=W$5,$T37&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="702">
+    <cfRule type="expression" dxfId="301" priority="758">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M37&lt;&gt;"M",$U37&gt;=W$5,$T37&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="703">
+    <cfRule type="expression" dxfId="300" priority="759">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P37&lt;=W$6,ROUNDDOWN(($Q37-$P37+1)*$N37,0)+$P37-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="704" stopIfTrue="1">
+    <cfRule type="expression" dxfId="299" priority="760" stopIfTrue="1">
       <formula>AND(OR($M37="b",$M37=""),$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="705" stopIfTrue="1">
+    <cfRule type="expression" dxfId="298" priority="761" stopIfTrue="1">
       <formula>AND($M37="K",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="706" stopIfTrue="1">
+    <cfRule type="expression" dxfId="297" priority="762" stopIfTrue="1">
       <formula>AND($M37="x",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="707" stopIfTrue="1">
+    <cfRule type="expression" dxfId="296" priority="763" stopIfTrue="1">
       <formula>AND($M37="G",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="708" stopIfTrue="1">
+    <cfRule type="expression" dxfId="295" priority="764" stopIfTrue="1">
       <formula>AND($M37="P",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="709" stopIfTrue="1">
+    <cfRule type="expression" dxfId="294" priority="765" stopIfTrue="1">
       <formula>AND($M37="Y",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="710" stopIfTrue="1">
+    <cfRule type="expression" dxfId="293" priority="766" stopIfTrue="1">
       <formula>AND($M37="O",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="711" stopIfTrue="1">
+    <cfRule type="expression" dxfId="292" priority="767" stopIfTrue="1">
       <formula>AND($M37="R",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="712" stopIfTrue="1">
+    <cfRule type="expression" dxfId="291" priority="768" stopIfTrue="1">
       <formula>AND($M37=1,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="713" stopIfTrue="1">
+    <cfRule type="expression" dxfId="290" priority="769" stopIfTrue="1">
       <formula>AND($M37=2,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="714" stopIfTrue="1">
+    <cfRule type="expression" dxfId="289" priority="770" stopIfTrue="1">
       <formula>AND($M37=3,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="715" stopIfTrue="1">
+    <cfRule type="expression" dxfId="288" priority="771" stopIfTrue="1">
       <formula>AND($M37=4,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="716" stopIfTrue="1">
+    <cfRule type="expression" dxfId="287" priority="772" stopIfTrue="1">
       <formula>AND($M37=5,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="717" stopIfTrue="1">
+    <cfRule type="expression" dxfId="286" priority="773" stopIfTrue="1">
       <formula>AND($M37=6,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="718" stopIfTrue="1">
+    <cfRule type="expression" dxfId="285" priority="774" stopIfTrue="1">
       <formula>AND($M37=7,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="719" stopIfTrue="1">
+    <cfRule type="expression" dxfId="284" priority="775" stopIfTrue="1">
       <formula>AND($M37="M",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="720" stopIfTrue="1">
+    <cfRule type="expression" dxfId="283" priority="776" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N37&lt;1,$P37&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="721" stopIfTrue="1">
+    <cfRule type="expression" dxfId="282" priority="777" stopIfTrue="1">
       <formula>AND($P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="722">
+    <cfRule type="expression" dxfId="281" priority="778">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="231" priority="723">
+    <cfRule type="expression" dxfId="280" priority="779">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="expression" dxfId="230" priority="691">
+    <cfRule type="expression" dxfId="279" priority="747">
       <formula>AND($Q$10="Yes",Q37&lt;$C$10,N37&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="692">
+    <cfRule type="expression" dxfId="278" priority="748">
       <formula>AND($Q$10="Yes",Q37&lt;=$C$10+enddate_highlight_days,N37&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37">
-    <cfRule type="cellIs" dxfId="228" priority="689" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="277" priority="745" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="690">
+    <cfRule type="dataBar" priority="746">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34705,17 +35510,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37 L37 T37:U37">
-    <cfRule type="expression" dxfId="227" priority="688">
+    <cfRule type="expression" dxfId="276" priority="744">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:Q37">
-    <cfRule type="expression" dxfId="226" priority="687">
+    <cfRule type="expression" dxfId="275" priority="743">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="iconSet" priority="693">
+    <cfRule type="iconSet" priority="749">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34725,10 +35530,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37">
-    <cfRule type="cellIs" dxfId="225" priority="685" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="274" priority="741" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="686">
+    <cfRule type="dataBar" priority="742">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34742,20 +35547,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37:U37 L37 I37">
-    <cfRule type="expression" dxfId="224" priority="684">
+    <cfRule type="expression" dxfId="273" priority="740">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:Q37">
-    <cfRule type="expression" dxfId="223" priority="683">
+    <cfRule type="expression" dxfId="272" priority="739">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:N47">
-    <cfRule type="cellIs" dxfId="222" priority="648" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="271" priority="704" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="649">
+    <cfRule type="dataBar" priority="705">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34769,17 +35574,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:I47 L46:L47 T46:U47">
-    <cfRule type="expression" dxfId="221" priority="647">
+    <cfRule type="expression" dxfId="270" priority="703">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:Q47">
-    <cfRule type="expression" dxfId="220" priority="646">
+    <cfRule type="expression" dxfId="269" priority="702">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46">
-    <cfRule type="iconSet" priority="652">
+    <cfRule type="iconSet" priority="708">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34789,10 +35594,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:N47">
-    <cfRule type="cellIs" dxfId="219" priority="644" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="268" priority="700" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="645">
+    <cfRule type="dataBar" priority="701">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34806,17 +35611,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:U47 L46:L47 I46:I47">
-    <cfRule type="expression" dxfId="218" priority="643">
+    <cfRule type="expression" dxfId="267" priority="699">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:Q47">
-    <cfRule type="expression" dxfId="217" priority="642">
+    <cfRule type="expression" dxfId="266" priority="698">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O47">
-    <cfRule type="iconSet" priority="611">
+    <cfRule type="iconSet" priority="667">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34826,38 +35631,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="216" priority="573">
+    <cfRule type="expression" dxfId="265" priority="629">
       <formula>$A39=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="215" priority="574">
+    <cfRule type="expression" dxfId="264" priority="630">
       <formula>$A39=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="214" priority="575">
+    <cfRule type="expression" dxfId="263" priority="631">
       <formula>$A39=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="213" priority="576">
+    <cfRule type="expression" dxfId="262" priority="632">
       <formula>$A39=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="577">
+    <cfRule type="expression" dxfId="261" priority="633">
       <formula>$A39=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="578">
+    <cfRule type="expression" dxfId="260" priority="634">
       <formula>$A39=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39">
-    <cfRule type="expression" dxfId="210" priority="568">
+    <cfRule type="expression" dxfId="259" priority="624">
       <formula>AND($Q$10="Yes",Q39&lt;$C$10,N39&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="569">
+    <cfRule type="expression" dxfId="258" priority="625">
       <formula>AND($Q$10="Yes",Q39&lt;=$C$10+enddate_highlight_days,N39&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="cellIs" dxfId="208" priority="566" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="257" priority="622" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="567">
+    <cfRule type="dataBar" priority="623">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34871,17 +35676,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39 L39 T39:U39">
-    <cfRule type="expression" dxfId="207" priority="565">
+    <cfRule type="expression" dxfId="256" priority="621">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:Q39">
-    <cfRule type="expression" dxfId="206" priority="564">
+    <cfRule type="expression" dxfId="255" priority="620">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="iconSet" priority="570">
+    <cfRule type="iconSet" priority="626">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34891,10 +35696,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="cellIs" dxfId="205" priority="562" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="254" priority="618" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="563">
+    <cfRule type="dataBar" priority="619">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34908,28 +35713,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39:U39 L39 I39">
-    <cfRule type="expression" dxfId="204" priority="561">
+    <cfRule type="expression" dxfId="253" priority="617">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:Q39">
-    <cfRule type="expression" dxfId="203" priority="560">
+    <cfRule type="expression" dxfId="252" priority="616">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38">
-    <cfRule type="expression" dxfId="202" priority="490">
+    <cfRule type="expression" dxfId="251" priority="546">
       <formula>AND($Q$10="Yes",Q38&lt;$C$10,N38&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="491">
+    <cfRule type="expression" dxfId="250" priority="547">
       <formula>AND($Q$10="Yes",Q38&lt;=$C$10+enddate_highlight_days,N38&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="cellIs" dxfId="200" priority="488" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="249" priority="544" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="489">
+    <cfRule type="dataBar" priority="545">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34943,17 +35748,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38 L38 T38:U38">
-    <cfRule type="expression" dxfId="199" priority="487">
+    <cfRule type="expression" dxfId="248" priority="543">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38:Q38">
-    <cfRule type="expression" dxfId="198" priority="486">
+    <cfRule type="expression" dxfId="247" priority="542">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="iconSet" priority="492">
+    <cfRule type="iconSet" priority="548">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34963,10 +35768,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="cellIs" dxfId="197" priority="484" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="246" priority="540" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="485">
+    <cfRule type="dataBar" priority="541">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34980,48 +35785,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:U38 L38 I38">
-    <cfRule type="expression" dxfId="196" priority="483">
+    <cfRule type="expression" dxfId="245" priority="539">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38:Q38">
-    <cfRule type="expression" dxfId="195" priority="482">
+    <cfRule type="expression" dxfId="244" priority="538">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="194" priority="452">
+    <cfRule type="expression" dxfId="243" priority="508">
       <formula>$A44=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="453">
+    <cfRule type="expression" dxfId="242" priority="509">
       <formula>$A44=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="454">
+    <cfRule type="expression" dxfId="241" priority="510">
       <formula>$A44=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="455">
+    <cfRule type="expression" dxfId="240" priority="511">
       <formula>$A44=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="456">
+    <cfRule type="expression" dxfId="239" priority="512">
       <formula>$A44=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="457">
+    <cfRule type="expression" dxfId="238" priority="513">
       <formula>$A44=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44">
-    <cfRule type="expression" dxfId="188" priority="449">
+    <cfRule type="expression" dxfId="237" priority="505">
       <formula>AND($Q$10="Yes",Q44&lt;$C$10,N44&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="450">
+    <cfRule type="expression" dxfId="236" priority="506">
       <formula>AND($Q$10="Yes",Q44&lt;=$C$10+enddate_highlight_days,N44&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="cellIs" dxfId="186" priority="447" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="235" priority="503" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="448">
+    <cfRule type="dataBar" priority="504">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35035,17 +35840,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44 L44 T44:U44">
-    <cfRule type="expression" dxfId="185" priority="446">
+    <cfRule type="expression" dxfId="234" priority="502">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:Q44">
-    <cfRule type="expression" dxfId="184" priority="445">
+    <cfRule type="expression" dxfId="233" priority="501">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="iconSet" priority="451">
+    <cfRule type="iconSet" priority="507">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35055,10 +35860,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="cellIs" dxfId="183" priority="443" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="232" priority="499" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="444">
+    <cfRule type="dataBar" priority="500">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35072,20 +35877,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:U44 L44 I44">
-    <cfRule type="expression" dxfId="182" priority="442">
+    <cfRule type="expression" dxfId="231" priority="498">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:Q44">
-    <cfRule type="expression" dxfId="181" priority="441">
+    <cfRule type="expression" dxfId="230" priority="497">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41 N47">
-    <cfRule type="cellIs" dxfId="180" priority="406" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="229" priority="462" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="407">
+    <cfRule type="dataBar" priority="463">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35099,17 +35904,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41 L41 T41:U41 T47:U47 L47 I47">
-    <cfRule type="expression" dxfId="179" priority="405">
+    <cfRule type="expression" dxfId="228" priority="461">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41 P47:Q47">
-    <cfRule type="expression" dxfId="178" priority="404">
+    <cfRule type="expression" dxfId="227" priority="460">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41">
-    <cfRule type="iconSet" priority="410">
+    <cfRule type="iconSet" priority="466">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35119,10 +35924,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41 N47">
-    <cfRule type="cellIs" dxfId="177" priority="402" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="226" priority="458" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="403">
+    <cfRule type="dataBar" priority="459">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35136,48 +35941,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41:U41 L41 I41 I47 L47 T47:U47">
-    <cfRule type="expression" dxfId="176" priority="401">
+    <cfRule type="expression" dxfId="225" priority="457">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41 P47:Q47">
-    <cfRule type="expression" dxfId="175" priority="400">
+    <cfRule type="expression" dxfId="224" priority="456">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="expression" dxfId="174" priority="370">
+    <cfRule type="expression" dxfId="223" priority="426">
       <formula>AND($Q$10="Yes",Q42&lt;$C$10,N42&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="371">
+    <cfRule type="expression" dxfId="222" priority="427">
       <formula>AND($Q$10="Yes",Q42&lt;=$C$10+enddate_highlight_days,N42&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="172" priority="372">
+    <cfRule type="expression" dxfId="221" priority="428">
       <formula>$A42=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="373">
+    <cfRule type="expression" dxfId="220" priority="429">
       <formula>$A42=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="374">
+    <cfRule type="expression" dxfId="219" priority="430">
       <formula>$A42=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="375">
+    <cfRule type="expression" dxfId="218" priority="431">
       <formula>$A42=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="376">
+    <cfRule type="expression" dxfId="217" priority="432">
       <formula>$A42=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="377">
+    <cfRule type="expression" dxfId="216" priority="433">
       <formula>$A42=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="cellIs" dxfId="166" priority="365" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="215" priority="421" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="366">
+    <cfRule type="dataBar" priority="422">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35191,17 +35996,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42 L42 T42:U42">
-    <cfRule type="expression" dxfId="165" priority="364">
+    <cfRule type="expression" dxfId="214" priority="420">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:Q42">
-    <cfRule type="expression" dxfId="164" priority="363">
+    <cfRule type="expression" dxfId="213" priority="419">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42">
-    <cfRule type="iconSet" priority="367">
+    <cfRule type="iconSet" priority="423">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35211,10 +36016,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="cellIs" dxfId="163" priority="361" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="212" priority="417" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="362">
+    <cfRule type="dataBar" priority="418">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35228,48 +36033,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T42:U42 L42 I42">
-    <cfRule type="expression" dxfId="162" priority="360">
+    <cfRule type="expression" dxfId="211" priority="416">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:Q42">
-    <cfRule type="expression" dxfId="161" priority="359">
+    <cfRule type="expression" dxfId="210" priority="415">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43">
-    <cfRule type="expression" dxfId="160" priority="329">
+    <cfRule type="expression" dxfId="209" priority="385">
       <formula>AND($Q$10="Yes",Q43&lt;$C$10,N43&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="330">
+    <cfRule type="expression" dxfId="208" priority="386">
       <formula>AND($Q$10="Yes",Q43&lt;=$C$10+enddate_highlight_days,N43&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="158" priority="331">
+    <cfRule type="expression" dxfId="207" priority="387">
       <formula>$A43=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="332">
+    <cfRule type="expression" dxfId="206" priority="388">
       <formula>$A43=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="333">
+    <cfRule type="expression" dxfId="205" priority="389">
       <formula>$A43=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="334">
+    <cfRule type="expression" dxfId="204" priority="390">
       <formula>$A43=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="335">
+    <cfRule type="expression" dxfId="203" priority="391">
       <formula>$A43=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="336">
+    <cfRule type="expression" dxfId="202" priority="392">
       <formula>$A43=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="152" priority="324" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="201" priority="380" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="325">
+    <cfRule type="dataBar" priority="381">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35283,17 +36088,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43 L43 T43:U43">
-    <cfRule type="expression" dxfId="151" priority="323">
+    <cfRule type="expression" dxfId="200" priority="379">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:Q43">
-    <cfRule type="expression" dxfId="150" priority="322">
+    <cfRule type="expression" dxfId="199" priority="378">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43">
-    <cfRule type="iconSet" priority="326">
+    <cfRule type="iconSet" priority="382">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35303,10 +36108,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="149" priority="320" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="198" priority="376" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="321">
+    <cfRule type="dataBar" priority="377">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35320,20 +36125,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T43:U43 L43 I43">
-    <cfRule type="expression" dxfId="148" priority="319">
+    <cfRule type="expression" dxfId="197" priority="375">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:Q43">
-    <cfRule type="expression" dxfId="147" priority="318">
+    <cfRule type="expression" dxfId="196" priority="374">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="146" priority="286" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="195" priority="342" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="287">
+    <cfRule type="dataBar" priority="343">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35347,117 +36152,117 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48 P48:Q48">
-    <cfRule type="expression" dxfId="145" priority="283">
+    <cfRule type="expression" dxfId="194" priority="339">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q48">
-    <cfRule type="expression" dxfId="144" priority="288">
+    <cfRule type="expression" dxfId="193" priority="344">
       <formula>AND($Q$10="Yes",Q48&lt;$C$10,N48&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="289">
+    <cfRule type="expression" dxfId="192" priority="345">
       <formula>AND($Q$10="Yes",Q48&lt;=$C$10+enddate_highlight_days,N48&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="142" priority="290">
+    <cfRule type="expression" dxfId="191" priority="346">
       <formula>$A48=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="291">
+    <cfRule type="expression" dxfId="190" priority="347">
       <formula>$A48=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="292">
+    <cfRule type="expression" dxfId="189" priority="348">
       <formula>$A48=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="293">
+    <cfRule type="expression" dxfId="188" priority="349">
       <formula>$A48=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="294">
+    <cfRule type="expression" dxfId="187" priority="350">
       <formula>$A48=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="295">
+    <cfRule type="expression" dxfId="186" priority="351">
       <formula>$A48=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W48:ED48">
-    <cfRule type="expression" dxfId="136" priority="284">
+    <cfRule type="expression" dxfId="185" priority="340">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="285">
+    <cfRule type="expression" dxfId="184" priority="341">
       <formula>AND($U$4="Yes",$U48&gt;=W$5,$T48&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="296">
+    <cfRule type="expression" dxfId="183" priority="352">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M48&lt;&gt;"M",$U48&gt;=W$5,$T48&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="297">
+    <cfRule type="expression" dxfId="182" priority="353">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P48&lt;=W$6,ROUNDDOWN(($Q48-$P48+1)*$N48,0)+$P48-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="354" stopIfTrue="1">
       <formula>AND(OR($M48="b",$M48=""),$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="299" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="355" stopIfTrue="1">
       <formula>AND($M48="K",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="300" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="356" stopIfTrue="1">
       <formula>AND($M48="x",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="301" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="357" stopIfTrue="1">
       <formula>AND($M48="G",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="302" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="358" stopIfTrue="1">
       <formula>AND($M48="P",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="303" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="359" stopIfTrue="1">
       <formula>AND($M48="Y",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="360" stopIfTrue="1">
       <formula>AND($M48="O",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="361" stopIfTrue="1">
       <formula>AND($M48="R",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="306" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="362" stopIfTrue="1">
       <formula>AND($M48=1,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="307" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="363" stopIfTrue="1">
       <formula>AND($M48=2,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="308" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="364" stopIfTrue="1">
       <formula>AND($M48=3,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="309" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="365" stopIfTrue="1">
       <formula>AND($M48=4,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="310" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="366" stopIfTrue="1">
       <formula>AND($M48=5,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="311" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="367" stopIfTrue="1">
       <formula>AND($M48=6,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="312" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="368" stopIfTrue="1">
       <formula>AND($M48=7,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="313" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="369" stopIfTrue="1">
       <formula>AND($M48="M",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="314" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="370" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N48&lt;1,$P48&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="315" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="371" stopIfTrue="1">
       <formula>AND($P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="316">
+    <cfRule type="expression" dxfId="163" priority="372">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="317">
+    <cfRule type="expression" dxfId="162" priority="373">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="112" priority="281" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="161" priority="337" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="282">
+    <cfRule type="dataBar" priority="338">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35471,20 +36276,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48">
-    <cfRule type="expression" dxfId="111" priority="280">
+    <cfRule type="expression" dxfId="160" priority="336">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="110" priority="279">
+    <cfRule type="expression" dxfId="159" priority="335">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="109" priority="277" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="158" priority="333" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="278">
+    <cfRule type="dataBar" priority="334">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35498,20 +36303,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48 L48 T48:U48">
-    <cfRule type="expression" dxfId="108" priority="276">
+    <cfRule type="expression" dxfId="157" priority="332">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="107" priority="275">
+    <cfRule type="expression" dxfId="156" priority="331">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="106" priority="273" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="155" priority="329" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="274">
+    <cfRule type="dataBar" priority="330">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35525,17 +36330,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48">
-    <cfRule type="expression" dxfId="105" priority="272">
+    <cfRule type="expression" dxfId="154" priority="328">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="104" priority="271">
+    <cfRule type="expression" dxfId="153" priority="327">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="iconSet" priority="270">
+    <cfRule type="iconSet" priority="326">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35545,10 +36350,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="103" priority="268" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="152" priority="324" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="269">
+    <cfRule type="dataBar" priority="325">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35562,20 +36367,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48">
-    <cfRule type="expression" dxfId="102" priority="267">
+    <cfRule type="expression" dxfId="151" priority="323">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="101" priority="266">
+    <cfRule type="expression" dxfId="150" priority="322">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="100" priority="264" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="149" priority="320" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="265">
+    <cfRule type="dataBar" priority="321">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35589,20 +36394,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48 L48 T48:U48">
-    <cfRule type="expression" dxfId="99" priority="263">
+    <cfRule type="expression" dxfId="148" priority="319">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="98" priority="262">
+    <cfRule type="expression" dxfId="147" priority="318">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="97" priority="137" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="146" priority="193" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="138">
+    <cfRule type="dataBar" priority="194">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35616,117 +36421,117 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:U50 L50 I50 P50:Q50">
-    <cfRule type="expression" dxfId="96" priority="134">
+    <cfRule type="expression" dxfId="145" priority="190">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50">
-    <cfRule type="expression" dxfId="95" priority="139">
+    <cfRule type="expression" dxfId="144" priority="195">
       <formula>AND($Q$10="Yes",Q50&lt;$C$10,N50&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="140">
+    <cfRule type="expression" dxfId="143" priority="196">
       <formula>AND($Q$10="Yes",Q50&lt;=$C$10+enddate_highlight_days,N50&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="93" priority="141">
+    <cfRule type="expression" dxfId="142" priority="197">
       <formula>$A50=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="142">
+    <cfRule type="expression" dxfId="141" priority="198">
       <formula>$A50=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="143">
+    <cfRule type="expression" dxfId="140" priority="199">
       <formula>$A50=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="144">
+    <cfRule type="expression" dxfId="139" priority="200">
       <formula>$A50=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="145">
+    <cfRule type="expression" dxfId="138" priority="201">
       <formula>$A50=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="146">
+    <cfRule type="expression" dxfId="137" priority="202">
       <formula>$A50=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:ED50">
-    <cfRule type="expression" dxfId="87" priority="135">
+    <cfRule type="expression" dxfId="136" priority="191">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="136">
+    <cfRule type="expression" dxfId="135" priority="192">
       <formula>AND($U$4="Yes",$U50&gt;=W$5,$T50&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="147">
+    <cfRule type="expression" dxfId="134" priority="203">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M50&lt;&gt;"M",$U50&gt;=W$5,$T50&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="148">
+    <cfRule type="expression" dxfId="133" priority="204">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P50&lt;=W$6,ROUNDDOWN(($Q50-$P50+1)*$N50,0)+$P50-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="149" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="205" stopIfTrue="1">
       <formula>AND(OR($M50="b",$M50=""),$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="150" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="206" stopIfTrue="1">
       <formula>AND($M50="K",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="151" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="207" stopIfTrue="1">
       <formula>AND($M50="x",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="152" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="208" stopIfTrue="1">
       <formula>AND($M50="G",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="153" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="209" stopIfTrue="1">
       <formula>AND($M50="P",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="154" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="210" stopIfTrue="1">
       <formula>AND($M50="Y",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="155" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="211" stopIfTrue="1">
       <formula>AND($M50="O",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="156" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="212" stopIfTrue="1">
       <formula>AND($M50="R",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="213" stopIfTrue="1">
       <formula>AND($M50=1,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="158" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="214" stopIfTrue="1">
       <formula>AND($M50=2,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="159" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="215" stopIfTrue="1">
       <formula>AND($M50=3,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="160" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="216" stopIfTrue="1">
       <formula>AND($M50=4,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="161" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="217" stopIfTrue="1">
       <formula>AND($M50=5,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="162" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="218" stopIfTrue="1">
       <formula>AND($M50=6,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="163" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="219" stopIfTrue="1">
       <formula>AND($M50=7,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="164" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="220" stopIfTrue="1">
       <formula>AND($M50="M",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="165" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="221" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N50&lt;1,$P50&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="166" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="222" stopIfTrue="1">
       <formula>AND($P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="167">
+    <cfRule type="expression" dxfId="114" priority="223">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="168">
+    <cfRule type="expression" dxfId="113" priority="224">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="63" priority="132" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="112" priority="188" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="133">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35740,20 +36545,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:U50 L50 I50">
-    <cfRule type="expression" dxfId="62" priority="131">
+    <cfRule type="expression" dxfId="111" priority="187">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:Q50">
-    <cfRule type="expression" dxfId="61" priority="130">
+    <cfRule type="expression" dxfId="110" priority="186">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="60" priority="128" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="109" priority="184" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="129">
+    <cfRule type="dataBar" priority="185">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35767,20 +36572,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50 L50 T50:U50">
-    <cfRule type="expression" dxfId="59" priority="127">
+    <cfRule type="expression" dxfId="108" priority="183">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:Q50">
-    <cfRule type="expression" dxfId="58" priority="126">
+    <cfRule type="expression" dxfId="107" priority="182">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="57" priority="124" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="106" priority="180" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35794,17 +36599,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:U50 L50 I50">
-    <cfRule type="expression" dxfId="56" priority="123">
+    <cfRule type="expression" dxfId="105" priority="179">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:Q50">
-    <cfRule type="expression" dxfId="55" priority="122">
+    <cfRule type="expression" dxfId="104" priority="178">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50">
-    <cfRule type="iconSet" priority="121">
+    <cfRule type="iconSet" priority="177">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35814,10 +36619,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="54" priority="119" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="103" priority="175" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="120">
+    <cfRule type="dataBar" priority="176">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35831,20 +36636,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:U50 L50 I50">
-    <cfRule type="expression" dxfId="53" priority="118">
+    <cfRule type="expression" dxfId="102" priority="174">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:Q50">
-    <cfRule type="expression" dxfId="52" priority="117">
+    <cfRule type="expression" dxfId="101" priority="173">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="51" priority="115" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="100" priority="171" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35858,20 +36663,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50 L50 T50:U50">
-    <cfRule type="expression" dxfId="50" priority="114">
+    <cfRule type="expression" dxfId="99" priority="170">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:Q50">
-    <cfRule type="expression" dxfId="49" priority="113">
+    <cfRule type="expression" dxfId="98" priority="169">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="97" priority="81" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35885,117 +36690,117 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:U51 L51 I51 P51:Q51">
-    <cfRule type="expression" dxfId="47" priority="22">
+    <cfRule type="expression" dxfId="96" priority="78">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51">
-    <cfRule type="expression" dxfId="46" priority="27">
+    <cfRule type="expression" dxfId="95" priority="83">
       <formula>AND($Q$10="Yes",Q51&lt;$C$10,N51&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="28">
+    <cfRule type="expression" dxfId="94" priority="84">
       <formula>AND($Q$10="Yes",Q51&lt;=$C$10+enddate_highlight_days,N51&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="44" priority="29">
+    <cfRule type="expression" dxfId="93" priority="85">
       <formula>$A51=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="30">
+    <cfRule type="expression" dxfId="92" priority="86">
       <formula>$A51=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="31">
+    <cfRule type="expression" dxfId="91" priority="87">
       <formula>$A51=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="90" priority="88">
       <formula>$A51=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="33">
+    <cfRule type="expression" dxfId="89" priority="89">
       <formula>$A51=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="34">
+    <cfRule type="expression" dxfId="88" priority="90">
       <formula>$A51=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:ED51">
-    <cfRule type="expression" dxfId="38" priority="23">
+    <cfRule type="expression" dxfId="87" priority="79">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="24">
+    <cfRule type="expression" dxfId="86" priority="80">
       <formula>AND($U$4="Yes",$U51&gt;=W$5,$T51&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="85" priority="91">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M51&lt;&gt;"M",$U51&gt;=W$5,$T51&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="84" priority="92">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P51&lt;=W$6,ROUNDDOWN(($Q51-$P51+1)*$N51,0)+$P51-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="93" stopIfTrue="1">
       <formula>AND(OR($M51="b",$M51=""),$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="94" stopIfTrue="1">
       <formula>AND($M51="K",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="95" stopIfTrue="1">
       <formula>AND($M51="x",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="96" stopIfTrue="1">
       <formula>AND($M51="G",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="97" stopIfTrue="1">
       <formula>AND($M51="P",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="98" stopIfTrue="1">
       <formula>AND($M51="Y",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="99" stopIfTrue="1">
       <formula>AND($M51="O",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="100" stopIfTrue="1">
       <formula>AND($M51="R",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="101" stopIfTrue="1">
       <formula>AND($M51=1,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="102" stopIfTrue="1">
       <formula>AND($M51=2,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="103" stopIfTrue="1">
       <formula>AND($M51=3,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="104" stopIfTrue="1">
       <formula>AND($M51=4,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="105" stopIfTrue="1">
       <formula>AND($M51=5,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="106" stopIfTrue="1">
       <formula>AND($M51=6,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="107" stopIfTrue="1">
       <formula>AND($M51=7,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="108" stopIfTrue="1">
       <formula>AND($M51="M",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="109" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N51&lt;1,$P51&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="110" stopIfTrue="1">
       <formula>AND($P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="55">
+    <cfRule type="expression" dxfId="65" priority="111">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="56">
+    <cfRule type="expression" dxfId="64" priority="112">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="63" priority="76" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36009,20 +36814,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:U51 L51 I51">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="62" priority="75">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:Q51">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="61" priority="74">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="72" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36036,20 +36841,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51 L51 T51:U51">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="59" priority="71">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:Q51">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="58" priority="70">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="68" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36063,17 +36868,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:U51 L51 I51">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:Q51">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="55" priority="66">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51">
-    <cfRule type="iconSet" priority="9">
+    <cfRule type="iconSet" priority="65">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -36083,10 +36888,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="63" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36100,20 +36905,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:U51 L51 I51">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="53" priority="62">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:Q51">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="52" priority="61">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="59" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36127,11 +36932,280 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51 L51 T51:U51">
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P51:Q51">
+    <cfRule type="expression" dxfId="49" priority="57">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4105757C-69B1-4DA5-8E20-63493EB40041}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52:U52 L52 I52 P52:Q52">
+    <cfRule type="expression" dxfId="47" priority="22">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q52">
+    <cfRule type="expression" dxfId="46" priority="27">
+      <formula>AND($Q$10="Yes",Q52&lt;$C$10,N52&lt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="28">
+      <formula>AND($Q$10="Yes",Q52&lt;=$C$10+enddate_highlight_days,N52&lt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="expression" dxfId="44" priority="29">
+      <formula>$A52=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="30">
+      <formula>$A52=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="31">
+      <formula>$A52=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="32">
+      <formula>$A52=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="33">
+      <formula>$A52=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="34">
+      <formula>$A52=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W52:ED52">
+    <cfRule type="expression" dxfId="38" priority="23">
+      <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="24">
+      <formula>AND($U$4="Yes",$U52&gt;=W$5,$T52&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="35">
+      <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M52&lt;&gt;"M",$U52&gt;=W$5,$T52&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P52&lt;=W$6,ROUNDDOWN(($Q52-$P52+1)*$N52,0)+$P52-1&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
+      <formula>AND(OR($M52="b",$M52=""),$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
+      <formula>AND($M52="K",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
+      <formula>AND($M52="x",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
+      <formula>AND($M52="G",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="41" stopIfTrue="1">
+      <formula>AND($M52="P",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
+      <formula>AND($M52="Y",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
+      <formula>AND($M52="O",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="44" stopIfTrue="1">
+      <formula>AND($M52="R",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="45" stopIfTrue="1">
+      <formula>AND($M52=1,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
+      <formula>AND($M52=2,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="47" stopIfTrue="1">
+      <formula>AND($M52=3,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="48" stopIfTrue="1">
+      <formula>AND($M52=4,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="49" stopIfTrue="1">
+      <formula>AND($M52=5,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="50" stopIfTrue="1">
+      <formula>AND($M52=6,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="51" stopIfTrue="1">
+      <formula>AND($M52=7,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="52" stopIfTrue="1">
+      <formula>AND($M52="M",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="53" stopIfTrue="1">
+      <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N52&lt;1,$P52&lt;X$5,$C$10&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="54" stopIfTrue="1">
+      <formula>AND($P52&lt;=W$6,$Q52&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="55">
+      <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="56">
+      <formula>W$8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0D551ED4-7DCE-403B-AC25-F40B5273599E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52:U52 L52 I52">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52:Q52">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{24D803D2-E578-468D-807B-3A7FD4DAAFA6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52 L52 T52:U52">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52:Q52">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{84D835BB-28EF-48FD-9933-7A7F2186376F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52:U52 L52 I52">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52:Q52">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O52">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4RedToBlack" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="INDEX(priorities,6)"/>
+        <cfvo type="num" val="INDEX(priorities,5)"/>
+        <cfvo type="num" val="INDEX(priorities,4)"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F2AD5D66-F636-4EF2-B623-4D0CD3B6DFC4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52:U52 L52 I52">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52:Q52">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0CE12AF9-AA13-409F-9759-874527C6FC6C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52 L52 T52:U52">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P51:Q51">
+  <conditionalFormatting sqref="P52:Q52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
@@ -36181,16 +37255,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Today's Date" prompt="This date is marked as a vertical red line in the Gantt chart (via conditional formatting). You can either enter this date manually, or use the formula =TODAY()." sqref="B10" xr:uid="{439AA69D-8A78-4A9C-A2C5-4D1FEF58D433}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Planned Dates in Chart?" prompt="Choose whether to display the planned schedule in the Gantt Chart." sqref="T4" xr:uid="{59F8FC1E-0D8B-4C3A-9991-16CC0D43EFD1}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="Fill Pattern for Planned Dates" prompt="If you do not see a cross-hatch fill pattern in this cell, then the version of Excel you are using does not permit cross-hatch fill patterns. If that is the case, enter an &quot;X&quot; in this cell to see the Planned Schedule using an alternate method." sqref="U9" xr:uid="{57063E04-57F4-4AD4-8D99-DD55B3CA0B5A}"/>
-    <dataValidation type="list" allowBlank="1" sqref="A13:A52" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="A13:A53" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O13:O53" xr:uid="{A9001512-E8B1-464E-A0FC-51681EB2AD74}">
+    <dataValidation type="list" allowBlank="1" sqref="O13:O54" xr:uid="{A9001512-E8B1-464E-A0FC-51681EB2AD74}">
       <formula1>priorities</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M13:M53" xr:uid="{5279861F-A224-478B-8E13-251F4DC7615B}">
+    <dataValidation type="list" allowBlank="1" sqref="M13:M54" xr:uid="{5279861F-A224-478B-8E13-251F4DC7615B}">
       <formula1>"B,G,P,X,K,R,O,Y,1,2,3,4,5,6,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N13:N53" xr:uid="{135875D4-A982-47C5-A06F-509CFC011552}">
+    <dataValidation type="list" allowBlank="1" sqref="N13:N54" xr:uid="{135875D4-A982-47C5-A06F-509CFC011552}">
       <formula1>"100%,75%,67%,50%,34%,25%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -36246,7 +37320,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N13:N17 N53 N38 N47</xm:sqref>
+          <xm:sqref>N13:N17 N54 N38 N47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{575147C1-79C4-46F6-A1E7-AA76F52D79E6}">
@@ -36306,7 +37380,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N52</xm:sqref>
+          <xm:sqref>N53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F1DC103-D728-416F-BBDE-B01A2D94AA00}">
@@ -37148,6 +38222,96 @@
           </x14:cfRule>
           <xm:sqref>N51</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4105757C-69B1-4DA5-8E20-63493EB40041}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0D551ED4-7DCE-403B-AC25-F40B5273599E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{24D803D2-E578-468D-807B-3A7FD4DAAFA6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{84D835BB-28EF-48FD-9933-7A7F2186376F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F2AD5D66-F636-4EF2-B623-4D0CD3B6DFC4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0CE12AF9-AA13-409F-9759-874527C6FC6C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N52</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/stock_manager_gant_chart.xlsx
+++ b/stock_manager_gant_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0898EC31-9895-4457-B7E2-067A043028D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E17EA9-0B90-4A7C-A8CE-B3D4A28C00BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,28 +19,28 @@
     <sheet name="TermsOfUse" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GanttChart!$A$12:$CB$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GanttChart!$A$12:$CB$56</definedName>
     <definedName name="assign_to_color">'Help &amp; Settings'!$D$246:$D$253</definedName>
     <definedName name="assign_to_names">'Help &amp; Settings'!$C$246:$C$253</definedName>
     <definedName name="dateformat">'Help &amp; Settings'!$C$102</definedName>
-    <definedName name="end_range" localSheetId="0">GanttChart!$Q$11:$Q$54</definedName>
+    <definedName name="end_range" localSheetId="0">GanttChart!$Q$11:$Q$56</definedName>
     <definedName name="enddate_highlight_days">'Help &amp; Settings'!$C$130</definedName>
     <definedName name="holidays">Holidays!$A$8:$A$242</definedName>
     <definedName name="prevLevel" localSheetId="0">GanttChart!$A1048576</definedName>
     <definedName name="prevWBS" localSheetId="0">GanttChart!$B1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$B$1:$ED$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$B$1:$ED$56</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">GanttChart!$9:$12</definedName>
     <definedName name="priorities">'Help &amp; Settings'!$C$71:$C$77</definedName>
     <definedName name="show_overdue_in_chart">'Help &amp; Settings'!$C$133</definedName>
     <definedName name="show_percent_complete">'Help &amp; Settings'!$C$119</definedName>
-    <definedName name="start_range" localSheetId="0">GanttChart!$P$11:$P$54</definedName>
+    <definedName name="start_range" localSheetId="0">GanttChart!$P$11:$P$56</definedName>
     <definedName name="startday">'Help &amp; Settings'!$C$114</definedName>
     <definedName name="urgency_days">'Help &amp; Settings'!$C$240:$C$242</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2020 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"gantt-chart_v5-0.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template Pro"</definedName>
-    <definedName name="wbs_range" localSheetId="0">GanttChart!$B$11:$B$54</definedName>
+    <definedName name="wbs_range" localSheetId="0">GanttChart!$B$11:$B$56</definedName>
     <definedName name="weekend">'Help &amp; Settings'!$C$82</definedName>
     <definedName name="weeknumbering">'Help &amp; Settings'!$C$108</definedName>
   </definedNames>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="414">
   <si>
     <t>WBS</t>
   </si>
@@ -2655,6 +2655,15 @@
   <si>
     <t>Fix Stock Updated_at</t>
   </si>
+  <si>
+    <t>Fifth Month</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Adj Close Price &amp; Graham Score to Recently Screened </t>
+  </si>
 </sst>
 </file>
 
@@ -4532,7 +4541,532 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="805">
+  <dxfs count="889">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="&quot;◆&quot;;&quot;◆&quot;;&quot;◆&quot;;&quot;◆&quot;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="&quot;/////&quot;;&quot;/////&quot;;&quot;/////&quot;;&quot;/////&quot;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="&quot;  &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="&quot;    &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode="&quot;      &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode="&quot;        &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;          &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="&quot;            &quot;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFCC3300"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDE9D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="[$-809]d/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF2C6531"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7D8AB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="172" formatCode="&quot;  &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="173" formatCode="&quot;    &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="174" formatCode="&quot;      &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="175" formatCode="&quot;        &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;          &quot;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="&quot;            &quot;@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFCC3300"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFDE9D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE6B8B6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="mediumGray">
+          <fgColor rgb="FFEAEAEA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode="&quot;◆&quot;;&quot;◆&quot;;&quot;◆&quot;;&quot;◆&quot;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="&quot;/////&quot;;&quot;/////&quot;;&quot;/////&quot;;&quot;/////&quot;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="1" tint="0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="[$-809]ddd\ d/mm/yy"/>
     </dxf>
@@ -10108,13 +10642,13 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:EE54"/>
+  <dimension ref="A1:EE56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="12" topLeftCell="F31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="12" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="AN53" sqref="AN53"/>
+      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12181,8 +12715,8 @@
         <v>108</v>
       </c>
       <c r="C9" s="168">
-        <f>MAX(Q11:Q54)</f>
-        <v>44651</v>
+        <f>MAX(Q11:Q56)</f>
+        <v>44652</v>
       </c>
       <c r="D9" s="146"/>
       <c r="E9" s="146"/>
@@ -12378,7 +12912,7 @@
       </c>
       <c r="C10" s="168">
         <f ca="1">TODAY()</f>
-        <v>44620</v>
+        <v>44624</v>
       </c>
       <c r="D10" s="146"/>
       <c r="E10" s="146"/>
@@ -13583,7 +14117,7 @@
       </c>
       <c r="O13" s="172"/>
       <c r="P13" s="184">
-        <f t="shared" ref="P13:P33" si="40">IF(OR(I13&lt;&gt;"",F13&lt;&gt;""),MAX(I13,IF(F13&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F13,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G13,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H13,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L13&lt;&gt;"",IF(K13&lt;&gt;"",L13-MAX(0,K13-1),WORKDAY.INTL(L13,-(MAX(J13,1)-1),weekend,holidays))," - "))</f>
+        <f t="shared" ref="P13:P33" si="40">IF(OR(I13&lt;&gt;"",F13&lt;&gt;""),MAX(I13,IF(F13&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F13,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G13,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H13,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L13&lt;&gt;"",IF(K13&lt;&gt;"",L13-MAX(0,K13-1),WORKDAY.INTL(L13,-(MAX(J13,1)-1),weekend,holidays))," - "))</f>
         <v>44250</v>
       </c>
       <c r="Q13" s="184">
@@ -23541,7 +24075,7 @@
       <c r="J33" s="130"/>
       <c r="K33" s="131"/>
       <c r="L33" s="180">
-        <v>44592</v>
+        <v>44651</v>
       </c>
       <c r="M33" s="185"/>
       <c r="N33" s="132">
@@ -23556,15 +24090,15 @@
       </c>
       <c r="Q33" s="184">
         <f t="shared" si="41"/>
-        <v>44592</v>
+        <v>44651</v>
       </c>
       <c r="R33" s="190">
         <f t="shared" si="53"/>
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="S33" s="190">
         <f t="shared" si="42"/>
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="T33" s="140"/>
       <c r="U33" s="140"/>
@@ -24025,7 +24559,7 @@
       <c r="B34" s="189">
         <v>2.1</v>
       </c>
-      <c r="C34" s="126" t="s">
+      <c r="C34" s="204" t="s">
         <v>362</v>
       </c>
       <c r="D34" s="126"/>
@@ -24199,7 +24733,7 @@
         <v>322</v>
       </c>
       <c r="P35" s="184">
-        <f>IF(OR(I35&lt;&gt;"",F35&lt;&gt;""),MAX(I35,IF(F35&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F35,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G35,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H35,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L35&lt;&gt;"",IF(K35&lt;&gt;"",L35-MAX(0,K35-1),WORKDAY.INTL(L35,-(MAX(J35,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I35&lt;&gt;"",F35&lt;&gt;""),MAX(I35,IF(F35&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F35,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G35,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H35,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L35&lt;&gt;"",IF(K35&lt;&gt;"",L35-MAX(0,K35-1),WORKDAY.INTL(L35,-(MAX(J35,1)-1),weekend,holidays))," - "))</f>
         <v>44504</v>
       </c>
       <c r="Q35" s="184">
@@ -24442,7 +24976,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="CA35" s="162" t="str">
-        <f t="shared" ref="CA35:CP52" si="77">" "</f>
+        <f t="shared" ref="CA35:CP54" si="77">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="CB35" s="162" t="str">
@@ -24697,7 +25231,7 @@
         <v>322</v>
       </c>
       <c r="P36" s="184">
-        <f>IF(OR(I36&lt;&gt;"",F36&lt;&gt;""),MAX(I36,IF(F36&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F36,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G36,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H36,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L36&lt;&gt;"",IF(K36&lt;&gt;"",L36-MAX(0,K36-1),WORKDAY.INTL(L36,-(MAX(J36,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I36&lt;&gt;"",F36&lt;&gt;""),MAX(I36,IF(F36&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F36,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G36,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H36,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L36&lt;&gt;"",IF(K36&lt;&gt;"",L36-MAX(0,K36-1),WORKDAY.INTL(L36,-(MAX(J36,1)-1),weekend,holidays))," - "))</f>
         <v>44504</v>
       </c>
       <c r="Q36" s="184">
@@ -25195,7 +25729,7 @@
         <v>322</v>
       </c>
       <c r="P37" s="184">
-        <f>IF(OR(I37&lt;&gt;"",F37&lt;&gt;""),MAX(I37,IF(F37&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F37,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G37,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H37,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L37&lt;&gt;"",IF(K37&lt;&gt;"",L37-MAX(0,K37-1),WORKDAY.INTL(L37,-(MAX(J37,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I37&lt;&gt;"",F37&lt;&gt;""),MAX(I37,IF(F37&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F37,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G37,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H37,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L37&lt;&gt;"",IF(K37&lt;&gt;"",L37-MAX(0,K37-1),WORKDAY.INTL(L37,-(MAX(J37,1)-1),weekend,holidays))," - "))</f>
         <v>44516</v>
       </c>
       <c r="Q37" s="184">
@@ -25402,7 +25936,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="BR37" s="166" t="str">
-        <f t="shared" ref="BR37:BZ52" si="85">" "</f>
+        <f t="shared" ref="BR37:BZ54" si="85">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="BS37" s="166" t="str">
@@ -25693,7 +26227,7 @@
         <v>321</v>
       </c>
       <c r="P38" s="184">
-        <f>IF(OR(I38&lt;&gt;"",F38&lt;&gt;""),MAX(I38,IF(F38&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F38,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G38,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H38,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L38&lt;&gt;"",IF(K38&lt;&gt;"",L38-MAX(0,K38-1),WORKDAY.INTL(L38,-(MAX(J38,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I38&lt;&gt;"",F38&lt;&gt;""),MAX(I38,IF(F38&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F38,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G38,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H38,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L38&lt;&gt;"",IF(K38&lt;&gt;"",L38-MAX(0,K38-1),WORKDAY.INTL(L38,-(MAX(J38,1)-1),weekend,holidays))," - "))</f>
         <v>44523</v>
       </c>
       <c r="Q38" s="184">
@@ -25732,7 +26266,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="AB38" s="166" t="str">
-        <f t="shared" ref="AB38:AK52" si="87">" "</f>
+        <f t="shared" ref="AB38:AK54" si="87">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AC38" s="166" t="str">
@@ -25772,7 +26306,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="AL38" s="166" t="str">
-        <f t="shared" ref="AL38:AU52" si="88">" "</f>
+        <f t="shared" ref="AL38:AU54" si="88">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AM38" s="166" t="str">
@@ -25812,7 +26346,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="AV38" s="166" t="str">
-        <f t="shared" ref="AV38:BQ52" si="89">" "</f>
+        <f t="shared" ref="AV38:BQ54" si="89">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AW38" s="166" t="str">
@@ -26191,7 +26725,7 @@
         <v>321</v>
       </c>
       <c r="P39" s="184">
-        <f>IF(OR(I39&lt;&gt;"",F39&lt;&gt;""),MAX(I39,IF(F39&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F39,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G39,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H39,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L39&lt;&gt;"",IF(K39&lt;&gt;"",L39-MAX(0,K39-1),WORKDAY.INTL(L39,-(MAX(J39,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I39&lt;&gt;"",F39&lt;&gt;""),MAX(I39,IF(F39&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F39,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G39,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H39,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L39&lt;&gt;"",IF(K39&lt;&gt;"",L39-MAX(0,K39-1),WORKDAY.INTL(L39,-(MAX(J39,1)-1),weekend,holidays))," - "))</f>
         <v>44523</v>
       </c>
       <c r="Q39" s="184">
@@ -26665,7 +27199,7 @@
       <c r="B40" s="189">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C40" s="126" t="s">
+      <c r="C40" s="204" t="s">
         <v>363</v>
       </c>
       <c r="D40" s="126"/>
@@ -26841,7 +27375,7 @@
         <v>322</v>
       </c>
       <c r="P41" s="184">
-        <f>IF(OR(I41&lt;&gt;"",F41&lt;&gt;""),MAX(I41,IF(F41&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F41,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G41,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H41,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L41&lt;&gt;"",IF(K41&lt;&gt;"",L41-MAX(0,K41-1),WORKDAY.INTL(L41,-(MAX(J41,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I41&lt;&gt;"",F41&lt;&gt;""),MAX(I41,IF(F41&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F41,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G41,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H41,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L41&lt;&gt;"",IF(K41&lt;&gt;"",L41-MAX(0,K41-1),WORKDAY.INTL(L41,-(MAX(J41,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q41" s="184">
@@ -27339,7 +27873,7 @@
         <v>322</v>
       </c>
       <c r="P42" s="184">
-        <f>IF(OR(I42&lt;&gt;"",F42&lt;&gt;""),MAX(I42,IF(F42&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F42,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G42,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H42,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L42&lt;&gt;"",IF(K42&lt;&gt;"",L42-MAX(0,K42-1),WORKDAY.INTL(L42,-(MAX(J42,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I42&lt;&gt;"",F42&lt;&gt;""),MAX(I42,IF(F42&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F42,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G42,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H42,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L42&lt;&gt;"",IF(K42&lt;&gt;"",L42-MAX(0,K42-1),WORKDAY.INTL(L42,-(MAX(J42,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q42" s="184">
@@ -27837,7 +28371,7 @@
         <v>322</v>
       </c>
       <c r="P43" s="184">
-        <f>IF(OR(I43&lt;&gt;"",F43&lt;&gt;""),MAX(I43,IF(F43&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F43,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G43,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H43,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L43&lt;&gt;"",IF(K43&lt;&gt;"",L43-MAX(0,K43-1),WORKDAY.INTL(L43,-(MAX(J43,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I43&lt;&gt;"",F43&lt;&gt;""),MAX(I43,IF(F43&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F43,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G43,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H43,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L43&lt;&gt;"",IF(K43&lt;&gt;"",L43-MAX(0,K43-1),WORKDAY.INTL(L43,-(MAX(J43,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q43" s="184">
@@ -28335,7 +28869,7 @@
         <v>322</v>
       </c>
       <c r="P44" s="184">
-        <f>IF(OR(I44&lt;&gt;"",F44&lt;&gt;""),MAX(I44,IF(F44&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F44,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G44,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H44,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L44&lt;&gt;"",IF(K44&lt;&gt;"",L44-MAX(0,K44-1),WORKDAY.INTL(L44,-(MAX(J44,1)-1),weekend,holidays))," - "))</f>
+        <f>IF(OR(I44&lt;&gt;"",F44&lt;&gt;""),MAX(I44,IF(F44&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F44,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G44,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H44,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L44&lt;&gt;"",IF(K44&lt;&gt;"",L44-MAX(0,K44-1),WORKDAY.INTL(L44,-(MAX(J44,1)-1),weekend,holidays))," - "))</f>
         <v>44531</v>
       </c>
       <c r="Q44" s="184">
@@ -28809,7 +29343,7 @@
       <c r="B45" s="189">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C45" s="126" t="s">
+      <c r="C45" s="204" t="s">
         <v>364</v>
       </c>
       <c r="D45" s="126"/>
@@ -28829,7 +29363,7 @@
       </c>
       <c r="M45" s="185"/>
       <c r="N45" s="132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O45" s="172" t="s">
         <v>321</v>
@@ -28979,13 +29513,13 @@
       </c>
       <c r="M46" s="185"/>
       <c r="N46" s="132">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O46" s="172" t="s">
         <v>322</v>
       </c>
       <c r="P46" s="184">
-        <f t="shared" ref="P46:P54" si="112">IF(OR(I46&lt;&gt;"",F46&lt;&gt;""),MAX(I46,IF(F46&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F46,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G46,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H46,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L46&lt;&gt;"",IF(K46&lt;&gt;"",L46-MAX(0,K46-1),WORKDAY.INTL(L46,-(MAX(J46,1)-1),weekend,holidays))," - "))</f>
+        <f t="shared" ref="P46:P56" si="112">IF(OR(I46&lt;&gt;"",F46&lt;&gt;""),MAX(I46,IF(F46&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F46,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G46,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H46,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L46&lt;&gt;"",IF(K46&lt;&gt;"",L46-MAX(0,K46-1),WORKDAY.INTL(L46,-(MAX(J46,1)-1),weekend,holidays))," - "))</f>
         <v>44562</v>
       </c>
       <c r="Q46" s="184">
@@ -30000,7 +30534,7 @@
       <c r="U48" s="140"/>
       <c r="V48" s="133"/>
       <c r="W48" s="166" t="str">
-        <f t="shared" ref="W48:AA52" si="122">" "</f>
+        <f t="shared" ref="W48:AA54" si="122">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X48" s="166" t="str">
@@ -30288,7 +30822,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="CQ48" s="162" t="str">
-        <f t="shared" ref="CQ48:ED52" si="123">" "</f>
+        <f t="shared" ref="CQ48:ED54" si="123">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="CR48" s="162" t="str">
@@ -30475,7 +31009,7 @@
       </c>
       <c r="M49" s="185"/>
       <c r="N49" s="132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="172" t="s">
         <v>321</v>
@@ -30500,7 +31034,7 @@
       <c r="U49" s="140"/>
       <c r="V49" s="133"/>
       <c r="W49" s="166" t="str">
-        <f t="shared" ref="W49:CH53" si="127">" "</f>
+        <f t="shared" ref="W49:CH55" si="127">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X49" s="166" t="str">
@@ -30756,7 +31290,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="CI49" s="162" t="str">
-        <f t="shared" ref="CI49:ED53" si="128">" "</f>
+        <f t="shared" ref="CI49:ED55" si="128">" "</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="CJ49" s="162" t="str">
@@ -31477,7 +32011,7 @@
         <v>321</v>
       </c>
       <c r="P51" s="184">
-        <f t="shared" ref="P51" si="132">IF(OR(I51&lt;&gt;"",F51&lt;&gt;""),MAX(I51,IF(F51&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F51,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G51,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H51,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L51&lt;&gt;"",IF(K51&lt;&gt;"",L51-MAX(0,K51-1),WORKDAY.INTL(L51,-(MAX(J51,1)-1),weekend,holidays))," - "))</f>
+        <f t="shared" ref="P51" si="132">IF(OR(I51&lt;&gt;"",F51&lt;&gt;""),MAX(I51,IF(F51&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F51,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G51,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H51,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L51&lt;&gt;"",IF(K51&lt;&gt;"",L51-MAX(0,K51-1),WORKDAY.INTL(L51,-(MAX(J51,1)-1),weekend,holidays))," - "))</f>
         <v>44593</v>
       </c>
       <c r="Q51" s="184">
@@ -31975,19 +32509,19 @@
         <v>321</v>
       </c>
       <c r="P52" s="184">
-        <f t="shared" ref="P52" si="136">IF(OR(I52&lt;&gt;"",F52&lt;&gt;""),MAX(I52,IF(F52&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$54,MATCH(F52,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(G52,$B$11:$B$54,0)),0),IFERROR(INDEX($Q$11:$Q$54,MATCH(H52,$B$11:$B$54,0)),0)),1,weekend,holidays),0)),IF(L52&lt;&gt;"",IF(K52&lt;&gt;"",L52-MAX(0,K52-1),WORKDAY.INTL(L52,-(MAX(J52,1)-1),weekend,holidays))," - "))</f>
+        <f t="shared" ref="P52:P53" si="136">IF(OR(I52&lt;&gt;"",F52&lt;&gt;""),MAX(I52,IF(F52&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F52,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G52,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H52,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L52&lt;&gt;"",IF(K52&lt;&gt;"",L52-MAX(0,K52-1),WORKDAY.INTL(L52,-(MAX(J52,1)-1),weekend,holidays))," - "))</f>
         <v>44593</v>
       </c>
       <c r="Q52" s="184">
-        <f t="shared" ref="Q52" si="137">IF(P52=" - "," - ",MAX(L52,IF(K52&lt;&gt;"",P52+MAX(0,K52-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P52,P52,weekend,holidays)=0,WORKDAY.INTL(P52,1,weekend,holidays),P52),MAX(0,J52-1),weekend,holidays))))</f>
+        <f t="shared" ref="Q52:Q53" si="137">IF(P52=" - "," - ",MAX(L52,IF(K52&lt;&gt;"",P52+MAX(0,K52-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P52,P52,weekend,holidays)=0,WORKDAY.INTL(P52,1,weekend,holidays),P52),MAX(0,J52-1),weekend,holidays))))</f>
         <v>44620</v>
       </c>
       <c r="R52" s="190">
-        <f t="shared" ref="R52" si="138">IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",NETWORKDAYS.INTL(P52,Q52,weekend,holidays))</f>
+        <f t="shared" ref="R52:R53" si="138">IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",NETWORKDAYS.INTL(P52,Q52,weekend,holidays))</f>
         <v>19</v>
       </c>
       <c r="S52" s="190">
-        <f t="shared" ref="S52" si="139">IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",Q52-P52+1)</f>
+        <f t="shared" ref="S52:S53" si="139">IF(OR(NOT(ISNUMBER(P52)),NOT(ISNUMBER(Q52)))," - ",Q52-P52+1)</f>
         <v>28</v>
       </c>
       <c r="T52" s="140"/>
@@ -32450,7 +32984,7 @@
         <v>2.5</v>
       </c>
       <c r="C53" s="204" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="D53" s="126"/>
       <c r="E53" s="127"/>
@@ -32475,19 +33009,19 @@
         <v>321</v>
       </c>
       <c r="P53" s="184">
-        <f t="shared" si="112"/>
+        <f t="shared" si="136"/>
         <v>44621</v>
       </c>
       <c r="Q53" s="184">
-        <f t="shared" ref="Q53" si="140">IF(P53=" - "," - ",MAX(L53,IF(K53&lt;&gt;"",P53+MAX(0,K53-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P53,P53,weekend,holidays)=0,WORKDAY.INTL(P53,1,weekend,holidays),P53),MAX(0,J53-1),weekend,holidays))))</f>
+        <f t="shared" si="137"/>
         <v>44651</v>
       </c>
       <c r="R53" s="190">
-        <f t="shared" ref="R53" si="141">IF(OR(NOT(ISNUMBER(P53)),NOT(ISNUMBER(Q53)))," - ",NETWORKDAYS.INTL(P53,Q53,weekend,holidays))</f>
+        <f t="shared" si="138"/>
         <v>23</v>
       </c>
       <c r="S53" s="190">
-        <f t="shared" ref="S53" si="142">IF(OR(NOT(ISNUMBER(P53)),NOT(ISNUMBER(Q53)))," - ",Q53-P53+1)</f>
+        <f t="shared" si="139"/>
         <v>31</v>
       </c>
       <c r="T53" s="140"/>
@@ -32942,154 +33476,1152 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="54" spans="1:134" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="155" t="s">
+    <row r="54" spans="1:134" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="125">
+        <v>3</v>
+      </c>
+      <c r="B54" s="189" t="s">
+        <v>412</v>
+      </c>
+      <c r="C54" s="126" t="s">
+        <v>413</v>
+      </c>
+      <c r="D54" s="126"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="180">
+        <v>44593</v>
+      </c>
+      <c r="J54" s="130"/>
+      <c r="K54" s="131"/>
+      <c r="L54" s="180">
+        <v>44620</v>
+      </c>
+      <c r="M54" s="185"/>
+      <c r="N54" s="132">
+        <v>1</v>
+      </c>
+      <c r="O54" s="172" t="s">
+        <v>321</v>
+      </c>
+      <c r="P54" s="184">
+        <f t="shared" ref="P54" si="140">IF(OR(I54&lt;&gt;"",F54&lt;&gt;""),MAX(I54,IF(F54&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F54,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G54,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H54,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L54&lt;&gt;"",IF(K54&lt;&gt;"",L54-MAX(0,K54-1),WORKDAY.INTL(L54,-(MAX(J54,1)-1),weekend,holidays))," - "))</f>
+        <v>44593</v>
+      </c>
+      <c r="Q54" s="184">
+        <f t="shared" ref="Q54" si="141">IF(P54=" - "," - ",MAX(L54,IF(K54&lt;&gt;"",P54+MAX(0,K54-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P54,P54,weekend,holidays)=0,WORKDAY.INTL(P54,1,weekend,holidays),P54),MAX(0,J54-1),weekend,holidays))))</f>
+        <v>44620</v>
+      </c>
+      <c r="R54" s="190">
+        <f t="shared" ref="R54" si="142">IF(OR(NOT(ISNUMBER(P54)),NOT(ISNUMBER(Q54)))," - ",NETWORKDAYS.INTL(P54,Q54,weekend,holidays))</f>
+        <v>19</v>
+      </c>
+      <c r="S54" s="190">
+        <f t="shared" ref="S54" si="143">IF(OR(NOT(ISNUMBER(P54)),NOT(ISNUMBER(Q54)))," - ",Q54-P54+1)</f>
+        <v>28</v>
+      </c>
+      <c r="T54" s="140"/>
+      <c r="U54" s="140"/>
+      <c r="V54" s="133"/>
+      <c r="W54" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X54" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y54" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z54" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA54" s="166" t="str">
+        <f t="shared" si="122"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB54" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC54" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD54" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE54" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF54" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG54" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH54" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI54" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ54" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK54" s="166" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AL54" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AM54" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AN54" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AO54" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AP54" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AQ54" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AR54" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AS54" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AT54" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AU54" s="166" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AV54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AW54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AX54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AY54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AZ54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BA54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BB54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BC54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BD54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BE54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BF54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BG54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BH54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BI54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BJ54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BK54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BL54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BM54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BN54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BO54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BP54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BQ54" s="166" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BR54" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BS54" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BT54" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BU54" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BV54" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BW54" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BX54" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BY54" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BZ54" s="166" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CA54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CB54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CC54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CD54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CE54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CF54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CG54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CH54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CI54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CJ54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CK54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CL54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CM54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CN54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CO54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CP54" s="162" t="str">
+        <f t="shared" si="77"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CQ54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CR54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CS54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CT54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CU54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CV54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CW54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CX54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CY54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CZ54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DA54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DB54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DC54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DD54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DE54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DF54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DG54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DH54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DI54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DJ54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DK54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DL54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DM54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DN54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DO54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DP54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DQ54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DR54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DS54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DT54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DU54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DV54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DW54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DX54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DY54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DZ54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EA54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EB54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EC54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="ED54" s="162" t="str">
+        <f t="shared" si="123"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="55" spans="1:134" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="125">
+        <v>2</v>
+      </c>
+      <c r="B55" s="189">
+        <v>2.6</v>
+      </c>
+      <c r="C55" s="204" t="s">
+        <v>387</v>
+      </c>
+      <c r="D55" s="126"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="128">
+        <v>2.5</v>
+      </c>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="180">
+        <v>44621</v>
+      </c>
+      <c r="J55" s="130"/>
+      <c r="K55" s="131"/>
+      <c r="L55" s="180">
+        <v>44651</v>
+      </c>
+      <c r="M55" s="185"/>
+      <c r="N55" s="132">
+        <v>0</v>
+      </c>
+      <c r="O55" s="172" t="s">
+        <v>321</v>
+      </c>
+      <c r="P55" s="184">
+        <f t="shared" si="112"/>
+        <v>44652</v>
+      </c>
+      <c r="Q55" s="184">
+        <f t="shared" ref="Q55" si="144">IF(P55=" - "," - ",MAX(L55,IF(K55&lt;&gt;"",P55+MAX(0,K55-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P55,P55,weekend,holidays)=0,WORKDAY.INTL(P55,1,weekend,holidays),P55),MAX(0,J55-1),weekend,holidays))))</f>
+        <v>44652</v>
+      </c>
+      <c r="R55" s="190">
+        <f t="shared" ref="R55" si="145">IF(OR(NOT(ISNUMBER(P55)),NOT(ISNUMBER(Q55)))," - ",NETWORKDAYS.INTL(P55,Q55,weekend,holidays))</f>
+        <v>1</v>
+      </c>
+      <c r="S55" s="190">
+        <f t="shared" ref="S55" si="146">IF(OR(NOT(ISNUMBER(P55)),NOT(ISNUMBER(Q55)))," - ",Q55-P55+1)</f>
+        <v>1</v>
+      </c>
+      <c r="T55" s="140"/>
+      <c r="U55" s="140"/>
+      <c r="V55" s="133"/>
+      <c r="W55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AC55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AD55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AE55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AF55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AG55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AH55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AI55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AJ55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AK55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AL55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AM55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AN55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AO55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AP55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AQ55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AR55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AS55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AT55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AU55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AV55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AW55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AX55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AY55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AZ55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BA55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BB55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BC55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BD55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BE55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BF55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BG55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BH55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BI55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BJ55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BK55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BL55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BM55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BN55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BO55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BP55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BQ55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BR55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BS55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BT55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BU55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BV55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BW55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BX55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BY55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="BZ55" s="166" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CA55" s="162" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CB55" s="162" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CC55" s="162" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CD55" s="162" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CE55" s="162" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CF55" s="162" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CG55" s="162" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CH55" s="162" t="str">
+        <f t="shared" si="127"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CI55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CJ55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CK55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CL55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CM55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CN55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CO55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CP55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CQ55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CR55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CS55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CT55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CU55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CV55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CW55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CX55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CY55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="CZ55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DA55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DB55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DC55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DD55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DE55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DF55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DG55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DH55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DI55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DJ55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DK55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DL55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DM55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DN55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DO55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DP55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DQ55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DR55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DS55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DT55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DU55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DV55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DW55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DX55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DY55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="DZ55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EA55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EB55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="EC55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="ED55" s="162" t="str">
+        <f t="shared" si="128"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="56" spans="1:134" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="156"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="160"/>
-      <c r="G54" s="158"/>
-      <c r="H54" s="158"/>
-      <c r="I54" s="182"/>
-      <c r="J54" s="160"/>
-      <c r="K54" s="158"/>
-      <c r="L54" s="182"/>
-      <c r="M54" s="187"/>
-      <c r="N54" s="161"/>
-      <c r="O54" s="173" t="s">
+      <c r="B56" s="156"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="158"/>
+      <c r="H56" s="158"/>
+      <c r="I56" s="182"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="158"/>
+      <c r="L56" s="182"/>
+      <c r="M56" s="187"/>
+      <c r="N56" s="161"/>
+      <c r="O56" s="173" t="s">
         <v>321</v>
       </c>
-      <c r="P54" s="184" t="str">
+      <c r="P56" s="184" t="str">
         <f t="shared" si="112"/>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="Q54" s="184" t="str">
-        <f>IF(P54=" - "," - ",MAX(L54,IF(K54&lt;&gt;"",P54+MAX(0,K54-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P54,P54,weekend,holidays)=0,WORKDAY.INTL(P54,1,weekend,holidays),P54),MAX(0,J54-1),weekend,holidays))))</f>
+      <c r="Q56" s="184" t="str">
+        <f>IF(P56=" - "," - ",MAX(L56,IF(K56&lt;&gt;"",P56+MAX(0,K56-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P56,P56,weekend,holidays)=0,WORKDAY.INTL(P56,1,weekend,holidays),P56),MAX(0,J56-1),weekend,holidays))))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="R54" s="190" t="str">
-        <f>IF(OR(NOT(ISNUMBER(P54)),NOT(ISNUMBER(Q54)))," - ",NETWORKDAYS.INTL(P54,Q54,weekend,holidays))</f>
+      <c r="R56" s="190" t="str">
+        <f>IF(OR(NOT(ISNUMBER(P56)),NOT(ISNUMBER(Q56)))," - ",NETWORKDAYS.INTL(P56,Q56,weekend,holidays))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="S54" s="161"/>
-      <c r="T54" s="183"/>
-      <c r="U54" s="183"/>
-      <c r="V54" s="161"/>
-      <c r="W54" s="167"/>
-      <c r="X54" s="167"/>
-      <c r="Y54" s="167"/>
-      <c r="Z54" s="167"/>
-      <c r="AA54" s="167"/>
-      <c r="AB54" s="167"/>
-      <c r="AC54" s="167"/>
-      <c r="AD54" s="167"/>
-      <c r="AE54" s="167"/>
-      <c r="AF54" s="167"/>
-      <c r="AG54" s="167"/>
-      <c r="AH54" s="167"/>
-      <c r="AI54" s="167"/>
-      <c r="AJ54" s="167"/>
-      <c r="AK54" s="167"/>
-      <c r="AL54" s="167"/>
-      <c r="AM54" s="167"/>
-      <c r="AN54" s="167"/>
-      <c r="AO54" s="167"/>
-      <c r="AP54" s="167"/>
-      <c r="AQ54" s="167"/>
-      <c r="AR54" s="167"/>
-      <c r="AS54" s="167"/>
-      <c r="AT54" s="167"/>
-      <c r="AU54" s="167"/>
-      <c r="AV54" s="167"/>
-      <c r="AW54" s="167"/>
-      <c r="AX54" s="167"/>
-      <c r="AY54" s="167"/>
-      <c r="AZ54" s="167"/>
-      <c r="BA54" s="167"/>
-      <c r="BB54" s="167"/>
-      <c r="BC54" s="167"/>
-      <c r="BD54" s="167"/>
-      <c r="BE54" s="167"/>
-      <c r="BF54" s="167"/>
-      <c r="BG54" s="167"/>
-      <c r="BH54" s="167"/>
-      <c r="BI54" s="167"/>
-      <c r="BJ54" s="167"/>
-      <c r="BK54" s="167"/>
-      <c r="BL54" s="167"/>
-      <c r="BM54" s="167"/>
-      <c r="BN54" s="167"/>
-      <c r="BO54" s="167"/>
-      <c r="BP54" s="167"/>
-      <c r="BQ54" s="167"/>
-      <c r="BR54" s="167"/>
-      <c r="BS54" s="167"/>
-      <c r="BT54" s="167"/>
-      <c r="BU54" s="167"/>
-      <c r="BV54" s="167"/>
-      <c r="BW54" s="167"/>
-      <c r="BX54" s="167"/>
-      <c r="BY54" s="167"/>
-      <c r="BZ54" s="167"/>
-      <c r="CA54" s="163"/>
-      <c r="CB54" s="163"/>
-      <c r="CC54" s="163"/>
-      <c r="CD54" s="163"/>
-      <c r="CE54" s="163"/>
-      <c r="CF54" s="163"/>
-      <c r="CG54" s="163"/>
-      <c r="CH54" s="163"/>
-      <c r="CI54" s="163"/>
-      <c r="CJ54" s="163"/>
-      <c r="CK54" s="163"/>
-      <c r="CL54" s="163"/>
-      <c r="CM54" s="163"/>
-      <c r="CN54" s="163"/>
-      <c r="CO54" s="163"/>
-      <c r="CP54" s="163"/>
-      <c r="CQ54" s="163"/>
-      <c r="CR54" s="163"/>
-      <c r="CS54" s="163"/>
-      <c r="CT54" s="163"/>
-      <c r="CU54" s="163"/>
-      <c r="CV54" s="163"/>
-      <c r="CW54" s="163"/>
-      <c r="CX54" s="163"/>
-      <c r="CY54" s="163"/>
-      <c r="CZ54" s="163"/>
-      <c r="DA54" s="163"/>
-      <c r="DB54" s="163"/>
-      <c r="DC54" s="163"/>
-      <c r="DD54" s="163"/>
-      <c r="DE54" s="163"/>
-      <c r="DF54" s="163"/>
-      <c r="DG54" s="163"/>
-      <c r="DH54" s="163"/>
-      <c r="DI54" s="163"/>
-      <c r="DJ54" s="163"/>
-      <c r="DK54" s="163"/>
-      <c r="DL54" s="163"/>
-      <c r="DM54" s="163"/>
-      <c r="DN54" s="163"/>
-      <c r="DO54" s="163"/>
-      <c r="DP54" s="163"/>
-      <c r="DQ54" s="163"/>
-      <c r="DR54" s="163"/>
-      <c r="DS54" s="163"/>
-      <c r="DT54" s="163"/>
-      <c r="DU54" s="163"/>
-      <c r="DV54" s="163"/>
-      <c r="DW54" s="163"/>
-      <c r="DX54" s="163"/>
-      <c r="DY54" s="163"/>
-      <c r="DZ54" s="163"/>
-      <c r="EA54" s="163"/>
-      <c r="EB54" s="163"/>
-      <c r="EC54" s="163"/>
-      <c r="ED54" s="163"/>
+      <c r="S56" s="161"/>
+      <c r="T56" s="183"/>
+      <c r="U56" s="183"/>
+      <c r="V56" s="161"/>
+      <c r="W56" s="167"/>
+      <c r="X56" s="167"/>
+      <c r="Y56" s="167"/>
+      <c r="Z56" s="167"/>
+      <c r="AA56" s="167"/>
+      <c r="AB56" s="167"/>
+      <c r="AC56" s="167"/>
+      <c r="AD56" s="167"/>
+      <c r="AE56" s="167"/>
+      <c r="AF56" s="167"/>
+      <c r="AG56" s="167"/>
+      <c r="AH56" s="167"/>
+      <c r="AI56" s="167"/>
+      <c r="AJ56" s="167"/>
+      <c r="AK56" s="167"/>
+      <c r="AL56" s="167"/>
+      <c r="AM56" s="167"/>
+      <c r="AN56" s="167"/>
+      <c r="AO56" s="167"/>
+      <c r="AP56" s="167"/>
+      <c r="AQ56" s="167"/>
+      <c r="AR56" s="167"/>
+      <c r="AS56" s="167"/>
+      <c r="AT56" s="167"/>
+      <c r="AU56" s="167"/>
+      <c r="AV56" s="167"/>
+      <c r="AW56" s="167"/>
+      <c r="AX56" s="167"/>
+      <c r="AY56" s="167"/>
+      <c r="AZ56" s="167"/>
+      <c r="BA56" s="167"/>
+      <c r="BB56" s="167"/>
+      <c r="BC56" s="167"/>
+      <c r="BD56" s="167"/>
+      <c r="BE56" s="167"/>
+      <c r="BF56" s="167"/>
+      <c r="BG56" s="167"/>
+      <c r="BH56" s="167"/>
+      <c r="BI56" s="167"/>
+      <c r="BJ56" s="167"/>
+      <c r="BK56" s="167"/>
+      <c r="BL56" s="167"/>
+      <c r="BM56" s="167"/>
+      <c r="BN56" s="167"/>
+      <c r="BO56" s="167"/>
+      <c r="BP56" s="167"/>
+      <c r="BQ56" s="167"/>
+      <c r="BR56" s="167"/>
+      <c r="BS56" s="167"/>
+      <c r="BT56" s="167"/>
+      <c r="BU56" s="167"/>
+      <c r="BV56" s="167"/>
+      <c r="BW56" s="167"/>
+      <c r="BX56" s="167"/>
+      <c r="BY56" s="167"/>
+      <c r="BZ56" s="167"/>
+      <c r="CA56" s="163"/>
+      <c r="CB56" s="163"/>
+      <c r="CC56" s="163"/>
+      <c r="CD56" s="163"/>
+      <c r="CE56" s="163"/>
+      <c r="CF56" s="163"/>
+      <c r="CG56" s="163"/>
+      <c r="CH56" s="163"/>
+      <c r="CI56" s="163"/>
+      <c r="CJ56" s="163"/>
+      <c r="CK56" s="163"/>
+      <c r="CL56" s="163"/>
+      <c r="CM56" s="163"/>
+      <c r="CN56" s="163"/>
+      <c r="CO56" s="163"/>
+      <c r="CP56" s="163"/>
+      <c r="CQ56" s="163"/>
+      <c r="CR56" s="163"/>
+      <c r="CS56" s="163"/>
+      <c r="CT56" s="163"/>
+      <c r="CU56" s="163"/>
+      <c r="CV56" s="163"/>
+      <c r="CW56" s="163"/>
+      <c r="CX56" s="163"/>
+      <c r="CY56" s="163"/>
+      <c r="CZ56" s="163"/>
+      <c r="DA56" s="163"/>
+      <c r="DB56" s="163"/>
+      <c r="DC56" s="163"/>
+      <c r="DD56" s="163"/>
+      <c r="DE56" s="163"/>
+      <c r="DF56" s="163"/>
+      <c r="DG56" s="163"/>
+      <c r="DH56" s="163"/>
+      <c r="DI56" s="163"/>
+      <c r="DJ56" s="163"/>
+      <c r="DK56" s="163"/>
+      <c r="DL56" s="163"/>
+      <c r="DM56" s="163"/>
+      <c r="DN56" s="163"/>
+      <c r="DO56" s="163"/>
+      <c r="DP56" s="163"/>
+      <c r="DQ56" s="163"/>
+      <c r="DR56" s="163"/>
+      <c r="DS56" s="163"/>
+      <c r="DT56" s="163"/>
+      <c r="DU56" s="163"/>
+      <c r="DV56" s="163"/>
+      <c r="DW56" s="163"/>
+      <c r="DX56" s="163"/>
+      <c r="DY56" s="163"/>
+      <c r="DZ56" s="163"/>
+      <c r="EA56" s="163"/>
+      <c r="EB56" s="163"/>
+      <c r="EC56" s="163"/>
+      <c r="ED56" s="163"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" autoFilter="0"/>
@@ -33149,11 +34681,11 @@
     <mergeCell ref="BM10:BS10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N13:N17 N54 N38 N47">
-    <cfRule type="cellIs" dxfId="804" priority="1535" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="N13:N17 N56 N38 N47">
+    <cfRule type="cellIs" dxfId="888" priority="1628" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1538">
+    <cfRule type="dataBar" priority="1631">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33166,139 +34698,139 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C10 C4:C6 I13:I17 L13:L17 T13:U17 T54:U54 L54 I54 P54:Q54 T38:U38 T47:U47 L38 L47 I38 I47 P38:Q38 P47:Q47">
-    <cfRule type="expression" dxfId="803" priority="1524">
+  <conditionalFormatting sqref="C9:C10 C4:C6 I13:I17 L13:L17 T13:U17 T56:U56 L56 I56 P56:Q56 T38:U38 T47:U47 L38 L47 I38 I47 P38:Q38 P47:Q47">
+    <cfRule type="expression" dxfId="887" priority="1617">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q17 Q19:Q21 Q54 Q33:Q34 Q24 Q40:Q41 Q45:Q47">
-    <cfRule type="expression" dxfId="802" priority="1539">
+  <conditionalFormatting sqref="Q13:Q17 Q19:Q21 Q56 Q33:Q34 Q24 Q40:Q41 Q45:Q47">
+    <cfRule type="expression" dxfId="886" priority="1632">
       <formula>AND($Q$10="Yes",Q13&lt;$C$10,N13&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="801" priority="1544">
+    <cfRule type="expression" dxfId="885" priority="1637">
       <formula>AND($Q$10="Yes",Q13&lt;=$C$10+enddate_highlight_days,N13&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:C17 C19:C21 C54 C24 C26 C33:C34 C38 C40:C41 C45:C47">
-    <cfRule type="expression" dxfId="800" priority="1545">
+  <conditionalFormatting sqref="C13:C17 C19:C21 C56 C24 C26 C33:C34 C38 C40:C41 C45:C47">
+    <cfRule type="expression" dxfId="884" priority="1638">
       <formula>$A13=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="799" priority="1736">
+    <cfRule type="expression" dxfId="883" priority="1829">
       <formula>$A13=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="798" priority="1737">
+    <cfRule type="expression" dxfId="882" priority="1830">
       <formula>$A13=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="797" priority="1738">
+    <cfRule type="expression" dxfId="881" priority="1831">
       <formula>$A13=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="796" priority="1739">
+    <cfRule type="expression" dxfId="880" priority="1832">
       <formula>$A13=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="795" priority="1740">
+    <cfRule type="expression" dxfId="879" priority="1833">
       <formula>$A13=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:ED12">
-    <cfRule type="expression" dxfId="794" priority="2054">
+    <cfRule type="expression" dxfId="878" priority="2147">
       <formula>W$7=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="793" priority="2055">
+    <cfRule type="expression" dxfId="877" priority="2148">
       <formula>AND($C$10&gt;=W$5,$C$10&lt;X$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="792" priority="2056">
+    <cfRule type="expression" dxfId="876" priority="2149">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W13:ED17 W19:ED21 W23:ED24 W26:ED26 W33:ED34 W38:ED47 W49:ED49 W53:ED54">
-    <cfRule type="expression" dxfId="791" priority="1527">
+  <conditionalFormatting sqref="W13:ED17 W19:ED21 W23:ED24 W26:ED26 W33:ED34 W38:ED47 W49:ED49 W55:ED56">
+    <cfRule type="expression" dxfId="875" priority="1620">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="790" priority="1531">
+    <cfRule type="expression" dxfId="874" priority="1624">
       <formula>AND($U$4="Yes",$U13&gt;=W$5,$T13&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="789" priority="2079">
+    <cfRule type="expression" dxfId="873" priority="2172">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M13&lt;&gt;"M",$U13&gt;=W$5,$T13&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="788" priority="2080">
+    <cfRule type="expression" dxfId="872" priority="2173">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P13&lt;=W$6,ROUNDDOWN(($Q13-$P13+1)*$N13,0)+$P13-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="787" priority="2081" stopIfTrue="1">
+    <cfRule type="expression" dxfId="871" priority="2174" stopIfTrue="1">
       <formula>AND(OR($M13="b",$M13=""),$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="786" priority="2082" stopIfTrue="1">
+    <cfRule type="expression" dxfId="870" priority="2175" stopIfTrue="1">
       <formula>AND($M13="K",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="785" priority="2083" stopIfTrue="1">
+    <cfRule type="expression" dxfId="869" priority="2176" stopIfTrue="1">
       <formula>AND($M13="x",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="784" priority="2084" stopIfTrue="1">
+    <cfRule type="expression" dxfId="868" priority="2177" stopIfTrue="1">
       <formula>AND($M13="G",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="783" priority="2085" stopIfTrue="1">
+    <cfRule type="expression" dxfId="867" priority="2178" stopIfTrue="1">
       <formula>AND($M13="P",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="782" priority="2086" stopIfTrue="1">
+    <cfRule type="expression" dxfId="866" priority="2179" stopIfTrue="1">
       <formula>AND($M13="Y",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="781" priority="2087" stopIfTrue="1">
+    <cfRule type="expression" dxfId="865" priority="2180" stopIfTrue="1">
       <formula>AND($M13="O",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="780" priority="2088" stopIfTrue="1">
+    <cfRule type="expression" dxfId="864" priority="2181" stopIfTrue="1">
       <formula>AND($M13="R",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="779" priority="2089" stopIfTrue="1">
+    <cfRule type="expression" dxfId="863" priority="2182" stopIfTrue="1">
       <formula>AND($M13=1,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="778" priority="2090" stopIfTrue="1">
+    <cfRule type="expression" dxfId="862" priority="2183" stopIfTrue="1">
       <formula>AND($M13=2,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="777" priority="2091" stopIfTrue="1">
+    <cfRule type="expression" dxfId="861" priority="2184" stopIfTrue="1">
       <formula>AND($M13=3,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="776" priority="2092" stopIfTrue="1">
+    <cfRule type="expression" dxfId="860" priority="2185" stopIfTrue="1">
       <formula>AND($M13=4,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="775" priority="2093" stopIfTrue="1">
+    <cfRule type="expression" dxfId="859" priority="2186" stopIfTrue="1">
       <formula>AND($M13=5,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="774" priority="2094" stopIfTrue="1">
+    <cfRule type="expression" dxfId="858" priority="2187" stopIfTrue="1">
       <formula>AND($M13=6,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="773" priority="2095" stopIfTrue="1">
+    <cfRule type="expression" dxfId="857" priority="2188" stopIfTrue="1">
       <formula>AND($M13=7,$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="772" priority="2096" stopIfTrue="1">
+    <cfRule type="expression" dxfId="856" priority="2189" stopIfTrue="1">
       <formula>AND($M13="M",$P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="771" priority="2097" stopIfTrue="1">
+    <cfRule type="expression" dxfId="855" priority="2190" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N13&lt;1,$P13&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="770" priority="2098" stopIfTrue="1">
+    <cfRule type="expression" dxfId="854" priority="2191" stopIfTrue="1">
       <formula>AND($P13&lt;=W$6,$Q13&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="769" priority="2099">
+    <cfRule type="expression" dxfId="853" priority="2192">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="768" priority="2100">
+    <cfRule type="expression" dxfId="852" priority="2193">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12:ED12">
-    <cfRule type="expression" dxfId="767" priority="1526">
+    <cfRule type="expression" dxfId="851" priority="1619">
       <formula>$Q$4="Daily"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:Q17">
-    <cfRule type="expression" dxfId="766" priority="1523">
+    <cfRule type="expression" dxfId="850" priority="1616">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="cellIs" dxfId="765" priority="1490" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="849" priority="1583" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1491">
+    <cfRule type="dataBar" priority="1584">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33312,114 +34844,114 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 L18 T18:U18">
-    <cfRule type="expression" dxfId="764" priority="1487">
+    <cfRule type="expression" dxfId="848" priority="1580">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="expression" dxfId="763" priority="1492">
+    <cfRule type="expression" dxfId="847" priority="1585">
       <formula>AND($Q$10="Yes",Q18&lt;$C$10,N18&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="762" priority="1493">
+    <cfRule type="expression" dxfId="846" priority="1586">
       <formula>AND($Q$10="Yes",Q18&lt;=$C$10+enddate_highlight_days,N18&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="761" priority="1494">
+    <cfRule type="expression" dxfId="845" priority="1587">
       <formula>$A18=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="760" priority="1495">
+    <cfRule type="expression" dxfId="844" priority="1588">
       <formula>$A18=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="759" priority="1496">
+    <cfRule type="expression" dxfId="843" priority="1589">
       <formula>$A18=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="758" priority="1497">
+    <cfRule type="expression" dxfId="842" priority="1590">
       <formula>$A18=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="757" priority="1498">
+    <cfRule type="expression" dxfId="841" priority="1591">
       <formula>$A18=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="756" priority="1499">
+    <cfRule type="expression" dxfId="840" priority="1592">
       <formula>$A18=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W18:ED18">
-    <cfRule type="expression" dxfId="755" priority="1488">
+    <cfRule type="expression" dxfId="839" priority="1581">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="754" priority="1489">
+    <cfRule type="expression" dxfId="838" priority="1582">
       <formula>AND($U$4="Yes",$U18&gt;=W$5,$T18&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="753" priority="1500">
+    <cfRule type="expression" dxfId="837" priority="1593">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M18&lt;&gt;"M",$U18&gt;=W$5,$T18&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="752" priority="1501">
+    <cfRule type="expression" dxfId="836" priority="1594">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P18&lt;=W$6,ROUNDDOWN(($Q18-$P18+1)*$N18,0)+$P18-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="751" priority="1502" stopIfTrue="1">
+    <cfRule type="expression" dxfId="835" priority="1595" stopIfTrue="1">
       <formula>AND(OR($M18="b",$M18=""),$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="750" priority="1503" stopIfTrue="1">
+    <cfRule type="expression" dxfId="834" priority="1596" stopIfTrue="1">
       <formula>AND($M18="K",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="749" priority="1504" stopIfTrue="1">
+    <cfRule type="expression" dxfId="833" priority="1597" stopIfTrue="1">
       <formula>AND($M18="x",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="748" priority="1505" stopIfTrue="1">
+    <cfRule type="expression" dxfId="832" priority="1598" stopIfTrue="1">
       <formula>AND($M18="G",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="747" priority="1506" stopIfTrue="1">
+    <cfRule type="expression" dxfId="831" priority="1599" stopIfTrue="1">
       <formula>AND($M18="P",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="746" priority="1507" stopIfTrue="1">
+    <cfRule type="expression" dxfId="830" priority="1600" stopIfTrue="1">
       <formula>AND($M18="Y",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="745" priority="1508" stopIfTrue="1">
+    <cfRule type="expression" dxfId="829" priority="1601" stopIfTrue="1">
       <formula>AND($M18="O",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="744" priority="1509" stopIfTrue="1">
+    <cfRule type="expression" dxfId="828" priority="1602" stopIfTrue="1">
       <formula>AND($M18="R",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="743" priority="1510" stopIfTrue="1">
+    <cfRule type="expression" dxfId="827" priority="1603" stopIfTrue="1">
       <formula>AND($M18=1,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="742" priority="1511" stopIfTrue="1">
+    <cfRule type="expression" dxfId="826" priority="1604" stopIfTrue="1">
       <formula>AND($M18=2,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="741" priority="1512" stopIfTrue="1">
+    <cfRule type="expression" dxfId="825" priority="1605" stopIfTrue="1">
       <formula>AND($M18=3,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="740" priority="1513" stopIfTrue="1">
+    <cfRule type="expression" dxfId="824" priority="1606" stopIfTrue="1">
       <formula>AND($M18=4,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="739" priority="1514" stopIfTrue="1">
+    <cfRule type="expression" dxfId="823" priority="1607" stopIfTrue="1">
       <formula>AND($M18=5,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="738" priority="1515" stopIfTrue="1">
+    <cfRule type="expression" dxfId="822" priority="1608" stopIfTrue="1">
       <formula>AND($M18=6,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="737" priority="1516" stopIfTrue="1">
+    <cfRule type="expression" dxfId="821" priority="1609" stopIfTrue="1">
       <formula>AND($M18=7,$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="736" priority="1517" stopIfTrue="1">
+    <cfRule type="expression" dxfId="820" priority="1610" stopIfTrue="1">
       <formula>AND($M18="M",$P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="735" priority="1518" stopIfTrue="1">
+    <cfRule type="expression" dxfId="819" priority="1611" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N18&lt;1,$P18&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="734" priority="1519" stopIfTrue="1">
+    <cfRule type="expression" dxfId="818" priority="1612" stopIfTrue="1">
       <formula>AND($P18&lt;=W$6,$Q18&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="733" priority="1520">
+    <cfRule type="expression" dxfId="817" priority="1613">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="732" priority="1521">
+    <cfRule type="expression" dxfId="816" priority="1614">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
-    <cfRule type="iconSet" priority="1522">
+    <cfRule type="iconSet" priority="1615">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33429,15 +34961,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q18">
-    <cfRule type="expression" dxfId="731" priority="1486">
+    <cfRule type="expression" dxfId="815" priority="1579">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19:N21 N33:N34 N40 N45:N47">
-    <cfRule type="cellIs" dxfId="730" priority="1453" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="814" priority="1546" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1454">
+    <cfRule type="dataBar" priority="1547">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33451,17 +34983,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:I21 L19:L21 T19:U21 T33:U34 L33:L34 I33:I34 I40 L40 T40:U40 T45:U47 L45:L47 I45:I47">
-    <cfRule type="expression" dxfId="729" priority="1450">
+    <cfRule type="expression" dxfId="813" priority="1543">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:Q21 P33:Q34 P40:Q40 P45:Q47">
-    <cfRule type="expression" dxfId="728" priority="1449">
+    <cfRule type="expression" dxfId="812" priority="1542">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O54 O13:O17">
-    <cfRule type="iconSet" priority="2442">
+  <conditionalFormatting sqref="O56 O13:O17">
+    <cfRule type="iconSet" priority="2535">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33471,7 +35003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45 O40 O33:O34 O19:O21">
-    <cfRule type="iconSet" priority="2499">
+    <cfRule type="iconSet" priority="2592">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33481,38 +35013,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q49">
-    <cfRule type="expression" dxfId="727" priority="1418">
+    <cfRule type="expression" dxfId="811" priority="1511">
       <formula>AND($Q$10="Yes",Q49&lt;$C$10,N49&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="726" priority="1419">
+    <cfRule type="expression" dxfId="810" priority="1512">
       <formula>AND($Q$10="Yes",Q49&lt;=$C$10+enddate_highlight_days,N49&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="expression" dxfId="725" priority="1420">
+    <cfRule type="expression" dxfId="809" priority="1513">
       <formula>$A49=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="724" priority="1421">
+    <cfRule type="expression" dxfId="808" priority="1514">
       <formula>$A49=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="723" priority="1422">
+    <cfRule type="expression" dxfId="807" priority="1515">
       <formula>$A49=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="722" priority="1423">
+    <cfRule type="expression" dxfId="806" priority="1516">
       <formula>$A49=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="721" priority="1424">
+    <cfRule type="expression" dxfId="805" priority="1517">
       <formula>$A49=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="720" priority="1425">
+    <cfRule type="expression" dxfId="804" priority="1518">
       <formula>$A49=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="cellIs" dxfId="719" priority="1414" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="803" priority="1507" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1415">
+    <cfRule type="dataBar" priority="1508">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33526,17 +35058,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49 L49 T49:U49">
-    <cfRule type="expression" dxfId="718" priority="1413">
+    <cfRule type="expression" dxfId="802" priority="1506">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:Q49">
-    <cfRule type="expression" dxfId="717" priority="1412">
+    <cfRule type="expression" dxfId="801" priority="1505">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49">
-    <cfRule type="iconSet" priority="1448">
+    <cfRule type="iconSet" priority="1541">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33545,39 +35077,39 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q53">
-    <cfRule type="expression" dxfId="716" priority="1381">
-      <formula>AND($Q$10="Yes",Q53&lt;$C$10,N53&lt;1)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="715" priority="1382">
-      <formula>AND($Q$10="Yes",Q53&lt;=$C$10+enddate_highlight_days,N53&lt;1)</formula>
+  <conditionalFormatting sqref="Q55">
+    <cfRule type="expression" dxfId="800" priority="1474">
+      <formula>AND($Q$10="Yes",Q55&lt;$C$10,N55&lt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="799" priority="1475">
+      <formula>AND($Q$10="Yes",Q55&lt;=$C$10+enddate_highlight_days,N55&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="714" priority="1383">
-      <formula>$A53=7</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="713" priority="1384">
-      <formula>$A53=6</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="712" priority="1385">
-      <formula>$A53=5</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="711" priority="1386">
-      <formula>$A53=4</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="710" priority="1387">
-      <formula>$A53=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="709" priority="1388">
-      <formula>$A53=2</formula>
+  <conditionalFormatting sqref="C55">
+    <cfRule type="expression" dxfId="798" priority="1476">
+      <formula>$A55=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="797" priority="1477">
+      <formula>$A55=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="796" priority="1478">
+      <formula>$A55=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="795" priority="1479">
+      <formula>$A55=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="794" priority="1480">
+      <formula>$A55=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="793" priority="1481">
+      <formula>$A55=2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53">
-    <cfRule type="cellIs" dxfId="708" priority="1377" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="N55">
+    <cfRule type="cellIs" dxfId="792" priority="1470" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1378">
+    <cfRule type="dataBar" priority="1471">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33590,18 +35122,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53 L53 T53:U53">
-    <cfRule type="expression" dxfId="707" priority="1376">
+  <conditionalFormatting sqref="I55 L55 T55:U55">
+    <cfRule type="expression" dxfId="791" priority="1469">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P53:Q53">
-    <cfRule type="expression" dxfId="706" priority="1375">
+  <conditionalFormatting sqref="P55:Q55">
+    <cfRule type="expression" dxfId="790" priority="1468">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O53">
-    <cfRule type="iconSet" priority="1411">
+  <conditionalFormatting sqref="O55">
+    <cfRule type="iconSet" priority="1504">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33611,38 +35143,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="705" priority="1344">
+    <cfRule type="expression" dxfId="789" priority="1437">
       <formula>AND($Q$10="Yes",Q23&lt;$C$10,N23&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="704" priority="1345">
+    <cfRule type="expression" dxfId="788" priority="1438">
       <formula>AND($Q$10="Yes",Q23&lt;=$C$10+enddate_highlight_days,N23&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="703" priority="1346">
+    <cfRule type="expression" dxfId="787" priority="1439">
       <formula>$A23=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="702" priority="1347">
+    <cfRule type="expression" dxfId="786" priority="1440">
       <formula>$A23=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="701" priority="1348">
+    <cfRule type="expression" dxfId="785" priority="1441">
       <formula>$A23=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="700" priority="1349">
+    <cfRule type="expression" dxfId="784" priority="1442">
       <formula>$A23=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="699" priority="1350">
+    <cfRule type="expression" dxfId="783" priority="1443">
       <formula>$A23=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="698" priority="1351">
+    <cfRule type="expression" dxfId="782" priority="1444">
       <formula>$A23=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="697" priority="1340" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="781" priority="1433" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1341">
+    <cfRule type="dataBar" priority="1434">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33656,17 +35188,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23 L23 T23:U23">
-    <cfRule type="expression" dxfId="696" priority="1339">
+    <cfRule type="expression" dxfId="780" priority="1432">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:Q23">
-    <cfRule type="expression" dxfId="695" priority="1338">
+    <cfRule type="expression" dxfId="779" priority="1431">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="iconSet" priority="1374">
+    <cfRule type="iconSet" priority="1467">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33676,112 +35208,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="expression" dxfId="694" priority="1307">
+    <cfRule type="expression" dxfId="778" priority="1400">
       <formula>AND($Q$10="Yes",Q22&lt;$C$10,N22&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="693" priority="1308">
+    <cfRule type="expression" dxfId="777" priority="1401">
       <formula>AND($Q$10="Yes",Q22&lt;=$C$10+enddate_highlight_days,N22&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="692" priority="1309">
+    <cfRule type="expression" dxfId="776" priority="1402">
       <formula>$A22=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="691" priority="1310">
+    <cfRule type="expression" dxfId="775" priority="1403">
       <formula>$A22=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="690" priority="1311">
+    <cfRule type="expression" dxfId="774" priority="1404">
       <formula>$A22=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="689" priority="1312">
+    <cfRule type="expression" dxfId="773" priority="1405">
       <formula>$A22=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="688" priority="1313">
+    <cfRule type="expression" dxfId="772" priority="1406">
       <formula>$A22=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="687" priority="1314">
+    <cfRule type="expression" dxfId="771" priority="1407">
       <formula>$A22=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W22:ED22">
-    <cfRule type="expression" dxfId="686" priority="1305">
+    <cfRule type="expression" dxfId="770" priority="1398">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="685" priority="1306">
+    <cfRule type="expression" dxfId="769" priority="1399">
       <formula>AND($U$4="Yes",$U22&gt;=W$5,$T22&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="684" priority="1315">
+    <cfRule type="expression" dxfId="768" priority="1408">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M22&lt;&gt;"M",$U22&gt;=W$5,$T22&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="683" priority="1316">
+    <cfRule type="expression" dxfId="767" priority="1409">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P22&lt;=W$6,ROUNDDOWN(($Q22-$P22+1)*$N22,0)+$P22-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="682" priority="1317" stopIfTrue="1">
+    <cfRule type="expression" dxfId="766" priority="1410" stopIfTrue="1">
       <formula>AND(OR($M22="b",$M22=""),$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="681" priority="1318" stopIfTrue="1">
+    <cfRule type="expression" dxfId="765" priority="1411" stopIfTrue="1">
       <formula>AND($M22="K",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="680" priority="1319" stopIfTrue="1">
+    <cfRule type="expression" dxfId="764" priority="1412" stopIfTrue="1">
       <formula>AND($M22="x",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="679" priority="1320" stopIfTrue="1">
+    <cfRule type="expression" dxfId="763" priority="1413" stopIfTrue="1">
       <formula>AND($M22="G",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="678" priority="1321" stopIfTrue="1">
+    <cfRule type="expression" dxfId="762" priority="1414" stopIfTrue="1">
       <formula>AND($M22="P",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="677" priority="1322" stopIfTrue="1">
+    <cfRule type="expression" dxfId="761" priority="1415" stopIfTrue="1">
       <formula>AND($M22="Y",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="676" priority="1323" stopIfTrue="1">
+    <cfRule type="expression" dxfId="760" priority="1416" stopIfTrue="1">
       <formula>AND($M22="O",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="675" priority="1324" stopIfTrue="1">
+    <cfRule type="expression" dxfId="759" priority="1417" stopIfTrue="1">
       <formula>AND($M22="R",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="674" priority="1325" stopIfTrue="1">
+    <cfRule type="expression" dxfId="758" priority="1418" stopIfTrue="1">
       <formula>AND($M22=1,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="673" priority="1326" stopIfTrue="1">
+    <cfRule type="expression" dxfId="757" priority="1419" stopIfTrue="1">
       <formula>AND($M22=2,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="672" priority="1327" stopIfTrue="1">
+    <cfRule type="expression" dxfId="756" priority="1420" stopIfTrue="1">
       <formula>AND($M22=3,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="671" priority="1328" stopIfTrue="1">
+    <cfRule type="expression" dxfId="755" priority="1421" stopIfTrue="1">
       <formula>AND($M22=4,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="670" priority="1329" stopIfTrue="1">
+    <cfRule type="expression" dxfId="754" priority="1422" stopIfTrue="1">
       <formula>AND($M22=5,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="669" priority="1330" stopIfTrue="1">
+    <cfRule type="expression" dxfId="753" priority="1423" stopIfTrue="1">
       <formula>AND($M22=6,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="668" priority="1331" stopIfTrue="1">
+    <cfRule type="expression" dxfId="752" priority="1424" stopIfTrue="1">
       <formula>AND($M22=7,$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="667" priority="1332" stopIfTrue="1">
+    <cfRule type="expression" dxfId="751" priority="1425" stopIfTrue="1">
       <formula>AND($M22="M",$P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="666" priority="1333" stopIfTrue="1">
+    <cfRule type="expression" dxfId="750" priority="1426" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N22&lt;1,$P22&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="665" priority="1334" stopIfTrue="1">
+    <cfRule type="expression" dxfId="749" priority="1427" stopIfTrue="1">
       <formula>AND($P22&lt;=W$6,$Q22&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="664" priority="1335">
+    <cfRule type="expression" dxfId="748" priority="1428">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="663" priority="1336">
+    <cfRule type="expression" dxfId="747" priority="1429">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="cellIs" dxfId="662" priority="1303" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="746" priority="1396" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1304">
+    <cfRule type="dataBar" priority="1397">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33795,17 +35327,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22 L22 T22:U22">
-    <cfRule type="expression" dxfId="661" priority="1302">
+    <cfRule type="expression" dxfId="745" priority="1395">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:Q22">
-    <cfRule type="expression" dxfId="660" priority="1301">
+    <cfRule type="expression" dxfId="744" priority="1394">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="iconSet" priority="1337">
+    <cfRule type="iconSet" priority="1430">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33815,18 +35347,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26">
-    <cfRule type="expression" dxfId="659" priority="1270">
+    <cfRule type="expression" dxfId="743" priority="1363">
       <formula>AND($Q$10="Yes",Q26&lt;$C$10,N26&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="658" priority="1271">
+    <cfRule type="expression" dxfId="742" priority="1364">
       <formula>AND($Q$10="Yes",Q26&lt;=$C$10+enddate_highlight_days,N26&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="cellIs" dxfId="657" priority="1266" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="741" priority="1359" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1267">
+    <cfRule type="dataBar" priority="1360">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33840,17 +35372,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26 L26 T26:U26">
-    <cfRule type="expression" dxfId="656" priority="1265">
+    <cfRule type="expression" dxfId="740" priority="1358">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:Q26">
-    <cfRule type="expression" dxfId="655" priority="1264">
+    <cfRule type="expression" dxfId="739" priority="1357">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="iconSet" priority="1300">
+    <cfRule type="iconSet" priority="1393">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33860,10 +35392,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26 N24">
-    <cfRule type="cellIs" dxfId="654" priority="1192" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="738" priority="1285" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1193">
+    <cfRule type="dataBar" priority="1286">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -33877,17 +35409,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24 L24 T24:U24 T26:U26 L26 I26">
-    <cfRule type="expression" dxfId="653" priority="1191">
+    <cfRule type="expression" dxfId="737" priority="1284">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Q24 P26:Q26">
-    <cfRule type="expression" dxfId="652" priority="1190">
+    <cfRule type="expression" dxfId="736" priority="1283">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="iconSet" priority="1202">
+    <cfRule type="iconSet" priority="1295">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -33897,112 +35429,112 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="expression" dxfId="651" priority="1162">
+    <cfRule type="expression" dxfId="735" priority="1255">
       <formula>$A25=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="650" priority="1163">
+    <cfRule type="expression" dxfId="734" priority="1256">
       <formula>$A25=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="649" priority="1164">
+    <cfRule type="expression" dxfId="733" priority="1257">
       <formula>$A25=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="648" priority="1165">
+    <cfRule type="expression" dxfId="732" priority="1258">
       <formula>$A25=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="647" priority="1166">
+    <cfRule type="expression" dxfId="731" priority="1259">
       <formula>$A25=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="646" priority="1167">
+    <cfRule type="expression" dxfId="730" priority="1260">
       <formula>$A25=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W25:ED25">
-    <cfRule type="expression" dxfId="645" priority="1160">
+    <cfRule type="expression" dxfId="729" priority="1253">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="644" priority="1161">
+    <cfRule type="expression" dxfId="728" priority="1254">
       <formula>AND($U$4="Yes",$U25&gt;=W$5,$T25&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="643" priority="1168">
+    <cfRule type="expression" dxfId="727" priority="1261">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M25&lt;&gt;"M",$U25&gt;=W$5,$T25&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="642" priority="1169">
+    <cfRule type="expression" dxfId="726" priority="1262">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P25&lt;=W$6,ROUNDDOWN(($Q25-$P25+1)*$N25,0)+$P25-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="641" priority="1170" stopIfTrue="1">
+    <cfRule type="expression" dxfId="725" priority="1263" stopIfTrue="1">
       <formula>AND(OR($M25="b",$M25=""),$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="640" priority="1171" stopIfTrue="1">
+    <cfRule type="expression" dxfId="724" priority="1264" stopIfTrue="1">
       <formula>AND($M25="K",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="639" priority="1172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="723" priority="1265" stopIfTrue="1">
       <formula>AND($M25="x",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="638" priority="1173" stopIfTrue="1">
+    <cfRule type="expression" dxfId="722" priority="1266" stopIfTrue="1">
       <formula>AND($M25="G",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="637" priority="1174" stopIfTrue="1">
+    <cfRule type="expression" dxfId="721" priority="1267" stopIfTrue="1">
       <formula>AND($M25="P",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="636" priority="1175" stopIfTrue="1">
+    <cfRule type="expression" dxfId="720" priority="1268" stopIfTrue="1">
       <formula>AND($M25="Y",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="635" priority="1176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="719" priority="1269" stopIfTrue="1">
       <formula>AND($M25="O",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="634" priority="1177" stopIfTrue="1">
+    <cfRule type="expression" dxfId="718" priority="1270" stopIfTrue="1">
       <formula>AND($M25="R",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="633" priority="1178" stopIfTrue="1">
+    <cfRule type="expression" dxfId="717" priority="1271" stopIfTrue="1">
       <formula>AND($M25=1,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="632" priority="1179" stopIfTrue="1">
+    <cfRule type="expression" dxfId="716" priority="1272" stopIfTrue="1">
       <formula>AND($M25=2,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="631" priority="1180" stopIfTrue="1">
+    <cfRule type="expression" dxfId="715" priority="1273" stopIfTrue="1">
       <formula>AND($M25=3,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="630" priority="1181" stopIfTrue="1">
+    <cfRule type="expression" dxfId="714" priority="1274" stopIfTrue="1">
       <formula>AND($M25=4,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="629" priority="1182" stopIfTrue="1">
+    <cfRule type="expression" dxfId="713" priority="1275" stopIfTrue="1">
       <formula>AND($M25=5,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="628" priority="1183" stopIfTrue="1">
+    <cfRule type="expression" dxfId="712" priority="1276" stopIfTrue="1">
       <formula>AND($M25=6,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="627" priority="1184" stopIfTrue="1">
+    <cfRule type="expression" dxfId="711" priority="1277" stopIfTrue="1">
       <formula>AND($M25=7,$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="626" priority="1185" stopIfTrue="1">
+    <cfRule type="expression" dxfId="710" priority="1278" stopIfTrue="1">
       <formula>AND($M25="M",$P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="625" priority="1186" stopIfTrue="1">
+    <cfRule type="expression" dxfId="709" priority="1279" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N25&lt;1,$P25&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="624" priority="1187" stopIfTrue="1">
+    <cfRule type="expression" dxfId="708" priority="1280" stopIfTrue="1">
       <formula>AND($P25&lt;=W$6,$Q25&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="623" priority="1188">
+    <cfRule type="expression" dxfId="707" priority="1281">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="622" priority="1189">
+    <cfRule type="expression" dxfId="706" priority="1282">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q25">
-    <cfRule type="expression" dxfId="621" priority="1157">
+    <cfRule type="expression" dxfId="705" priority="1250">
       <formula>AND($Q$10="Yes",Q25&lt;$C$10,N25&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="620" priority="1158">
+    <cfRule type="expression" dxfId="704" priority="1251">
       <formula>AND($Q$10="Yes",Q25&lt;=$C$10+enddate_highlight_days,N25&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="619" priority="1155" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="703" priority="1248" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1156">
+    <cfRule type="dataBar" priority="1249">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34016,17 +35548,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25 L25 T25:U25">
-    <cfRule type="expression" dxfId="618" priority="1154">
+    <cfRule type="expression" dxfId="702" priority="1247">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:Q25">
-    <cfRule type="expression" dxfId="617" priority="1153">
+    <cfRule type="expression" dxfId="701" priority="1246">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="iconSet" priority="1159">
+    <cfRule type="iconSet" priority="1252">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34036,10 +35568,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="cellIs" dxfId="616" priority="1151" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="700" priority="1244" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1152">
+    <cfRule type="dataBar" priority="1245">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34053,122 +35585,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:U25 L25 I25">
-    <cfRule type="expression" dxfId="615" priority="1150">
+    <cfRule type="expression" dxfId="699" priority="1243">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:Q25">
-    <cfRule type="expression" dxfId="614" priority="1149">
+    <cfRule type="expression" dxfId="698" priority="1242">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="613" priority="1121">
+    <cfRule type="expression" dxfId="697" priority="1214">
       <formula>$A28=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="612" priority="1122">
+    <cfRule type="expression" dxfId="696" priority="1215">
       <formula>$A28=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="611" priority="1123">
+    <cfRule type="expression" dxfId="695" priority="1216">
       <formula>$A28=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="610" priority="1124">
+    <cfRule type="expression" dxfId="694" priority="1217">
       <formula>$A28=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="609" priority="1125">
+    <cfRule type="expression" dxfId="693" priority="1218">
       <formula>$A28=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="608" priority="1126">
+    <cfRule type="expression" dxfId="692" priority="1219">
       <formula>$A28=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W28:ED28">
-    <cfRule type="expression" dxfId="607" priority="1119">
+    <cfRule type="expression" dxfId="691" priority="1212">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="606" priority="1120">
+    <cfRule type="expression" dxfId="690" priority="1213">
       <formula>AND($U$4="Yes",$U28&gt;=W$5,$T28&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="605" priority="1127">
+    <cfRule type="expression" dxfId="689" priority="1220">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M28&lt;&gt;"M",$U28&gt;=W$5,$T28&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="604" priority="1128">
+    <cfRule type="expression" dxfId="688" priority="1221">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P28&lt;=W$6,ROUNDDOWN(($Q28-$P28+1)*$N28,0)+$P28-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="603" priority="1129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="687" priority="1222" stopIfTrue="1">
       <formula>AND(OR($M28="b",$M28=""),$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="602" priority="1130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="686" priority="1223" stopIfTrue="1">
       <formula>AND($M28="K",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="601" priority="1131" stopIfTrue="1">
+    <cfRule type="expression" dxfId="685" priority="1224" stopIfTrue="1">
       <formula>AND($M28="x",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="600" priority="1132" stopIfTrue="1">
+    <cfRule type="expression" dxfId="684" priority="1225" stopIfTrue="1">
       <formula>AND($M28="G",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="599" priority="1133" stopIfTrue="1">
+    <cfRule type="expression" dxfId="683" priority="1226" stopIfTrue="1">
       <formula>AND($M28="P",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="598" priority="1134" stopIfTrue="1">
+    <cfRule type="expression" dxfId="682" priority="1227" stopIfTrue="1">
       <formula>AND($M28="Y",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="597" priority="1135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="681" priority="1228" stopIfTrue="1">
       <formula>AND($M28="O",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="596" priority="1136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="680" priority="1229" stopIfTrue="1">
       <formula>AND($M28="R",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="595" priority="1137" stopIfTrue="1">
+    <cfRule type="expression" dxfId="679" priority="1230" stopIfTrue="1">
       <formula>AND($M28=1,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="594" priority="1138" stopIfTrue="1">
+    <cfRule type="expression" dxfId="678" priority="1231" stopIfTrue="1">
       <formula>AND($M28=2,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="593" priority="1139" stopIfTrue="1">
+    <cfRule type="expression" dxfId="677" priority="1232" stopIfTrue="1">
       <formula>AND($M28=3,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="592" priority="1140" stopIfTrue="1">
+    <cfRule type="expression" dxfId="676" priority="1233" stopIfTrue="1">
       <formula>AND($M28=4,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="591" priority="1141" stopIfTrue="1">
+    <cfRule type="expression" dxfId="675" priority="1234" stopIfTrue="1">
       <formula>AND($M28=5,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="590" priority="1142" stopIfTrue="1">
+    <cfRule type="expression" dxfId="674" priority="1235" stopIfTrue="1">
       <formula>AND($M28=6,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="589" priority="1143" stopIfTrue="1">
+    <cfRule type="expression" dxfId="673" priority="1236" stopIfTrue="1">
       <formula>AND($M28=7,$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="588" priority="1144" stopIfTrue="1">
+    <cfRule type="expression" dxfId="672" priority="1237" stopIfTrue="1">
       <formula>AND($M28="M",$P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="587" priority="1145" stopIfTrue="1">
+    <cfRule type="expression" dxfId="671" priority="1238" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N28&lt;1,$P28&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="586" priority="1146" stopIfTrue="1">
+    <cfRule type="expression" dxfId="670" priority="1239" stopIfTrue="1">
       <formula>AND($P28&lt;=W$6,$Q28&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="585" priority="1147">
+    <cfRule type="expression" dxfId="669" priority="1240">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="584" priority="1148">
+    <cfRule type="expression" dxfId="668" priority="1241">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="583" priority="1116">
+    <cfRule type="expression" dxfId="667" priority="1209">
       <formula>AND($Q$10="Yes",Q28&lt;$C$10,N28&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="582" priority="1117">
+    <cfRule type="expression" dxfId="666" priority="1210">
       <formula>AND($Q$10="Yes",Q28&lt;=$C$10+enddate_highlight_days,N28&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="cellIs" dxfId="581" priority="1114" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="665" priority="1207" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1115">
+    <cfRule type="dataBar" priority="1208">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34182,17 +35714,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28 L28 T28:U28">
-    <cfRule type="expression" dxfId="580" priority="1113">
+    <cfRule type="expression" dxfId="664" priority="1206">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:Q28">
-    <cfRule type="expression" dxfId="579" priority="1112">
+    <cfRule type="expression" dxfId="663" priority="1205">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="iconSet" priority="1118">
+    <cfRule type="iconSet" priority="1211">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34202,10 +35734,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="cellIs" dxfId="578" priority="1110" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="662" priority="1203" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1111">
+    <cfRule type="dataBar" priority="1204">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34219,122 +35751,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28:U28 L28 I28">
-    <cfRule type="expression" dxfId="577" priority="1109">
+    <cfRule type="expression" dxfId="661" priority="1202">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:Q28">
-    <cfRule type="expression" dxfId="576" priority="1108">
+    <cfRule type="expression" dxfId="660" priority="1201">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="575" priority="1080">
+    <cfRule type="expression" dxfId="659" priority="1173">
       <formula>$A27=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="574" priority="1081">
+    <cfRule type="expression" dxfId="658" priority="1174">
       <formula>$A27=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="573" priority="1082">
+    <cfRule type="expression" dxfId="657" priority="1175">
       <formula>$A27=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="572" priority="1083">
+    <cfRule type="expression" dxfId="656" priority="1176">
       <formula>$A27=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="571" priority="1084">
+    <cfRule type="expression" dxfId="655" priority="1177">
       <formula>$A27=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="570" priority="1085">
+    <cfRule type="expression" dxfId="654" priority="1178">
       <formula>$A27=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W27:ED27">
-    <cfRule type="expression" dxfId="569" priority="1078">
+    <cfRule type="expression" dxfId="653" priority="1171">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="568" priority="1079">
+    <cfRule type="expression" dxfId="652" priority="1172">
       <formula>AND($U$4="Yes",$U27&gt;=W$5,$T27&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="567" priority="1086">
+    <cfRule type="expression" dxfId="651" priority="1179">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M27&lt;&gt;"M",$U27&gt;=W$5,$T27&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="566" priority="1087">
+    <cfRule type="expression" dxfId="650" priority="1180">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P27&lt;=W$6,ROUNDDOWN(($Q27-$P27+1)*$N27,0)+$P27-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="565" priority="1088" stopIfTrue="1">
+    <cfRule type="expression" dxfId="649" priority="1181" stopIfTrue="1">
       <formula>AND(OR($M27="b",$M27=""),$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="564" priority="1089" stopIfTrue="1">
+    <cfRule type="expression" dxfId="648" priority="1182" stopIfTrue="1">
       <formula>AND($M27="K",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="563" priority="1090" stopIfTrue="1">
+    <cfRule type="expression" dxfId="647" priority="1183" stopIfTrue="1">
       <formula>AND($M27="x",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="562" priority="1091" stopIfTrue="1">
+    <cfRule type="expression" dxfId="646" priority="1184" stopIfTrue="1">
       <formula>AND($M27="G",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="561" priority="1092" stopIfTrue="1">
+    <cfRule type="expression" dxfId="645" priority="1185" stopIfTrue="1">
       <formula>AND($M27="P",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="560" priority="1093" stopIfTrue="1">
+    <cfRule type="expression" dxfId="644" priority="1186" stopIfTrue="1">
       <formula>AND($M27="Y",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="559" priority="1094" stopIfTrue="1">
+    <cfRule type="expression" dxfId="643" priority="1187" stopIfTrue="1">
       <formula>AND($M27="O",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="558" priority="1095" stopIfTrue="1">
+    <cfRule type="expression" dxfId="642" priority="1188" stopIfTrue="1">
       <formula>AND($M27="R",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="557" priority="1096" stopIfTrue="1">
+    <cfRule type="expression" dxfId="641" priority="1189" stopIfTrue="1">
       <formula>AND($M27=1,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="556" priority="1097" stopIfTrue="1">
+    <cfRule type="expression" dxfId="640" priority="1190" stopIfTrue="1">
       <formula>AND($M27=2,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="555" priority="1098" stopIfTrue="1">
+    <cfRule type="expression" dxfId="639" priority="1191" stopIfTrue="1">
       <formula>AND($M27=3,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="554" priority="1099" stopIfTrue="1">
+    <cfRule type="expression" dxfId="638" priority="1192" stopIfTrue="1">
       <formula>AND($M27=4,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="553" priority="1100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="637" priority="1193" stopIfTrue="1">
       <formula>AND($M27=5,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="552" priority="1101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="636" priority="1194" stopIfTrue="1">
       <formula>AND($M27=6,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="551" priority="1102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="635" priority="1195" stopIfTrue="1">
       <formula>AND($M27=7,$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="550" priority="1103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="634" priority="1196" stopIfTrue="1">
       <formula>AND($M27="M",$P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="549" priority="1104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="633" priority="1197" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N27&lt;1,$P27&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="548" priority="1105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="632" priority="1198" stopIfTrue="1">
       <formula>AND($P27&lt;=W$6,$Q27&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="547" priority="1106">
+    <cfRule type="expression" dxfId="631" priority="1199">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="546" priority="1107">
+    <cfRule type="expression" dxfId="630" priority="1200">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="545" priority="1075">
+    <cfRule type="expression" dxfId="629" priority="1168">
       <formula>AND($Q$10="Yes",Q27&lt;$C$10,N27&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="544" priority="1076">
+    <cfRule type="expression" dxfId="628" priority="1169">
       <formula>AND($Q$10="Yes",Q27&lt;=$C$10+enddate_highlight_days,N27&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="cellIs" dxfId="543" priority="1073" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="627" priority="1166" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1074">
+    <cfRule type="dataBar" priority="1167">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34348,17 +35880,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27 L27 T27:U27">
-    <cfRule type="expression" dxfId="542" priority="1072">
+    <cfRule type="expression" dxfId="626" priority="1165">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:Q27">
-    <cfRule type="expression" dxfId="541" priority="1071">
+    <cfRule type="expression" dxfId="625" priority="1164">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27">
-    <cfRule type="iconSet" priority="1077">
+    <cfRule type="iconSet" priority="1170">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34368,10 +35900,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="cellIs" dxfId="540" priority="1069" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="624" priority="1162" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1070">
+    <cfRule type="dataBar" priority="1163">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34385,122 +35917,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27:U27 L27 I27">
-    <cfRule type="expression" dxfId="539" priority="1068">
+    <cfRule type="expression" dxfId="623" priority="1161">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:Q27">
-    <cfRule type="expression" dxfId="538" priority="1067">
+    <cfRule type="expression" dxfId="622" priority="1160">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="537" priority="1039">
+    <cfRule type="expression" dxfId="621" priority="1132">
       <formula>$A29=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="536" priority="1040">
+    <cfRule type="expression" dxfId="620" priority="1133">
       <formula>$A29=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="535" priority="1041">
+    <cfRule type="expression" dxfId="619" priority="1134">
       <formula>$A29=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="534" priority="1042">
+    <cfRule type="expression" dxfId="618" priority="1135">
       <formula>$A29=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="533" priority="1043">
+    <cfRule type="expression" dxfId="617" priority="1136">
       <formula>$A29=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="532" priority="1044">
+    <cfRule type="expression" dxfId="616" priority="1137">
       <formula>$A29=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:ED29">
-    <cfRule type="expression" dxfId="531" priority="1037">
+    <cfRule type="expression" dxfId="615" priority="1130">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="530" priority="1038">
+    <cfRule type="expression" dxfId="614" priority="1131">
       <formula>AND($U$4="Yes",$U29&gt;=W$5,$T29&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="529" priority="1045">
+    <cfRule type="expression" dxfId="613" priority="1138">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M29&lt;&gt;"M",$U29&gt;=W$5,$T29&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="528" priority="1046">
+    <cfRule type="expression" dxfId="612" priority="1139">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P29&lt;=W$6,ROUNDDOWN(($Q29-$P29+1)*$N29,0)+$P29-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="527" priority="1047" stopIfTrue="1">
+    <cfRule type="expression" dxfId="611" priority="1140" stopIfTrue="1">
       <formula>AND(OR($M29="b",$M29=""),$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="526" priority="1048" stopIfTrue="1">
+    <cfRule type="expression" dxfId="610" priority="1141" stopIfTrue="1">
       <formula>AND($M29="K",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="525" priority="1049" stopIfTrue="1">
+    <cfRule type="expression" dxfId="609" priority="1142" stopIfTrue="1">
       <formula>AND($M29="x",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="524" priority="1050" stopIfTrue="1">
+    <cfRule type="expression" dxfId="608" priority="1143" stopIfTrue="1">
       <formula>AND($M29="G",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="523" priority="1051" stopIfTrue="1">
+    <cfRule type="expression" dxfId="607" priority="1144" stopIfTrue="1">
       <formula>AND($M29="P",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="522" priority="1052" stopIfTrue="1">
+    <cfRule type="expression" dxfId="606" priority="1145" stopIfTrue="1">
       <formula>AND($M29="Y",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="521" priority="1053" stopIfTrue="1">
+    <cfRule type="expression" dxfId="605" priority="1146" stopIfTrue="1">
       <formula>AND($M29="O",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="520" priority="1054" stopIfTrue="1">
+    <cfRule type="expression" dxfId="604" priority="1147" stopIfTrue="1">
       <formula>AND($M29="R",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="519" priority="1055" stopIfTrue="1">
+    <cfRule type="expression" dxfId="603" priority="1148" stopIfTrue="1">
       <formula>AND($M29=1,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="518" priority="1056" stopIfTrue="1">
+    <cfRule type="expression" dxfId="602" priority="1149" stopIfTrue="1">
       <formula>AND($M29=2,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="517" priority="1057" stopIfTrue="1">
+    <cfRule type="expression" dxfId="601" priority="1150" stopIfTrue="1">
       <formula>AND($M29=3,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="516" priority="1058" stopIfTrue="1">
+    <cfRule type="expression" dxfId="600" priority="1151" stopIfTrue="1">
       <formula>AND($M29=4,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="515" priority="1059" stopIfTrue="1">
+    <cfRule type="expression" dxfId="599" priority="1152" stopIfTrue="1">
       <formula>AND($M29=5,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="514" priority="1060" stopIfTrue="1">
+    <cfRule type="expression" dxfId="598" priority="1153" stopIfTrue="1">
       <formula>AND($M29=6,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="513" priority="1061" stopIfTrue="1">
+    <cfRule type="expression" dxfId="597" priority="1154" stopIfTrue="1">
       <formula>AND($M29=7,$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="512" priority="1062" stopIfTrue="1">
+    <cfRule type="expression" dxfId="596" priority="1155" stopIfTrue="1">
       <formula>AND($M29="M",$P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="511" priority="1063" stopIfTrue="1">
+    <cfRule type="expression" dxfId="595" priority="1156" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N29&lt;1,$P29&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="510" priority="1064" stopIfTrue="1">
+    <cfRule type="expression" dxfId="594" priority="1157" stopIfTrue="1">
       <formula>AND($P29&lt;=W$6,$Q29&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="509" priority="1065">
+    <cfRule type="expression" dxfId="593" priority="1158">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="508" priority="1066">
+    <cfRule type="expression" dxfId="592" priority="1159">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="507" priority="1034">
+    <cfRule type="expression" dxfId="591" priority="1127">
       <formula>AND($Q$10="Yes",Q29&lt;$C$10,N29&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="506" priority="1035">
+    <cfRule type="expression" dxfId="590" priority="1128">
       <formula>AND($Q$10="Yes",Q29&lt;=$C$10+enddate_highlight_days,N29&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="505" priority="1032" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="589" priority="1125" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1033">
+    <cfRule type="dataBar" priority="1126">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34514,17 +36046,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29 L29 T29:U29">
-    <cfRule type="expression" dxfId="504" priority="1031">
+    <cfRule type="expression" dxfId="588" priority="1124">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q29">
-    <cfRule type="expression" dxfId="503" priority="1030">
+    <cfRule type="expression" dxfId="587" priority="1123">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="iconSet" priority="1036">
+    <cfRule type="iconSet" priority="1129">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34534,10 +36066,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="cellIs" dxfId="502" priority="1028" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="586" priority="1121" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="1029">
+    <cfRule type="dataBar" priority="1122">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34551,122 +36083,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29:U29 L29 I29">
-    <cfRule type="expression" dxfId="501" priority="1027">
+    <cfRule type="expression" dxfId="585" priority="1120">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q29">
-    <cfRule type="expression" dxfId="500" priority="1026">
+    <cfRule type="expression" dxfId="584" priority="1119">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="499" priority="998">
+    <cfRule type="expression" dxfId="583" priority="1091">
       <formula>$A32=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="498" priority="999">
+    <cfRule type="expression" dxfId="582" priority="1092">
       <formula>$A32=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="497" priority="1000">
+    <cfRule type="expression" dxfId="581" priority="1093">
       <formula>$A32=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="496" priority="1001">
+    <cfRule type="expression" dxfId="580" priority="1094">
       <formula>$A32=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="495" priority="1002">
+    <cfRule type="expression" dxfId="579" priority="1095">
       <formula>$A32=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="494" priority="1003">
+    <cfRule type="expression" dxfId="578" priority="1096">
       <formula>$A32=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32:ED32">
-    <cfRule type="expression" dxfId="493" priority="996">
+    <cfRule type="expression" dxfId="577" priority="1089">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="492" priority="997">
+    <cfRule type="expression" dxfId="576" priority="1090">
       <formula>AND($U$4="Yes",$U32&gt;=W$5,$T32&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="491" priority="1004">
+    <cfRule type="expression" dxfId="575" priority="1097">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M32&lt;&gt;"M",$U32&gt;=W$5,$T32&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="490" priority="1005">
+    <cfRule type="expression" dxfId="574" priority="1098">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P32&lt;=W$6,ROUNDDOWN(($Q32-$P32+1)*$N32,0)+$P32-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="489" priority="1006" stopIfTrue="1">
+    <cfRule type="expression" dxfId="573" priority="1099" stopIfTrue="1">
       <formula>AND(OR($M32="b",$M32=""),$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="488" priority="1007" stopIfTrue="1">
+    <cfRule type="expression" dxfId="572" priority="1100" stopIfTrue="1">
       <formula>AND($M32="K",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="487" priority="1008" stopIfTrue="1">
+    <cfRule type="expression" dxfId="571" priority="1101" stopIfTrue="1">
       <formula>AND($M32="x",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="486" priority="1009" stopIfTrue="1">
+    <cfRule type="expression" dxfId="570" priority="1102" stopIfTrue="1">
       <formula>AND($M32="G",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="485" priority="1010" stopIfTrue="1">
+    <cfRule type="expression" dxfId="569" priority="1103" stopIfTrue="1">
       <formula>AND($M32="P",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="484" priority="1011" stopIfTrue="1">
+    <cfRule type="expression" dxfId="568" priority="1104" stopIfTrue="1">
       <formula>AND($M32="Y",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="483" priority="1012" stopIfTrue="1">
+    <cfRule type="expression" dxfId="567" priority="1105" stopIfTrue="1">
       <formula>AND($M32="O",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="482" priority="1013" stopIfTrue="1">
+    <cfRule type="expression" dxfId="566" priority="1106" stopIfTrue="1">
       <formula>AND($M32="R",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="481" priority="1014" stopIfTrue="1">
+    <cfRule type="expression" dxfId="565" priority="1107" stopIfTrue="1">
       <formula>AND($M32=1,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="480" priority="1015" stopIfTrue="1">
+    <cfRule type="expression" dxfId="564" priority="1108" stopIfTrue="1">
       <formula>AND($M32=2,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="479" priority="1016" stopIfTrue="1">
+    <cfRule type="expression" dxfId="563" priority="1109" stopIfTrue="1">
       <formula>AND($M32=3,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="478" priority="1017" stopIfTrue="1">
+    <cfRule type="expression" dxfId="562" priority="1110" stopIfTrue="1">
       <formula>AND($M32=4,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="477" priority="1018" stopIfTrue="1">
+    <cfRule type="expression" dxfId="561" priority="1111" stopIfTrue="1">
       <formula>AND($M32=5,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="476" priority="1019" stopIfTrue="1">
+    <cfRule type="expression" dxfId="560" priority="1112" stopIfTrue="1">
       <formula>AND($M32=6,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="475" priority="1020" stopIfTrue="1">
+    <cfRule type="expression" dxfId="559" priority="1113" stopIfTrue="1">
       <formula>AND($M32=7,$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="474" priority="1021" stopIfTrue="1">
+    <cfRule type="expression" dxfId="558" priority="1114" stopIfTrue="1">
       <formula>AND($M32="M",$P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="473" priority="1022" stopIfTrue="1">
+    <cfRule type="expression" dxfId="557" priority="1115" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N32&lt;1,$P32&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="472" priority="1023" stopIfTrue="1">
+    <cfRule type="expression" dxfId="556" priority="1116" stopIfTrue="1">
       <formula>AND($P32&lt;=W$6,$Q32&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="471" priority="1024">
+    <cfRule type="expression" dxfId="555" priority="1117">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="470" priority="1025">
+    <cfRule type="expression" dxfId="554" priority="1118">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="expression" dxfId="469" priority="993">
+    <cfRule type="expression" dxfId="553" priority="1086">
       <formula>AND($Q$10="Yes",Q32&lt;$C$10,N32&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="468" priority="994">
+    <cfRule type="expression" dxfId="552" priority="1087">
       <formula>AND($Q$10="Yes",Q32&lt;=$C$10+enddate_highlight_days,N32&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="467" priority="991" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="551" priority="1084" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="992">
+    <cfRule type="dataBar" priority="1085">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34680,17 +36212,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32 L32 T32:U32">
-    <cfRule type="expression" dxfId="466" priority="990">
+    <cfRule type="expression" dxfId="550" priority="1083">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q32">
-    <cfRule type="expression" dxfId="465" priority="989">
+    <cfRule type="expression" dxfId="549" priority="1082">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="iconSet" priority="995">
+    <cfRule type="iconSet" priority="1088">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34700,10 +36232,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="464" priority="987" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="548" priority="1080" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="988">
+    <cfRule type="dataBar" priority="1081">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34717,122 +36249,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32:U32 L32 I32">
-    <cfRule type="expression" dxfId="463" priority="986">
+    <cfRule type="expression" dxfId="547" priority="1079">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:Q32">
-    <cfRule type="expression" dxfId="462" priority="985">
+    <cfRule type="expression" dxfId="546" priority="1078">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="expression" dxfId="461" priority="916">
+    <cfRule type="expression" dxfId="545" priority="1009">
       <formula>$A30=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="460" priority="917">
+    <cfRule type="expression" dxfId="544" priority="1010">
       <formula>$A30=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="459" priority="918">
+    <cfRule type="expression" dxfId="543" priority="1011">
       <formula>$A30=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="458" priority="919">
+    <cfRule type="expression" dxfId="542" priority="1012">
       <formula>$A30=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="457" priority="920">
+    <cfRule type="expression" dxfId="541" priority="1013">
       <formula>$A30=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="456" priority="921">
+    <cfRule type="expression" dxfId="540" priority="1014">
       <formula>$A30=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:ED30">
-    <cfRule type="expression" dxfId="455" priority="914">
+    <cfRule type="expression" dxfId="539" priority="1007">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="454" priority="915">
+    <cfRule type="expression" dxfId="538" priority="1008">
       <formula>AND($U$4="Yes",$U30&gt;=W$5,$T30&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="453" priority="922">
+    <cfRule type="expression" dxfId="537" priority="1015">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M30&lt;&gt;"M",$U30&gt;=W$5,$T30&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="452" priority="923">
+    <cfRule type="expression" dxfId="536" priority="1016">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P30&lt;=W$6,ROUNDDOWN(($Q30-$P30+1)*$N30,0)+$P30-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="451" priority="924" stopIfTrue="1">
+    <cfRule type="expression" dxfId="535" priority="1017" stopIfTrue="1">
       <formula>AND(OR($M30="b",$M30=""),$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="450" priority="925" stopIfTrue="1">
+    <cfRule type="expression" dxfId="534" priority="1018" stopIfTrue="1">
       <formula>AND($M30="K",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="449" priority="926" stopIfTrue="1">
+    <cfRule type="expression" dxfId="533" priority="1019" stopIfTrue="1">
       <formula>AND($M30="x",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="448" priority="927" stopIfTrue="1">
+    <cfRule type="expression" dxfId="532" priority="1020" stopIfTrue="1">
       <formula>AND($M30="G",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="447" priority="928" stopIfTrue="1">
+    <cfRule type="expression" dxfId="531" priority="1021" stopIfTrue="1">
       <formula>AND($M30="P",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="446" priority="929" stopIfTrue="1">
+    <cfRule type="expression" dxfId="530" priority="1022" stopIfTrue="1">
       <formula>AND($M30="Y",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="445" priority="930" stopIfTrue="1">
+    <cfRule type="expression" dxfId="529" priority="1023" stopIfTrue="1">
       <formula>AND($M30="O",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="444" priority="931" stopIfTrue="1">
+    <cfRule type="expression" dxfId="528" priority="1024" stopIfTrue="1">
       <formula>AND($M30="R",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="443" priority="932" stopIfTrue="1">
+    <cfRule type="expression" dxfId="527" priority="1025" stopIfTrue="1">
       <formula>AND($M30=1,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="442" priority="933" stopIfTrue="1">
+    <cfRule type="expression" dxfId="526" priority="1026" stopIfTrue="1">
       <formula>AND($M30=2,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="441" priority="934" stopIfTrue="1">
+    <cfRule type="expression" dxfId="525" priority="1027" stopIfTrue="1">
       <formula>AND($M30=3,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="440" priority="935" stopIfTrue="1">
+    <cfRule type="expression" dxfId="524" priority="1028" stopIfTrue="1">
       <formula>AND($M30=4,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="439" priority="936" stopIfTrue="1">
+    <cfRule type="expression" dxfId="523" priority="1029" stopIfTrue="1">
       <formula>AND($M30=5,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="438" priority="937" stopIfTrue="1">
+    <cfRule type="expression" dxfId="522" priority="1030" stopIfTrue="1">
       <formula>AND($M30=6,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="437" priority="938" stopIfTrue="1">
+    <cfRule type="expression" dxfId="521" priority="1031" stopIfTrue="1">
       <formula>AND($M30=7,$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="436" priority="939" stopIfTrue="1">
+    <cfRule type="expression" dxfId="520" priority="1032" stopIfTrue="1">
       <formula>AND($M30="M",$P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="435" priority="940" stopIfTrue="1">
+    <cfRule type="expression" dxfId="519" priority="1033" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N30&lt;1,$P30&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="434" priority="941" stopIfTrue="1">
+    <cfRule type="expression" dxfId="518" priority="1034" stopIfTrue="1">
       <formula>AND($P30&lt;=W$6,$Q30&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="433" priority="942">
+    <cfRule type="expression" dxfId="517" priority="1035">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="432" priority="943">
+    <cfRule type="expression" dxfId="516" priority="1036">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="431" priority="911">
+    <cfRule type="expression" dxfId="515" priority="1004">
       <formula>AND($Q$10="Yes",Q30&lt;$C$10,N30&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="430" priority="912">
+    <cfRule type="expression" dxfId="514" priority="1005">
       <formula>AND($Q$10="Yes",Q30&lt;=$C$10+enddate_highlight_days,N30&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="429" priority="909" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="513" priority="1002" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="910">
+    <cfRule type="dataBar" priority="1003">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34846,17 +36378,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30 L30 T30:U30">
-    <cfRule type="expression" dxfId="428" priority="908">
+    <cfRule type="expression" dxfId="512" priority="1001">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q30">
-    <cfRule type="expression" dxfId="427" priority="907">
+    <cfRule type="expression" dxfId="511" priority="1000">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="iconSet" priority="913">
+    <cfRule type="iconSet" priority="1006">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -34866,10 +36398,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="426" priority="905" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="510" priority="998" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="906">
+    <cfRule type="dataBar" priority="999">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -34883,122 +36415,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:U30 L30 I30">
-    <cfRule type="expression" dxfId="425" priority="904">
+    <cfRule type="expression" dxfId="509" priority="997">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:Q30">
-    <cfRule type="expression" dxfId="424" priority="903">
+    <cfRule type="expression" dxfId="508" priority="996">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="expression" dxfId="423" priority="875">
+    <cfRule type="expression" dxfId="507" priority="968">
       <formula>$A31=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="422" priority="876">
+    <cfRule type="expression" dxfId="506" priority="969">
       <formula>$A31=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="421" priority="877">
+    <cfRule type="expression" dxfId="505" priority="970">
       <formula>$A31=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="420" priority="878">
+    <cfRule type="expression" dxfId="504" priority="971">
       <formula>$A31=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="419" priority="879">
+    <cfRule type="expression" dxfId="503" priority="972">
       <formula>$A31=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="418" priority="880">
+    <cfRule type="expression" dxfId="502" priority="973">
       <formula>$A31=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W31:ED31">
-    <cfRule type="expression" dxfId="417" priority="873">
+    <cfRule type="expression" dxfId="501" priority="966">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="416" priority="874">
+    <cfRule type="expression" dxfId="500" priority="967">
       <formula>AND($U$4="Yes",$U31&gt;=W$5,$T31&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="415" priority="881">
+    <cfRule type="expression" dxfId="499" priority="974">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M31&lt;&gt;"M",$U31&gt;=W$5,$T31&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="414" priority="882">
+    <cfRule type="expression" dxfId="498" priority="975">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P31&lt;=W$6,ROUNDDOWN(($Q31-$P31+1)*$N31,0)+$P31-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="413" priority="883" stopIfTrue="1">
+    <cfRule type="expression" dxfId="497" priority="976" stopIfTrue="1">
       <formula>AND(OR($M31="b",$M31=""),$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="412" priority="884" stopIfTrue="1">
+    <cfRule type="expression" dxfId="496" priority="977" stopIfTrue="1">
       <formula>AND($M31="K",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="411" priority="885" stopIfTrue="1">
+    <cfRule type="expression" dxfId="495" priority="978" stopIfTrue="1">
       <formula>AND($M31="x",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="410" priority="886" stopIfTrue="1">
+    <cfRule type="expression" dxfId="494" priority="979" stopIfTrue="1">
       <formula>AND($M31="G",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="409" priority="887" stopIfTrue="1">
+    <cfRule type="expression" dxfId="493" priority="980" stopIfTrue="1">
       <formula>AND($M31="P",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="408" priority="888" stopIfTrue="1">
+    <cfRule type="expression" dxfId="492" priority="981" stopIfTrue="1">
       <formula>AND($M31="Y",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="407" priority="889" stopIfTrue="1">
+    <cfRule type="expression" dxfId="491" priority="982" stopIfTrue="1">
       <formula>AND($M31="O",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="406" priority="890" stopIfTrue="1">
+    <cfRule type="expression" dxfId="490" priority="983" stopIfTrue="1">
       <formula>AND($M31="R",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="405" priority="891" stopIfTrue="1">
+    <cfRule type="expression" dxfId="489" priority="984" stopIfTrue="1">
       <formula>AND($M31=1,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="404" priority="892" stopIfTrue="1">
+    <cfRule type="expression" dxfId="488" priority="985" stopIfTrue="1">
       <formula>AND($M31=2,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="403" priority="893" stopIfTrue="1">
+    <cfRule type="expression" dxfId="487" priority="986" stopIfTrue="1">
       <formula>AND($M31=3,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="402" priority="894" stopIfTrue="1">
+    <cfRule type="expression" dxfId="486" priority="987" stopIfTrue="1">
       <formula>AND($M31=4,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="401" priority="895" stopIfTrue="1">
+    <cfRule type="expression" dxfId="485" priority="988" stopIfTrue="1">
       <formula>AND($M31=5,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="896" stopIfTrue="1">
+    <cfRule type="expression" dxfId="484" priority="989" stopIfTrue="1">
       <formula>AND($M31=6,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="897" stopIfTrue="1">
+    <cfRule type="expression" dxfId="483" priority="990" stopIfTrue="1">
       <formula>AND($M31=7,$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="898" stopIfTrue="1">
+    <cfRule type="expression" dxfId="482" priority="991" stopIfTrue="1">
       <formula>AND($M31="M",$P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="899" stopIfTrue="1">
+    <cfRule type="expression" dxfId="481" priority="992" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N31&lt;1,$P31&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="900" stopIfTrue="1">
+    <cfRule type="expression" dxfId="480" priority="993" stopIfTrue="1">
       <formula>AND($P31&lt;=W$6,$Q31&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="901">
+    <cfRule type="expression" dxfId="479" priority="994">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="902">
+    <cfRule type="expression" dxfId="478" priority="995">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q31">
-    <cfRule type="expression" dxfId="393" priority="870">
+    <cfRule type="expression" dxfId="477" priority="963">
       <formula>AND($Q$10="Yes",Q31&lt;$C$10,N31&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="392" priority="871">
+    <cfRule type="expression" dxfId="476" priority="964">
       <formula>AND($Q$10="Yes",Q31&lt;=$C$10+enddate_highlight_days,N31&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="391" priority="868" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="475" priority="961" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="869">
+    <cfRule type="dataBar" priority="962">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35012,17 +36544,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 L31 T31:U31">
-    <cfRule type="expression" dxfId="390" priority="867">
+    <cfRule type="expression" dxfId="474" priority="960">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q31">
-    <cfRule type="expression" dxfId="389" priority="866">
+    <cfRule type="expression" dxfId="473" priority="959">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="iconSet" priority="872">
+    <cfRule type="iconSet" priority="965">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35032,10 +36564,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="388" priority="864" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="472" priority="957" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="865">
+    <cfRule type="dataBar" priority="958">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35049,122 +36581,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T31:U31 L31 I31">
-    <cfRule type="expression" dxfId="387" priority="863">
+    <cfRule type="expression" dxfId="471" priority="956">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:Q31">
-    <cfRule type="expression" dxfId="386" priority="862">
+    <cfRule type="expression" dxfId="470" priority="955">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="385" priority="834">
+    <cfRule type="expression" dxfId="469" priority="927">
       <formula>$A35=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="384" priority="835">
+    <cfRule type="expression" dxfId="468" priority="928">
       <formula>$A35=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="383" priority="836">
+    <cfRule type="expression" dxfId="467" priority="929">
       <formula>$A35=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="382" priority="837">
+    <cfRule type="expression" dxfId="466" priority="930">
       <formula>$A35=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="381" priority="838">
+    <cfRule type="expression" dxfId="465" priority="931">
       <formula>$A35=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="380" priority="839">
+    <cfRule type="expression" dxfId="464" priority="932">
       <formula>$A35=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W35:ED35">
-    <cfRule type="expression" dxfId="379" priority="832">
+    <cfRule type="expression" dxfId="463" priority="925">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="378" priority="833">
+    <cfRule type="expression" dxfId="462" priority="926">
       <formula>AND($U$4="Yes",$U35&gt;=W$5,$T35&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="377" priority="840">
+    <cfRule type="expression" dxfId="461" priority="933">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M35&lt;&gt;"M",$U35&gt;=W$5,$T35&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="376" priority="841">
+    <cfRule type="expression" dxfId="460" priority="934">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P35&lt;=W$6,ROUNDDOWN(($Q35-$P35+1)*$N35,0)+$P35-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="375" priority="842" stopIfTrue="1">
+    <cfRule type="expression" dxfId="459" priority="935" stopIfTrue="1">
       <formula>AND(OR($M35="b",$M35=""),$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="843" stopIfTrue="1">
+    <cfRule type="expression" dxfId="458" priority="936" stopIfTrue="1">
       <formula>AND($M35="K",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="844" stopIfTrue="1">
+    <cfRule type="expression" dxfId="457" priority="937" stopIfTrue="1">
       <formula>AND($M35="x",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="845" stopIfTrue="1">
+    <cfRule type="expression" dxfId="456" priority="938" stopIfTrue="1">
       <formula>AND($M35="G",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="846" stopIfTrue="1">
+    <cfRule type="expression" dxfId="455" priority="939" stopIfTrue="1">
       <formula>AND($M35="P",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="847" stopIfTrue="1">
+    <cfRule type="expression" dxfId="454" priority="940" stopIfTrue="1">
       <formula>AND($M35="Y",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="848" stopIfTrue="1">
+    <cfRule type="expression" dxfId="453" priority="941" stopIfTrue="1">
       <formula>AND($M35="O",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="849" stopIfTrue="1">
+    <cfRule type="expression" dxfId="452" priority="942" stopIfTrue="1">
       <formula>AND($M35="R",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="367" priority="850" stopIfTrue="1">
+    <cfRule type="expression" dxfId="451" priority="943" stopIfTrue="1">
       <formula>AND($M35=1,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="366" priority="851" stopIfTrue="1">
+    <cfRule type="expression" dxfId="450" priority="944" stopIfTrue="1">
       <formula>AND($M35=2,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="365" priority="852" stopIfTrue="1">
+    <cfRule type="expression" dxfId="449" priority="945" stopIfTrue="1">
       <formula>AND($M35=3,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="364" priority="853" stopIfTrue="1">
+    <cfRule type="expression" dxfId="448" priority="946" stopIfTrue="1">
       <formula>AND($M35=4,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="363" priority="854" stopIfTrue="1">
+    <cfRule type="expression" dxfId="447" priority="947" stopIfTrue="1">
       <formula>AND($M35=5,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="362" priority="855" stopIfTrue="1">
+    <cfRule type="expression" dxfId="446" priority="948" stopIfTrue="1">
       <formula>AND($M35=6,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="361" priority="856" stopIfTrue="1">
+    <cfRule type="expression" dxfId="445" priority="949" stopIfTrue="1">
       <formula>AND($M35=7,$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="360" priority="857" stopIfTrue="1">
+    <cfRule type="expression" dxfId="444" priority="950" stopIfTrue="1">
       <formula>AND($M35="M",$P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="359" priority="858" stopIfTrue="1">
+    <cfRule type="expression" dxfId="443" priority="951" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N35&lt;1,$P35&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="859" stopIfTrue="1">
+    <cfRule type="expression" dxfId="442" priority="952" stopIfTrue="1">
       <formula>AND($P35&lt;=W$6,$Q35&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="860">
+    <cfRule type="expression" dxfId="441" priority="953">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="861">
+    <cfRule type="expression" dxfId="440" priority="954">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="expression" dxfId="355" priority="829">
+    <cfRule type="expression" dxfId="439" priority="922">
       <formula>AND($Q$10="Yes",Q35&lt;$C$10,N35&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="830">
+    <cfRule type="expression" dxfId="438" priority="923">
       <formula>AND($Q$10="Yes",Q35&lt;=$C$10+enddate_highlight_days,N35&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="cellIs" dxfId="353" priority="827" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="437" priority="920" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="828">
+    <cfRule type="dataBar" priority="921">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35178,17 +36710,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35 L35 T35:U35">
-    <cfRule type="expression" dxfId="352" priority="826">
+    <cfRule type="expression" dxfId="436" priority="919">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:Q35">
-    <cfRule type="expression" dxfId="351" priority="825">
+    <cfRule type="expression" dxfId="435" priority="918">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="iconSet" priority="831">
+    <cfRule type="iconSet" priority="924">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35198,10 +36730,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="cellIs" dxfId="350" priority="823" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="434" priority="916" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="824">
+    <cfRule type="dataBar" priority="917">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35215,122 +36747,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35:U35 L35 I35">
-    <cfRule type="expression" dxfId="349" priority="822">
+    <cfRule type="expression" dxfId="433" priority="915">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:Q35">
-    <cfRule type="expression" dxfId="348" priority="821">
+    <cfRule type="expression" dxfId="432" priority="914">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="expression" dxfId="347" priority="793">
+    <cfRule type="expression" dxfId="431" priority="886">
       <formula>$A36=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="346" priority="794">
+    <cfRule type="expression" dxfId="430" priority="887">
       <formula>$A36=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="345" priority="795">
+    <cfRule type="expression" dxfId="429" priority="888">
       <formula>$A36=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="344" priority="796">
+    <cfRule type="expression" dxfId="428" priority="889">
       <formula>$A36=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="343" priority="797">
+    <cfRule type="expression" dxfId="427" priority="890">
       <formula>$A36=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="342" priority="798">
+    <cfRule type="expression" dxfId="426" priority="891">
       <formula>$A36=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W36:ED36">
-    <cfRule type="expression" dxfId="341" priority="791">
+    <cfRule type="expression" dxfId="425" priority="884">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="340" priority="792">
+    <cfRule type="expression" dxfId="424" priority="885">
       <formula>AND($U$4="Yes",$U36&gt;=W$5,$T36&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="339" priority="799">
+    <cfRule type="expression" dxfId="423" priority="892">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M36&lt;&gt;"M",$U36&gt;=W$5,$T36&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="338" priority="800">
+    <cfRule type="expression" dxfId="422" priority="893">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P36&lt;=W$6,ROUNDDOWN(($Q36-$P36+1)*$N36,0)+$P36-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="337" priority="801" stopIfTrue="1">
+    <cfRule type="expression" dxfId="421" priority="894" stopIfTrue="1">
       <formula>AND(OR($M36="b",$M36=""),$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="336" priority="802" stopIfTrue="1">
+    <cfRule type="expression" dxfId="420" priority="895" stopIfTrue="1">
       <formula>AND($M36="K",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="335" priority="803" stopIfTrue="1">
+    <cfRule type="expression" dxfId="419" priority="896" stopIfTrue="1">
       <formula>AND($M36="x",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="334" priority="804" stopIfTrue="1">
+    <cfRule type="expression" dxfId="418" priority="897" stopIfTrue="1">
       <formula>AND($M36="G",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="333" priority="805" stopIfTrue="1">
+    <cfRule type="expression" dxfId="417" priority="898" stopIfTrue="1">
       <formula>AND($M36="P",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="332" priority="806" stopIfTrue="1">
+    <cfRule type="expression" dxfId="416" priority="899" stopIfTrue="1">
       <formula>AND($M36="Y",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="331" priority="807" stopIfTrue="1">
+    <cfRule type="expression" dxfId="415" priority="900" stopIfTrue="1">
       <formula>AND($M36="O",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="330" priority="808" stopIfTrue="1">
+    <cfRule type="expression" dxfId="414" priority="901" stopIfTrue="1">
       <formula>AND($M36="R",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="329" priority="809" stopIfTrue="1">
+    <cfRule type="expression" dxfId="413" priority="902" stopIfTrue="1">
       <formula>AND($M36=1,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="328" priority="810" stopIfTrue="1">
+    <cfRule type="expression" dxfId="412" priority="903" stopIfTrue="1">
       <formula>AND($M36=2,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="327" priority="811" stopIfTrue="1">
+    <cfRule type="expression" dxfId="411" priority="904" stopIfTrue="1">
       <formula>AND($M36=3,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="326" priority="812" stopIfTrue="1">
+    <cfRule type="expression" dxfId="410" priority="905" stopIfTrue="1">
       <formula>AND($M36=4,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="325" priority="813" stopIfTrue="1">
+    <cfRule type="expression" dxfId="409" priority="906" stopIfTrue="1">
       <formula>AND($M36=5,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="324" priority="814" stopIfTrue="1">
+    <cfRule type="expression" dxfId="408" priority="907" stopIfTrue="1">
       <formula>AND($M36=6,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="323" priority="815" stopIfTrue="1">
+    <cfRule type="expression" dxfId="407" priority="908" stopIfTrue="1">
       <formula>AND($M36=7,$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="322" priority="816" stopIfTrue="1">
+    <cfRule type="expression" dxfId="406" priority="909" stopIfTrue="1">
       <formula>AND($M36="M",$P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="321" priority="817" stopIfTrue="1">
+    <cfRule type="expression" dxfId="405" priority="910" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N36&lt;1,$P36&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="320" priority="818" stopIfTrue="1">
+    <cfRule type="expression" dxfId="404" priority="911" stopIfTrue="1">
       <formula>AND($P36&lt;=W$6,$Q36&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="319" priority="819">
+    <cfRule type="expression" dxfId="403" priority="912">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="318" priority="820">
+    <cfRule type="expression" dxfId="402" priority="913">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q36">
-    <cfRule type="expression" dxfId="317" priority="788">
+    <cfRule type="expression" dxfId="401" priority="881">
       <formula>AND($Q$10="Yes",Q36&lt;$C$10,N36&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="316" priority="789">
+    <cfRule type="expression" dxfId="400" priority="882">
       <formula>AND($Q$10="Yes",Q36&lt;=$C$10+enddate_highlight_days,N36&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="cellIs" dxfId="315" priority="786" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="399" priority="879" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="787">
+    <cfRule type="dataBar" priority="880">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35344,17 +36876,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36 L36 T36:U36">
-    <cfRule type="expression" dxfId="314" priority="785">
+    <cfRule type="expression" dxfId="398" priority="878">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:Q36">
-    <cfRule type="expression" dxfId="313" priority="784">
+    <cfRule type="expression" dxfId="397" priority="877">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="iconSet" priority="790">
+    <cfRule type="iconSet" priority="883">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35364,10 +36896,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="cellIs" dxfId="312" priority="782" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="396" priority="875" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="783">
+    <cfRule type="dataBar" priority="876">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35381,122 +36913,122 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T36:U36 L36 I36">
-    <cfRule type="expression" dxfId="311" priority="781">
+    <cfRule type="expression" dxfId="395" priority="874">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:Q36">
-    <cfRule type="expression" dxfId="310" priority="780">
+    <cfRule type="expression" dxfId="394" priority="873">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="309" priority="752">
+    <cfRule type="expression" dxfId="393" priority="845">
       <formula>$A37=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="308" priority="753">
+    <cfRule type="expression" dxfId="392" priority="846">
       <formula>$A37=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="307" priority="754">
+    <cfRule type="expression" dxfId="391" priority="847">
       <formula>$A37=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="306" priority="755">
+    <cfRule type="expression" dxfId="390" priority="848">
       <formula>$A37=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="305" priority="756">
+    <cfRule type="expression" dxfId="389" priority="849">
       <formula>$A37=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="304" priority="757">
+    <cfRule type="expression" dxfId="388" priority="850">
       <formula>$A37=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W37:ED37">
-    <cfRule type="expression" dxfId="303" priority="750">
+    <cfRule type="expression" dxfId="387" priority="843">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="302" priority="751">
+    <cfRule type="expression" dxfId="386" priority="844">
       <formula>AND($U$4="Yes",$U37&gt;=W$5,$T37&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="301" priority="758">
+    <cfRule type="expression" dxfId="385" priority="851">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M37&lt;&gt;"M",$U37&gt;=W$5,$T37&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="300" priority="759">
+    <cfRule type="expression" dxfId="384" priority="852">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P37&lt;=W$6,ROUNDDOWN(($Q37-$P37+1)*$N37,0)+$P37-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="299" priority="760" stopIfTrue="1">
+    <cfRule type="expression" dxfId="383" priority="853" stopIfTrue="1">
       <formula>AND(OR($M37="b",$M37=""),$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="298" priority="761" stopIfTrue="1">
+    <cfRule type="expression" dxfId="382" priority="854" stopIfTrue="1">
       <formula>AND($M37="K",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="297" priority="762" stopIfTrue="1">
+    <cfRule type="expression" dxfId="381" priority="855" stopIfTrue="1">
       <formula>AND($M37="x",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="296" priority="763" stopIfTrue="1">
+    <cfRule type="expression" dxfId="380" priority="856" stopIfTrue="1">
       <formula>AND($M37="G",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="295" priority="764" stopIfTrue="1">
+    <cfRule type="expression" dxfId="379" priority="857" stopIfTrue="1">
       <formula>AND($M37="P",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="294" priority="765" stopIfTrue="1">
+    <cfRule type="expression" dxfId="378" priority="858" stopIfTrue="1">
       <formula>AND($M37="Y",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="293" priority="766" stopIfTrue="1">
+    <cfRule type="expression" dxfId="377" priority="859" stopIfTrue="1">
       <formula>AND($M37="O",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="292" priority="767" stopIfTrue="1">
+    <cfRule type="expression" dxfId="376" priority="860" stopIfTrue="1">
       <formula>AND($M37="R",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="291" priority="768" stopIfTrue="1">
+    <cfRule type="expression" dxfId="375" priority="861" stopIfTrue="1">
       <formula>AND($M37=1,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="290" priority="769" stopIfTrue="1">
+    <cfRule type="expression" dxfId="374" priority="862" stopIfTrue="1">
       <formula>AND($M37=2,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="289" priority="770" stopIfTrue="1">
+    <cfRule type="expression" dxfId="373" priority="863" stopIfTrue="1">
       <formula>AND($M37=3,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="288" priority="771" stopIfTrue="1">
+    <cfRule type="expression" dxfId="372" priority="864" stopIfTrue="1">
       <formula>AND($M37=4,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="287" priority="772" stopIfTrue="1">
+    <cfRule type="expression" dxfId="371" priority="865" stopIfTrue="1">
       <formula>AND($M37=5,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="773" stopIfTrue="1">
+    <cfRule type="expression" dxfId="370" priority="866" stopIfTrue="1">
       <formula>AND($M37=6,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="774" stopIfTrue="1">
+    <cfRule type="expression" dxfId="369" priority="867" stopIfTrue="1">
       <formula>AND($M37=7,$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="775" stopIfTrue="1">
+    <cfRule type="expression" dxfId="368" priority="868" stopIfTrue="1">
       <formula>AND($M37="M",$P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="776" stopIfTrue="1">
+    <cfRule type="expression" dxfId="367" priority="869" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N37&lt;1,$P37&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="777" stopIfTrue="1">
+    <cfRule type="expression" dxfId="366" priority="870" stopIfTrue="1">
       <formula>AND($P37&lt;=W$6,$Q37&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="778">
+    <cfRule type="expression" dxfId="365" priority="871">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="779">
+    <cfRule type="expression" dxfId="364" priority="872">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q37">
-    <cfRule type="expression" dxfId="279" priority="747">
+    <cfRule type="expression" dxfId="363" priority="840">
       <formula>AND($Q$10="Yes",Q37&lt;$C$10,N37&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="748">
+    <cfRule type="expression" dxfId="362" priority="841">
       <formula>AND($Q$10="Yes",Q37&lt;=$C$10+enddate_highlight_days,N37&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37">
-    <cfRule type="cellIs" dxfId="277" priority="745" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="361" priority="838" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="746">
+    <cfRule type="dataBar" priority="839">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35510,17 +37042,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37 L37 T37:U37">
-    <cfRule type="expression" dxfId="276" priority="744">
+    <cfRule type="expression" dxfId="360" priority="837">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:Q37">
-    <cfRule type="expression" dxfId="275" priority="743">
+    <cfRule type="expression" dxfId="359" priority="836">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="iconSet" priority="749">
+    <cfRule type="iconSet" priority="842">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35530,10 +37062,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37">
-    <cfRule type="cellIs" dxfId="274" priority="741" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="358" priority="834" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="742">
+    <cfRule type="dataBar" priority="835">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35547,20 +37079,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T37:U37 L37 I37">
-    <cfRule type="expression" dxfId="273" priority="740">
+    <cfRule type="expression" dxfId="357" priority="833">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:Q37">
-    <cfRule type="expression" dxfId="272" priority="739">
+    <cfRule type="expression" dxfId="356" priority="832">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:N47">
-    <cfRule type="cellIs" dxfId="271" priority="704" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="355" priority="797" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="705">
+    <cfRule type="dataBar" priority="798">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35574,17 +37106,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:I47 L46:L47 T46:U47">
-    <cfRule type="expression" dxfId="270" priority="703">
+    <cfRule type="expression" dxfId="354" priority="796">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:Q47">
-    <cfRule type="expression" dxfId="269" priority="702">
+    <cfRule type="expression" dxfId="353" priority="795">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46">
-    <cfRule type="iconSet" priority="708">
+    <cfRule type="iconSet" priority="801">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35594,10 +37126,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:N47">
-    <cfRule type="cellIs" dxfId="268" priority="700" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="352" priority="793" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="701">
+    <cfRule type="dataBar" priority="794">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35611,17 +37143,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:U47 L46:L47 I46:I47">
-    <cfRule type="expression" dxfId="267" priority="699">
+    <cfRule type="expression" dxfId="351" priority="792">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:Q47">
-    <cfRule type="expression" dxfId="266" priority="698">
+    <cfRule type="expression" dxfId="350" priority="791">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O47">
-    <cfRule type="iconSet" priority="667">
+    <cfRule type="iconSet" priority="760">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35631,38 +37163,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="265" priority="629">
+    <cfRule type="expression" dxfId="349" priority="722">
       <formula>$A39=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="630">
+    <cfRule type="expression" dxfId="348" priority="723">
       <formula>$A39=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="631">
+    <cfRule type="expression" dxfId="347" priority="724">
       <formula>$A39=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="632">
+    <cfRule type="expression" dxfId="346" priority="725">
       <formula>$A39=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="633">
+    <cfRule type="expression" dxfId="345" priority="726">
       <formula>$A39=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="634">
+    <cfRule type="expression" dxfId="344" priority="727">
       <formula>$A39=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39">
-    <cfRule type="expression" dxfId="259" priority="624">
+    <cfRule type="expression" dxfId="343" priority="717">
       <formula>AND($Q$10="Yes",Q39&lt;$C$10,N39&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="625">
+    <cfRule type="expression" dxfId="342" priority="718">
       <formula>AND($Q$10="Yes",Q39&lt;=$C$10+enddate_highlight_days,N39&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="cellIs" dxfId="257" priority="622" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="341" priority="715" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="623">
+    <cfRule type="dataBar" priority="716">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35676,17 +37208,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39 L39 T39:U39">
-    <cfRule type="expression" dxfId="256" priority="621">
+    <cfRule type="expression" dxfId="340" priority="714">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:Q39">
-    <cfRule type="expression" dxfId="255" priority="620">
+    <cfRule type="expression" dxfId="339" priority="713">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="iconSet" priority="626">
+    <cfRule type="iconSet" priority="719">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35696,10 +37228,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="cellIs" dxfId="254" priority="618" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="338" priority="711" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="619">
+    <cfRule type="dataBar" priority="712">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35713,28 +37245,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39:U39 L39 I39">
-    <cfRule type="expression" dxfId="253" priority="617">
+    <cfRule type="expression" dxfId="337" priority="710">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:Q39">
-    <cfRule type="expression" dxfId="252" priority="616">
+    <cfRule type="expression" dxfId="336" priority="709">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38">
-    <cfRule type="expression" dxfId="251" priority="546">
+    <cfRule type="expression" dxfId="335" priority="639">
       <formula>AND($Q$10="Yes",Q38&lt;$C$10,N38&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="547">
+    <cfRule type="expression" dxfId="334" priority="640">
       <formula>AND($Q$10="Yes",Q38&lt;=$C$10+enddate_highlight_days,N38&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="cellIs" dxfId="249" priority="544" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="333" priority="637" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="545">
+    <cfRule type="dataBar" priority="638">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35748,17 +37280,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38 L38 T38:U38">
-    <cfRule type="expression" dxfId="248" priority="543">
+    <cfRule type="expression" dxfId="332" priority="636">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38:Q38">
-    <cfRule type="expression" dxfId="247" priority="542">
+    <cfRule type="expression" dxfId="331" priority="635">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="iconSet" priority="548">
+    <cfRule type="iconSet" priority="641">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35768,10 +37300,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="cellIs" dxfId="246" priority="540" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="330" priority="633" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="541">
+    <cfRule type="dataBar" priority="634">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35785,48 +37317,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:U38 L38 I38">
-    <cfRule type="expression" dxfId="245" priority="539">
+    <cfRule type="expression" dxfId="329" priority="632">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38:Q38">
-    <cfRule type="expression" dxfId="244" priority="538">
+    <cfRule type="expression" dxfId="328" priority="631">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="243" priority="508">
+    <cfRule type="expression" dxfId="327" priority="601">
       <formula>$A44=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="509">
+    <cfRule type="expression" dxfId="326" priority="602">
       <formula>$A44=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="510">
+    <cfRule type="expression" dxfId="325" priority="603">
       <formula>$A44=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="511">
+    <cfRule type="expression" dxfId="324" priority="604">
       <formula>$A44=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="239" priority="512">
+    <cfRule type="expression" dxfId="323" priority="605">
       <formula>$A44=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="513">
+    <cfRule type="expression" dxfId="322" priority="606">
       <formula>$A44=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44">
-    <cfRule type="expression" dxfId="237" priority="505">
+    <cfRule type="expression" dxfId="321" priority="598">
       <formula>AND($Q$10="Yes",Q44&lt;$C$10,N44&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="506">
+    <cfRule type="expression" dxfId="320" priority="599">
       <formula>AND($Q$10="Yes",Q44&lt;=$C$10+enddate_highlight_days,N44&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="cellIs" dxfId="235" priority="503" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="319" priority="596" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="504">
+    <cfRule type="dataBar" priority="597">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35840,17 +37372,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44 L44 T44:U44">
-    <cfRule type="expression" dxfId="234" priority="502">
+    <cfRule type="expression" dxfId="318" priority="595">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:Q44">
-    <cfRule type="expression" dxfId="233" priority="501">
+    <cfRule type="expression" dxfId="317" priority="594">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="iconSet" priority="507">
+    <cfRule type="iconSet" priority="600">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35860,10 +37392,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="cellIs" dxfId="232" priority="499" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="316" priority="592" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="500">
+    <cfRule type="dataBar" priority="593">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35877,20 +37409,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44:U44 L44 I44">
-    <cfRule type="expression" dxfId="231" priority="498">
+    <cfRule type="expression" dxfId="315" priority="591">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:Q44">
-    <cfRule type="expression" dxfId="230" priority="497">
+    <cfRule type="expression" dxfId="314" priority="590">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41 N47">
-    <cfRule type="cellIs" dxfId="229" priority="462" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="313" priority="555" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="463">
+    <cfRule type="dataBar" priority="556">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35904,17 +37436,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41 L41 T41:U41 T47:U47 L47 I47">
-    <cfRule type="expression" dxfId="228" priority="461">
+    <cfRule type="expression" dxfId="312" priority="554">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41 P47:Q47">
-    <cfRule type="expression" dxfId="227" priority="460">
+    <cfRule type="expression" dxfId="311" priority="553">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41">
-    <cfRule type="iconSet" priority="466">
+    <cfRule type="iconSet" priority="559">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -35924,10 +37456,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41 N47">
-    <cfRule type="cellIs" dxfId="226" priority="458" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="310" priority="551" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="459">
+    <cfRule type="dataBar" priority="552">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35941,48 +37473,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41:U41 L41 I41 I47 L47 T47:U47">
-    <cfRule type="expression" dxfId="225" priority="457">
+    <cfRule type="expression" dxfId="309" priority="550">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:Q41 P47:Q47">
-    <cfRule type="expression" dxfId="224" priority="456">
+    <cfRule type="expression" dxfId="308" priority="549">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q42">
-    <cfRule type="expression" dxfId="223" priority="426">
+    <cfRule type="expression" dxfId="307" priority="519">
       <formula>AND($Q$10="Yes",Q42&lt;$C$10,N42&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="427">
+    <cfRule type="expression" dxfId="306" priority="520">
       <formula>AND($Q$10="Yes",Q42&lt;=$C$10+enddate_highlight_days,N42&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="expression" dxfId="221" priority="428">
+    <cfRule type="expression" dxfId="305" priority="521">
       <formula>$A42=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="429">
+    <cfRule type="expression" dxfId="304" priority="522">
       <formula>$A42=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="430">
+    <cfRule type="expression" dxfId="303" priority="523">
       <formula>$A42=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="431">
+    <cfRule type="expression" dxfId="302" priority="524">
       <formula>$A42=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="432">
+    <cfRule type="expression" dxfId="301" priority="525">
       <formula>$A42=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="433">
+    <cfRule type="expression" dxfId="300" priority="526">
       <formula>$A42=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="cellIs" dxfId="215" priority="421" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="299" priority="514" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="422">
+    <cfRule type="dataBar" priority="515">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -35996,17 +37528,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42 L42 T42:U42">
-    <cfRule type="expression" dxfId="214" priority="420">
+    <cfRule type="expression" dxfId="298" priority="513">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:Q42">
-    <cfRule type="expression" dxfId="213" priority="419">
+    <cfRule type="expression" dxfId="297" priority="512">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42">
-    <cfRule type="iconSet" priority="423">
+    <cfRule type="iconSet" priority="516">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -36016,10 +37548,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="cellIs" dxfId="212" priority="417" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="296" priority="510" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="418">
+    <cfRule type="dataBar" priority="511">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36033,48 +37565,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T42:U42 L42 I42">
-    <cfRule type="expression" dxfId="211" priority="416">
+    <cfRule type="expression" dxfId="295" priority="509">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P42:Q42">
-    <cfRule type="expression" dxfId="210" priority="415">
+    <cfRule type="expression" dxfId="294" priority="508">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q43">
-    <cfRule type="expression" dxfId="209" priority="385">
+    <cfRule type="expression" dxfId="293" priority="478">
       <formula>AND($Q$10="Yes",Q43&lt;$C$10,N43&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="386">
+    <cfRule type="expression" dxfId="292" priority="479">
       <formula>AND($Q$10="Yes",Q43&lt;=$C$10+enddate_highlight_days,N43&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="expression" dxfId="207" priority="387">
+    <cfRule type="expression" dxfId="291" priority="480">
       <formula>$A43=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="388">
+    <cfRule type="expression" dxfId="290" priority="481">
       <formula>$A43=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="389">
+    <cfRule type="expression" dxfId="289" priority="482">
       <formula>$A43=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="390">
+    <cfRule type="expression" dxfId="288" priority="483">
       <formula>$A43=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="391">
+    <cfRule type="expression" dxfId="287" priority="484">
       <formula>$A43=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="392">
+    <cfRule type="expression" dxfId="286" priority="485">
       <formula>$A43=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="201" priority="380" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="285" priority="473" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="381">
+    <cfRule type="dataBar" priority="474">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36088,17 +37620,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43 L43 T43:U43">
-    <cfRule type="expression" dxfId="200" priority="379">
+    <cfRule type="expression" dxfId="284" priority="472">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:Q43">
-    <cfRule type="expression" dxfId="199" priority="378">
+    <cfRule type="expression" dxfId="283" priority="471">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43">
-    <cfRule type="iconSet" priority="382">
+    <cfRule type="iconSet" priority="475">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -36108,10 +37640,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="198" priority="376" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="282" priority="469" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="377">
+    <cfRule type="dataBar" priority="470">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36125,20 +37657,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T43:U43 L43 I43">
-    <cfRule type="expression" dxfId="197" priority="375">
+    <cfRule type="expression" dxfId="281" priority="468">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:Q43">
-    <cfRule type="expression" dxfId="196" priority="374">
+    <cfRule type="expression" dxfId="280" priority="467">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="195" priority="342" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="279" priority="435" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="343">
+    <cfRule type="dataBar" priority="436">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36152,117 +37684,117 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48 P48:Q48">
-    <cfRule type="expression" dxfId="194" priority="339">
+    <cfRule type="expression" dxfId="278" priority="432">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q48">
-    <cfRule type="expression" dxfId="193" priority="344">
+    <cfRule type="expression" dxfId="277" priority="437">
       <formula>AND($Q$10="Yes",Q48&lt;$C$10,N48&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="345">
+    <cfRule type="expression" dxfId="276" priority="438">
       <formula>AND($Q$10="Yes",Q48&lt;=$C$10+enddate_highlight_days,N48&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="191" priority="346">
+    <cfRule type="expression" dxfId="275" priority="439">
       <formula>$A48=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="347">
+    <cfRule type="expression" dxfId="274" priority="440">
       <formula>$A48=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="348">
+    <cfRule type="expression" dxfId="273" priority="441">
       <formula>$A48=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="349">
+    <cfRule type="expression" dxfId="272" priority="442">
       <formula>$A48=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="350">
+    <cfRule type="expression" dxfId="271" priority="443">
       <formula>$A48=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="351">
+    <cfRule type="expression" dxfId="270" priority="444">
       <formula>$A48=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W48:ED48">
-    <cfRule type="expression" dxfId="185" priority="340">
+    <cfRule type="expression" dxfId="269" priority="433">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="341">
+    <cfRule type="expression" dxfId="268" priority="434">
       <formula>AND($U$4="Yes",$U48&gt;=W$5,$T48&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="352">
+    <cfRule type="expression" dxfId="267" priority="445">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M48&lt;&gt;"M",$U48&gt;=W$5,$T48&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="353">
+    <cfRule type="expression" dxfId="266" priority="446">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P48&lt;=W$6,ROUNDDOWN(($Q48-$P48+1)*$N48,0)+$P48-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="354" stopIfTrue="1">
+    <cfRule type="expression" dxfId="265" priority="447" stopIfTrue="1">
       <formula>AND(OR($M48="b",$M48=""),$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="355" stopIfTrue="1">
+    <cfRule type="expression" dxfId="264" priority="448" stopIfTrue="1">
       <formula>AND($M48="K",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="356" stopIfTrue="1">
+    <cfRule type="expression" dxfId="263" priority="449" stopIfTrue="1">
       <formula>AND($M48="x",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="357" stopIfTrue="1">
+    <cfRule type="expression" dxfId="262" priority="450" stopIfTrue="1">
       <formula>AND($M48="G",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="358" stopIfTrue="1">
+    <cfRule type="expression" dxfId="261" priority="451" stopIfTrue="1">
       <formula>AND($M48="P",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="359" stopIfTrue="1">
+    <cfRule type="expression" dxfId="260" priority="452" stopIfTrue="1">
       <formula>AND($M48="Y",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="360" stopIfTrue="1">
+    <cfRule type="expression" dxfId="259" priority="453" stopIfTrue="1">
       <formula>AND($M48="O",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="361" stopIfTrue="1">
+    <cfRule type="expression" dxfId="258" priority="454" stopIfTrue="1">
       <formula>AND($M48="R",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="362" stopIfTrue="1">
+    <cfRule type="expression" dxfId="257" priority="455" stopIfTrue="1">
       <formula>AND($M48=1,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="363" stopIfTrue="1">
+    <cfRule type="expression" dxfId="256" priority="456" stopIfTrue="1">
       <formula>AND($M48=2,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="364" stopIfTrue="1">
+    <cfRule type="expression" dxfId="255" priority="457" stopIfTrue="1">
       <formula>AND($M48=3,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="365" stopIfTrue="1">
+    <cfRule type="expression" dxfId="254" priority="458" stopIfTrue="1">
       <formula>AND($M48=4,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="366" stopIfTrue="1">
+    <cfRule type="expression" dxfId="253" priority="459" stopIfTrue="1">
       <formula>AND($M48=5,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="367" stopIfTrue="1">
+    <cfRule type="expression" dxfId="252" priority="460" stopIfTrue="1">
       <formula>AND($M48=6,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="368" stopIfTrue="1">
+    <cfRule type="expression" dxfId="251" priority="461" stopIfTrue="1">
       <formula>AND($M48=7,$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="369" stopIfTrue="1">
+    <cfRule type="expression" dxfId="250" priority="462" stopIfTrue="1">
       <formula>AND($M48="M",$P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="370" stopIfTrue="1">
+    <cfRule type="expression" dxfId="249" priority="463" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N48&lt;1,$P48&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="371" stopIfTrue="1">
+    <cfRule type="expression" dxfId="248" priority="464" stopIfTrue="1">
       <formula>AND($P48&lt;=W$6,$Q48&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="372">
+    <cfRule type="expression" dxfId="247" priority="465">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="373">
+    <cfRule type="expression" dxfId="246" priority="466">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="161" priority="337" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="245" priority="430" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="338">
+    <cfRule type="dataBar" priority="431">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36276,20 +37808,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48">
-    <cfRule type="expression" dxfId="160" priority="336">
+    <cfRule type="expression" dxfId="244" priority="429">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="159" priority="335">
+    <cfRule type="expression" dxfId="243" priority="428">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="158" priority="333" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="242" priority="426" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="334">
+    <cfRule type="dataBar" priority="427">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36303,20 +37835,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48 L48 T48:U48">
-    <cfRule type="expression" dxfId="157" priority="332">
+    <cfRule type="expression" dxfId="241" priority="425">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="156" priority="331">
+    <cfRule type="expression" dxfId="240" priority="424">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="155" priority="329" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="239" priority="422" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="330">
+    <cfRule type="dataBar" priority="423">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36330,17 +37862,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48">
-    <cfRule type="expression" dxfId="154" priority="328">
+    <cfRule type="expression" dxfId="238" priority="421">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="153" priority="327">
+    <cfRule type="expression" dxfId="237" priority="420">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="iconSet" priority="326">
+    <cfRule type="iconSet" priority="419">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -36350,10 +37882,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="152" priority="324" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="236" priority="417" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="325">
+    <cfRule type="dataBar" priority="418">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36367,20 +37899,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T48:U48 L48 I48">
-    <cfRule type="expression" dxfId="151" priority="323">
+    <cfRule type="expression" dxfId="235" priority="416">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="150" priority="322">
+    <cfRule type="expression" dxfId="234" priority="415">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="cellIs" dxfId="149" priority="320" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="233" priority="413" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="321">
+    <cfRule type="dataBar" priority="414">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36394,20 +37926,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48 L48 T48:U48">
-    <cfRule type="expression" dxfId="148" priority="319">
+    <cfRule type="expression" dxfId="232" priority="412">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:Q48">
-    <cfRule type="expression" dxfId="147" priority="318">
+    <cfRule type="expression" dxfId="231" priority="411">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="146" priority="193" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="230" priority="286" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="194">
+    <cfRule type="dataBar" priority="287">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36421,117 +37953,117 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:U50 L50 I50 P50:Q50">
-    <cfRule type="expression" dxfId="145" priority="190">
+    <cfRule type="expression" dxfId="229" priority="283">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50">
-    <cfRule type="expression" dxfId="144" priority="195">
+    <cfRule type="expression" dxfId="228" priority="288">
       <formula>AND($Q$10="Yes",Q50&lt;$C$10,N50&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="196">
+    <cfRule type="expression" dxfId="227" priority="289">
       <formula>AND($Q$10="Yes",Q50&lt;=$C$10+enddate_highlight_days,N50&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="142" priority="197">
+    <cfRule type="expression" dxfId="226" priority="290">
       <formula>$A50=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="198">
+    <cfRule type="expression" dxfId="225" priority="291">
       <formula>$A50=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="199">
+    <cfRule type="expression" dxfId="224" priority="292">
       <formula>$A50=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="200">
+    <cfRule type="expression" dxfId="223" priority="293">
       <formula>$A50=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="201">
+    <cfRule type="expression" dxfId="222" priority="294">
       <formula>$A50=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="202">
+    <cfRule type="expression" dxfId="221" priority="295">
       <formula>$A50=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50:ED50">
-    <cfRule type="expression" dxfId="136" priority="191">
+    <cfRule type="expression" dxfId="220" priority="284">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="192">
+    <cfRule type="expression" dxfId="219" priority="285">
       <formula>AND($U$4="Yes",$U50&gt;=W$5,$T50&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="203">
+    <cfRule type="expression" dxfId="218" priority="296">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M50&lt;&gt;"M",$U50&gt;=W$5,$T50&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="204">
+    <cfRule type="expression" dxfId="217" priority="297">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P50&lt;=W$6,ROUNDDOWN(($Q50-$P50+1)*$N50,0)+$P50-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="205" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="298" stopIfTrue="1">
       <formula>AND(OR($M50="b",$M50=""),$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="206" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="299" stopIfTrue="1">
       <formula>AND($M50="K",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="207" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="300" stopIfTrue="1">
       <formula>AND($M50="x",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="208" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="301" stopIfTrue="1">
       <formula>AND($M50="G",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="209" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="302" stopIfTrue="1">
       <formula>AND($M50="P",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="210" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="303" stopIfTrue="1">
       <formula>AND($M50="Y",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="211" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="304" stopIfTrue="1">
       <formula>AND($M50="O",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="212" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="305" stopIfTrue="1">
       <formula>AND($M50="R",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="213" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="306" stopIfTrue="1">
       <formula>AND($M50=1,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="214" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="307" stopIfTrue="1">
       <formula>AND($M50=2,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="215" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="308" stopIfTrue="1">
       <formula>AND($M50=3,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="216" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="309" stopIfTrue="1">
       <formula>AND($M50=4,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="217" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="310" stopIfTrue="1">
       <formula>AND($M50=5,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="218" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="311" stopIfTrue="1">
       <formula>AND($M50=6,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="219" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="312" stopIfTrue="1">
       <formula>AND($M50=7,$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="220" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="313" stopIfTrue="1">
       <formula>AND($M50="M",$P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="314" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N50&lt;1,$P50&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="222" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="315" stopIfTrue="1">
       <formula>AND($P50&lt;=W$6,$Q50&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="223">
+    <cfRule type="expression" dxfId="198" priority="316">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="224">
+    <cfRule type="expression" dxfId="197" priority="317">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="112" priority="188" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="196" priority="281" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="189">
+    <cfRule type="dataBar" priority="282">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36545,20 +38077,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:U50 L50 I50">
-    <cfRule type="expression" dxfId="111" priority="187">
+    <cfRule type="expression" dxfId="195" priority="280">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:Q50">
-    <cfRule type="expression" dxfId="110" priority="186">
+    <cfRule type="expression" dxfId="194" priority="279">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="109" priority="184" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="193" priority="277" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="185">
+    <cfRule type="dataBar" priority="278">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36572,20 +38104,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50 L50 T50:U50">
-    <cfRule type="expression" dxfId="108" priority="183">
+    <cfRule type="expression" dxfId="192" priority="276">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:Q50">
-    <cfRule type="expression" dxfId="107" priority="182">
+    <cfRule type="expression" dxfId="191" priority="275">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="106" priority="180" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="190" priority="273" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="181">
+    <cfRule type="dataBar" priority="274">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36599,17 +38131,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:U50 L50 I50">
-    <cfRule type="expression" dxfId="105" priority="179">
+    <cfRule type="expression" dxfId="189" priority="272">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:Q50">
-    <cfRule type="expression" dxfId="104" priority="178">
+    <cfRule type="expression" dxfId="188" priority="271">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50">
-    <cfRule type="iconSet" priority="177">
+    <cfRule type="iconSet" priority="270">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -36619,10 +38151,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="103" priority="175" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="187" priority="268" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="269">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36636,20 +38168,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50:U50 L50 I50">
-    <cfRule type="expression" dxfId="102" priority="174">
+    <cfRule type="expression" dxfId="186" priority="267">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:Q50">
-    <cfRule type="expression" dxfId="101" priority="173">
+    <cfRule type="expression" dxfId="185" priority="266">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="100" priority="171" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="184" priority="264" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="172">
+    <cfRule type="dataBar" priority="265">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36663,20 +38195,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50 L50 T50:U50">
-    <cfRule type="expression" dxfId="99" priority="170">
+    <cfRule type="expression" dxfId="183" priority="263">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:Q50">
-    <cfRule type="expression" dxfId="98" priority="169">
+    <cfRule type="expression" dxfId="182" priority="262">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="97" priority="81" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="181" priority="174" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="82">
+    <cfRule type="dataBar" priority="175">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36690,117 +38222,117 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:U51 L51 I51 P51:Q51">
-    <cfRule type="expression" dxfId="96" priority="78">
+    <cfRule type="expression" dxfId="180" priority="171">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51">
-    <cfRule type="expression" dxfId="95" priority="83">
+    <cfRule type="expression" dxfId="179" priority="176">
       <formula>AND($Q$10="Yes",Q51&lt;$C$10,N51&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="84">
+    <cfRule type="expression" dxfId="178" priority="177">
       <formula>AND($Q$10="Yes",Q51&lt;=$C$10+enddate_highlight_days,N51&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="93" priority="85">
+    <cfRule type="expression" dxfId="177" priority="178">
       <formula>$A51=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="86">
+    <cfRule type="expression" dxfId="176" priority="179">
       <formula>$A51=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="87">
+    <cfRule type="expression" dxfId="175" priority="180">
       <formula>$A51=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="88">
+    <cfRule type="expression" dxfId="174" priority="181">
       <formula>$A51=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="89">
+    <cfRule type="expression" dxfId="173" priority="182">
       <formula>$A51=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="90">
+    <cfRule type="expression" dxfId="172" priority="183">
       <formula>$A51=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51:ED51">
-    <cfRule type="expression" dxfId="87" priority="79">
+    <cfRule type="expression" dxfId="171" priority="172">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="80">
+    <cfRule type="expression" dxfId="170" priority="173">
       <formula>AND($U$4="Yes",$U51&gt;=W$5,$T51&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="91">
+    <cfRule type="expression" dxfId="169" priority="184">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M51&lt;&gt;"M",$U51&gt;=W$5,$T51&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="92">
+    <cfRule type="expression" dxfId="168" priority="185">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P51&lt;=W$6,ROUNDDOWN(($Q51-$P51+1)*$N51,0)+$P51-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="186" stopIfTrue="1">
       <formula>AND(OR($M51="b",$M51=""),$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="187" stopIfTrue="1">
       <formula>AND($M51="K",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="188" stopIfTrue="1">
       <formula>AND($M51="x",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="189" stopIfTrue="1">
       <formula>AND($M51="G",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="190" stopIfTrue="1">
       <formula>AND($M51="P",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="191" stopIfTrue="1">
       <formula>AND($M51="Y",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="192" stopIfTrue="1">
       <formula>AND($M51="O",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="193" stopIfTrue="1">
       <formula>AND($M51="R",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="194" stopIfTrue="1">
       <formula>AND($M51=1,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="195" stopIfTrue="1">
       <formula>AND($M51=2,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="196" stopIfTrue="1">
       <formula>AND($M51=3,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="197" stopIfTrue="1">
       <formula>AND($M51=4,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="198" stopIfTrue="1">
       <formula>AND($M51=5,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="199" stopIfTrue="1">
       <formula>AND($M51=6,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="200" stopIfTrue="1">
       <formula>AND($M51=7,$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="201" stopIfTrue="1">
       <formula>AND($M51="M",$P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="202" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N51&lt;1,$P51&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="203" stopIfTrue="1">
       <formula>AND($P51&lt;=W$6,$Q51&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="111">
+    <cfRule type="expression" dxfId="149" priority="204">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="112">
+    <cfRule type="expression" dxfId="148" priority="205">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="63" priority="76" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="147" priority="169" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="77">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36814,20 +38346,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:U51 L51 I51">
-    <cfRule type="expression" dxfId="62" priority="75">
+    <cfRule type="expression" dxfId="146" priority="168">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:Q51">
-    <cfRule type="expression" dxfId="61" priority="74">
+    <cfRule type="expression" dxfId="145" priority="167">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="60" priority="72" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="144" priority="165" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36841,20 +38373,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51 L51 T51:U51">
-    <cfRule type="expression" dxfId="59" priority="71">
+    <cfRule type="expression" dxfId="143" priority="164">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:Q51">
-    <cfRule type="expression" dxfId="58" priority="70">
+    <cfRule type="expression" dxfId="142" priority="163">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="57" priority="68" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="141" priority="161" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="162">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36868,17 +38400,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:U51 L51 I51">
-    <cfRule type="expression" dxfId="56" priority="67">
+    <cfRule type="expression" dxfId="140" priority="160">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:Q51">
-    <cfRule type="expression" dxfId="55" priority="66">
+    <cfRule type="expression" dxfId="139" priority="159">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51">
-    <cfRule type="iconSet" priority="65">
+    <cfRule type="iconSet" priority="158">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -36888,10 +38420,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="54" priority="63" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="138" priority="156" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36905,20 +38437,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51:U51 L51 I51">
-    <cfRule type="expression" dxfId="53" priority="62">
+    <cfRule type="expression" dxfId="137" priority="155">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:Q51">
-    <cfRule type="expression" dxfId="52" priority="61">
+    <cfRule type="expression" dxfId="136" priority="154">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="51" priority="59" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="135" priority="152" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="60">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36932,20 +38464,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51 L51 T51:U51">
-    <cfRule type="expression" dxfId="50" priority="58">
+    <cfRule type="expression" dxfId="134" priority="151">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:Q51">
-    <cfRule type="expression" dxfId="49" priority="57">
+    <cfRule type="expression" dxfId="133" priority="150">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="132" priority="118" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -36959,117 +38491,117 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T52:U52 L52 I52 P52:Q52">
-    <cfRule type="expression" dxfId="47" priority="22">
+    <cfRule type="expression" dxfId="131" priority="115">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q52">
-    <cfRule type="expression" dxfId="46" priority="27">
+    <cfRule type="expression" dxfId="130" priority="120">
       <formula>AND($Q$10="Yes",Q52&lt;$C$10,N52&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="28">
+    <cfRule type="expression" dxfId="129" priority="121">
       <formula>AND($Q$10="Yes",Q52&lt;=$C$10+enddate_highlight_days,N52&lt;1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="44" priority="29">
+    <cfRule type="expression" dxfId="128" priority="122">
       <formula>$A52=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="30">
+    <cfRule type="expression" dxfId="127" priority="123">
       <formula>$A52=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="31">
+    <cfRule type="expression" dxfId="126" priority="124">
       <formula>$A52=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="32">
+    <cfRule type="expression" dxfId="125" priority="125">
       <formula>$A52=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="33">
+    <cfRule type="expression" dxfId="124" priority="126">
       <formula>$A52=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="34">
+    <cfRule type="expression" dxfId="123" priority="127">
       <formula>$A52=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W52:ED52">
-    <cfRule type="expression" dxfId="38" priority="23">
+    <cfRule type="expression" dxfId="122" priority="116">
       <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="24">
+    <cfRule type="expression" dxfId="121" priority="117">
       <formula>AND($U$4="Yes",$U52&gt;=W$5,$T52&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="35">
+    <cfRule type="expression" dxfId="120" priority="128">
       <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M52&lt;&gt;"M",$U52&gt;=W$5,$T52&lt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="119" priority="129">
       <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P52&lt;=W$6,ROUNDDOWN(($Q52-$P52+1)*$N52,0)+$P52-1&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="130" stopIfTrue="1">
       <formula>AND(OR($M52="b",$M52=""),$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="131" stopIfTrue="1">
       <formula>AND($M52="K",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="132" stopIfTrue="1">
       <formula>AND($M52="x",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="133" stopIfTrue="1">
       <formula>AND($M52="G",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="134" stopIfTrue="1">
       <formula>AND($M52="P",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="135" stopIfTrue="1">
       <formula>AND($M52="Y",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="136" stopIfTrue="1">
       <formula>AND($M52="O",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="137" stopIfTrue="1">
       <formula>AND($M52="R",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="138" stopIfTrue="1">
       <formula>AND($M52=1,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="139" stopIfTrue="1">
       <formula>AND($M52=2,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="140" stopIfTrue="1">
       <formula>AND($M52=3,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="141" stopIfTrue="1">
       <formula>AND($M52=4,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="142" stopIfTrue="1">
       <formula>AND($M52=5,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="143" stopIfTrue="1">
       <formula>AND($M52=6,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="144" stopIfTrue="1">
       <formula>AND($M52=7,$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="145" stopIfTrue="1">
       <formula>AND($M52="M",$P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="146" stopIfTrue="1">
       <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N52&lt;1,$P52&lt;X$5,$C$10&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="147" stopIfTrue="1">
       <formula>AND($P52&lt;=W$6,$Q52&gt;=W$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="55">
+    <cfRule type="expression" dxfId="100" priority="148">
       <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="56">
+    <cfRule type="expression" dxfId="99" priority="149">
       <formula>W$8=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="98" priority="113" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -37083,20 +38615,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T52:U52 L52 I52">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="97" priority="112">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52:Q52">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="96" priority="111">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="95" priority="109" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -37110,20 +38642,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52 L52 T52:U52">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="94" priority="108">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52:Q52">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="93" priority="107">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="92" priority="105" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -37137,17 +38669,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T52:U52 L52 I52">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="91" priority="104">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52:Q52">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="90" priority="103">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O52">
-    <cfRule type="iconSet" priority="9">
+    <cfRule type="iconSet" priority="102">
       <iconSet iconSet="4RedToBlack" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="INDEX(priorities,6)"/>
@@ -37157,10 +38689,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="89" priority="100" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="101">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -37174,20 +38706,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T52:U52 L52 I52">
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="88" priority="99">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52:Q52">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="87" priority="98">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="86" priority="96" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -37201,11 +38733,419 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52 L52 T52:U52">
+    <cfRule type="expression" dxfId="85" priority="95">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52:Q52">
+    <cfRule type="expression" dxfId="84" priority="94">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W53:ED53">
+    <cfRule type="expression" dxfId="83" priority="70">
+      <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="71">
+      <formula>AND($U$4="Yes",$U53&gt;=W$5,$T53&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="81" priority="72">
+      <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M53&lt;&gt;"M",$U53&gt;=W$5,$T53&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="73">
+      <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P53&lt;=W$6,ROUNDDOWN(($Q53-$P53+1)*$N53,0)+$P53-1&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="74" stopIfTrue="1">
+      <formula>AND(OR($M53="b",$M53=""),$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="75" stopIfTrue="1">
+      <formula>AND($M53="K",$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="77" priority="76" stopIfTrue="1">
+      <formula>AND($M53="x",$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="77" stopIfTrue="1">
+      <formula>AND($M53="G",$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="78" stopIfTrue="1">
+      <formula>AND($M53="P",$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="79" stopIfTrue="1">
+      <formula>AND($M53="Y",$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="80" stopIfTrue="1">
+      <formula>AND($M53="O",$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="81" stopIfTrue="1">
+      <formula>AND($M53="R",$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="82" stopIfTrue="1">
+      <formula>AND($M53=1,$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="83" stopIfTrue="1">
+      <formula>AND($M53=2,$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="84" stopIfTrue="1">
+      <formula>AND($M53=3,$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="85" stopIfTrue="1">
+      <formula>AND($M53=4,$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="86" stopIfTrue="1">
+      <formula>AND($M53=5,$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="87" stopIfTrue="1">
+      <formula>AND($M53=6,$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="65" priority="88" stopIfTrue="1">
+      <formula>AND($M53=7,$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="89" stopIfTrue="1">
+      <formula>AND($M53="M",$P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="63" priority="90" stopIfTrue="1">
+      <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N53&lt;1,$P53&lt;X$5,$C$10&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="91" stopIfTrue="1">
+      <formula>AND($P53&lt;=W$6,$Q53&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="92">
+      <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="93">
+      <formula>W$8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q53">
+    <cfRule type="expression" dxfId="59" priority="61">
+      <formula>AND($Q$10="Yes",Q53&lt;$C$10,N53&lt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="62">
+      <formula>AND($Q$10="Yes",Q53&lt;=$C$10+enddate_highlight_days,N53&lt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>$A53=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>$A53=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="55" priority="65">
+      <formula>$A53=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="66">
+      <formula>$A53=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="67">
+      <formula>$A53=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="68">
+      <formula>$A53=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53">
+    <cfRule type="cellIs" dxfId="51" priority="59" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="60">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{06A266BB-3C9E-46CB-A015-8C71D804C29A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53 L53 T53:U53">
+    <cfRule type="expression" dxfId="50" priority="58">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P53:Q53">
+    <cfRule type="expression" dxfId="49" priority="57">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O53">
+    <cfRule type="iconSet" priority="69">
+      <iconSet iconSet="4RedToBlack" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="INDEX(priorities,6)"/>
+        <cfvo type="num" val="INDEX(priorities,5)"/>
+        <cfvo type="num" val="INDEX(priorities,4)"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54">
+    <cfRule type="cellIs" dxfId="48" priority="25" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{33A55EAB-FFB3-48AD-BEA6-EEBA76622BB0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T54:U54 L54 I54 P54:Q54">
+    <cfRule type="expression" dxfId="47" priority="22">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q54">
+    <cfRule type="expression" dxfId="46" priority="27">
+      <formula>AND($Q$10="Yes",Q54&lt;$C$10,N54&lt;1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="28">
+      <formula>AND($Q$10="Yes",Q54&lt;=$C$10+enddate_highlight_days,N54&lt;1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="expression" dxfId="44" priority="29">
+      <formula>$A54=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="30">
+      <formula>$A54=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="31">
+      <formula>$A54=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="32">
+      <formula>$A54=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="33">
+      <formula>$A54=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="34">
+      <formula>$A54=2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W54:ED54">
+    <cfRule type="expression" dxfId="38" priority="23">
+      <formula>AND(W$5&lt;=$C$10,$C$10&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="24">
+      <formula>AND($U$4="Yes",$U54&gt;=W$5,$T54&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="35">
+      <formula>AND($U$4="Yes",NOT(ISBLANK($U$9)),$M54&lt;&gt;"M",$U54&gt;=W$5,$T54&lt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>AND($Q$4="Daily",show_percent_complete="Yes",$P54&lt;=W$6,ROUNDDOWN(($Q54-$P54+1)*$N54,0)+$P54-1&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="37" stopIfTrue="1">
+      <formula>AND(OR($M54="b",$M54=""),$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="38" stopIfTrue="1">
+      <formula>AND($M54="K",$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="39" stopIfTrue="1">
+      <formula>AND($M54="x",$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="40" stopIfTrue="1">
+      <formula>AND($M54="G",$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="41" stopIfTrue="1">
+      <formula>AND($M54="P",$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="42" stopIfTrue="1">
+      <formula>AND($M54="Y",$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="43" stopIfTrue="1">
+      <formula>AND($M54="O",$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="44" stopIfTrue="1">
+      <formula>AND($M54="R",$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="45" stopIfTrue="1">
+      <formula>AND($M54=1,$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
+      <formula>AND($M54=2,$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="47" stopIfTrue="1">
+      <formula>AND($M54=3,$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="48" stopIfTrue="1">
+      <formula>AND($M54=4,$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="49" stopIfTrue="1">
+      <formula>AND($M54=5,$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="50" stopIfTrue="1">
+      <formula>AND($M54=6,$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="51" stopIfTrue="1">
+      <formula>AND($M54=7,$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="52" stopIfTrue="1">
+      <formula>AND($M54="M",$P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="53" stopIfTrue="1">
+      <formula>AND($Q$10="Yes",show_overdue_in_chart="Yes",$N54&lt;1,$P54&lt;X$5,$C$10&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="54" stopIfTrue="1">
+      <formula>AND($P54&lt;=W$6,$Q54&gt;=W$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="55">
+      <formula>IF($Q$4&lt;&gt;"Weekly",MOD(COLUMN()-COLUMN($W$5),IF($Q$4="Daily",7,MONTH(W$5)=1))=0,FALSE)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="56">
+      <formula>W$8=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54">
+    <cfRule type="cellIs" dxfId="14" priority="20" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17B56EBD-00B4-4BDE-8AB4-861FFC809A32}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T54:U54 L54 I54">
+    <cfRule type="expression" dxfId="13" priority="19">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P54:Q54">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54">
+    <cfRule type="cellIs" dxfId="11" priority="16" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17181FA6-24E9-424A-9E96-3A48361898BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54 L54 T54:U54">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P54:Q54">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54">
+    <cfRule type="cellIs" dxfId="8" priority="12" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D0D2535A-B4A3-405A-B0FA-987BAFE91AEC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T54:U54 L54 I54">
+    <cfRule type="expression" dxfId="7" priority="11">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P54:Q54">
+    <cfRule type="expression" dxfId="6" priority="10">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O54">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="4RedToBlack" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="INDEX(priorities,6)"/>
+        <cfvo type="num" val="INDEX(priorities,5)"/>
+        <cfvo type="num" val="INDEX(priorities,4)"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C165A09D-AB3C-42E2-B23F-358C758B82A9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T54:U54 L54 I54">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P54:Q54">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>(dateformat="dmy")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="1" tint="0.499984740745262"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DFDA6E59-7C8E-46ED-BAB4-662216893F1D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I54 L54 T54:U54">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P52:Q52">
+  <conditionalFormatting sqref="P54:Q54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>(dateformat="dmy")</formula>
     </cfRule>
@@ -37255,16 +39195,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Today's Date" prompt="This date is marked as a vertical red line in the Gantt chart (via conditional formatting). You can either enter this date manually, or use the formula =TODAY()." sqref="B10" xr:uid="{439AA69D-8A78-4A9C-A2C5-4D1FEF58D433}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Display Planned Dates in Chart?" prompt="Choose whether to display the planned schedule in the Gantt Chart." sqref="T4" xr:uid="{59F8FC1E-0D8B-4C3A-9991-16CC0D43EFD1}"/>
     <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="Fill Pattern for Planned Dates" prompt="If you do not see a cross-hatch fill pattern in this cell, then the version of Excel you are using does not permit cross-hatch fill patterns. If that is the case, enter an &quot;X&quot; in this cell to see the Planned Schedule using an alternate method." sqref="U9" xr:uid="{57063E04-57F4-4AD4-8D99-DD55B3CA0B5A}"/>
-    <dataValidation type="list" allowBlank="1" sqref="A13:A53" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="A13:A55" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O13:O54" xr:uid="{A9001512-E8B1-464E-A0FC-51681EB2AD74}">
+    <dataValidation type="list" allowBlank="1" sqref="O13:O56" xr:uid="{A9001512-E8B1-464E-A0FC-51681EB2AD74}">
       <formula1>priorities</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="M13:M54" xr:uid="{5279861F-A224-478B-8E13-251F4DC7615B}">
+    <dataValidation type="list" allowBlank="1" sqref="M13:M56" xr:uid="{5279861F-A224-478B-8E13-251F4DC7615B}">
       <formula1>"B,G,P,X,K,R,O,Y,1,2,3,4,5,6,M"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N13:N54" xr:uid="{135875D4-A982-47C5-A06F-509CFC011552}">
+    <dataValidation type="list" allowBlank="1" sqref="N13:N56" xr:uid="{135875D4-A982-47C5-A06F-509CFC011552}">
       <formula1>"100%,75%,67%,50%,34%,25%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -37320,7 +39260,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N13:N17 N54 N38 N47</xm:sqref>
+          <xm:sqref>N13:N17 N56 N38 N47</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{575147C1-79C4-46F6-A1E7-AA76F52D79E6}">
@@ -37380,7 +39320,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N53</xm:sqref>
+          <xm:sqref>N55</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F1DC103-D728-416F-BBDE-B01A2D94AA00}">
@@ -38312,6 +40252,111 @@
           </x14:cfRule>
           <xm:sqref>N52</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{06A266BB-3C9E-46CB-A015-8C71D804C29A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{33A55EAB-FFB3-48AD-BEA6-EEBA76622BB0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{17B56EBD-00B4-4BDE-8AB4-861FFC809A32}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{17181FA6-24E9-424A-9E96-3A48361898BA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D0D2535A-B4A3-405A-B0FA-987BAFE91AEC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C165A09D-AB3C-42E2-B23F-358C758B82A9}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DFDA6E59-7C8E-46ED-BAB4-662216893F1D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N54</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/stock_manager_gant_chart.xlsx
+++ b/stock_manager_gant_chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Stock_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E17EA9-0B90-4A7C-A8CE-B3D4A28C00BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186D7DAA-0E97-4150-ADB4-718BED6729D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10129,7 +10129,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$Q$9" horiz="1" max="100" min="1" page="0" val="37"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$Q$9" horiz="1" max="100" min="1" page="0" val="49"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10645,10 +10645,10 @@
   <dimension ref="A1:EE56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="5" ySplit="12" topLeftCell="F34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="12" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10897,451 +10897,451 @@
       </c>
       <c r="W5" s="153">
         <f>IF(Q4="Quarterly",DATE(YEAR(C4)+Q9-1,1,1),IF(Q4="Monthly",EDATE(DATE(YEAR(C4),MONTH(C4),1),Q9-1),C4-MOD(WEEKDAY(C4,1)-startday,7)+7*(Q9-1)))</f>
-        <v>44501</v>
+        <v>44585</v>
       </c>
       <c r="X5" s="153">
         <f t="shared" ref="X5:BC5" si="0">W6+1</f>
-        <v>44502</v>
+        <v>44586</v>
       </c>
       <c r="Y5" s="153">
         <f t="shared" si="0"/>
-        <v>44503</v>
+        <v>44587</v>
       </c>
       <c r="Z5" s="153">
         <f t="shared" si="0"/>
-        <v>44504</v>
+        <v>44588</v>
       </c>
       <c r="AA5" s="153">
         <f t="shared" si="0"/>
-        <v>44505</v>
+        <v>44589</v>
       </c>
       <c r="AB5" s="153">
         <f t="shared" si="0"/>
-        <v>44506</v>
+        <v>44590</v>
       </c>
       <c r="AC5" s="153">
         <f t="shared" si="0"/>
-        <v>44507</v>
+        <v>44591</v>
       </c>
       <c r="AD5" s="153">
         <f t="shared" si="0"/>
-        <v>44508</v>
+        <v>44592</v>
       </c>
       <c r="AE5" s="153">
         <f t="shared" si="0"/>
-        <v>44509</v>
+        <v>44593</v>
       </c>
       <c r="AF5" s="153">
         <f t="shared" si="0"/>
-        <v>44510</v>
+        <v>44594</v>
       </c>
       <c r="AG5" s="153">
         <f t="shared" si="0"/>
-        <v>44511</v>
+        <v>44595</v>
       </c>
       <c r="AH5" s="153">
         <f t="shared" si="0"/>
-        <v>44512</v>
+        <v>44596</v>
       </c>
       <c r="AI5" s="153">
         <f t="shared" si="0"/>
-        <v>44513</v>
+        <v>44597</v>
       </c>
       <c r="AJ5" s="153">
         <f t="shared" si="0"/>
-        <v>44514</v>
+        <v>44598</v>
       </c>
       <c r="AK5" s="153">
         <f t="shared" si="0"/>
-        <v>44515</v>
+        <v>44599</v>
       </c>
       <c r="AL5" s="153">
         <f t="shared" si="0"/>
-        <v>44516</v>
+        <v>44600</v>
       </c>
       <c r="AM5" s="153">
         <f t="shared" si="0"/>
-        <v>44517</v>
+        <v>44601</v>
       </c>
       <c r="AN5" s="153">
         <f t="shared" si="0"/>
-        <v>44518</v>
+        <v>44602</v>
       </c>
       <c r="AO5" s="153">
         <f t="shared" si="0"/>
-        <v>44519</v>
+        <v>44603</v>
       </c>
       <c r="AP5" s="153">
         <f t="shared" si="0"/>
-        <v>44520</v>
+        <v>44604</v>
       </c>
       <c r="AQ5" s="153">
         <f t="shared" si="0"/>
-        <v>44521</v>
+        <v>44605</v>
       </c>
       <c r="AR5" s="153">
         <f t="shared" si="0"/>
-        <v>44522</v>
+        <v>44606</v>
       </c>
       <c r="AS5" s="153">
         <f t="shared" si="0"/>
-        <v>44523</v>
+        <v>44607</v>
       </c>
       <c r="AT5" s="153">
         <f t="shared" si="0"/>
-        <v>44524</v>
+        <v>44608</v>
       </c>
       <c r="AU5" s="153">
         <f t="shared" si="0"/>
-        <v>44525</v>
+        <v>44609</v>
       </c>
       <c r="AV5" s="153">
         <f t="shared" si="0"/>
-        <v>44526</v>
+        <v>44610</v>
       </c>
       <c r="AW5" s="153">
         <f t="shared" si="0"/>
-        <v>44527</v>
+        <v>44611</v>
       </c>
       <c r="AX5" s="153">
         <f t="shared" si="0"/>
-        <v>44528</v>
+        <v>44612</v>
       </c>
       <c r="AY5" s="153">
         <f t="shared" si="0"/>
-        <v>44529</v>
+        <v>44613</v>
       </c>
       <c r="AZ5" s="153">
         <f t="shared" si="0"/>
-        <v>44530</v>
+        <v>44614</v>
       </c>
       <c r="BA5" s="153">
         <f t="shared" si="0"/>
-        <v>44531</v>
+        <v>44615</v>
       </c>
       <c r="BB5" s="153">
         <f t="shared" si="0"/>
-        <v>44532</v>
+        <v>44616</v>
       </c>
       <c r="BC5" s="153">
         <f t="shared" si="0"/>
-        <v>44533</v>
+        <v>44617</v>
       </c>
       <c r="BD5" s="153">
         <f t="shared" ref="BD5:BZ5" si="1">BC6+1</f>
-        <v>44534</v>
+        <v>44618</v>
       </c>
       <c r="BE5" s="153">
         <f t="shared" si="1"/>
-        <v>44535</v>
+        <v>44619</v>
       </c>
       <c r="BF5" s="153">
         <f t="shared" si="1"/>
-        <v>44536</v>
+        <v>44620</v>
       </c>
       <c r="BG5" s="153">
         <f t="shared" si="1"/>
-        <v>44537</v>
+        <v>44621</v>
       </c>
       <c r="BH5" s="153">
         <f t="shared" si="1"/>
-        <v>44538</v>
+        <v>44622</v>
       </c>
       <c r="BI5" s="153">
         <f t="shared" si="1"/>
-        <v>44539</v>
+        <v>44623</v>
       </c>
       <c r="BJ5" s="153">
         <f t="shared" si="1"/>
-        <v>44540</v>
+        <v>44624</v>
       </c>
       <c r="BK5" s="153">
         <f t="shared" si="1"/>
-        <v>44541</v>
+        <v>44625</v>
       </c>
       <c r="BL5" s="153">
         <f t="shared" si="1"/>
-        <v>44542</v>
+        <v>44626</v>
       </c>
       <c r="BM5" s="153">
         <f t="shared" si="1"/>
-        <v>44543</v>
+        <v>44627</v>
       </c>
       <c r="BN5" s="153">
         <f t="shared" si="1"/>
-        <v>44544</v>
+        <v>44628</v>
       </c>
       <c r="BO5" s="153">
         <f t="shared" si="1"/>
-        <v>44545</v>
+        <v>44629</v>
       </c>
       <c r="BP5" s="153">
         <f t="shared" si="1"/>
-        <v>44546</v>
+        <v>44630</v>
       </c>
       <c r="BQ5" s="153">
         <f t="shared" si="1"/>
-        <v>44547</v>
+        <v>44631</v>
       </c>
       <c r="BR5" s="153">
         <f t="shared" si="1"/>
-        <v>44548</v>
+        <v>44632</v>
       </c>
       <c r="BS5" s="153">
         <f t="shared" si="1"/>
-        <v>44549</v>
+        <v>44633</v>
       </c>
       <c r="BT5" s="153">
         <f>BS6+1</f>
-        <v>44550</v>
+        <v>44634</v>
       </c>
       <c r="BU5" s="153">
         <f t="shared" si="1"/>
-        <v>44551</v>
+        <v>44635</v>
       </c>
       <c r="BV5" s="153">
         <f t="shared" si="1"/>
-        <v>44552</v>
+        <v>44636</v>
       </c>
       <c r="BW5" s="153">
         <f t="shared" si="1"/>
-        <v>44553</v>
+        <v>44637</v>
       </c>
       <c r="BX5" s="153">
         <f t="shared" si="1"/>
-        <v>44554</v>
+        <v>44638</v>
       </c>
       <c r="BY5" s="153">
         <f t="shared" si="1"/>
-        <v>44555</v>
+        <v>44639</v>
       </c>
       <c r="BZ5" s="153">
         <f t="shared" si="1"/>
-        <v>44556</v>
+        <v>44640</v>
       </c>
       <c r="CA5" s="153">
         <f t="shared" ref="CA5:DF5" si="2">BZ6+1</f>
-        <v>44557</v>
+        <v>44641</v>
       </c>
       <c r="CB5" s="153">
         <f t="shared" si="2"/>
-        <v>44558</v>
+        <v>44642</v>
       </c>
       <c r="CC5" s="153">
         <f t="shared" si="2"/>
-        <v>44559</v>
+        <v>44643</v>
       </c>
       <c r="CD5" s="153">
         <f t="shared" si="2"/>
-        <v>44560</v>
+        <v>44644</v>
       </c>
       <c r="CE5" s="153">
         <f t="shared" si="2"/>
-        <v>44561</v>
+        <v>44645</v>
       </c>
       <c r="CF5" s="153">
         <f t="shared" si="2"/>
-        <v>44562</v>
+        <v>44646</v>
       </c>
       <c r="CG5" s="153">
         <f t="shared" si="2"/>
-        <v>44563</v>
+        <v>44647</v>
       </c>
       <c r="CH5" s="153">
         <f t="shared" si="2"/>
-        <v>44564</v>
+        <v>44648</v>
       </c>
       <c r="CI5" s="153">
         <f t="shared" si="2"/>
-        <v>44565</v>
+        <v>44649</v>
       </c>
       <c r="CJ5" s="153">
         <f t="shared" si="2"/>
-        <v>44566</v>
+        <v>44650</v>
       </c>
       <c r="CK5" s="153">
         <f t="shared" si="2"/>
-        <v>44567</v>
+        <v>44651</v>
       </c>
       <c r="CL5" s="153">
         <f t="shared" si="2"/>
-        <v>44568</v>
+        <v>44652</v>
       </c>
       <c r="CM5" s="153">
         <f t="shared" si="2"/>
-        <v>44569</v>
+        <v>44653</v>
       </c>
       <c r="CN5" s="153">
         <f t="shared" si="2"/>
-        <v>44570</v>
+        <v>44654</v>
       </c>
       <c r="CO5" s="153">
         <f t="shared" si="2"/>
-        <v>44571</v>
+        <v>44655</v>
       </c>
       <c r="CP5" s="153">
         <f t="shared" si="2"/>
-        <v>44572</v>
+        <v>44656</v>
       </c>
       <c r="CQ5" s="153">
         <f t="shared" si="2"/>
-        <v>44573</v>
+        <v>44657</v>
       </c>
       <c r="CR5" s="153">
         <f t="shared" si="2"/>
-        <v>44574</v>
+        <v>44658</v>
       </c>
       <c r="CS5" s="153">
         <f t="shared" si="2"/>
-        <v>44575</v>
+        <v>44659</v>
       </c>
       <c r="CT5" s="153">
         <f t="shared" si="2"/>
-        <v>44576</v>
+        <v>44660</v>
       </c>
       <c r="CU5" s="153">
         <f t="shared" si="2"/>
-        <v>44577</v>
+        <v>44661</v>
       </c>
       <c r="CV5" s="153">
         <f t="shared" si="2"/>
-        <v>44578</v>
+        <v>44662</v>
       </c>
       <c r="CW5" s="153">
         <f t="shared" si="2"/>
-        <v>44579</v>
+        <v>44663</v>
       </c>
       <c r="CX5" s="153">
         <f t="shared" si="2"/>
-        <v>44580</v>
+        <v>44664</v>
       </c>
       <c r="CY5" s="153">
         <f t="shared" si="2"/>
-        <v>44581</v>
+        <v>44665</v>
       </c>
       <c r="CZ5" s="153">
         <f t="shared" si="2"/>
-        <v>44582</v>
+        <v>44666</v>
       </c>
       <c r="DA5" s="153">
         <f t="shared" si="2"/>
-        <v>44583</v>
+        <v>44667</v>
       </c>
       <c r="DB5" s="153">
         <f t="shared" si="2"/>
-        <v>44584</v>
+        <v>44668</v>
       </c>
       <c r="DC5" s="153">
         <f t="shared" si="2"/>
-        <v>44585</v>
+        <v>44669</v>
       </c>
       <c r="DD5" s="153">
         <f t="shared" si="2"/>
-        <v>44586</v>
+        <v>44670</v>
       </c>
       <c r="DE5" s="153">
         <f t="shared" si="2"/>
-        <v>44587</v>
+        <v>44671</v>
       </c>
       <c r="DF5" s="153">
         <f t="shared" si="2"/>
-        <v>44588</v>
+        <v>44672</v>
       </c>
       <c r="DG5" s="153">
         <f t="shared" ref="DG5:ED5" si="3">DF6+1</f>
-        <v>44589</v>
+        <v>44673</v>
       </c>
       <c r="DH5" s="153">
         <f t="shared" si="3"/>
-        <v>44590</v>
+        <v>44674</v>
       </c>
       <c r="DI5" s="153">
         <f t="shared" si="3"/>
-        <v>44591</v>
+        <v>44675</v>
       </c>
       <c r="DJ5" s="153">
         <f t="shared" si="3"/>
-        <v>44592</v>
+        <v>44676</v>
       </c>
       <c r="DK5" s="153">
         <f t="shared" si="3"/>
-        <v>44593</v>
+        <v>44677</v>
       </c>
       <c r="DL5" s="153">
         <f t="shared" si="3"/>
-        <v>44594</v>
+        <v>44678</v>
       </c>
       <c r="DM5" s="153">
         <f t="shared" si="3"/>
-        <v>44595</v>
+        <v>44679</v>
       </c>
       <c r="DN5" s="153">
         <f t="shared" si="3"/>
-        <v>44596</v>
+        <v>44680</v>
       </c>
       <c r="DO5" s="153">
         <f t="shared" si="3"/>
-        <v>44597</v>
+        <v>44681</v>
       </c>
       <c r="DP5" s="153">
         <f t="shared" si="3"/>
-        <v>44598</v>
+        <v>44682</v>
       </c>
       <c r="DQ5" s="153">
         <f t="shared" si="3"/>
-        <v>44599</v>
+        <v>44683</v>
       </c>
       <c r="DR5" s="153">
         <f t="shared" si="3"/>
-        <v>44600</v>
+        <v>44684</v>
       </c>
       <c r="DS5" s="153">
         <f t="shared" si="3"/>
-        <v>44601</v>
+        <v>44685</v>
       </c>
       <c r="DT5" s="153">
         <f t="shared" si="3"/>
-        <v>44602</v>
+        <v>44686</v>
       </c>
       <c r="DU5" s="153">
         <f t="shared" si="3"/>
-        <v>44603</v>
+        <v>44687</v>
       </c>
       <c r="DV5" s="153">
         <f t="shared" si="3"/>
-        <v>44604</v>
+        <v>44688</v>
       </c>
       <c r="DW5" s="153">
         <f t="shared" si="3"/>
-        <v>44605</v>
+        <v>44689</v>
       </c>
       <c r="DX5" s="153">
         <f t="shared" si="3"/>
-        <v>44606</v>
+        <v>44690</v>
       </c>
       <c r="DY5" s="153">
         <f t="shared" si="3"/>
-        <v>44607</v>
+        <v>44691</v>
       </c>
       <c r="DZ5" s="153">
         <f t="shared" si="3"/>
-        <v>44608</v>
+        <v>44692</v>
       </c>
       <c r="EA5" s="153">
         <f t="shared" si="3"/>
-        <v>44609</v>
+        <v>44693</v>
       </c>
       <c r="EB5" s="153">
         <f t="shared" si="3"/>
-        <v>44610</v>
+        <v>44694</v>
       </c>
       <c r="EC5" s="153">
         <f t="shared" si="3"/>
-        <v>44611</v>
+        <v>44695</v>
       </c>
       <c r="ED5" s="153">
         <f t="shared" si="3"/>
-        <v>44612</v>
+        <v>44696</v>
       </c>
     </row>
     <row r="6" spans="1:135" s="149" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11352,451 +11352,451 @@
       </c>
       <c r="W6" s="153">
         <f t="shared" ref="W6:BB6" si="4">IF($Q$4="Monthly",EDATE(W5,1),IF($Q$4="Daily",W5+1,IF($Q$4="Quarterly",EDATE(W5,3),W5+7)))-1</f>
-        <v>44501</v>
+        <v>44585</v>
       </c>
       <c r="X6" s="153">
         <f t="shared" si="4"/>
-        <v>44502</v>
+        <v>44586</v>
       </c>
       <c r="Y6" s="153">
         <f t="shared" si="4"/>
-        <v>44503</v>
+        <v>44587</v>
       </c>
       <c r="Z6" s="153">
         <f t="shared" si="4"/>
-        <v>44504</v>
+        <v>44588</v>
       </c>
       <c r="AA6" s="153">
         <f t="shared" si="4"/>
-        <v>44505</v>
+        <v>44589</v>
       </c>
       <c r="AB6" s="153">
         <f t="shared" si="4"/>
-        <v>44506</v>
+        <v>44590</v>
       </c>
       <c r="AC6" s="153">
         <f t="shared" si="4"/>
-        <v>44507</v>
+        <v>44591</v>
       </c>
       <c r="AD6" s="153">
         <f t="shared" si="4"/>
-        <v>44508</v>
+        <v>44592</v>
       </c>
       <c r="AE6" s="153">
         <f t="shared" si="4"/>
-        <v>44509</v>
+        <v>44593</v>
       </c>
       <c r="AF6" s="153">
         <f t="shared" si="4"/>
-        <v>44510</v>
+        <v>44594</v>
       </c>
       <c r="AG6" s="153">
         <f t="shared" si="4"/>
-        <v>44511</v>
+        <v>44595</v>
       </c>
       <c r="AH6" s="153">
         <f t="shared" si="4"/>
-        <v>44512</v>
+        <v>44596</v>
       </c>
       <c r="AI6" s="153">
         <f t="shared" si="4"/>
-        <v>44513</v>
+        <v>44597</v>
       </c>
       <c r="AJ6" s="153">
         <f t="shared" si="4"/>
-        <v>44514</v>
+        <v>44598</v>
       </c>
       <c r="AK6" s="153">
         <f t="shared" si="4"/>
-        <v>44515</v>
+        <v>44599</v>
       </c>
       <c r="AL6" s="153">
         <f t="shared" si="4"/>
-        <v>44516</v>
+        <v>44600</v>
       </c>
       <c r="AM6" s="153">
         <f t="shared" si="4"/>
-        <v>44517</v>
+        <v>44601</v>
       </c>
       <c r="AN6" s="153">
         <f t="shared" si="4"/>
-        <v>44518</v>
+        <v>44602</v>
       </c>
       <c r="AO6" s="153">
         <f t="shared" si="4"/>
-        <v>44519</v>
+        <v>44603</v>
       </c>
       <c r="AP6" s="153">
         <f t="shared" si="4"/>
-        <v>44520</v>
+        <v>44604</v>
       </c>
       <c r="AQ6" s="153">
         <f t="shared" si="4"/>
-        <v>44521</v>
+        <v>44605</v>
       </c>
       <c r="AR6" s="153">
         <f t="shared" si="4"/>
-        <v>44522</v>
+        <v>44606</v>
       </c>
       <c r="AS6" s="153">
         <f t="shared" si="4"/>
-        <v>44523</v>
+        <v>44607</v>
       </c>
       <c r="AT6" s="153">
         <f t="shared" si="4"/>
-        <v>44524</v>
+        <v>44608</v>
       </c>
       <c r="AU6" s="153">
         <f t="shared" si="4"/>
-        <v>44525</v>
+        <v>44609</v>
       </c>
       <c r="AV6" s="153">
         <f t="shared" si="4"/>
-        <v>44526</v>
+        <v>44610</v>
       </c>
       <c r="AW6" s="153">
         <f t="shared" si="4"/>
-        <v>44527</v>
+        <v>44611</v>
       </c>
       <c r="AX6" s="153">
         <f t="shared" si="4"/>
-        <v>44528</v>
+        <v>44612</v>
       </c>
       <c r="AY6" s="153">
         <f t="shared" si="4"/>
-        <v>44529</v>
+        <v>44613</v>
       </c>
       <c r="AZ6" s="153">
         <f t="shared" si="4"/>
-        <v>44530</v>
+        <v>44614</v>
       </c>
       <c r="BA6" s="153">
         <f t="shared" si="4"/>
-        <v>44531</v>
+        <v>44615</v>
       </c>
       <c r="BB6" s="153">
         <f t="shared" si="4"/>
-        <v>44532</v>
+        <v>44616</v>
       </c>
       <c r="BC6" s="153">
         <f t="shared" ref="BC6:BZ6" si="5">IF($Q$4="Monthly",EDATE(BC5,1),IF($Q$4="Daily",BC5+1,IF($Q$4="Quarterly",EDATE(BC5,3),BC5+7)))-1</f>
-        <v>44533</v>
+        <v>44617</v>
       </c>
       <c r="BD6" s="153">
         <f t="shared" si="5"/>
-        <v>44534</v>
+        <v>44618</v>
       </c>
       <c r="BE6" s="153">
         <f t="shared" si="5"/>
-        <v>44535</v>
+        <v>44619</v>
       </c>
       <c r="BF6" s="153">
         <f t="shared" si="5"/>
-        <v>44536</v>
+        <v>44620</v>
       </c>
       <c r="BG6" s="153">
         <f t="shared" si="5"/>
-        <v>44537</v>
+        <v>44621</v>
       </c>
       <c r="BH6" s="153">
         <f t="shared" si="5"/>
-        <v>44538</v>
+        <v>44622</v>
       </c>
       <c r="BI6" s="153">
         <f t="shared" si="5"/>
-        <v>44539</v>
+        <v>44623</v>
       </c>
       <c r="BJ6" s="153">
         <f t="shared" si="5"/>
-        <v>44540</v>
+        <v>44624</v>
       </c>
       <c r="BK6" s="153">
         <f t="shared" si="5"/>
-        <v>44541</v>
+        <v>44625</v>
       </c>
       <c r="BL6" s="153">
         <f t="shared" si="5"/>
-        <v>44542</v>
+        <v>44626</v>
       </c>
       <c r="BM6" s="153">
         <f t="shared" si="5"/>
-        <v>44543</v>
+        <v>44627</v>
       </c>
       <c r="BN6" s="153">
         <f t="shared" si="5"/>
-        <v>44544</v>
+        <v>44628</v>
       </c>
       <c r="BO6" s="153">
         <f t="shared" si="5"/>
-        <v>44545</v>
+        <v>44629</v>
       </c>
       <c r="BP6" s="153">
         <f t="shared" si="5"/>
-        <v>44546</v>
+        <v>44630</v>
       </c>
       <c r="BQ6" s="153">
         <f t="shared" si="5"/>
-        <v>44547</v>
+        <v>44631</v>
       </c>
       <c r="BR6" s="153">
         <f t="shared" si="5"/>
-        <v>44548</v>
+        <v>44632</v>
       </c>
       <c r="BS6" s="153">
         <f t="shared" si="5"/>
-        <v>44549</v>
+        <v>44633</v>
       </c>
       <c r="BT6" s="153">
         <f t="shared" si="5"/>
-        <v>44550</v>
+        <v>44634</v>
       </c>
       <c r="BU6" s="153">
         <f t="shared" si="5"/>
-        <v>44551</v>
+        <v>44635</v>
       </c>
       <c r="BV6" s="153">
         <f t="shared" si="5"/>
-        <v>44552</v>
+        <v>44636</v>
       </c>
       <c r="BW6" s="153">
         <f t="shared" si="5"/>
-        <v>44553</v>
+        <v>44637</v>
       </c>
       <c r="BX6" s="153">
         <f t="shared" si="5"/>
-        <v>44554</v>
+        <v>44638</v>
       </c>
       <c r="BY6" s="153">
         <f t="shared" si="5"/>
-        <v>44555</v>
+        <v>44639</v>
       </c>
       <c r="BZ6" s="153">
         <f t="shared" si="5"/>
-        <v>44556</v>
+        <v>44640</v>
       </c>
       <c r="CA6" s="153">
         <f t="shared" ref="CA6:CG6" si="6">IF($Q$4="Monthly",EDATE(CA5,1),IF($Q$4="Daily",CA5+1,IF($Q$4="Quarterly",EDATE(CA5,3),CA5+7)))-1</f>
-        <v>44557</v>
+        <v>44641</v>
       </c>
       <c r="CB6" s="153">
         <f t="shared" si="6"/>
-        <v>44558</v>
+        <v>44642</v>
       </c>
       <c r="CC6" s="153">
         <f t="shared" si="6"/>
-        <v>44559</v>
+        <v>44643</v>
       </c>
       <c r="CD6" s="153">
         <f t="shared" si="6"/>
-        <v>44560</v>
+        <v>44644</v>
       </c>
       <c r="CE6" s="153">
         <f t="shared" si="6"/>
-        <v>44561</v>
+        <v>44645</v>
       </c>
       <c r="CF6" s="153">
         <f t="shared" si="6"/>
-        <v>44562</v>
+        <v>44646</v>
       </c>
       <c r="CG6" s="153">
         <f t="shared" si="6"/>
-        <v>44563</v>
+        <v>44647</v>
       </c>
       <c r="CH6" s="153">
         <f t="shared" ref="CH6:CN6" si="7">IF($Q$4="Monthly",EDATE(CH5,1),IF($Q$4="Daily",CH5+1,IF($Q$4="Quarterly",EDATE(CH5,3),CH5+7)))-1</f>
-        <v>44564</v>
+        <v>44648</v>
       </c>
       <c r="CI6" s="153">
         <f t="shared" si="7"/>
-        <v>44565</v>
+        <v>44649</v>
       </c>
       <c r="CJ6" s="153">
         <f t="shared" si="7"/>
-        <v>44566</v>
+        <v>44650</v>
       </c>
       <c r="CK6" s="153">
         <f t="shared" si="7"/>
-        <v>44567</v>
+        <v>44651</v>
       </c>
       <c r="CL6" s="153">
         <f t="shared" si="7"/>
-        <v>44568</v>
+        <v>44652</v>
       </c>
       <c r="CM6" s="153">
         <f t="shared" si="7"/>
-        <v>44569</v>
+        <v>44653</v>
       </c>
       <c r="CN6" s="153">
         <f t="shared" si="7"/>
-        <v>44570</v>
+        <v>44654</v>
       </c>
       <c r="CO6" s="153">
         <f t="shared" ref="CO6:DB6" si="8">IF($Q$4="Monthly",EDATE(CO5,1),IF($Q$4="Daily",CO5+1,IF($Q$4="Quarterly",EDATE(CO5,3),CO5+7)))-1</f>
-        <v>44571</v>
+        <v>44655</v>
       </c>
       <c r="CP6" s="153">
         <f t="shared" si="8"/>
-        <v>44572</v>
+        <v>44656</v>
       </c>
       <c r="CQ6" s="153">
         <f t="shared" si="8"/>
-        <v>44573</v>
+        <v>44657</v>
       </c>
       <c r="CR6" s="153">
         <f t="shared" si="8"/>
-        <v>44574</v>
+        <v>44658</v>
       </c>
       <c r="CS6" s="153">
         <f t="shared" si="8"/>
-        <v>44575</v>
+        <v>44659</v>
       </c>
       <c r="CT6" s="153">
         <f t="shared" si="8"/>
-        <v>44576</v>
+        <v>44660</v>
       </c>
       <c r="CU6" s="153">
         <f t="shared" si="8"/>
-        <v>44577</v>
+        <v>44661</v>
       </c>
       <c r="CV6" s="153">
         <f t="shared" si="8"/>
-        <v>44578</v>
+        <v>44662</v>
       </c>
       <c r="CW6" s="153">
         <f t="shared" si="8"/>
-        <v>44579</v>
+        <v>44663</v>
       </c>
       <c r="CX6" s="153">
         <f t="shared" si="8"/>
-        <v>44580</v>
+        <v>44664</v>
       </c>
       <c r="CY6" s="153">
         <f t="shared" si="8"/>
-        <v>44581</v>
+        <v>44665</v>
       </c>
       <c r="CZ6" s="153">
         <f t="shared" si="8"/>
-        <v>44582</v>
+        <v>44666</v>
       </c>
       <c r="DA6" s="153">
         <f t="shared" si="8"/>
-        <v>44583</v>
+        <v>44667</v>
       </c>
       <c r="DB6" s="153">
         <f t="shared" si="8"/>
-        <v>44584</v>
+        <v>44668</v>
       </c>
       <c r="DC6" s="153">
         <f t="shared" ref="DC6:DP6" si="9">IF($Q$4="Monthly",EDATE(DC5,1),IF($Q$4="Daily",DC5+1,IF($Q$4="Quarterly",EDATE(DC5,3),DC5+7)))-1</f>
-        <v>44585</v>
+        <v>44669</v>
       </c>
       <c r="DD6" s="153">
         <f t="shared" si="9"/>
-        <v>44586</v>
+        <v>44670</v>
       </c>
       <c r="DE6" s="153">
         <f t="shared" si="9"/>
-        <v>44587</v>
+        <v>44671</v>
       </c>
       <c r="DF6" s="153">
         <f t="shared" si="9"/>
-        <v>44588</v>
+        <v>44672</v>
       </c>
       <c r="DG6" s="153">
         <f t="shared" si="9"/>
-        <v>44589</v>
+        <v>44673</v>
       </c>
       <c r="DH6" s="153">
         <f t="shared" si="9"/>
-        <v>44590</v>
+        <v>44674</v>
       </c>
       <c r="DI6" s="153">
         <f t="shared" si="9"/>
-        <v>44591</v>
+        <v>44675</v>
       </c>
       <c r="DJ6" s="153">
         <f t="shared" si="9"/>
-        <v>44592</v>
+        <v>44676</v>
       </c>
       <c r="DK6" s="153">
         <f t="shared" si="9"/>
-        <v>44593</v>
+        <v>44677</v>
       </c>
       <c r="DL6" s="153">
         <f t="shared" si="9"/>
-        <v>44594</v>
+        <v>44678</v>
       </c>
       <c r="DM6" s="153">
         <f t="shared" si="9"/>
-        <v>44595</v>
+        <v>44679</v>
       </c>
       <c r="DN6" s="153">
         <f t="shared" si="9"/>
-        <v>44596</v>
+        <v>44680</v>
       </c>
       <c r="DO6" s="153">
         <f t="shared" si="9"/>
-        <v>44597</v>
+        <v>44681</v>
       </c>
       <c r="DP6" s="153">
         <f t="shared" si="9"/>
-        <v>44598</v>
+        <v>44682</v>
       </c>
       <c r="DQ6" s="153">
         <f t="shared" ref="DQ6:ED6" si="10">IF($Q$4="Monthly",EDATE(DQ5,1),IF($Q$4="Daily",DQ5+1,IF($Q$4="Quarterly",EDATE(DQ5,3),DQ5+7)))-1</f>
-        <v>44599</v>
+        <v>44683</v>
       </c>
       <c r="DR6" s="153">
         <f t="shared" si="10"/>
-        <v>44600</v>
+        <v>44684</v>
       </c>
       <c r="DS6" s="153">
         <f t="shared" si="10"/>
-        <v>44601</v>
+        <v>44685</v>
       </c>
       <c r="DT6" s="153">
         <f t="shared" si="10"/>
-        <v>44602</v>
+        <v>44686</v>
       </c>
       <c r="DU6" s="153">
         <f t="shared" si="10"/>
-        <v>44603</v>
+        <v>44687</v>
       </c>
       <c r="DV6" s="153">
         <f t="shared" si="10"/>
-        <v>44604</v>
+        <v>44688</v>
       </c>
       <c r="DW6" s="153">
         <f t="shared" si="10"/>
-        <v>44605</v>
+        <v>44689</v>
       </c>
       <c r="DX6" s="153">
         <f t="shared" si="10"/>
-        <v>44606</v>
+        <v>44690</v>
       </c>
       <c r="DY6" s="153">
         <f t="shared" si="10"/>
-        <v>44607</v>
+        <v>44691</v>
       </c>
       <c r="DZ6" s="153">
         <f t="shared" si="10"/>
-        <v>44608</v>
+        <v>44692</v>
       </c>
       <c r="EA6" s="153">
         <f t="shared" si="10"/>
-        <v>44609</v>
+        <v>44693</v>
       </c>
       <c r="EB6" s="153">
         <f t="shared" si="10"/>
-        <v>44610</v>
+        <v>44694</v>
       </c>
       <c r="EC6" s="153">
         <f t="shared" si="10"/>
-        <v>44611</v>
+        <v>44695</v>
       </c>
       <c r="ED6" s="153">
         <f t="shared" si="10"/>
-        <v>44612</v>
+        <v>44696</v>
       </c>
     </row>
     <row r="7" spans="1:135" s="149" customFormat="1" ht="12" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -11847,7 +11847,7 @@
       </c>
       <c r="AG7" s="151">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="151">
         <f t="shared" si="11"/>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="AU7" s="151">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV7" s="151">
         <f t="shared" si="11"/>
@@ -11919,7 +11919,7 @@
       </c>
       <c r="AY7" s="151">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7" s="151">
         <f t="shared" si="11"/>
@@ -12023,11 +12023,11 @@
       </c>
       <c r="BY7" s="151">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="151">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA7" s="151">
         <f t="shared" ref="CA7:CG7" si="13">IF($Q$4="Daily",1*(NOT(ISERROR(MATCH(CA5,holidays,0)))),0)</f>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="CF7" s="151">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG7" s="151">
         <f t="shared" si="13"/>
@@ -12115,7 +12115,7 @@
       </c>
       <c r="CV7" s="151">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW7" s="151">
         <f t="shared" si="15"/>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="CZ7" s="151">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA7" s="151">
         <f t="shared" si="15"/>
@@ -12143,7 +12143,7 @@
       </c>
       <c r="DC7" s="151">
         <f t="shared" ref="DC7:DP7" si="16">IF($Q$4="Daily",1*(NOT(ISERROR(MATCH(DC5,holidays,0)))),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD7" s="151">
         <f t="shared" si="16"/>
@@ -12199,7 +12199,7 @@
       </c>
       <c r="DQ7" s="151">
         <f t="shared" ref="DQ7:ED7" si="17">IF($Q$4="Daily",1*(NOT(ISERROR(MATCH(DQ5,holidays,0)))),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR7" s="151">
         <f t="shared" si="17"/>
@@ -12302,7 +12302,7 @@
       </c>
       <c r="AG8" s="151">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="151">
         <f t="shared" si="18"/>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="AU8" s="151">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8" s="151">
         <f t="shared" si="18"/>
@@ -12374,7 +12374,7 @@
       </c>
       <c r="AY8" s="151">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8" s="151">
         <f t="shared" si="18"/>
@@ -12570,7 +12570,7 @@
       </c>
       <c r="CV8" s="151">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW8" s="151">
         <f t="shared" si="22"/>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="CZ8" s="151">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA8" s="151">
         <f t="shared" si="22"/>
@@ -12598,7 +12598,7 @@
       </c>
       <c r="DC8" s="151">
         <f t="shared" ref="DC8:DP8" si="23">IF($Q$4="Daily",1*(NETWORKDAYS.INTL(DC5,DC5,weekend,holidays)=0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD8" s="151">
         <f t="shared" si="23"/>
@@ -12654,7 +12654,7 @@
       </c>
       <c r="DQ8" s="151">
         <f t="shared" ref="DQ8:ED8" si="24">IF($Q$4="Daily",1*(NETWORKDAYS.INTL(DQ5,DQ5,weekend,holidays)=0),0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DR8" s="151">
         <f t="shared" si="24"/>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="C9" s="168">
         <f>MAX(Q11:Q56)</f>
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="D9" s="146"/>
       <c r="E9" s="146"/>
@@ -12735,7 +12735,7 @@
         <v>Week:</v>
       </c>
       <c r="Q9" s="197">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="R9" s="146"/>
       <c r="S9" s="146"/>
@@ -12746,7 +12746,7 @@
       <c r="V9" s="146"/>
       <c r="W9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(W5,21),((W5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(AC5,21),((W5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(W5,21),(W5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 37</v>
+        <v>Week 49</v>
       </c>
       <c r="X9" s="205"/>
       <c r="Y9" s="205"/>
@@ -12756,7 +12756,7 @@
       <c r="AC9" s="205"/>
       <c r="AD9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(AD5,21),((AD5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(AJ5,21),((AD5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(AD5,21),(AD5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 38</v>
+        <v>Week 50</v>
       </c>
       <c r="AE9" s="205"/>
       <c r="AF9" s="205"/>
@@ -12766,7 +12766,7 @@
       <c r="AJ9" s="205"/>
       <c r="AK9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(AK5,21),((AK5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(AQ5,21),((AK5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(AK5,21),(AK5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 39</v>
+        <v>Week 51</v>
       </c>
       <c r="AL9" s="205"/>
       <c r="AM9" s="205"/>
@@ -12776,7 +12776,7 @@
       <c r="AQ9" s="205"/>
       <c r="AR9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(AR5,21),((AR5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(AX5,21),((AR5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(AR5,21),(AR5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 40</v>
+        <v>Week 52</v>
       </c>
       <c r="AS9" s="205"/>
       <c r="AT9" s="205"/>
@@ -12786,7 +12786,7 @@
       <c r="AX9" s="205"/>
       <c r="AY9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(AY5,21),((AY5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(BE5,21),((AY5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(AY5,21),(AY5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 41</v>
+        <v>Week 53</v>
       </c>
       <c r="AZ9" s="205"/>
       <c r="BA9" s="205"/>
@@ -12796,7 +12796,7 @@
       <c r="BE9" s="205"/>
       <c r="BF9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(BF5,21),((BF5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(BL5,21),((BF5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(BF5,21),(BF5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 42</v>
+        <v>Week 54</v>
       </c>
       <c r="BG9" s="205"/>
       <c r="BH9" s="205"/>
@@ -12806,7 +12806,7 @@
       <c r="BL9" s="205"/>
       <c r="BM9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(BM5,21),((BM5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(BS5,21),((BM5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(BM5,21),(BM5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 43</v>
+        <v>Week 55</v>
       </c>
       <c r="BN9" s="205"/>
       <c r="BO9" s="205"/>
@@ -12816,7 +12816,7 @@
       <c r="BS9" s="205"/>
       <c r="BT9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(BT5,21),((BT5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(BZ5,21),((BT5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(BT5,21),(BT5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 44</v>
+        <v>Week 56</v>
       </c>
       <c r="BU9" s="205"/>
       <c r="BV9" s="205"/>
@@ -12826,7 +12826,7 @@
       <c r="BZ9" s="205"/>
       <c r="CA9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(CA5,21),((CA5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(CG5,21),((CA5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(CA5,21),(CA5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 45</v>
+        <v>Week 57</v>
       </c>
       <c r="CB9" s="205"/>
       <c r="CC9" s="205"/>
@@ -12836,7 +12836,7 @@
       <c r="CG9" s="205"/>
       <c r="CH9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(CH5,21),((CH5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(CN5,21),((CH5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(CH5,21),(CH5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 46</v>
+        <v>Week 58</v>
       </c>
       <c r="CI9" s="205"/>
       <c r="CJ9" s="205"/>
@@ -12846,7 +12846,7 @@
       <c r="CN9" s="205"/>
       <c r="CO9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(CO5,21),((CO5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(CU5,21),((CO5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(CO5,21),(CO5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 47</v>
+        <v>Week 59</v>
       </c>
       <c r="CP9" s="205"/>
       <c r="CQ9" s="205"/>
@@ -12856,7 +12856,7 @@
       <c r="CU9" s="205"/>
       <c r="CV9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(CV5,21),((CV5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(DB5,21),((CV5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(CV5,21),(CV5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 48</v>
+        <v>Week 60</v>
       </c>
       <c r="CW9" s="205"/>
       <c r="CX9" s="205"/>
@@ -12866,7 +12866,7 @@
       <c r="DB9" s="205"/>
       <c r="DC9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(DC5,21),((DC5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(DI5,21),((DC5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(DC5,21),(DC5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 49</v>
+        <v>Week 61</v>
       </c>
       <c r="DD9" s="205"/>
       <c r="DE9" s="205"/>
@@ -12876,7 +12876,7 @@
       <c r="DI9" s="205"/>
       <c r="DJ9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(DJ5,21),((DJ5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(DP5,21),((DJ5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(DJ5,21),(DJ5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 50</v>
+        <v>Week 62</v>
       </c>
       <c r="DK9" s="205"/>
       <c r="DL9" s="205"/>
@@ -12886,7 +12886,7 @@
       <c r="DP9" s="205"/>
       <c r="DQ9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(DQ5,21),((DQ5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(DW5,21),((DQ5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(DQ5,21),(DQ5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 51</v>
+        <v>Week 63</v>
       </c>
       <c r="DR9" s="205"/>
       <c r="DS9" s="205"/>
@@ -12896,7 +12896,7 @@
       <c r="DW9" s="205"/>
       <c r="DX9" s="205" t="str">
         <f>IF($Q$4="Weekly","Weeks "&amp;IF(weeknumbering="ISO",WEEKNUM(DX5,21),((DX5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1))&amp;"-"&amp;IF(weeknumbering="ISO",WEEKNUM(ED5,21),((DX5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+7)),IF($Q$4="Daily","Week "&amp;IF(weeknumbering="ISO",WEEKNUM(DX5,21),(DX5-($C$4-MOD(WEEKDAY($C$4,1)-startday,7)))/7+1),""))</f>
-        <v>Week 52</v>
+        <v>Week 64</v>
       </c>
       <c r="DY9" s="205"/>
       <c r="DZ9" s="205"/>
@@ -12943,7 +12943,7 @@
       <c r="V10" s="146"/>
       <c r="W10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(W5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(AC5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",W5))</f>
-        <v>44501</v>
+        <v>44585</v>
       </c>
       <c r="X10" s="206"/>
       <c r="Y10" s="206"/>
@@ -12953,7 +12953,7 @@
       <c r="AC10" s="206"/>
       <c r="AD10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(AD5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(AJ5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",AD5))</f>
-        <v>44508</v>
+        <v>44592</v>
       </c>
       <c r="AE10" s="206"/>
       <c r="AF10" s="206"/>
@@ -12963,7 +12963,7 @@
       <c r="AJ10" s="206"/>
       <c r="AK10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(AK5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(AQ5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",AK5))</f>
-        <v>44515</v>
+        <v>44599</v>
       </c>
       <c r="AL10" s="206"/>
       <c r="AM10" s="206"/>
@@ -12973,7 +12973,7 @@
       <c r="AQ10" s="206"/>
       <c r="AR10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(AR5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(AX5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",AR5))</f>
-        <v>44522</v>
+        <v>44606</v>
       </c>
       <c r="AS10" s="206"/>
       <c r="AT10" s="206"/>
@@ -12983,7 +12983,7 @@
       <c r="AX10" s="206"/>
       <c r="AY10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(AY5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(BE5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",AY5))</f>
-        <v>44529</v>
+        <v>44613</v>
       </c>
       <c r="AZ10" s="206"/>
       <c r="BA10" s="206"/>
@@ -12993,7 +12993,7 @@
       <c r="BE10" s="206"/>
       <c r="BF10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(BF5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(BL5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",BF5))</f>
-        <v>44536</v>
+        <v>44620</v>
       </c>
       <c r="BG10" s="206"/>
       <c r="BH10" s="206"/>
@@ -13003,7 +13003,7 @@
       <c r="BL10" s="206"/>
       <c r="BM10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(BM5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(BS5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",BM5))</f>
-        <v>44543</v>
+        <v>44627</v>
       </c>
       <c r="BN10" s="206"/>
       <c r="BO10" s="206"/>
@@ -13013,7 +13013,7 @@
       <c r="BS10" s="206"/>
       <c r="BT10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(BT5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(BZ5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",BT5))</f>
-        <v>44550</v>
+        <v>44634</v>
       </c>
       <c r="BU10" s="206"/>
       <c r="BV10" s="206"/>
@@ -13023,7 +13023,7 @@
       <c r="BZ10" s="206"/>
       <c r="CA10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(CA5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(CG5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",CA5))</f>
-        <v>44557</v>
+        <v>44641</v>
       </c>
       <c r="CB10" s="206"/>
       <c r="CC10" s="206"/>
@@ -13033,7 +13033,7 @@
       <c r="CG10" s="206"/>
       <c r="CH10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(CH5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(CN5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",CH5))</f>
-        <v>44564</v>
+        <v>44648</v>
       </c>
       <c r="CI10" s="206"/>
       <c r="CJ10" s="206"/>
@@ -13043,7 +13043,7 @@
       <c r="CN10" s="206"/>
       <c r="CO10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(CO5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(CU5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",CO5))</f>
-        <v>44571</v>
+        <v>44655</v>
       </c>
       <c r="CP10" s="206"/>
       <c r="CQ10" s="206"/>
@@ -13053,7 +13053,7 @@
       <c r="CU10" s="206"/>
       <c r="CV10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(CV5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(DB5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",CV5))</f>
-        <v>44578</v>
+        <v>44662</v>
       </c>
       <c r="CW10" s="206"/>
       <c r="CX10" s="206"/>
@@ -13063,7 +13063,7 @@
       <c r="DB10" s="206"/>
       <c r="DC10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(DC5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(DI5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",DC5))</f>
-        <v>44585</v>
+        <v>44669</v>
       </c>
       <c r="DD10" s="206"/>
       <c r="DE10" s="206"/>
@@ -13073,7 +13073,7 @@
       <c r="DI10" s="206"/>
       <c r="DJ10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(DJ5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(DP5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",DJ5))</f>
-        <v>44592</v>
+        <v>44676</v>
       </c>
       <c r="DK10" s="206"/>
       <c r="DL10" s="206"/>
@@ -13083,7 +13083,7 @@
       <c r="DP10" s="206"/>
       <c r="DQ10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(DQ5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(DW5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",DQ5))</f>
-        <v>44599</v>
+        <v>44683</v>
       </c>
       <c r="DR10" s="206"/>
       <c r="DS10" s="206"/>
@@ -13093,7 +13093,7 @@
       <c r="DW10" s="206"/>
       <c r="DX10" s="206">
         <f>IF(OR($Q$4="Monthly",$Q$4="Weekly"),TEXT(DX5,"[$-409]mmm YYYY")&amp;" - "&amp;TEXT(ED5,"[$-409]mmm YYYY"),IF($Q$4="Quarterly","",DX5))</f>
-        <v>44606</v>
+        <v>44690</v>
       </c>
       <c r="DY10" s="206"/>
       <c r="DZ10" s="206"/>
@@ -13165,451 +13165,451 @@
       <c r="V11" s="188"/>
       <c r="W11" s="193">
         <f t="shared" ref="W11:BB11" si="25">IF($Q$4="Daily",W5,IF($Q$4="Weekly",CHOOSE(MONTH(W5),"Ja","F","Mr","Ap","M","Ju","Jy","Au","S","O","N","D"),IF($Q$4="Quarterly",TEXT(W5,"yy"),"")))</f>
-        <v>44501</v>
+        <v>44585</v>
       </c>
       <c r="X11" s="193">
         <f t="shared" si="25"/>
-        <v>44502</v>
+        <v>44586</v>
       </c>
       <c r="Y11" s="193">
         <f t="shared" si="25"/>
-        <v>44503</v>
+        <v>44587</v>
       </c>
       <c r="Z11" s="193">
         <f t="shared" si="25"/>
-        <v>44504</v>
+        <v>44588</v>
       </c>
       <c r="AA11" s="193">
         <f t="shared" si="25"/>
-        <v>44505</v>
+        <v>44589</v>
       </c>
       <c r="AB11" s="193">
         <f t="shared" si="25"/>
-        <v>44506</v>
+        <v>44590</v>
       </c>
       <c r="AC11" s="193">
         <f t="shared" si="25"/>
-        <v>44507</v>
+        <v>44591</v>
       </c>
       <c r="AD11" s="193">
         <f t="shared" si="25"/>
-        <v>44508</v>
+        <v>44592</v>
       </c>
       <c r="AE11" s="193">
         <f t="shared" si="25"/>
-        <v>44509</v>
+        <v>44593</v>
       </c>
       <c r="AF11" s="193">
         <f t="shared" si="25"/>
-        <v>44510</v>
+        <v>44594</v>
       </c>
       <c r="AG11" s="193">
         <f t="shared" si="25"/>
-        <v>44511</v>
+        <v>44595</v>
       </c>
       <c r="AH11" s="193">
         <f t="shared" si="25"/>
-        <v>44512</v>
+        <v>44596</v>
       </c>
       <c r="AI11" s="193">
         <f t="shared" si="25"/>
-        <v>44513</v>
+        <v>44597</v>
       </c>
       <c r="AJ11" s="193">
         <f t="shared" si="25"/>
-        <v>44514</v>
+        <v>44598</v>
       </c>
       <c r="AK11" s="193">
         <f t="shared" si="25"/>
-        <v>44515</v>
+        <v>44599</v>
       </c>
       <c r="AL11" s="193">
         <f t="shared" si="25"/>
-        <v>44516</v>
+        <v>44600</v>
       </c>
       <c r="AM11" s="193">
         <f t="shared" si="25"/>
-        <v>44517</v>
+        <v>44601</v>
       </c>
       <c r="AN11" s="193">
         <f t="shared" si="25"/>
-        <v>44518</v>
+        <v>44602</v>
       </c>
       <c r="AO11" s="193">
         <f t="shared" si="25"/>
-        <v>44519</v>
+        <v>44603</v>
       </c>
       <c r="AP11" s="193">
         <f t="shared" si="25"/>
-        <v>44520</v>
+        <v>44604</v>
       </c>
       <c r="AQ11" s="193">
         <f t="shared" si="25"/>
-        <v>44521</v>
+        <v>44605</v>
       </c>
       <c r="AR11" s="193">
         <f t="shared" si="25"/>
-        <v>44522</v>
+        <v>44606</v>
       </c>
       <c r="AS11" s="193">
         <f t="shared" si="25"/>
-        <v>44523</v>
+        <v>44607</v>
       </c>
       <c r="AT11" s="193">
         <f t="shared" si="25"/>
-        <v>44524</v>
+        <v>44608</v>
       </c>
       <c r="AU11" s="193">
         <f t="shared" si="25"/>
-        <v>44525</v>
+        <v>44609</v>
       </c>
       <c r="AV11" s="193">
         <f t="shared" si="25"/>
-        <v>44526</v>
+        <v>44610</v>
       </c>
       <c r="AW11" s="193">
         <f t="shared" si="25"/>
-        <v>44527</v>
+        <v>44611</v>
       </c>
       <c r="AX11" s="193">
         <f t="shared" si="25"/>
-        <v>44528</v>
+        <v>44612</v>
       </c>
       <c r="AY11" s="193">
         <f t="shared" si="25"/>
-        <v>44529</v>
+        <v>44613</v>
       </c>
       <c r="AZ11" s="193">
         <f t="shared" si="25"/>
-        <v>44530</v>
+        <v>44614</v>
       </c>
       <c r="BA11" s="193">
         <f t="shared" si="25"/>
-        <v>44531</v>
+        <v>44615</v>
       </c>
       <c r="BB11" s="193">
         <f t="shared" si="25"/>
-        <v>44532</v>
+        <v>44616</v>
       </c>
       <c r="BC11" s="193">
         <f t="shared" ref="BC11:BZ11" si="26">IF($Q$4="Daily",BC5,IF($Q$4="Weekly",CHOOSE(MONTH(BC5),"Ja","F","Mr","Ap","M","Ju","Jy","Au","S","O","N","D"),IF($Q$4="Quarterly",TEXT(BC5,"yy"),"")))</f>
-        <v>44533</v>
+        <v>44617</v>
       </c>
       <c r="BD11" s="193">
         <f t="shared" si="26"/>
-        <v>44534</v>
+        <v>44618</v>
       </c>
       <c r="BE11" s="193">
         <f t="shared" si="26"/>
-        <v>44535</v>
+        <v>44619</v>
       </c>
       <c r="BF11" s="193">
         <f t="shared" si="26"/>
-        <v>44536</v>
+        <v>44620</v>
       </c>
       <c r="BG11" s="193">
         <f t="shared" si="26"/>
-        <v>44537</v>
+        <v>44621</v>
       </c>
       <c r="BH11" s="193">
         <f t="shared" si="26"/>
-        <v>44538</v>
+        <v>44622</v>
       </c>
       <c r="BI11" s="193">
         <f t="shared" si="26"/>
-        <v>44539</v>
+        <v>44623</v>
       </c>
       <c r="BJ11" s="193">
         <f t="shared" si="26"/>
-        <v>44540</v>
+        <v>44624</v>
       </c>
       <c r="BK11" s="193">
         <f t="shared" si="26"/>
-        <v>44541</v>
+        <v>44625</v>
       </c>
       <c r="BL11" s="193">
         <f t="shared" si="26"/>
-        <v>44542</v>
+        <v>44626</v>
       </c>
       <c r="BM11" s="193">
         <f t="shared" si="26"/>
-        <v>44543</v>
+        <v>44627</v>
       </c>
       <c r="BN11" s="193">
         <f t="shared" si="26"/>
-        <v>44544</v>
+        <v>44628</v>
       </c>
       <c r="BO11" s="193">
         <f t="shared" si="26"/>
-        <v>44545</v>
+        <v>44629</v>
       </c>
       <c r="BP11" s="193">
         <f t="shared" si="26"/>
-        <v>44546</v>
+        <v>44630</v>
       </c>
       <c r="BQ11" s="193">
         <f t="shared" si="26"/>
-        <v>44547</v>
+        <v>44631</v>
       </c>
       <c r="BR11" s="193">
         <f t="shared" si="26"/>
-        <v>44548</v>
+        <v>44632</v>
       </c>
       <c r="BS11" s="193">
         <f t="shared" si="26"/>
-        <v>44549</v>
+        <v>44633</v>
       </c>
       <c r="BT11" s="193">
         <f t="shared" si="26"/>
-        <v>44550</v>
+        <v>44634</v>
       </c>
       <c r="BU11" s="193">
         <f t="shared" si="26"/>
-        <v>44551</v>
+        <v>44635</v>
       </c>
       <c r="BV11" s="193">
         <f t="shared" si="26"/>
-        <v>44552</v>
+        <v>44636</v>
       </c>
       <c r="BW11" s="193">
         <f t="shared" si="26"/>
-        <v>44553</v>
+        <v>44637</v>
       </c>
       <c r="BX11" s="193">
         <f t="shared" si="26"/>
-        <v>44554</v>
+        <v>44638</v>
       </c>
       <c r="BY11" s="193">
         <f t="shared" si="26"/>
-        <v>44555</v>
+        <v>44639</v>
       </c>
       <c r="BZ11" s="193">
         <f t="shared" si="26"/>
-        <v>44556</v>
+        <v>44640</v>
       </c>
       <c r="CA11" s="193">
         <f t="shared" ref="CA11:CG11" si="27">IF($Q$4="Daily",CA5,IF($Q$4="Weekly",CHOOSE(MONTH(CA5),"Ja","F","Mr","Ap","M","Ju","Jy","Au","S","O","N","D"),IF($Q$4="Quarterly",TEXT(CA5,"yy"),"")))</f>
-        <v>44557</v>
+        <v>44641</v>
       </c>
       <c r="CB11" s="193">
         <f t="shared" si="27"/>
-        <v>44558</v>
+        <v>44642</v>
       </c>
       <c r="CC11" s="193">
         <f t="shared" si="27"/>
-        <v>44559</v>
+        <v>44643</v>
       </c>
       <c r="CD11" s="193">
         <f t="shared" si="27"/>
-        <v>44560</v>
+        <v>44644</v>
       </c>
       <c r="CE11" s="193">
         <f t="shared" si="27"/>
-        <v>44561</v>
+        <v>44645</v>
       </c>
       <c r="CF11" s="193">
         <f t="shared" si="27"/>
-        <v>44562</v>
+        <v>44646</v>
       </c>
       <c r="CG11" s="193">
         <f t="shared" si="27"/>
-        <v>44563</v>
+        <v>44647</v>
       </c>
       <c r="CH11" s="193">
         <f t="shared" ref="CH11:CN11" si="28">IF($Q$4="Daily",CH5,IF($Q$4="Weekly",CHOOSE(MONTH(CH5),"Ja","F","Mr","Ap","M","Ju","Jy","Au","S","O","N","D"),IF($Q$4="Quarterly",TEXT(CH5,"yy"),"")))</f>
-        <v>44564</v>
+        <v>44648</v>
       </c>
       <c r="CI11" s="193">
         <f t="shared" si="28"/>
-        <v>44565</v>
+        <v>44649</v>
       </c>
       <c r="CJ11" s="193">
         <f t="shared" si="28"/>
-        <v>44566</v>
+        <v>44650</v>
       </c>
       <c r="CK11" s="193">
         <f t="shared" si="28"/>
-        <v>44567</v>
+        <v>44651</v>
       </c>
       <c r="CL11" s="193">
         <f t="shared" si="28"/>
-        <v>44568</v>
+        <v>44652</v>
       </c>
       <c r="CM11" s="193">
         <f t="shared" si="28"/>
-        <v>44569</v>
+        <v>44653</v>
       </c>
       <c r="CN11" s="193">
         <f t="shared" si="28"/>
-        <v>44570</v>
+        <v>44654</v>
       </c>
       <c r="CO11" s="193">
         <f t="shared" ref="CO11:DB11" si="29">IF($Q$4="Daily",CO5,IF($Q$4="Weekly",CHOOSE(MONTH(CO5),"Ja","F","Mr","Ap","M","Ju","Jy","Au","S","O","N","D"),IF($Q$4="Quarterly",TEXT(CO5,"yy"),"")))</f>
-        <v>44571</v>
+        <v>44655</v>
       </c>
       <c r="CP11" s="193">
         <f t="shared" si="29"/>
-        <v>44572</v>
+        <v>44656</v>
       </c>
       <c r="CQ11" s="193">
         <f t="shared" si="29"/>
-        <v>44573</v>
+        <v>44657</v>
       </c>
       <c r="CR11" s="193">
         <f t="shared" si="29"/>
-        <v>44574</v>
+        <v>44658</v>
       </c>
       <c r="CS11" s="193">
         <f t="shared" si="29"/>
-        <v>44575</v>
+        <v>44659</v>
       </c>
       <c r="CT11" s="193">
         <f t="shared" si="29"/>
-        <v>44576</v>
+        <v>44660</v>
       </c>
       <c r="CU11" s="193">
         <f t="shared" si="29"/>
-        <v>44577</v>
+        <v>44661</v>
       </c>
       <c r="CV11" s="193">
         <f t="shared" si="29"/>
-        <v>44578</v>
+        <v>44662</v>
       </c>
       <c r="CW11" s="193">
         <f t="shared" si="29"/>
-        <v>44579</v>
+        <v>44663</v>
       </c>
       <c r="CX11" s="193">
         <f t="shared" si="29"/>
-        <v>44580</v>
+        <v>44664</v>
       </c>
       <c r="CY11" s="193">
         <f t="shared" si="29"/>
-        <v>44581</v>
+        <v>44665</v>
       </c>
       <c r="CZ11" s="193">
         <f t="shared" si="29"/>
-        <v>44582</v>
+        <v>44666</v>
       </c>
       <c r="DA11" s="193">
         <f t="shared" si="29"/>
-        <v>44583</v>
+        <v>44667</v>
       </c>
       <c r="DB11" s="193">
         <f t="shared" si="29"/>
-        <v>44584</v>
+        <v>44668</v>
       </c>
       <c r="DC11" s="193">
         <f t="shared" ref="DC11:DP11" si="30">IF($Q$4="Daily",DC5,IF($Q$4="Weekly",CHOOSE(MONTH(DC5),"Ja","F","Mr","Ap","M","Ju","Jy","Au","S","O","N","D"),IF($Q$4="Quarterly",TEXT(DC5,"yy"),"")))</f>
-        <v>44585</v>
+        <v>44669</v>
       </c>
       <c r="DD11" s="193">
         <f t="shared" si="30"/>
-        <v>44586</v>
+        <v>44670</v>
       </c>
       <c r="DE11" s="193">
         <f t="shared" si="30"/>
-        <v>44587</v>
+        <v>44671</v>
       </c>
       <c r="DF11" s="193">
         <f t="shared" si="30"/>
-        <v>44588</v>
+        <v>44672</v>
       </c>
       <c r="DG11" s="193">
         <f t="shared" si="30"/>
-        <v>44589</v>
+        <v>44673</v>
       </c>
       <c r="DH11" s="193">
         <f t="shared" si="30"/>
-        <v>44590</v>
+        <v>44674</v>
       </c>
       <c r="DI11" s="193">
         <f t="shared" si="30"/>
-        <v>44591</v>
+        <v>44675</v>
       </c>
       <c r="DJ11" s="193">
         <f t="shared" si="30"/>
-        <v>44592</v>
+        <v>44676</v>
       </c>
       <c r="DK11" s="193">
         <f t="shared" si="30"/>
-        <v>44593</v>
+        <v>44677</v>
       </c>
       <c r="DL11" s="193">
         <f t="shared" si="30"/>
-        <v>44594</v>
+        <v>44678</v>
       </c>
       <c r="DM11" s="193">
         <f t="shared" si="30"/>
-        <v>44595</v>
+        <v>44679</v>
       </c>
       <c r="DN11" s="193">
         <f t="shared" si="30"/>
-        <v>44596</v>
+        <v>44680</v>
       </c>
       <c r="DO11" s="193">
         <f t="shared" si="30"/>
-        <v>44597</v>
+        <v>44681</v>
       </c>
       <c r="DP11" s="193">
         <f t="shared" si="30"/>
-        <v>44598</v>
+        <v>44682</v>
       </c>
       <c r="DQ11" s="193">
         <f t="shared" ref="DQ11:ED11" si="31">IF($Q$4="Daily",DQ5,IF($Q$4="Weekly",CHOOSE(MONTH(DQ5),"Ja","F","Mr","Ap","M","Ju","Jy","Au","S","O","N","D"),IF($Q$4="Quarterly",TEXT(DQ5,"yy"),"")))</f>
-        <v>44599</v>
+        <v>44683</v>
       </c>
       <c r="DR11" s="193">
         <f t="shared" si="31"/>
-        <v>44600</v>
+        <v>44684</v>
       </c>
       <c r="DS11" s="193">
         <f t="shared" si="31"/>
-        <v>44601</v>
+        <v>44685</v>
       </c>
       <c r="DT11" s="193">
         <f t="shared" si="31"/>
-        <v>44602</v>
+        <v>44686</v>
       </c>
       <c r="DU11" s="193">
         <f t="shared" si="31"/>
-        <v>44603</v>
+        <v>44687</v>
       </c>
       <c r="DV11" s="193">
         <f t="shared" si="31"/>
-        <v>44604</v>
+        <v>44688</v>
       </c>
       <c r="DW11" s="193">
         <f t="shared" si="31"/>
-        <v>44605</v>
+        <v>44689</v>
       </c>
       <c r="DX11" s="193">
         <f t="shared" si="31"/>
-        <v>44606</v>
+        <v>44690</v>
       </c>
       <c r="DY11" s="193">
         <f t="shared" si="31"/>
-        <v>44607</v>
+        <v>44691</v>
       </c>
       <c r="DZ11" s="193">
         <f t="shared" si="31"/>
-        <v>44608</v>
+        <v>44692</v>
       </c>
       <c r="EA11" s="193">
         <f t="shared" si="31"/>
-        <v>44609</v>
+        <v>44693</v>
       </c>
       <c r="EB11" s="193">
         <f t="shared" si="31"/>
-        <v>44610</v>
+        <v>44694</v>
       </c>
       <c r="EC11" s="193">
         <f t="shared" si="31"/>
-        <v>44611</v>
+        <v>44695</v>
       </c>
       <c r="ED11" s="193">
         <f t="shared" si="31"/>
-        <v>44612</v>
+        <v>44696</v>
       </c>
       <c r="EE11" s="199"/>
     </row>
@@ -24079,7 +24079,7 @@
       </c>
       <c r="M33" s="185"/>
       <c r="N33" s="132">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="O33" s="172" t="s">
         <v>321</v>
@@ -33492,35 +33492,35 @@
       <c r="G54" s="129"/>
       <c r="H54" s="129"/>
       <c r="I54" s="180">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="J54" s="130"/>
       <c r="K54" s="131"/>
       <c r="L54" s="180">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="M54" s="185"/>
       <c r="N54" s="132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" s="172" t="s">
         <v>321</v>
       </c>
       <c r="P54" s="184">
         <f t="shared" ref="P54" si="140">IF(OR(I54&lt;&gt;"",F54&lt;&gt;""),MAX(I54,IF(F54&lt;&gt;"",WORKDAY.INTL(MAX(IFERROR(INDEX($Q$11:$Q$56,MATCH(F54,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(G54,$B$11:$B$56,0)),0),IFERROR(INDEX($Q$11:$Q$56,MATCH(H54,$B$11:$B$56,0)),0)),1,weekend,holidays),0)),IF(L54&lt;&gt;"",IF(K54&lt;&gt;"",L54-MAX(0,K54-1),WORKDAY.INTL(L54,-(MAX(J54,1)-1),weekend,holidays))," - "))</f>
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="Q54" s="184">
         <f t="shared" ref="Q54" si="141">IF(P54=" - "," - ",MAX(L54,IF(K54&lt;&gt;"",P54+MAX(0,K54-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P54,P54,weekend,holidays)=0,WORKDAY.INTL(P54,1,weekend,holidays),P54),MAX(0,J54-1),weekend,holidays))))</f>
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="R54" s="190">
         <f t="shared" ref="R54" si="142">IF(OR(NOT(ISNUMBER(P54)),NOT(ISNUMBER(Q54)))," - ",NETWORKDAYS.INTL(P54,Q54,weekend,holidays))</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S54" s="190">
         <f t="shared" ref="S54" si="143">IF(OR(NOT(ISNUMBER(P54)),NOT(ISNUMBER(Q54)))," - ",Q54-P54+1)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="T54" s="140"/>
       <c r="U54" s="140"/>
@@ -33976,10 +33976,10 @@
     </row>
     <row r="55" spans="1:134" s="124" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="189">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="C55" s="204" t="s">
         <v>387</v>
@@ -33987,17 +33987,17 @@
       <c r="D55" s="126"/>
       <c r="E55" s="127"/>
       <c r="F55" s="128">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="G55" s="129"/>
       <c r="H55" s="129"/>
       <c r="I55" s="180">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="J55" s="130"/>
       <c r="K55" s="131"/>
       <c r="L55" s="180">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="M55" s="185"/>
       <c r="N55" s="132">
@@ -34012,15 +34012,15 @@
       </c>
       <c r="Q55" s="184">
         <f t="shared" ref="Q55" si="144">IF(P55=" - "," - ",MAX(L55,IF(K55&lt;&gt;"",P55+MAX(0,K55-1),WORKDAY.INTL(IF(NETWORKDAYS.INTL(P55,P55,weekend,holidays)=0,WORKDAY.INTL(P55,1,weekend,holidays),P55),MAX(0,J55-1),weekend,holidays))))</f>
-        <v>44652</v>
+        <v>44681</v>
       </c>
       <c r="R55" s="190">
         <f t="shared" ref="R55" si="145">IF(OR(NOT(ISNUMBER(P55)),NOT(ISNUMBER(Q55)))," - ",NETWORKDAYS.INTL(P55,Q55,weekend,holidays))</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="S55" s="190">
         <f t="shared" ref="S55" si="146">IF(OR(NOT(ISNUMBER(P55)),NOT(ISNUMBER(Q55)))," - ",Q55-P55+1)</f>
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="T55" s="140"/>
       <c r="U55" s="140"/>
